--- a/data/csv/src/data_latest_sct.xlsx
+++ b/data/csv/src/data_latest_sct.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u207826\Objective\Objects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\scotland.gov.uk\dc2\FS5_Home\u204186\Gov.scot content\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5990" windowHeight="6010" tabRatio="803"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5985" windowHeight="6015" tabRatio="803"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -1414,21 +1414,21 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="90.453125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.453125" style="2"/>
+    <col min="2" max="2" width="29.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="90.42578125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
@@ -1444,13 +1444,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="23"/>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>26</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>27</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>36</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
         <v>37</v>
       </c>
@@ -1502,12 +1502,12 @@
       <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.453125" style="2"/>
+    <col min="1" max="16384" width="9.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="44" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
     </row>
   </sheetData>
@@ -1521,16 +1521,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S160"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="64" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
-    <col min="2" max="16" width="11.453125" style="11" customWidth="1"/>
-    <col min="17" max="16384" width="8.54296875" style="2"/>
+    <col min="2" max="16" width="11.42578125" style="11" customWidth="1"/>
+    <col min="17" max="16384" width="8.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1550,7 +1555,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -1569,7 +1574,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1619,7 +1624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43897</v>
       </c>
@@ -1669,7 +1674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>43898</v>
       </c>
@@ -1719,7 +1724,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>43899</v>
       </c>
@@ -1769,7 +1774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>43900</v>
       </c>
@@ -1819,7 +1824,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>43901</v>
       </c>
@@ -1869,7 +1874,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>43902</v>
       </c>
@@ -1919,7 +1924,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>43903</v>
       </c>
@@ -1969,7 +1974,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>43904</v>
       </c>
@@ -2019,7 +2024,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>43905</v>
       </c>
@@ -2069,7 +2074,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>43906</v>
       </c>
@@ -2119,7 +2124,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>43907</v>
       </c>
@@ -2169,7 +2174,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>43908</v>
       </c>
@@ -2219,7 +2224,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>43909</v>
       </c>
@@ -2269,7 +2274,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>43910</v>
       </c>
@@ -2319,7 +2324,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>43911</v>
       </c>
@@ -2369,7 +2374,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>43912</v>
       </c>
@@ -2419,7 +2424,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>43913</v>
       </c>
@@ -2469,7 +2474,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>43914</v>
       </c>
@@ -2519,7 +2524,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>43915</v>
       </c>
@@ -2569,7 +2574,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>43916</v>
       </c>
@@ -2619,7 +2624,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>43917</v>
       </c>
@@ -2669,7 +2674,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>43918</v>
       </c>
@@ -2719,7 +2724,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>43919</v>
       </c>
@@ -2769,7 +2774,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>43920</v>
       </c>
@@ -2819,7 +2824,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>43921</v>
       </c>
@@ -2869,7 +2874,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>43922</v>
       </c>
@@ -2919,7 +2924,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>43923</v>
       </c>
@@ -2969,7 +2974,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>43924</v>
       </c>
@@ -3019,7 +3024,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>43925</v>
       </c>
@@ -3069,7 +3074,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>43926</v>
       </c>
@@ -3119,7 +3124,7 @@
         <v>3706</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>43927</v>
       </c>
@@ -3169,7 +3174,7 @@
         <v>3961</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>43928</v>
       </c>
@@ -3219,7 +3224,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>43929</v>
       </c>
@@ -3269,7 +3274,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>43930</v>
       </c>
@@ -3319,7 +3324,7 @@
         <v>4957</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>43931</v>
       </c>
@@ -3369,7 +3374,7 @@
         <v>5275</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>43932</v>
       </c>
@@ -3419,7 +3424,7 @@
         <v>5590</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>43933</v>
       </c>
@@ -3469,7 +3474,7 @@
         <v>5912</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>43934</v>
       </c>
@@ -3519,7 +3524,7 @@
         <v>6067</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>43935</v>
       </c>
@@ -3569,7 +3574,7 @@
         <v>6358</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>43936</v>
       </c>
@@ -3619,7 +3624,7 @@
         <v>6748</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43937</v>
       </c>
@@ -3669,7 +3674,7 @@
         <v>7102</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>43938</v>
       </c>
@@ -3719,7 +3724,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>43939</v>
       </c>
@@ -3769,7 +3774,7 @@
         <v>7820</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>43940</v>
       </c>
@@ -3819,7 +3824,7 @@
         <v>8187</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>43941</v>
       </c>
@@ -3869,7 +3874,7 @@
         <v>8450</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>43942</v>
       </c>
@@ -3919,7 +3924,7 @@
         <v>8672</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>43943</v>
       </c>
@@ -3969,7 +3974,7 @@
         <v>9038</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>43944</v>
       </c>
@@ -4019,7 +4024,7 @@
         <v>9409</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>43945</v>
       </c>
@@ -4069,7 +4074,7 @@
         <v>9697</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>43946</v>
       </c>
@@ -4119,7 +4124,7 @@
         <v>10051</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>43947</v>
       </c>
@@ -4170,7 +4175,7 @@
       </c>
       <c r="R54" s="38"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>43948</v>
       </c>
@@ -4221,7 +4226,7 @@
       </c>
       <c r="R55" s="38"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>43949</v>
       </c>
@@ -4272,7 +4277,7 @@
       </c>
       <c r="R56" s="39"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>43950</v>
       </c>
@@ -4322,7 +4327,7 @@
         <v>11034</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>43951</v>
       </c>
@@ -4373,7 +4378,7 @@
       </c>
       <c r="R58" s="38"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>43952</v>
       </c>
@@ -4425,7 +4430,7 @@
       <c r="R59" s="38"/>
       <c r="S59" s="38"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>43953</v>
       </c>
@@ -4475,7 +4480,7 @@
         <v>11927</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>43954</v>
       </c>
@@ -4525,7 +4530,7 @@
         <v>12097</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>43955</v>
       </c>
@@ -4575,7 +4580,7 @@
         <v>12266</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>43956</v>
       </c>
@@ -4625,7 +4630,7 @@
         <v>12437</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>43957</v>
       </c>
@@ -4675,7 +4680,7 @@
         <v>12709</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>43958</v>
       </c>
@@ -4725,7 +4730,7 @@
         <v>12924</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>43959</v>
       </c>
@@ -4771,28 +4776,61 @@
       <c r="O66" s="28">
         <v>6</v>
       </c>
-      <c r="P66" s="28">
+      <c r="P66" s="32">
         <v>13149</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="28"/>
-      <c r="M67" s="28"/>
-      <c r="N67" s="28"/>
-      <c r="O67" s="28"/>
-      <c r="P67" s="28"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>43960</v>
+      </c>
+      <c r="B67" s="28">
+        <v>895</v>
+      </c>
+      <c r="C67" s="28">
+        <v>286</v>
+      </c>
+      <c r="D67" s="28">
+        <v>255</v>
+      </c>
+      <c r="E67" s="28">
+        <v>810</v>
+      </c>
+      <c r="F67" s="28">
+        <v>828</v>
+      </c>
+      <c r="G67" s="28">
+        <v>1035</v>
+      </c>
+      <c r="H67" s="28">
+        <v>3367</v>
+      </c>
+      <c r="I67" s="28">
+        <v>317</v>
+      </c>
+      <c r="J67" s="28">
+        <v>1635</v>
+      </c>
+      <c r="K67" s="28">
+        <v>2324</v>
+      </c>
+      <c r="L67" s="28">
+        <v>7</v>
+      </c>
+      <c r="M67" s="28">
+        <v>54</v>
+      </c>
+      <c r="N67" s="28">
+        <v>1486</v>
+      </c>
+      <c r="O67" s="28">
+        <v>6</v>
+      </c>
+      <c r="P67" s="32">
+        <v>13305</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B68" s="28"/>
       <c r="C68" s="28"/>
       <c r="D68" s="28"/>
@@ -4809,7 +4847,7 @@
       <c r="O68" s="28"/>
       <c r="P68" s="28"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B69" s="28"/>
       <c r="C69" s="28"/>
       <c r="D69" s="28"/>
@@ -4826,7 +4864,7 @@
       <c r="O69" s="28"/>
       <c r="P69" s="28"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
       <c r="D70" s="28"/>
@@ -4843,7 +4881,7 @@
       <c r="O70" s="28"/>
       <c r="P70" s="28"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B71" s="28"/>
       <c r="C71" s="28"/>
       <c r="D71" s="28"/>
@@ -4860,7 +4898,7 @@
       <c r="O71" s="28"/>
       <c r="P71" s="28"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B72" s="28"/>
       <c r="C72" s="28"/>
       <c r="D72" s="28"/>
@@ -4877,7 +4915,7 @@
       <c r="O72" s="28"/>
       <c r="P72" s="28"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B73" s="28"/>
       <c r="C73" s="28"/>
       <c r="D73" s="28"/>
@@ -4894,7 +4932,7 @@
       <c r="O73" s="28"/>
       <c r="P73" s="28"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B74" s="28"/>
       <c r="C74" s="28"/>
       <c r="D74" s="28"/>
@@ -4911,7 +4949,7 @@
       <c r="O74" s="28"/>
       <c r="P74" s="28"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
       <c r="D75" s="28"/>
@@ -4928,7 +4966,7 @@
       <c r="O75" s="28"/>
       <c r="P75" s="28"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
       <c r="D76" s="28"/>
@@ -4945,7 +4983,7 @@
       <c r="O76" s="28"/>
       <c r="P76" s="28"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
       <c r="D77" s="28"/>
@@ -4962,7 +5000,7 @@
       <c r="O77" s="28"/>
       <c r="P77" s="28"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
       <c r="D78" s="28"/>
@@ -4979,7 +5017,7 @@
       <c r="O78" s="28"/>
       <c r="P78" s="28"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
       <c r="D79" s="28"/>
@@ -4996,7 +5034,7 @@
       <c r="O79" s="28"/>
       <c r="P79" s="28"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
       <c r="D80" s="28"/>
@@ -5013,7 +5051,7 @@
       <c r="O80" s="28"/>
       <c r="P80" s="28"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
       <c r="D81" s="28"/>
@@ -5030,7 +5068,7 @@
       <c r="O81" s="28"/>
       <c r="P81" s="28"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" s="28"/>
       <c r="C82" s="28"/>
       <c r="D82" s="28"/>
@@ -5047,7 +5085,7 @@
       <c r="O82" s="28"/>
       <c r="P82" s="28"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
       <c r="D83" s="28"/>
@@ -5064,7 +5102,7 @@
       <c r="O83" s="28"/>
       <c r="P83" s="28"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B84" s="28"/>
       <c r="C84" s="28"/>
       <c r="D84" s="28"/>
@@ -5081,7 +5119,7 @@
       <c r="O84" s="28"/>
       <c r="P84" s="28"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B85" s="28"/>
       <c r="C85" s="28"/>
       <c r="D85" s="28"/>
@@ -5098,7 +5136,7 @@
       <c r="O85" s="28"/>
       <c r="P85" s="28"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="28"/>
       <c r="C86" s="28"/>
       <c r="D86" s="28"/>
@@ -5115,7 +5153,7 @@
       <c r="O86" s="28"/>
       <c r="P86" s="28"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
       <c r="D87" s="28"/>
@@ -5132,7 +5170,7 @@
       <c r="O87" s="28"/>
       <c r="P87" s="28"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B88" s="28"/>
       <c r="C88" s="28"/>
       <c r="D88" s="28"/>
@@ -5149,7 +5187,7 @@
       <c r="O88" s="28"/>
       <c r="P88" s="28"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
       <c r="D89" s="28"/>
@@ -5166,7 +5204,7 @@
       <c r="O89" s="28"/>
       <c r="P89" s="28"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" s="28"/>
       <c r="C90" s="28"/>
       <c r="D90" s="28"/>
@@ -5183,7 +5221,7 @@
       <c r="O90" s="28"/>
       <c r="P90" s="28"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
       <c r="D91" s="28"/>
@@ -5200,7 +5238,7 @@
       <c r="O91" s="28"/>
       <c r="P91" s="28"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B92" s="28"/>
       <c r="C92" s="28"/>
       <c r="D92" s="28"/>
@@ -5217,7 +5255,7 @@
       <c r="O92" s="28"/>
       <c r="P92" s="28"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
       <c r="D93" s="28"/>
@@ -5234,7 +5272,7 @@
       <c r="O93" s="28"/>
       <c r="P93" s="28"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
       <c r="D94" s="28"/>
@@ -5251,7 +5289,7 @@
       <c r="O94" s="28"/>
       <c r="P94" s="28"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
       <c r="D95" s="28"/>
@@ -5268,7 +5306,7 @@
       <c r="O95" s="28"/>
       <c r="P95" s="28"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
       <c r="D96" s="28"/>
@@ -5285,7 +5323,7 @@
       <c r="O96" s="28"/>
       <c r="P96" s="28"/>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
@@ -5302,7 +5340,7 @@
       <c r="O97" s="28"/>
       <c r="P97" s="28"/>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
       <c r="D98" s="28"/>
@@ -5319,7 +5357,7 @@
       <c r="O98" s="28"/>
       <c r="P98" s="28"/>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
       <c r="D99" s="28"/>
@@ -5336,7 +5374,7 @@
       <c r="O99" s="28"/>
       <c r="P99" s="28"/>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
       <c r="D100" s="28"/>
@@ -5353,7 +5391,7 @@
       <c r="O100" s="28"/>
       <c r="P100" s="28"/>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
       <c r="D101" s="28"/>
@@ -5370,7 +5408,7 @@
       <c r="O101" s="28"/>
       <c r="P101" s="28"/>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B102" s="28"/>
       <c r="C102" s="28"/>
       <c r="D102" s="28"/>
@@ -5387,7 +5425,7 @@
       <c r="O102" s="28"/>
       <c r="P102" s="28"/>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
       <c r="D103" s="28"/>
@@ -5404,7 +5442,7 @@
       <c r="O103" s="28"/>
       <c r="P103" s="28"/>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
       <c r="D104" s="28"/>
@@ -5421,7 +5459,7 @@
       <c r="O104" s="28"/>
       <c r="P104" s="28"/>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B105" s="28"/>
       <c r="C105" s="28"/>
       <c r="D105" s="28"/>
@@ -5438,7 +5476,7 @@
       <c r="O105" s="28"/>
       <c r="P105" s="28"/>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
       <c r="D106" s="28"/>
@@ -5455,7 +5493,7 @@
       <c r="O106" s="28"/>
       <c r="P106" s="28"/>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
       <c r="D107" s="28"/>
@@ -5472,7 +5510,7 @@
       <c r="O107" s="28"/>
       <c r="P107" s="28"/>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B108" s="28"/>
       <c r="C108" s="28"/>
       <c r="D108" s="28"/>
@@ -5489,7 +5527,7 @@
       <c r="O108" s="28"/>
       <c r="P108" s="28"/>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
       <c r="D109" s="28"/>
@@ -5506,7 +5544,7 @@
       <c r="O109" s="28"/>
       <c r="P109" s="28"/>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B110" s="28"/>
       <c r="C110" s="28"/>
       <c r="D110" s="28"/>
@@ -5523,7 +5561,7 @@
       <c r="O110" s="28"/>
       <c r="P110" s="28"/>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B111" s="28"/>
       <c r="C111" s="28"/>
       <c r="D111" s="28"/>
@@ -5540,7 +5578,7 @@
       <c r="O111" s="28"/>
       <c r="P111" s="28"/>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B112" s="28"/>
       <c r="C112" s="28"/>
       <c r="D112" s="28"/>
@@ -5557,7 +5595,7 @@
       <c r="O112" s="28"/>
       <c r="P112" s="28"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B113" s="28"/>
       <c r="C113" s="28"/>
       <c r="D113" s="28"/>
@@ -5574,7 +5612,7 @@
       <c r="O113" s="28"/>
       <c r="P113" s="28"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B114" s="28"/>
       <c r="C114" s="28"/>
       <c r="D114" s="28"/>
@@ -5591,7 +5629,7 @@
       <c r="O114" s="28"/>
       <c r="P114" s="28"/>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B115" s="28"/>
       <c r="C115" s="28"/>
       <c r="D115" s="28"/>
@@ -5608,7 +5646,7 @@
       <c r="O115" s="28"/>
       <c r="P115" s="28"/>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B116" s="28"/>
       <c r="C116" s="28"/>
       <c r="D116" s="28"/>
@@ -5625,7 +5663,7 @@
       <c r="O116" s="28"/>
       <c r="P116" s="28"/>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
       <c r="D117" s="28"/>
@@ -5642,7 +5680,7 @@
       <c r="O117" s="28"/>
       <c r="P117" s="28"/>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
       <c r="D118" s="28"/>
@@ -5659,7 +5697,7 @@
       <c r="O118" s="28"/>
       <c r="P118" s="28"/>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B119" s="28"/>
       <c r="C119" s="28"/>
       <c r="D119" s="28"/>
@@ -5676,7 +5714,7 @@
       <c r="O119" s="28"/>
       <c r="P119" s="28"/>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B120" s="28"/>
       <c r="C120" s="28"/>
       <c r="D120" s="28"/>
@@ -5693,7 +5731,7 @@
       <c r="O120" s="28"/>
       <c r="P120" s="28"/>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
       <c r="D121" s="28"/>
@@ -5710,7 +5748,7 @@
       <c r="O121" s="28"/>
       <c r="P121" s="28"/>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
       <c r="D122" s="28"/>
@@ -5727,7 +5765,7 @@
       <c r="O122" s="28"/>
       <c r="P122" s="28"/>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
       <c r="D123" s="28"/>
@@ -5744,7 +5782,7 @@
       <c r="O123" s="28"/>
       <c r="P123" s="28"/>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
       <c r="D124" s="28"/>
@@ -5761,7 +5799,7 @@
       <c r="O124" s="28"/>
       <c r="P124" s="28"/>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B125" s="28"/>
       <c r="C125" s="28"/>
       <c r="D125" s="28"/>
@@ -5778,7 +5816,7 @@
       <c r="O125" s="28"/>
       <c r="P125" s="28"/>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B126" s="28"/>
       <c r="C126" s="28"/>
       <c r="D126" s="28"/>
@@ -5795,7 +5833,7 @@
       <c r="O126" s="28"/>
       <c r="P126" s="28"/>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B127" s="28"/>
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
@@ -5812,7 +5850,7 @@
       <c r="O127" s="28"/>
       <c r="P127" s="28"/>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
       <c r="D128" s="28"/>
@@ -5829,7 +5867,7 @@
       <c r="O128" s="28"/>
       <c r="P128" s="28"/>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B129" s="28"/>
       <c r="C129" s="28"/>
       <c r="D129" s="28"/>
@@ -5846,7 +5884,7 @@
       <c r="O129" s="28"/>
       <c r="P129" s="28"/>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B130" s="28"/>
       <c r="C130" s="28"/>
       <c r="D130" s="28"/>
@@ -5863,7 +5901,7 @@
       <c r="O130" s="28"/>
       <c r="P130" s="28"/>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
       <c r="D131" s="28"/>
@@ -5880,7 +5918,7 @@
       <c r="O131" s="28"/>
       <c r="P131" s="28"/>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
       <c r="D132" s="28"/>
@@ -5897,7 +5935,7 @@
       <c r="O132" s="28"/>
       <c r="P132" s="28"/>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
       <c r="D133" s="28"/>
@@ -5914,7 +5952,7 @@
       <c r="O133" s="28"/>
       <c r="P133" s="28"/>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B134" s="28"/>
       <c r="C134" s="28"/>
       <c r="D134" s="28"/>
@@ -5931,7 +5969,7 @@
       <c r="O134" s="28"/>
       <c r="P134" s="28"/>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B135" s="28"/>
       <c r="C135" s="28"/>
       <c r="D135" s="28"/>
@@ -5948,7 +5986,7 @@
       <c r="O135" s="28"/>
       <c r="P135" s="28"/>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B136" s="28"/>
       <c r="C136" s="28"/>
       <c r="D136" s="28"/>
@@ -5965,7 +6003,7 @@
       <c r="O136" s="28"/>
       <c r="P136" s="28"/>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
       <c r="D137" s="28"/>
@@ -5982,7 +6020,7 @@
       <c r="O137" s="28"/>
       <c r="P137" s="28"/>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B138" s="28"/>
       <c r="C138" s="28"/>
       <c r="D138" s="28"/>
@@ -5999,7 +6037,7 @@
       <c r="O138" s="28"/>
       <c r="P138" s="28"/>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B139" s="28"/>
       <c r="C139" s="28"/>
       <c r="D139" s="28"/>
@@ -6016,7 +6054,7 @@
       <c r="O139" s="28"/>
       <c r="P139" s="28"/>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B140" s="28"/>
       <c r="C140" s="28"/>
       <c r="D140" s="28"/>
@@ -6033,7 +6071,7 @@
       <c r="O140" s="28"/>
       <c r="P140" s="28"/>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B141" s="28"/>
       <c r="C141" s="28"/>
       <c r="D141" s="28"/>
@@ -6050,7 +6088,7 @@
       <c r="O141" s="28"/>
       <c r="P141" s="28"/>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B142" s="28"/>
       <c r="C142" s="28"/>
       <c r="D142" s="28"/>
@@ -6067,7 +6105,7 @@
       <c r="O142" s="28"/>
       <c r="P142" s="28"/>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B143" s="28"/>
       <c r="C143" s="28"/>
       <c r="D143" s="28"/>
@@ -6084,7 +6122,7 @@
       <c r="O143" s="28"/>
       <c r="P143" s="28"/>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B144" s="28"/>
       <c r="C144" s="28"/>
       <c r="D144" s="28"/>
@@ -6101,7 +6139,7 @@
       <c r="O144" s="28"/>
       <c r="P144" s="28"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
       <c r="D145" s="28"/>
@@ -6118,7 +6156,7 @@
       <c r="O145" s="28"/>
       <c r="P145" s="28"/>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B146" s="28"/>
       <c r="C146" s="28"/>
       <c r="D146" s="28"/>
@@ -6135,7 +6173,7 @@
       <c r="O146" s="28"/>
       <c r="P146" s="28"/>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B147" s="28"/>
       <c r="C147" s="28"/>
       <c r="D147" s="28"/>
@@ -6152,7 +6190,7 @@
       <c r="O147" s="28"/>
       <c r="P147" s="28"/>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B148" s="28"/>
       <c r="C148" s="28"/>
       <c r="D148" s="28"/>
@@ -6169,7 +6207,7 @@
       <c r="O148" s="28"/>
       <c r="P148" s="28"/>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
       <c r="D149" s="28"/>
@@ -6186,7 +6224,7 @@
       <c r="O149" s="28"/>
       <c r="P149" s="28"/>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
       <c r="D150" s="28"/>
@@ -6203,7 +6241,7 @@
       <c r="O150" s="28"/>
       <c r="P150" s="28"/>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
       <c r="D151" s="28"/>
@@ -6220,7 +6258,7 @@
       <c r="O151" s="28"/>
       <c r="P151" s="28"/>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B152" s="28"/>
       <c r="C152" s="28"/>
       <c r="D152" s="28"/>
@@ -6237,7 +6275,7 @@
       <c r="O152" s="28"/>
       <c r="P152" s="28"/>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
       <c r="D153" s="28"/>
@@ -6254,7 +6292,7 @@
       <c r="O153" s="28"/>
       <c r="P153" s="28"/>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B154" s="28"/>
       <c r="C154" s="28"/>
       <c r="D154" s="28"/>
@@ -6271,7 +6309,7 @@
       <c r="O154" s="28"/>
       <c r="P154" s="28"/>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B155" s="28"/>
       <c r="C155" s="28"/>
       <c r="D155" s="28"/>
@@ -6288,7 +6326,7 @@
       <c r="O155" s="28"/>
       <c r="P155" s="28"/>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B156" s="28"/>
       <c r="C156" s="28"/>
       <c r="D156" s="28"/>
@@ -6305,7 +6343,7 @@
       <c r="O156" s="28"/>
       <c r="P156" s="28"/>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B157" s="28"/>
       <c r="C157" s="28"/>
       <c r="D157" s="28"/>
@@ -6322,7 +6360,7 @@
       <c r="O157" s="28"/>
       <c r="P157" s="28"/>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
       <c r="D158" s="28"/>
@@ -6339,7 +6377,7 @@
       <c r="O158" s="28"/>
       <c r="P158" s="28"/>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
       <c r="D159" s="28"/>
@@ -6356,7 +6394,7 @@
       <c r="O159" s="28"/>
       <c r="P159" s="28"/>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
       <c r="D160" s="28"/>
@@ -6381,21 +6419,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.54296875" style="2"/>
+    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -6416,7 +6454,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -6437,7 +6475,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -6490,7 +6528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43908</v>
       </c>
@@ -6543,7 +6581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43909</v>
       </c>
@@ -6596,7 +6634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>43910</v>
       </c>
@@ -6649,7 +6687,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>43911</v>
       </c>
@@ -6702,7 +6740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>43912</v>
       </c>
@@ -6755,7 +6793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>43913</v>
       </c>
@@ -6808,7 +6846,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>43914</v>
       </c>
@@ -6861,7 +6899,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>43915</v>
       </c>
@@ -6914,7 +6952,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>43916</v>
       </c>
@@ -6967,7 +7005,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>43917</v>
       </c>
@@ -7020,7 +7058,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>43918</v>
       </c>
@@ -7073,7 +7111,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>43919</v>
       </c>
@@ -7126,7 +7164,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>43920</v>
       </c>
@@ -7179,7 +7217,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>43921</v>
       </c>
@@ -7232,7 +7270,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>43922</v>
       </c>
@@ -7285,7 +7323,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>43923</v>
       </c>
@@ -7338,7 +7376,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>43924</v>
       </c>
@@ -7391,7 +7429,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>43925</v>
       </c>
@@ -7444,7 +7482,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>43926</v>
       </c>
@@ -7497,7 +7535,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>43927</v>
       </c>
@@ -7550,7 +7588,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>43928</v>
       </c>
@@ -7603,7 +7641,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>43929</v>
       </c>
@@ -7656,7 +7694,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>43930</v>
       </c>
@@ -7709,7 +7747,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>43931</v>
       </c>
@@ -7762,7 +7800,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>43932</v>
       </c>
@@ -7815,7 +7853,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>43933</v>
       </c>
@@ -7868,7 +7906,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>43934</v>
       </c>
@@ -7921,7 +7959,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>43935</v>
       </c>
@@ -7974,7 +8012,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>43936</v>
       </c>
@@ -8027,7 +8065,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>43937</v>
       </c>
@@ -8080,7 +8118,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>43938</v>
       </c>
@@ -8133,7 +8171,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>43939</v>
       </c>
@@ -8186,7 +8224,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>43940</v>
       </c>
@@ -8239,7 +8277,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>43941</v>
       </c>
@@ -8292,7 +8330,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>43942</v>
       </c>
@@ -8345,7 +8383,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>43943</v>
       </c>
@@ -8398,7 +8436,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>43944</v>
       </c>
@@ -8451,7 +8489,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>43945</v>
       </c>
@@ -8504,7 +8542,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>43946</v>
       </c>
@@ -8557,7 +8595,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
         <v>43947</v>
       </c>
@@ -8610,7 +8648,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>43948</v>
       </c>
@@ -8663,7 +8701,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
         <v>43949</v>
       </c>
@@ -8716,7 +8754,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="30">
         <v>43950</v>
       </c>
@@ -8769,7 +8807,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
         <v>43951</v>
       </c>
@@ -8822,7 +8860,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="30">
         <v>43952</v>
       </c>
@@ -8875,7 +8913,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="30">
         <v>43953</v>
       </c>
@@ -8928,7 +8966,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>43954</v>
       </c>
@@ -8981,7 +9019,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="30">
         <v>43955</v>
       </c>
@@ -9034,7 +9072,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="30">
         <v>43956</v>
       </c>
@@ -9087,7 +9125,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="30">
         <v>43957</v>
       </c>
@@ -9140,7 +9178,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="30">
         <v>43958</v>
       </c>
@@ -9193,7 +9231,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="30">
         <v>43959</v>
       </c>
@@ -9244,6 +9282,59 @@
       </c>
       <c r="Q55" s="31">
         <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="30">
+        <v>43960</v>
+      </c>
+      <c r="B56" s="14">
+        <v>9</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" s="14">
+        <v>10</v>
+      </c>
+      <c r="H56" s="14">
+        <v>30</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J56" s="14">
+        <v>8</v>
+      </c>
+      <c r="K56" s="14">
+        <v>20</v>
+      </c>
+      <c r="L56" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M56" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N56" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O56" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P56" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q56" s="13">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -9254,23 +9345,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H58" sqref="H58"/>
+      <selection pane="bottomRight" activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.54296875" style="2"/>
+    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -9291,7 +9382,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -9312,7 +9403,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -9365,7 +9456,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -9418,7 +9509,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -9471,7 +9562,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -9524,7 +9615,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -9577,7 +9668,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -9630,7 +9721,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -9683,7 +9774,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -9736,7 +9827,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -9789,7 +9880,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -9842,7 +9933,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -9895,7 +9986,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -9948,7 +10039,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -10001,7 +10092,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -10054,7 +10145,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -10107,7 +10198,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -10160,7 +10251,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -10213,7 +10304,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -10266,7 +10357,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -10319,7 +10410,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -10372,7 +10463,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -10425,7 +10516,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -10478,7 +10569,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -10531,7 +10622,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -10584,7 +10675,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -10637,7 +10728,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -10690,7 +10781,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -10743,7 +10834,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -10796,7 +10887,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -10849,7 +10940,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -10902,7 +10993,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -10955,7 +11046,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -11008,7 +11099,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -11061,7 +11152,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -11114,7 +11205,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -11167,7 +11258,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -11220,7 +11311,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -11273,7 +11364,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -11326,7 +11417,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -11379,7 +11470,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -11432,7 +11523,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -11485,7 +11576,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -11538,7 +11629,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -11591,7 +11682,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -11644,7 +11735,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -11695,6 +11786,59 @@
       </c>
       <c r="Q47" s="32">
         <v>1168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="30">
+        <v>43960</v>
+      </c>
+      <c r="B48" s="14">
+        <v>55</v>
+      </c>
+      <c r="C48" s="14">
+        <v>28</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="14">
+        <v>84</v>
+      </c>
+      <c r="F48" s="14">
+        <v>28</v>
+      </c>
+      <c r="G48" s="14">
+        <v>91</v>
+      </c>
+      <c r="H48" s="14">
+        <v>496</v>
+      </c>
+      <c r="I48" s="14">
+        <v>10</v>
+      </c>
+      <c r="J48" s="14">
+        <v>126</v>
+      </c>
+      <c r="K48" s="14">
+        <v>197</v>
+      </c>
+      <c r="L48" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M48" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N48" s="14">
+        <v>44</v>
+      </c>
+      <c r="O48" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P48" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q48" s="32">
+        <v>1165</v>
       </c>
     </row>
   </sheetData>
@@ -11705,23 +11849,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.54296875" style="2"/>
+    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -11742,7 +11886,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -11763,7 +11907,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -11816,7 +11960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -11869,7 +12013,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -11922,7 +12066,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -11975,7 +12119,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -12028,7 +12172,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -12081,7 +12225,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -12134,7 +12278,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -12187,7 +12331,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -12240,7 +12384,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -12293,7 +12437,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -12346,7 +12490,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -12399,7 +12543,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -12452,7 +12596,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -12505,7 +12649,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -12558,7 +12702,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -12611,7 +12755,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -12664,7 +12808,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -12717,7 +12861,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -12770,7 +12914,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -12823,7 +12967,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -12876,7 +13020,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -12929,7 +13073,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -12982,7 +13126,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -13035,7 +13179,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -13088,7 +13232,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -13141,7 +13285,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -13194,7 +13338,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -13247,7 +13391,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -13300,7 +13444,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -13353,7 +13497,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -13406,7 +13550,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -13459,7 +13603,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -13512,7 +13656,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -13565,7 +13709,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -13618,7 +13762,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -13671,7 +13815,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -13724,7 +13868,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -13777,7 +13921,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -13830,7 +13974,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -13883,7 +14027,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -13936,7 +14080,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -13989,7 +14133,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -14042,7 +14186,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -14095,7 +14239,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -14147,13 +14291,83 @@
       <c r="Q47" s="13">
         <v>416</v>
       </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="30">
+        <v>43960</v>
+      </c>
+      <c r="B48" s="14">
+        <v>36</v>
+      </c>
+      <c r="C48" s="14">
+        <v>7</v>
+      </c>
+      <c r="D48" s="14">
+        <v>17</v>
+      </c>
+      <c r="E48" s="14">
+        <v>36</v>
+      </c>
+      <c r="F48" s="14">
+        <v>51</v>
+      </c>
+      <c r="G48" s="14">
+        <v>27</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="14">
+        <v>25</v>
+      </c>
+      <c r="J48" s="14">
+        <v>74</v>
+      </c>
+      <c r="K48" s="14">
+        <v>126</v>
+      </c>
+      <c r="L48" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M48" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N48" s="14">
+        <v>19</v>
+      </c>
+      <c r="O48" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P48" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q48" s="13">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=customXML/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://www.objective.com/ecm/document/metadata/53D26341A57B383EE0540010E0463CCA" version="1.0.0">
   <systemFields>
     <field name="Objective-Id">
@@ -14172,13 +14386,13 @@
       <value order="0">false</value>
     </field>
     <field name="Objective-IsPublished">
-      <value order="0">false</value>
+      <value order="0">true</value>
     </field>
     <field name="Objective-DatePublished">
-      <value order="0"/>
+      <value order="0">2020-05-09T12:40:49Z</value>
     </field>
     <field name="Objective-ModificationStamp">
-      <value order="0">2020-05-08T13:14:20Z</value>
+      <value order="0">2020-05-09T12:40:49Z</value>
     </field>
     <field name="Objective-Owner">
       <value order="0">Grant, Neil N (u207826)</value>
@@ -14190,16 +14404,16 @@
       <value order="0">Analytical: COVID 19 Analysis: Restricted working papers: Research and analysis: Diseases: 2020-2025</value>
     </field>
     <field name="Objective-State">
-      <value order="0">Being Drafted</value>
+      <value order="0">Published</value>
     </field>
     <field name="Objective-VersionId">
-      <value order="0">vA41034147</value>
+      <value order="0">vA41040712</value>
     </field>
     <field name="Objective-Version">
-      <value order="0">8.1</value>
+      <value order="0">9.0</value>
     </field>
     <field name="Objective-VersionNumber">
-      <value order="0">63</value>
+      <value order="0">65</value>
     </field>
     <field name="Objective-VersionComment">
       <value order="0"/>
@@ -14236,7 +14450,7 @@
 </metadata>
 </file>
 
-<file path=customXML/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5745109E-2DDF-40CB-AC2B-FF9B10C90820}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.objective.com/ecm/document/metadata/53D26341A57B383EE0540010E0463CCA"/>

--- a/data/csv/src/data_latest_sct.xlsx
+++ b/data/csv/src/data_latest_sct.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\scotland.gov.uk\dc2\FS5_Home\u204186\Gov.scot content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Z615937\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA18795\A28088333\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5985" windowHeight="6015" tabRatio="803"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5985" windowHeight="6015" tabRatio="803" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -389,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -494,6 +494,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -997,7 +998,18 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>9. Where Boards do not provide their overnight data in time for the daily publication, the previous day’s data will be used and highlighted on each occasion. The figure will be revised the subsequent day to include the correct data. Figures may also be revised if Boards discover an error and have to resubmit their data. NHS Grampian data on the number of suspected COVID-19 patients on 1</a:t>
+            <a:t>9. Where Boards do not provide their overnight data in time for the daily publication, the previous day’s data will be used and highlighted on each occasion. The figure will be revised the subsequent day to include the correct data. Figures may also be revised if Boards discover an error and have to resubmit their data. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(i) NHS Grampian data on the number of suspected COVID-19 patients on 1</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="30000">
@@ -1035,6 +1047,32 @@
             </a:rPr>
             <a:t> May.</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(ii) NHS Lanarkshire</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> data on the number of confirmed and suspected COVID-19 patients in hospital on 9th May was revised from 126 to 120 and 74 to 72 respectively on 10th May.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -1410,7 +1448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1498,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,11 +1559,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S160"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="G49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4831,21 +4869,54 @@
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="28"/>
-      <c r="M68" s="28"/>
-      <c r="N68" s="28"/>
-      <c r="O68" s="28"/>
-      <c r="P68" s="28"/>
+      <c r="A68" s="5">
+        <v>43961</v>
+      </c>
+      <c r="B68" s="28">
+        <v>904</v>
+      </c>
+      <c r="C68" s="28">
+        <v>286</v>
+      </c>
+      <c r="D68" s="28">
+        <v>255</v>
+      </c>
+      <c r="E68" s="28">
+        <v>811</v>
+      </c>
+      <c r="F68" s="28">
+        <v>828</v>
+      </c>
+      <c r="G68" s="28">
+        <v>1050</v>
+      </c>
+      <c r="H68" s="28">
+        <v>3449</v>
+      </c>
+      <c r="I68" s="28">
+        <v>320</v>
+      </c>
+      <c r="J68" s="28">
+        <v>1660</v>
+      </c>
+      <c r="K68" s="28">
+        <v>2359</v>
+      </c>
+      <c r="L68" s="28">
+        <v>7</v>
+      </c>
+      <c r="M68" s="28">
+        <v>54</v>
+      </c>
+      <c r="N68" s="28">
+        <v>1497</v>
+      </c>
+      <c r="O68" s="41">
+        <v>6</v>
+      </c>
+      <c r="P68" s="32">
+        <v>13486</v>
+      </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B69" s="28"/>
@@ -6419,11 +6490,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9337,6 +9408,59 @@
         <v>93</v>
       </c>
     </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="30">
+        <v>43961</v>
+      </c>
+      <c r="B57" s="50">
+        <v>7</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="50">
+        <v>10</v>
+      </c>
+      <c r="H57" s="50">
+        <v>29</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" s="50">
+        <v>7</v>
+      </c>
+      <c r="K57" s="50">
+        <v>11</v>
+      </c>
+      <c r="L57" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M57" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N57" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O57" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P57" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q57" s="36">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -9345,18 +9469,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K54" sqref="K54"/>
+      <selection pane="bottomRight" activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="11" customWidth="1"/>
     <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
     <col min="18" max="16384" width="8.5703125" style="2"/>
   </cols>
@@ -11817,7 +11941,7 @@
         <v>10</v>
       </c>
       <c r="J48" s="14">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K48" s="14">
         <v>197</v>
@@ -11838,7 +11962,60 @@
         <v>29</v>
       </c>
       <c r="Q48" s="32">
-        <v>1165</v>
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="30">
+        <v>43961</v>
+      </c>
+      <c r="B49" s="40">
+        <v>43</v>
+      </c>
+      <c r="C49" s="40">
+        <v>27</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="40">
+        <v>82</v>
+      </c>
+      <c r="F49" s="40">
+        <v>27</v>
+      </c>
+      <c r="G49" s="40">
+        <v>92</v>
+      </c>
+      <c r="H49" s="40">
+        <v>492</v>
+      </c>
+      <c r="I49" s="40">
+        <v>9</v>
+      </c>
+      <c r="J49" s="40">
+        <v>113</v>
+      </c>
+      <c r="K49" s="40">
+        <v>200</v>
+      </c>
+      <c r="L49" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M49" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N49" s="40">
+        <v>41</v>
+      </c>
+      <c r="O49" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P49" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q49" s="32">
+        <v>1132</v>
       </c>
     </row>
   </sheetData>
@@ -11852,10 +12029,10 @@
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J48" sqref="J48"/>
+      <selection pane="bottomRight" activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14321,7 +14498,7 @@
         <v>25</v>
       </c>
       <c r="J48" s="14">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K48" s="14">
         <v>126</v>
@@ -14342,32 +14519,68 @@
         <v>29</v>
       </c>
       <c r="Q48" s="13">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="30">
+        <v>43961</v>
+      </c>
+      <c r="B49" s="40">
+        <v>38</v>
+      </c>
+      <c r="C49" s="40">
+        <v>11</v>
+      </c>
+      <c r="D49" s="40">
+        <v>7</v>
+      </c>
+      <c r="E49" s="40">
+        <v>33</v>
+      </c>
+      <c r="F49" s="40">
+        <v>58</v>
+      </c>
+      <c r="G49" s="40">
+        <v>17</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I49" s="40">
+        <v>25</v>
+      </c>
+      <c r="J49" s="40">
+        <v>53</v>
+      </c>
+      <c r="K49" s="40">
+        <v>92</v>
+      </c>
+      <c r="L49" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M49" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N49" s="40">
+        <v>16</v>
+      </c>
+      <c r="O49" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P49" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q49" s="36">
+        <v>352</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXML/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://www.objective.com/ecm/document/metadata/53D26341A57B383EE0540010E0463CCA" version="1.0.0">
   <systemFields>
     <field name="Objective-Id">
@@ -14386,13 +14599,13 @@
       <value order="0">false</value>
     </field>
     <field name="Objective-IsPublished">
-      <value order="0">true</value>
+      <value order="0">false</value>
     </field>
     <field name="Objective-DatePublished">
-      <value order="0">2020-05-09T12:40:49Z</value>
+      <value order="0"/>
     </field>
     <field name="Objective-ModificationStamp">
-      <value order="0">2020-05-09T12:40:49Z</value>
+      <value order="0">2020-05-10T12:23:30Z</value>
     </field>
     <field name="Objective-Owner">
       <value order="0">Grant, Neil N (u207826)</value>
@@ -14404,16 +14617,16 @@
       <value order="0">Analytical: COVID 19 Analysis: Restricted working papers: Research and analysis: Diseases: 2020-2025</value>
     </field>
     <field name="Objective-State">
-      <value order="0">Published</value>
+      <value order="0">Being Drafted</value>
     </field>
     <field name="Objective-VersionId">
-      <value order="0">vA41040712</value>
+      <value order="0">vA41042816</value>
     </field>
     <field name="Objective-Version">
-      <value order="0">9.0</value>
+      <value order="0">9.7</value>
     </field>
     <field name="Objective-VersionNumber">
-      <value order="0">65</value>
+      <value order="0">72</value>
     </field>
     <field name="Objective-VersionComment">
       <value order="0"/>
@@ -14450,7 +14663,7 @@
 </metadata>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXML/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5745109E-2DDF-40CB-AC2B-FF9B10C90820}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.objective.com/ecm/document/metadata/53D26341A57B383EE0540010E0463CCA"/>

--- a/data/csv/src/data_latest_sct.xlsx
+++ b/data/csv/src/data_latest_sct.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Z615937\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA18795\A28088333\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u201433\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA1432\A28088333\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5985" windowHeight="6015" tabRatio="803" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5985" windowHeight="6015" tabRatio="803"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -1448,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,11 +1559,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="G49" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A68" sqref="A68"/>
+      <selection pane="bottomRight" activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4919,21 +4919,54 @@
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="28"/>
-      <c r="M69" s="28"/>
-      <c r="N69" s="28"/>
-      <c r="O69" s="28"/>
-      <c r="P69" s="28"/>
+      <c r="A69" s="5">
+        <v>43962</v>
+      </c>
+      <c r="B69" s="28">
+        <v>912</v>
+      </c>
+      <c r="C69" s="28">
+        <v>292</v>
+      </c>
+      <c r="D69" s="28">
+        <v>255</v>
+      </c>
+      <c r="E69" s="28">
+        <v>813</v>
+      </c>
+      <c r="F69" s="28">
+        <v>839</v>
+      </c>
+      <c r="G69" s="28">
+        <v>1078</v>
+      </c>
+      <c r="H69" s="28">
+        <v>3479</v>
+      </c>
+      <c r="I69" s="28">
+        <v>322</v>
+      </c>
+      <c r="J69" s="28">
+        <v>1693</v>
+      </c>
+      <c r="K69" s="28">
+        <v>2380</v>
+      </c>
+      <c r="L69" s="28">
+        <v>7</v>
+      </c>
+      <c r="M69" s="28">
+        <v>54</v>
+      </c>
+      <c r="N69" s="28">
+        <v>1497</v>
+      </c>
+      <c r="O69" s="41">
+        <v>6</v>
+      </c>
+      <c r="P69" s="32">
+        <v>13627</v>
+      </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B70" s="28"/>
@@ -6490,11 +6523,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L61" sqref="L61"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9427,22 +9460,22 @@
       <c r="F57" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G57" s="50">
+      <c r="G57" s="40">
         <v>10</v>
       </c>
-      <c r="H57" s="50">
-        <v>29</v>
-      </c>
-      <c r="I57" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J57" s="50">
+      <c r="H57" s="40">
+        <v>29</v>
+      </c>
+      <c r="I57" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" s="40">
         <v>7</v>
       </c>
-      <c r="K57" s="50">
+      <c r="K57" s="40">
         <v>11</v>
       </c>
-      <c r="L57" s="14" t="s">
+      <c r="L57" s="29" t="s">
         <v>29</v>
       </c>
       <c r="M57" s="14" t="s">
@@ -9459,6 +9492,59 @@
       </c>
       <c r="Q57" s="36">
         <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="30">
+        <v>43962</v>
+      </c>
+      <c r="B58" s="11">
+        <v>8</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="11">
+        <v>5</v>
+      </c>
+      <c r="G58" s="27">
+        <v>11</v>
+      </c>
+      <c r="H58" s="27">
+        <v>28</v>
+      </c>
+      <c r="I58" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J58" s="27">
+        <v>9</v>
+      </c>
+      <c r="K58" s="27">
+        <v>8</v>
+      </c>
+      <c r="L58" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M58" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N58" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O58" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P58" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q58" s="13">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -9469,13 +9555,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I54" sqref="I54"/>
+      <selection pane="bottomRight" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12018,6 +12104,59 @@
         <v>1132</v>
       </c>
     </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="30">
+        <v>43962</v>
+      </c>
+      <c r="B50" s="11">
+        <v>41</v>
+      </c>
+      <c r="C50" s="11">
+        <v>28</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="11">
+        <v>80</v>
+      </c>
+      <c r="F50" s="11">
+        <v>28</v>
+      </c>
+      <c r="G50" s="11">
+        <v>99</v>
+      </c>
+      <c r="H50" s="11">
+        <v>497</v>
+      </c>
+      <c r="I50" s="11">
+        <v>9</v>
+      </c>
+      <c r="J50" s="11">
+        <v>117</v>
+      </c>
+      <c r="K50" s="11">
+        <v>202</v>
+      </c>
+      <c r="L50" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M50" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N50" s="11">
+        <v>37</v>
+      </c>
+      <c r="O50" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P50" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q50" s="32">
+        <v>1145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -12026,13 +12165,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N53" sqref="N53"/>
+      <selection pane="bottomRight" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14575,12 +14714,65 @@
         <v>352</v>
       </c>
     </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="30">
+        <v>43962</v>
+      </c>
+      <c r="B50" s="11">
+        <v>37</v>
+      </c>
+      <c r="C50" s="11">
+        <v>8</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="11">
+        <v>33</v>
+      </c>
+      <c r="F50" s="11">
+        <v>66</v>
+      </c>
+      <c r="G50" s="11">
+        <v>20</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I50" s="11">
+        <v>25</v>
+      </c>
+      <c r="J50" s="11">
+        <v>57</v>
+      </c>
+      <c r="K50" s="11">
+        <v>38</v>
+      </c>
+      <c r="L50" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M50" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N50" s="11">
+        <v>15</v>
+      </c>
+      <c r="O50" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P50" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q50" s="13">
+        <v>308</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=customXML/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXML/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://www.objective.com/ecm/document/metadata/53D26341A57B383EE0540010E0463CCA" version="1.0.0">
   <systemFields>
     <field name="Objective-Id">
@@ -14605,7 +14797,7 @@
       <value order="0"/>
     </field>
     <field name="Objective-ModificationStamp">
-      <value order="0">2020-05-10T12:23:30Z</value>
+      <value order="0">2020-05-11T12:23:33Z</value>
     </field>
     <field name="Objective-Owner">
       <value order="0">Grant, Neil N (u207826)</value>
@@ -14620,13 +14812,13 @@
       <value order="0">Being Drafted</value>
     </field>
     <field name="Objective-VersionId">
-      <value order="0">vA41042816</value>
+      <value order="0">vA41060714</value>
     </field>
     <field name="Objective-Version">
-      <value order="0">9.7</value>
+      <value order="0">9.10</value>
     </field>
     <field name="Objective-VersionNumber">
-      <value order="0">72</value>
+      <value order="0">75</value>
     </field>
     <field name="Objective-VersionComment">
       <value order="0"/>
@@ -14663,7 +14855,7 @@
 </metadata>
 </file>
 
-<file path=customXML/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXML/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5745109E-2DDF-40CB-AC2B-FF9B10C90820}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.objective.com/ecm/document/metadata/53D26341A57B383EE0540010E0463CCA"/>

--- a/data/csv/src/data_latest_sct.xlsx
+++ b/data/csv/src/data_latest_sct.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u201433\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA1432\A28088333\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U445783\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA18464\A28088333\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5985" windowHeight="6015" tabRatio="803"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5988" windowHeight="6012" tabRatio="803" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -1448,25 +1448,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="90.42578125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.42578125" style="2"/>
+    <col min="2" max="2" width="29.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="90.44140625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
@@ -1482,13 +1482,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="23"/>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>26</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
         <v>27</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="24" t="s">
         <v>36</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20" t="s">
         <v>37</v>
       </c>
@@ -1540,12 +1540,12 @@
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.42578125" style="2"/>
+    <col min="1" max="16384" width="9.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A44" s="43"/>
     </row>
   </sheetData>
@@ -1559,21 +1559,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S160"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A69" sqref="A69"/>
+      <selection pane="bottomRight" activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
-    <col min="2" max="16" width="11.42578125" style="11" customWidth="1"/>
-    <col min="17" max="16384" width="8.5703125" style="2"/>
+    <col min="2" max="16" width="11.44140625" style="11" customWidth="1"/>
+    <col min="17" max="16384" width="8.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,7 +1593,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -1612,7 +1612,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>43897</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43898</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43899</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43900</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43901</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43902</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43903</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43904</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>43905</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>43906</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>43907</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>43908</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>43909</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>43910</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>43911</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>43912</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>43913</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>43914</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43915</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43916</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43917</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>43918</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>43919</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>43920</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>43921</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43922</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43923</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>43924</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>43925</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>43926</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>3706</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>43927</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>3961</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>43928</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>43929</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>43930</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>4957</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>43931</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>5275</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>43932</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>5590</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>43933</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>5912</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>43934</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>6067</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>43935</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>6358</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>43936</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>6748</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>43937</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>7102</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>43938</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>43939</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>7820</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>43940</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>8187</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>43941</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>8450</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>43942</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>8672</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>43943</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>9038</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>43944</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>9409</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>43945</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>9697</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>43946</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>10051</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>43947</v>
       </c>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="R54" s="38"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>43948</v>
       </c>
@@ -4264,7 +4264,7 @@
       </c>
       <c r="R55" s="38"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>43949</v>
       </c>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="R56" s="39"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>43950</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>11034</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>43951</v>
       </c>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="R58" s="38"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>43952</v>
       </c>
@@ -4468,7 +4468,7 @@
       <c r="R59" s="38"/>
       <c r="S59" s="38"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>43953</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>11927</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>43954</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>12097</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>43955</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>12266</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>43956</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>12437</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>43957</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>12709</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>43958</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>12924</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>43959</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>13149</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>43960</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>13305</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>43961</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>13486</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>43962</v>
       </c>
@@ -4968,24 +4968,57 @@
         <v>13627</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="28"/>
-      <c r="L70" s="28"/>
-      <c r="M70" s="28"/>
-      <c r="N70" s="28"/>
-      <c r="O70" s="28"/>
-      <c r="P70" s="28"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A70" s="5">
+        <v>43963</v>
+      </c>
+      <c r="B70" s="28">
+        <v>925</v>
+      </c>
+      <c r="C70" s="28">
+        <v>294</v>
+      </c>
+      <c r="D70" s="28">
+        <v>255</v>
+      </c>
+      <c r="E70" s="28">
+        <v>813</v>
+      </c>
+      <c r="F70" s="28">
+        <v>856</v>
+      </c>
+      <c r="G70" s="28">
+        <v>1102</v>
+      </c>
+      <c r="H70" s="28">
+        <v>3510</v>
+      </c>
+      <c r="I70" s="28">
+        <v>324</v>
+      </c>
+      <c r="J70" s="28">
+        <v>1715</v>
+      </c>
+      <c r="K70" s="28">
+        <v>2397</v>
+      </c>
+      <c r="L70" s="28">
+        <v>7</v>
+      </c>
+      <c r="M70" s="28">
+        <v>54</v>
+      </c>
+      <c r="N70" s="28">
+        <v>1505</v>
+      </c>
+      <c r="O70" s="28">
+        <v>6</v>
+      </c>
+      <c r="P70" s="32">
+        <v>13763</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B71" s="28"/>
       <c r="C71" s="28"/>
       <c r="D71" s="28"/>
@@ -5002,7 +5035,7 @@
       <c r="O71" s="28"/>
       <c r="P71" s="28"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B72" s="28"/>
       <c r="C72" s="28"/>
       <c r="D72" s="28"/>
@@ -5019,7 +5052,7 @@
       <c r="O72" s="28"/>
       <c r="P72" s="28"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B73" s="28"/>
       <c r="C73" s="28"/>
       <c r="D73" s="28"/>
@@ -5036,7 +5069,7 @@
       <c r="O73" s="28"/>
       <c r="P73" s="28"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B74" s="28"/>
       <c r="C74" s="28"/>
       <c r="D74" s="28"/>
@@ -5053,7 +5086,7 @@
       <c r="O74" s="28"/>
       <c r="P74" s="28"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
       <c r="D75" s="28"/>
@@ -5070,7 +5103,7 @@
       <c r="O75" s="28"/>
       <c r="P75" s="28"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
       <c r="D76" s="28"/>
@@ -5087,7 +5120,7 @@
       <c r="O76" s="28"/>
       <c r="P76" s="28"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
       <c r="D77" s="28"/>
@@ -5104,7 +5137,7 @@
       <c r="O77" s="28"/>
       <c r="P77" s="28"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
       <c r="D78" s="28"/>
@@ -5121,7 +5154,7 @@
       <c r="O78" s="28"/>
       <c r="P78" s="28"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
       <c r="D79" s="28"/>
@@ -5138,7 +5171,7 @@
       <c r="O79" s="28"/>
       <c r="P79" s="28"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
       <c r="D80" s="28"/>
@@ -5155,7 +5188,7 @@
       <c r="O80" s="28"/>
       <c r="P80" s="28"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
       <c r="D81" s="28"/>
@@ -5172,7 +5205,7 @@
       <c r="O81" s="28"/>
       <c r="P81" s="28"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B82" s="28"/>
       <c r="C82" s="28"/>
       <c r="D82" s="28"/>
@@ -5189,7 +5222,7 @@
       <c r="O82" s="28"/>
       <c r="P82" s="28"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
       <c r="D83" s="28"/>
@@ -5206,7 +5239,7 @@
       <c r="O83" s="28"/>
       <c r="P83" s="28"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B84" s="28"/>
       <c r="C84" s="28"/>
       <c r="D84" s="28"/>
@@ -5223,7 +5256,7 @@
       <c r="O84" s="28"/>
       <c r="P84" s="28"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B85" s="28"/>
       <c r="C85" s="28"/>
       <c r="D85" s="28"/>
@@ -5240,7 +5273,7 @@
       <c r="O85" s="28"/>
       <c r="P85" s="28"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B86" s="28"/>
       <c r="C86" s="28"/>
       <c r="D86" s="28"/>
@@ -5257,7 +5290,7 @@
       <c r="O86" s="28"/>
       <c r="P86" s="28"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
       <c r="D87" s="28"/>
@@ -5274,7 +5307,7 @@
       <c r="O87" s="28"/>
       <c r="P87" s="28"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B88" s="28"/>
       <c r="C88" s="28"/>
       <c r="D88" s="28"/>
@@ -5291,7 +5324,7 @@
       <c r="O88" s="28"/>
       <c r="P88" s="28"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
       <c r="D89" s="28"/>
@@ -5308,7 +5341,7 @@
       <c r="O89" s="28"/>
       <c r="P89" s="28"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B90" s="28"/>
       <c r="C90" s="28"/>
       <c r="D90" s="28"/>
@@ -5325,7 +5358,7 @@
       <c r="O90" s="28"/>
       <c r="P90" s="28"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
       <c r="D91" s="28"/>
@@ -5342,7 +5375,7 @@
       <c r="O91" s="28"/>
       <c r="P91" s="28"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B92" s="28"/>
       <c r="C92" s="28"/>
       <c r="D92" s="28"/>
@@ -5359,7 +5392,7 @@
       <c r="O92" s="28"/>
       <c r="P92" s="28"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
       <c r="D93" s="28"/>
@@ -5376,7 +5409,7 @@
       <c r="O93" s="28"/>
       <c r="P93" s="28"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
       <c r="D94" s="28"/>
@@ -5393,7 +5426,7 @@
       <c r="O94" s="28"/>
       <c r="P94" s="28"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
       <c r="D95" s="28"/>
@@ -5410,7 +5443,7 @@
       <c r="O95" s="28"/>
       <c r="P95" s="28"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
       <c r="D96" s="28"/>
@@ -5427,7 +5460,7 @@
       <c r="O96" s="28"/>
       <c r="P96" s="28"/>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
@@ -5444,7 +5477,7 @@
       <c r="O97" s="28"/>
       <c r="P97" s="28"/>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
       <c r="D98" s="28"/>
@@ -5461,7 +5494,7 @@
       <c r="O98" s="28"/>
       <c r="P98" s="28"/>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
       <c r="D99" s="28"/>
@@ -5478,7 +5511,7 @@
       <c r="O99" s="28"/>
       <c r="P99" s="28"/>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
       <c r="D100" s="28"/>
@@ -5495,7 +5528,7 @@
       <c r="O100" s="28"/>
       <c r="P100" s="28"/>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
       <c r="D101" s="28"/>
@@ -5512,7 +5545,7 @@
       <c r="O101" s="28"/>
       <c r="P101" s="28"/>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B102" s="28"/>
       <c r="C102" s="28"/>
       <c r="D102" s="28"/>
@@ -5529,7 +5562,7 @@
       <c r="O102" s="28"/>
       <c r="P102" s="28"/>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
       <c r="D103" s="28"/>
@@ -5546,7 +5579,7 @@
       <c r="O103" s="28"/>
       <c r="P103" s="28"/>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
       <c r="D104" s="28"/>
@@ -5563,7 +5596,7 @@
       <c r="O104" s="28"/>
       <c r="P104" s="28"/>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B105" s="28"/>
       <c r="C105" s="28"/>
       <c r="D105" s="28"/>
@@ -5580,7 +5613,7 @@
       <c r="O105" s="28"/>
       <c r="P105" s="28"/>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
       <c r="D106" s="28"/>
@@ -5597,7 +5630,7 @@
       <c r="O106" s="28"/>
       <c r="P106" s="28"/>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
       <c r="D107" s="28"/>
@@ -5614,7 +5647,7 @@
       <c r="O107" s="28"/>
       <c r="P107" s="28"/>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B108" s="28"/>
       <c r="C108" s="28"/>
       <c r="D108" s="28"/>
@@ -5631,7 +5664,7 @@
       <c r="O108" s="28"/>
       <c r="P108" s="28"/>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
       <c r="D109" s="28"/>
@@ -5648,7 +5681,7 @@
       <c r="O109" s="28"/>
       <c r="P109" s="28"/>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B110" s="28"/>
       <c r="C110" s="28"/>
       <c r="D110" s="28"/>
@@ -5665,7 +5698,7 @@
       <c r="O110" s="28"/>
       <c r="P110" s="28"/>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B111" s="28"/>
       <c r="C111" s="28"/>
       <c r="D111" s="28"/>
@@ -5682,7 +5715,7 @@
       <c r="O111" s="28"/>
       <c r="P111" s="28"/>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B112" s="28"/>
       <c r="C112" s="28"/>
       <c r="D112" s="28"/>
@@ -5699,7 +5732,7 @@
       <c r="O112" s="28"/>
       <c r="P112" s="28"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B113" s="28"/>
       <c r="C113" s="28"/>
       <c r="D113" s="28"/>
@@ -5716,7 +5749,7 @@
       <c r="O113" s="28"/>
       <c r="P113" s="28"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B114" s="28"/>
       <c r="C114" s="28"/>
       <c r="D114" s="28"/>
@@ -5733,7 +5766,7 @@
       <c r="O114" s="28"/>
       <c r="P114" s="28"/>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B115" s="28"/>
       <c r="C115" s="28"/>
       <c r="D115" s="28"/>
@@ -5750,7 +5783,7 @@
       <c r="O115" s="28"/>
       <c r="P115" s="28"/>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B116" s="28"/>
       <c r="C116" s="28"/>
       <c r="D116" s="28"/>
@@ -5767,7 +5800,7 @@
       <c r="O116" s="28"/>
       <c r="P116" s="28"/>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
       <c r="D117" s="28"/>
@@ -5784,7 +5817,7 @@
       <c r="O117" s="28"/>
       <c r="P117" s="28"/>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
       <c r="D118" s="28"/>
@@ -5801,7 +5834,7 @@
       <c r="O118" s="28"/>
       <c r="P118" s="28"/>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B119" s="28"/>
       <c r="C119" s="28"/>
       <c r="D119" s="28"/>
@@ -5818,7 +5851,7 @@
       <c r="O119" s="28"/>
       <c r="P119" s="28"/>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B120" s="28"/>
       <c r="C120" s="28"/>
       <c r="D120" s="28"/>
@@ -5835,7 +5868,7 @@
       <c r="O120" s="28"/>
       <c r="P120" s="28"/>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
       <c r="D121" s="28"/>
@@ -5852,7 +5885,7 @@
       <c r="O121" s="28"/>
       <c r="P121" s="28"/>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
       <c r="D122" s="28"/>
@@ -5869,7 +5902,7 @@
       <c r="O122" s="28"/>
       <c r="P122" s="28"/>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
       <c r="D123" s="28"/>
@@ -5886,7 +5919,7 @@
       <c r="O123" s="28"/>
       <c r="P123" s="28"/>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
       <c r="D124" s="28"/>
@@ -5903,7 +5936,7 @@
       <c r="O124" s="28"/>
       <c r="P124" s="28"/>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B125" s="28"/>
       <c r="C125" s="28"/>
       <c r="D125" s="28"/>
@@ -5920,7 +5953,7 @@
       <c r="O125" s="28"/>
       <c r="P125" s="28"/>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B126" s="28"/>
       <c r="C126" s="28"/>
       <c r="D126" s="28"/>
@@ -5937,7 +5970,7 @@
       <c r="O126" s="28"/>
       <c r="P126" s="28"/>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B127" s="28"/>
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
@@ -5954,7 +5987,7 @@
       <c r="O127" s="28"/>
       <c r="P127" s="28"/>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
       <c r="D128" s="28"/>
@@ -5971,7 +6004,7 @@
       <c r="O128" s="28"/>
       <c r="P128" s="28"/>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B129" s="28"/>
       <c r="C129" s="28"/>
       <c r="D129" s="28"/>
@@ -5988,7 +6021,7 @@
       <c r="O129" s="28"/>
       <c r="P129" s="28"/>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B130" s="28"/>
       <c r="C130" s="28"/>
       <c r="D130" s="28"/>
@@ -6005,7 +6038,7 @@
       <c r="O130" s="28"/>
       <c r="P130" s="28"/>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
       <c r="D131" s="28"/>
@@ -6022,7 +6055,7 @@
       <c r="O131" s="28"/>
       <c r="P131" s="28"/>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
       <c r="D132" s="28"/>
@@ -6039,7 +6072,7 @@
       <c r="O132" s="28"/>
       <c r="P132" s="28"/>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
       <c r="D133" s="28"/>
@@ -6056,7 +6089,7 @@
       <c r="O133" s="28"/>
       <c r="P133" s="28"/>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B134" s="28"/>
       <c r="C134" s="28"/>
       <c r="D134" s="28"/>
@@ -6073,7 +6106,7 @@
       <c r="O134" s="28"/>
       <c r="P134" s="28"/>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B135" s="28"/>
       <c r="C135" s="28"/>
       <c r="D135" s="28"/>
@@ -6090,7 +6123,7 @@
       <c r="O135" s="28"/>
       <c r="P135" s="28"/>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B136" s="28"/>
       <c r="C136" s="28"/>
       <c r="D136" s="28"/>
@@ -6107,7 +6140,7 @@
       <c r="O136" s="28"/>
       <c r="P136" s="28"/>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
       <c r="D137" s="28"/>
@@ -6124,7 +6157,7 @@
       <c r="O137" s="28"/>
       <c r="P137" s="28"/>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B138" s="28"/>
       <c r="C138" s="28"/>
       <c r="D138" s="28"/>
@@ -6141,7 +6174,7 @@
       <c r="O138" s="28"/>
       <c r="P138" s="28"/>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B139" s="28"/>
       <c r="C139" s="28"/>
       <c r="D139" s="28"/>
@@ -6158,7 +6191,7 @@
       <c r="O139" s="28"/>
       <c r="P139" s="28"/>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B140" s="28"/>
       <c r="C140" s="28"/>
       <c r="D140" s="28"/>
@@ -6175,7 +6208,7 @@
       <c r="O140" s="28"/>
       <c r="P140" s="28"/>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B141" s="28"/>
       <c r="C141" s="28"/>
       <c r="D141" s="28"/>
@@ -6192,7 +6225,7 @@
       <c r="O141" s="28"/>
       <c r="P141" s="28"/>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B142" s="28"/>
       <c r="C142" s="28"/>
       <c r="D142" s="28"/>
@@ -6209,7 +6242,7 @@
       <c r="O142" s="28"/>
       <c r="P142" s="28"/>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B143" s="28"/>
       <c r="C143" s="28"/>
       <c r="D143" s="28"/>
@@ -6226,7 +6259,7 @@
       <c r="O143" s="28"/>
       <c r="P143" s="28"/>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B144" s="28"/>
       <c r="C144" s="28"/>
       <c r="D144" s="28"/>
@@ -6243,7 +6276,7 @@
       <c r="O144" s="28"/>
       <c r="P144" s="28"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
       <c r="D145" s="28"/>
@@ -6260,7 +6293,7 @@
       <c r="O145" s="28"/>
       <c r="P145" s="28"/>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B146" s="28"/>
       <c r="C146" s="28"/>
       <c r="D146" s="28"/>
@@ -6277,7 +6310,7 @@
       <c r="O146" s="28"/>
       <c r="P146" s="28"/>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B147" s="28"/>
       <c r="C147" s="28"/>
       <c r="D147" s="28"/>
@@ -6294,7 +6327,7 @@
       <c r="O147" s="28"/>
       <c r="P147" s="28"/>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B148" s="28"/>
       <c r="C148" s="28"/>
       <c r="D148" s="28"/>
@@ -6311,7 +6344,7 @@
       <c r="O148" s="28"/>
       <c r="P148" s="28"/>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
       <c r="D149" s="28"/>
@@ -6328,7 +6361,7 @@
       <c r="O149" s="28"/>
       <c r="P149" s="28"/>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
       <c r="D150" s="28"/>
@@ -6345,7 +6378,7 @@
       <c r="O150" s="28"/>
       <c r="P150" s="28"/>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
       <c r="D151" s="28"/>
@@ -6362,7 +6395,7 @@
       <c r="O151" s="28"/>
       <c r="P151" s="28"/>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B152" s="28"/>
       <c r="C152" s="28"/>
       <c r="D152" s="28"/>
@@ -6379,7 +6412,7 @@
       <c r="O152" s="28"/>
       <c r="P152" s="28"/>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
       <c r="D153" s="28"/>
@@ -6396,7 +6429,7 @@
       <c r="O153" s="28"/>
       <c r="P153" s="28"/>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B154" s="28"/>
       <c r="C154" s="28"/>
       <c r="D154" s="28"/>
@@ -6413,7 +6446,7 @@
       <c r="O154" s="28"/>
       <c r="P154" s="28"/>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B155" s="28"/>
       <c r="C155" s="28"/>
       <c r="D155" s="28"/>
@@ -6430,7 +6463,7 @@
       <c r="O155" s="28"/>
       <c r="P155" s="28"/>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B156" s="28"/>
       <c r="C156" s="28"/>
       <c r="D156" s="28"/>
@@ -6447,7 +6480,7 @@
       <c r="O156" s="28"/>
       <c r="P156" s="28"/>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B157" s="28"/>
       <c r="C157" s="28"/>
       <c r="D157" s="28"/>
@@ -6464,7 +6497,7 @@
       <c r="O157" s="28"/>
       <c r="P157" s="28"/>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
       <c r="D158" s="28"/>
@@ -6481,7 +6514,7 @@
       <c r="O158" s="28"/>
       <c r="P158" s="28"/>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
       <c r="D159" s="28"/>
@@ -6498,7 +6531,7 @@
       <c r="O159" s="28"/>
       <c r="P159" s="28"/>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
       <c r="D160" s="28"/>
@@ -6523,21 +6556,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I53" sqref="I53"/>
+      <pane ySplit="3" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5703125" style="2"/>
+    <col min="1" max="1" width="12.44140625" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5546875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -6558,7 +6591,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -6579,7 +6612,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -6632,7 +6665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>43908</v>
       </c>
@@ -6685,7 +6718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>43909</v>
       </c>
@@ -6738,7 +6771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>43910</v>
       </c>
@@ -6791,7 +6824,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>43911</v>
       </c>
@@ -6844,7 +6877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>43912</v>
       </c>
@@ -6897,7 +6930,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>43913</v>
       </c>
@@ -6950,7 +6983,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>43914</v>
       </c>
@@ -7003,7 +7036,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>43915</v>
       </c>
@@ -7056,7 +7089,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>43916</v>
       </c>
@@ -7109,7 +7142,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>43917</v>
       </c>
@@ -7162,7 +7195,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>43918</v>
       </c>
@@ -7215,7 +7248,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>43919</v>
       </c>
@@ -7268,7 +7301,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>43920</v>
       </c>
@@ -7321,7 +7354,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>43921</v>
       </c>
@@ -7374,7 +7407,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>43922</v>
       </c>
@@ -7427,7 +7460,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>43923</v>
       </c>
@@ -7480,7 +7513,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>43924</v>
       </c>
@@ -7533,7 +7566,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>43925</v>
       </c>
@@ -7586,7 +7619,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>43926</v>
       </c>
@@ -7639,7 +7672,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>43927</v>
       </c>
@@ -7692,7 +7725,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>43928</v>
       </c>
@@ -7745,7 +7778,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>43929</v>
       </c>
@@ -7798,7 +7831,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>43930</v>
       </c>
@@ -7851,7 +7884,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>43931</v>
       </c>
@@ -7904,7 +7937,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>43932</v>
       </c>
@@ -7957,7 +7990,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>43933</v>
       </c>
@@ -8010,7 +8043,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>43934</v>
       </c>
@@ -8063,7 +8096,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>43935</v>
       </c>
@@ -8116,7 +8149,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>43936</v>
       </c>
@@ -8169,7 +8202,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>43937</v>
       </c>
@@ -8222,7 +8255,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>43938</v>
       </c>
@@ -8275,7 +8308,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>43939</v>
       </c>
@@ -8328,7 +8361,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="30">
         <v>43940</v>
       </c>
@@ -8381,7 +8414,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="30">
         <v>43941</v>
       </c>
@@ -8434,7 +8467,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="30">
         <v>43942</v>
       </c>
@@ -8487,7 +8520,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="30">
         <v>43943</v>
       </c>
@@ -8540,7 +8573,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="30">
         <v>43944</v>
       </c>
@@ -8593,7 +8626,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="30">
         <v>43945</v>
       </c>
@@ -8646,7 +8679,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="30">
         <v>43946</v>
       </c>
@@ -8699,7 +8732,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="30">
         <v>43947</v>
       </c>
@@ -8752,7 +8785,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="30">
         <v>43948</v>
       </c>
@@ -8805,7 +8838,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="30">
         <v>43949</v>
       </c>
@@ -8858,7 +8891,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="30">
         <v>43950</v>
       </c>
@@ -8911,7 +8944,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="30">
         <v>43951</v>
       </c>
@@ -8964,7 +8997,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="30">
         <v>43952</v>
       </c>
@@ -9017,7 +9050,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="30">
         <v>43953</v>
       </c>
@@ -9070,7 +9103,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="30">
         <v>43954</v>
       </c>
@@ -9123,7 +9156,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="30">
         <v>43955</v>
       </c>
@@ -9176,7 +9209,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="30">
         <v>43956</v>
       </c>
@@ -9229,7 +9262,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="30">
         <v>43957</v>
       </c>
@@ -9282,7 +9315,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="30">
         <v>43958</v>
       </c>
@@ -9335,7 +9368,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="30">
         <v>43959</v>
       </c>
@@ -9388,7 +9421,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="30">
         <v>43960</v>
       </c>
@@ -9441,7 +9474,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="30">
         <v>43961</v>
       </c>
@@ -9494,7 +9527,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="30">
         <v>43962</v>
       </c>
@@ -9545,6 +9578,59 @@
       </c>
       <c r="Q58" s="13">
         <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="30">
+        <v>43963</v>
+      </c>
+      <c r="B59" s="11">
+        <v>7</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="27">
+        <v>11</v>
+      </c>
+      <c r="H59" s="27">
+        <v>29</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59" s="27">
+        <v>9</v>
+      </c>
+      <c r="K59" s="27">
+        <v>10</v>
+      </c>
+      <c r="L59" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M59" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N59" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O59" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P59" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q59" s="13">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -9555,23 +9641,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="F37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A50" sqref="A50"/>
+      <selection pane="bottomRight" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5703125" style="2"/>
+    <col min="1" max="1" width="15.109375" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5546875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -9592,7 +9678,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -9613,7 +9699,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -9666,7 +9752,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -9719,7 +9805,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -9772,7 +9858,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -9825,7 +9911,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -9878,7 +9964,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -9931,7 +10017,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -9984,7 +10070,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -10037,7 +10123,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -10090,7 +10176,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -10143,7 +10229,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -10196,7 +10282,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -10249,7 +10335,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -10302,7 +10388,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -10355,7 +10441,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -10408,7 +10494,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -10461,7 +10547,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -10514,7 +10600,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -10567,7 +10653,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -10620,7 +10706,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -10673,7 +10759,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -10726,7 +10812,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -10779,7 +10865,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -10832,7 +10918,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -10885,7 +10971,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -10938,7 +11024,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -10991,7 +11077,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -11044,7 +11130,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -11097,7 +11183,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -11150,7 +11236,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -11203,7 +11289,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -11256,7 +11342,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -11309,7 +11395,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -11362,7 +11448,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -11415,7 +11501,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -11468,7 +11554,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -11521,7 +11607,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -11574,7 +11660,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -11627,7 +11713,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -11680,7 +11766,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -11733,7 +11819,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -11786,7 +11872,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -11839,7 +11925,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -11892,7 +11978,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -11945,7 +12031,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -11998,7 +12084,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="30">
         <v>43960</v>
       </c>
@@ -12051,7 +12137,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="30">
         <v>43961</v>
       </c>
@@ -12104,7 +12190,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="30">
         <v>43962</v>
       </c>
@@ -12155,6 +12241,59 @@
       </c>
       <c r="Q50" s="32">
         <v>1145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="30">
+        <v>43963</v>
+      </c>
+      <c r="B51" s="11">
+        <v>39</v>
+      </c>
+      <c r="C51" s="11">
+        <v>26</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="11">
+        <v>81</v>
+      </c>
+      <c r="F51" s="11">
+        <v>26</v>
+      </c>
+      <c r="G51" s="11">
+        <v>99</v>
+      </c>
+      <c r="H51" s="11">
+        <v>496</v>
+      </c>
+      <c r="I51" s="11">
+        <v>6</v>
+      </c>
+      <c r="J51" s="11">
+        <v>114</v>
+      </c>
+      <c r="K51" s="11">
+        <v>208</v>
+      </c>
+      <c r="L51" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M51" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N51" s="11">
+        <v>29</v>
+      </c>
+      <c r="O51" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P51" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q51" s="32">
+        <v>1131</v>
       </c>
     </row>
   </sheetData>
@@ -12165,23 +12304,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="E45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A50" sqref="A50"/>
+      <selection pane="bottomRight" activeCell="M78" sqref="M78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5703125" style="2"/>
+    <col min="1" max="1" width="12.44140625" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5546875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -12202,7 +12341,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -12223,7 +12362,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -12276,7 +12415,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -12329,7 +12468,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -12382,7 +12521,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -12435,7 +12574,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -12488,7 +12627,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -12541,7 +12680,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -12594,7 +12733,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -12647,7 +12786,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -12700,7 +12839,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -12753,7 +12892,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -12806,7 +12945,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -12859,7 +12998,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -12912,7 +13051,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -12965,7 +13104,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -13018,7 +13157,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -13071,7 +13210,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -13124,7 +13263,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -13177,7 +13316,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -13230,7 +13369,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -13283,7 +13422,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -13336,7 +13475,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -13389,7 +13528,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -13442,7 +13581,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -13495,7 +13634,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -13548,7 +13687,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -13601,7 +13740,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -13654,7 +13793,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -13707,7 +13846,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -13760,7 +13899,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -13813,7 +13952,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -13866,7 +14005,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -13919,7 +14058,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -13972,7 +14111,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -14025,7 +14164,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -14078,7 +14217,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -14131,7 +14270,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -14184,7 +14323,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -14237,7 +14376,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -14290,7 +14429,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -14343,7 +14482,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -14396,7 +14535,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -14449,7 +14588,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -14502,7 +14641,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -14555,7 +14694,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -14608,7 +14747,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="30">
         <v>43960</v>
       </c>
@@ -14661,7 +14800,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="30">
         <v>43961</v>
       </c>
@@ -14714,7 +14853,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="30">
         <v>43962</v>
       </c>
@@ -14765,6 +14904,59 @@
       </c>
       <c r="Q50" s="13">
         <v>308</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="30">
+        <v>43963</v>
+      </c>
+      <c r="B51" s="11">
+        <v>32</v>
+      </c>
+      <c r="C51" s="11">
+        <v>12</v>
+      </c>
+      <c r="D51" s="14">
+        <v>13</v>
+      </c>
+      <c r="E51" s="11">
+        <v>25</v>
+      </c>
+      <c r="F51" s="11">
+        <v>58</v>
+      </c>
+      <c r="G51" s="11">
+        <v>43</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I51" s="11">
+        <v>55</v>
+      </c>
+      <c r="J51" s="11">
+        <v>94</v>
+      </c>
+      <c r="K51" s="11">
+        <v>123</v>
+      </c>
+      <c r="L51" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M51" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N51" s="11">
+        <v>26</v>
+      </c>
+      <c r="O51" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P51" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q51" s="13">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -14797,7 +14989,7 @@
       <value order="0"/>
     </field>
     <field name="Objective-ModificationStamp">
-      <value order="0">2020-05-11T12:23:33Z</value>
+      <value order="0">2020-05-12T11:57:52Z</value>
     </field>
     <field name="Objective-Owner">
       <value order="0">Grant, Neil N (u207826)</value>
@@ -14812,13 +15004,13 @@
       <value order="0">Being Drafted</value>
     </field>
     <field name="Objective-VersionId">
-      <value order="0">vA41060714</value>
+      <value order="0">vA41088685</value>
     </field>
     <field name="Objective-Version">
-      <value order="0">9.10</value>
+      <value order="0">9.13</value>
     </field>
     <field name="Objective-VersionNumber">
-      <value order="0">75</value>
+      <value order="0">78</value>
     </field>
     <field name="Objective-VersionComment">
       <value order="0"/>

--- a/data/csv/src/data_latest_sct.xlsx
+++ b/data/csv/src/data_latest_sct.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U445783\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA18464\A28088333\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u201433\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA1432\A28088333\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5988" windowHeight="6012" tabRatio="803" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5985" windowHeight="6015" tabRatio="803" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Table 1 - Cumulative cases'!$A$3:$P$48</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -733,6 +733,52 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>5. Where errors have been found in previous reported numbers, these have been corrected. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>On 13</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> May, based</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> on updated postcode information, one case has been reassigned from Dumfries and Galloway to Greater Glasgow and Clyde. This  resulted in a decrease of one in the total number of cases in Dumfries and Galloway.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1452,21 +1498,21 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="90.44140625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.44140625" style="2"/>
+    <col min="2" max="2" width="29.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="90.42578125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
@@ -1474,7 +1520,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
@@ -1482,13 +1528,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="23"/>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>26</v>
       </c>
@@ -1496,7 +1542,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>27</v>
       </c>
@@ -1504,7 +1550,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>36</v>
       </c>
@@ -1512,7 +1558,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
         <v>37</v>
       </c>
@@ -1536,16 +1582,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.44140625" style="2"/>
+    <col min="1" max="16384" width="9.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
     </row>
   </sheetData>
@@ -1559,21 +1605,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I79" sqref="I79"/>
+      <selection pane="bottomRight" activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
-    <col min="2" max="16" width="11.44140625" style="11" customWidth="1"/>
-    <col min="17" max="16384" width="8.5546875" style="2"/>
+    <col min="2" max="16" width="11.42578125" style="11" customWidth="1"/>
+    <col min="17" max="16384" width="8.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,7 +1639,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -1612,7 +1658,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1662,7 +1708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43897</v>
       </c>
@@ -1712,7 +1758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>43898</v>
       </c>
@@ -1762,7 +1808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>43899</v>
       </c>
@@ -1812,7 +1858,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>43900</v>
       </c>
@@ -1862,7 +1908,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>43901</v>
       </c>
@@ -1912,7 +1958,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>43902</v>
       </c>
@@ -1962,7 +2008,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>43903</v>
       </c>
@@ -2012,7 +2058,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>43904</v>
       </c>
@@ -2062,7 +2108,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>43905</v>
       </c>
@@ -2112,7 +2158,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>43906</v>
       </c>
@@ -2162,7 +2208,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>43907</v>
       </c>
@@ -2212,7 +2258,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>43908</v>
       </c>
@@ -2262,7 +2308,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>43909</v>
       </c>
@@ -2312,7 +2358,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>43910</v>
       </c>
@@ -2362,7 +2408,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>43911</v>
       </c>
@@ -2412,7 +2458,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>43912</v>
       </c>
@@ -2462,7 +2508,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>43913</v>
       </c>
@@ -2512,7 +2558,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>43914</v>
       </c>
@@ -2562,7 +2608,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>43915</v>
       </c>
@@ -2612,7 +2658,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>43916</v>
       </c>
@@ -2662,7 +2708,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>43917</v>
       </c>
@@ -2712,7 +2758,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>43918</v>
       </c>
@@ -2762,7 +2808,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>43919</v>
       </c>
@@ -2812,7 +2858,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>43920</v>
       </c>
@@ -2862,7 +2908,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>43921</v>
       </c>
@@ -2912,7 +2958,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>43922</v>
       </c>
@@ -2962,7 +3008,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>43923</v>
       </c>
@@ -3012,7 +3058,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>43924</v>
       </c>
@@ -3062,7 +3108,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>43925</v>
       </c>
@@ -3112,7 +3158,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>43926</v>
       </c>
@@ -3162,7 +3208,7 @@
         <v>3706</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>43927</v>
       </c>
@@ -3212,7 +3258,7 @@
         <v>3961</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>43928</v>
       </c>
@@ -3262,7 +3308,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>43929</v>
       </c>
@@ -3312,7 +3358,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>43930</v>
       </c>
@@ -3362,7 +3408,7 @@
         <v>4957</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>43931</v>
       </c>
@@ -3412,7 +3458,7 @@
         <v>5275</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>43932</v>
       </c>
@@ -3462,7 +3508,7 @@
         <v>5590</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>43933</v>
       </c>
@@ -3512,7 +3558,7 @@
         <v>5912</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>43934</v>
       </c>
@@ -3562,7 +3608,7 @@
         <v>6067</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>43935</v>
       </c>
@@ -3612,7 +3658,7 @@
         <v>6358</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>43936</v>
       </c>
@@ -3662,7 +3708,7 @@
         <v>6748</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43937</v>
       </c>
@@ -3712,7 +3758,7 @@
         <v>7102</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>43938</v>
       </c>
@@ -3762,7 +3808,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>43939</v>
       </c>
@@ -3812,7 +3858,7 @@
         <v>7820</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>43940</v>
       </c>
@@ -3862,7 +3908,7 @@
         <v>8187</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>43941</v>
       </c>
@@ -3912,7 +3958,7 @@
         <v>8450</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>43942</v>
       </c>
@@ -3962,7 +4008,7 @@
         <v>8672</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>43943</v>
       </c>
@@ -4012,7 +4058,7 @@
         <v>9038</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>43944</v>
       </c>
@@ -4062,7 +4108,7 @@
         <v>9409</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>43945</v>
       </c>
@@ -4112,7 +4158,7 @@
         <v>9697</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>43946</v>
       </c>
@@ -4162,7 +4208,7 @@
         <v>10051</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>43947</v>
       </c>
@@ -4213,7 +4259,7 @@
       </c>
       <c r="R54" s="38"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>43948</v>
       </c>
@@ -4264,7 +4310,7 @@
       </c>
       <c r="R55" s="38"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>43949</v>
       </c>
@@ -4315,7 +4361,7 @@
       </c>
       <c r="R56" s="39"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>43950</v>
       </c>
@@ -4365,7 +4411,7 @@
         <v>11034</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>43951</v>
       </c>
@@ -4416,7 +4462,7 @@
       </c>
       <c r="R58" s="38"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>43952</v>
       </c>
@@ -4468,7 +4514,7 @@
       <c r="R59" s="38"/>
       <c r="S59" s="38"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>43953</v>
       </c>
@@ -4518,7 +4564,7 @@
         <v>11927</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>43954</v>
       </c>
@@ -4568,7 +4614,7 @@
         <v>12097</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>43955</v>
       </c>
@@ -4618,7 +4664,7 @@
         <v>12266</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>43956</v>
       </c>
@@ -4668,7 +4714,7 @@
         <v>12437</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>43957</v>
       </c>
@@ -4718,7 +4764,7 @@
         <v>12709</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>43958</v>
       </c>
@@ -4768,7 +4814,7 @@
         <v>12924</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>43959</v>
       </c>
@@ -4818,7 +4864,7 @@
         <v>13149</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>43960</v>
       </c>
@@ -4868,7 +4914,7 @@
         <v>13305</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>43961</v>
       </c>
@@ -4918,7 +4964,7 @@
         <v>13486</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>43962</v>
       </c>
@@ -4968,7 +5014,7 @@
         <v>13627</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>43963</v>
       </c>
@@ -5018,24 +5064,57 @@
         <v>13763</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="28"/>
-      <c r="M71" s="28"/>
-      <c r="N71" s="28"/>
-      <c r="O71" s="28"/>
-      <c r="P71" s="28"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>43964</v>
+      </c>
+      <c r="B71" s="28">
+        <v>946</v>
+      </c>
+      <c r="C71" s="28">
+        <v>297</v>
+      </c>
+      <c r="D71" s="28">
+        <v>254</v>
+      </c>
+      <c r="E71" s="28">
+        <v>816</v>
+      </c>
+      <c r="F71" s="28">
+        <v>859</v>
+      </c>
+      <c r="G71" s="28">
+        <v>1123</v>
+      </c>
+      <c r="H71" s="28">
+        <v>3579</v>
+      </c>
+      <c r="I71" s="28">
+        <v>324</v>
+      </c>
+      <c r="J71" s="28">
+        <v>1721</v>
+      </c>
+      <c r="K71" s="28">
+        <v>2428</v>
+      </c>
+      <c r="L71" s="28">
+        <v>7</v>
+      </c>
+      <c r="M71" s="28">
+        <v>54</v>
+      </c>
+      <c r="N71" s="28">
+        <v>1515</v>
+      </c>
+      <c r="O71" s="28">
+        <v>6</v>
+      </c>
+      <c r="P71" s="32">
+        <v>13929</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B72" s="28"/>
       <c r="C72" s="28"/>
       <c r="D72" s="28"/>
@@ -5052,7 +5131,7 @@
       <c r="O72" s="28"/>
       <c r="P72" s="28"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B73" s="28"/>
       <c r="C73" s="28"/>
       <c r="D73" s="28"/>
@@ -5069,7 +5148,7 @@
       <c r="O73" s="28"/>
       <c r="P73" s="28"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B74" s="28"/>
       <c r="C74" s="28"/>
       <c r="D74" s="28"/>
@@ -5086,7 +5165,7 @@
       <c r="O74" s="28"/>
       <c r="P74" s="28"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
       <c r="D75" s="28"/>
@@ -5103,7 +5182,7 @@
       <c r="O75" s="28"/>
       <c r="P75" s="28"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
       <c r="D76" s="28"/>
@@ -5120,7 +5199,7 @@
       <c r="O76" s="28"/>
       <c r="P76" s="28"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
       <c r="D77" s="28"/>
@@ -5137,7 +5216,7 @@
       <c r="O77" s="28"/>
       <c r="P77" s="28"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
       <c r="D78" s="28"/>
@@ -5154,7 +5233,7 @@
       <c r="O78" s="28"/>
       <c r="P78" s="28"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
       <c r="D79" s="28"/>
@@ -5171,7 +5250,7 @@
       <c r="O79" s="28"/>
       <c r="P79" s="28"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
       <c r="D80" s="28"/>
@@ -5188,7 +5267,7 @@
       <c r="O80" s="28"/>
       <c r="P80" s="28"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
       <c r="D81" s="28"/>
@@ -5205,7 +5284,7 @@
       <c r="O81" s="28"/>
       <c r="P81" s="28"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" s="28"/>
       <c r="C82" s="28"/>
       <c r="D82" s="28"/>
@@ -5222,7 +5301,7 @@
       <c r="O82" s="28"/>
       <c r="P82" s="28"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
       <c r="D83" s="28"/>
@@ -5239,7 +5318,7 @@
       <c r="O83" s="28"/>
       <c r="P83" s="28"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B84" s="28"/>
       <c r="C84" s="28"/>
       <c r="D84" s="28"/>
@@ -5256,7 +5335,7 @@
       <c r="O84" s="28"/>
       <c r="P84" s="28"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B85" s="28"/>
       <c r="C85" s="28"/>
       <c r="D85" s="28"/>
@@ -5273,7 +5352,7 @@
       <c r="O85" s="28"/>
       <c r="P85" s="28"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="28"/>
       <c r="C86" s="28"/>
       <c r="D86" s="28"/>
@@ -5290,7 +5369,7 @@
       <c r="O86" s="28"/>
       <c r="P86" s="28"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
       <c r="D87" s="28"/>
@@ -5307,7 +5386,7 @@
       <c r="O87" s="28"/>
       <c r="P87" s="28"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B88" s="28"/>
       <c r="C88" s="28"/>
       <c r="D88" s="28"/>
@@ -5324,7 +5403,7 @@
       <c r="O88" s="28"/>
       <c r="P88" s="28"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
       <c r="D89" s="28"/>
@@ -5341,7 +5420,7 @@
       <c r="O89" s="28"/>
       <c r="P89" s="28"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" s="28"/>
       <c r="C90" s="28"/>
       <c r="D90" s="28"/>
@@ -5358,7 +5437,7 @@
       <c r="O90" s="28"/>
       <c r="P90" s="28"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
       <c r="D91" s="28"/>
@@ -5375,7 +5454,7 @@
       <c r="O91" s="28"/>
       <c r="P91" s="28"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B92" s="28"/>
       <c r="C92" s="28"/>
       <c r="D92" s="28"/>
@@ -5392,7 +5471,7 @@
       <c r="O92" s="28"/>
       <c r="P92" s="28"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
       <c r="D93" s="28"/>
@@ -5409,7 +5488,7 @@
       <c r="O93" s="28"/>
       <c r="P93" s="28"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
       <c r="D94" s="28"/>
@@ -5426,7 +5505,7 @@
       <c r="O94" s="28"/>
       <c r="P94" s="28"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
       <c r="D95" s="28"/>
@@ -5443,7 +5522,7 @@
       <c r="O95" s="28"/>
       <c r="P95" s="28"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
       <c r="D96" s="28"/>
@@ -5460,7 +5539,7 @@
       <c r="O96" s="28"/>
       <c r="P96" s="28"/>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
@@ -5477,7 +5556,7 @@
       <c r="O97" s="28"/>
       <c r="P97" s="28"/>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
       <c r="D98" s="28"/>
@@ -5494,7 +5573,7 @@
       <c r="O98" s="28"/>
       <c r="P98" s="28"/>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
       <c r="D99" s="28"/>
@@ -5511,7 +5590,7 @@
       <c r="O99" s="28"/>
       <c r="P99" s="28"/>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
       <c r="D100" s="28"/>
@@ -5528,7 +5607,7 @@
       <c r="O100" s="28"/>
       <c r="P100" s="28"/>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
       <c r="D101" s="28"/>
@@ -5545,7 +5624,7 @@
       <c r="O101" s="28"/>
       <c r="P101" s="28"/>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B102" s="28"/>
       <c r="C102" s="28"/>
       <c r="D102" s="28"/>
@@ -5562,7 +5641,7 @@
       <c r="O102" s="28"/>
       <c r="P102" s="28"/>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
       <c r="D103" s="28"/>
@@ -5579,7 +5658,7 @@
       <c r="O103" s="28"/>
       <c r="P103" s="28"/>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
       <c r="D104" s="28"/>
@@ -5596,7 +5675,7 @@
       <c r="O104" s="28"/>
       <c r="P104" s="28"/>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B105" s="28"/>
       <c r="C105" s="28"/>
       <c r="D105" s="28"/>
@@ -5613,7 +5692,7 @@
       <c r="O105" s="28"/>
       <c r="P105" s="28"/>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
       <c r="D106" s="28"/>
@@ -5630,7 +5709,7 @@
       <c r="O106" s="28"/>
       <c r="P106" s="28"/>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
       <c r="D107" s="28"/>
@@ -5647,7 +5726,7 @@
       <c r="O107" s="28"/>
       <c r="P107" s="28"/>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B108" s="28"/>
       <c r="C108" s="28"/>
       <c r="D108" s="28"/>
@@ -5664,7 +5743,7 @@
       <c r="O108" s="28"/>
       <c r="P108" s="28"/>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
       <c r="D109" s="28"/>
@@ -5681,7 +5760,7 @@
       <c r="O109" s="28"/>
       <c r="P109" s="28"/>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B110" s="28"/>
       <c r="C110" s="28"/>
       <c r="D110" s="28"/>
@@ -5698,7 +5777,7 @@
       <c r="O110" s="28"/>
       <c r="P110" s="28"/>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B111" s="28"/>
       <c r="C111" s="28"/>
       <c r="D111" s="28"/>
@@ -5715,7 +5794,7 @@
       <c r="O111" s="28"/>
       <c r="P111" s="28"/>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B112" s="28"/>
       <c r="C112" s="28"/>
       <c r="D112" s="28"/>
@@ -5732,7 +5811,7 @@
       <c r="O112" s="28"/>
       <c r="P112" s="28"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B113" s="28"/>
       <c r="C113" s="28"/>
       <c r="D113" s="28"/>
@@ -5749,7 +5828,7 @@
       <c r="O113" s="28"/>
       <c r="P113" s="28"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B114" s="28"/>
       <c r="C114" s="28"/>
       <c r="D114" s="28"/>
@@ -5766,7 +5845,7 @@
       <c r="O114" s="28"/>
       <c r="P114" s="28"/>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B115" s="28"/>
       <c r="C115" s="28"/>
       <c r="D115" s="28"/>
@@ -5783,7 +5862,7 @@
       <c r="O115" s="28"/>
       <c r="P115" s="28"/>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B116" s="28"/>
       <c r="C116" s="28"/>
       <c r="D116" s="28"/>
@@ -5800,7 +5879,7 @@
       <c r="O116" s="28"/>
       <c r="P116" s="28"/>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
       <c r="D117" s="28"/>
@@ -5817,7 +5896,7 @@
       <c r="O117" s="28"/>
       <c r="P117" s="28"/>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
       <c r="D118" s="28"/>
@@ -5834,7 +5913,7 @@
       <c r="O118" s="28"/>
       <c r="P118" s="28"/>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B119" s="28"/>
       <c r="C119" s="28"/>
       <c r="D119" s="28"/>
@@ -5851,7 +5930,7 @@
       <c r="O119" s="28"/>
       <c r="P119" s="28"/>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B120" s="28"/>
       <c r="C120" s="28"/>
       <c r="D120" s="28"/>
@@ -5868,7 +5947,7 @@
       <c r="O120" s="28"/>
       <c r="P120" s="28"/>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
       <c r="D121" s="28"/>
@@ -5885,7 +5964,7 @@
       <c r="O121" s="28"/>
       <c r="P121" s="28"/>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
       <c r="D122" s="28"/>
@@ -5902,7 +5981,7 @@
       <c r="O122" s="28"/>
       <c r="P122" s="28"/>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
       <c r="D123" s="28"/>
@@ -5919,7 +5998,7 @@
       <c r="O123" s="28"/>
       <c r="P123" s="28"/>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
       <c r="D124" s="28"/>
@@ -5936,7 +6015,7 @@
       <c r="O124" s="28"/>
       <c r="P124" s="28"/>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B125" s="28"/>
       <c r="C125" s="28"/>
       <c r="D125" s="28"/>
@@ -5953,7 +6032,7 @@
       <c r="O125" s="28"/>
       <c r="P125" s="28"/>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B126" s="28"/>
       <c r="C126" s="28"/>
       <c r="D126" s="28"/>
@@ -5970,7 +6049,7 @@
       <c r="O126" s="28"/>
       <c r="P126" s="28"/>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B127" s="28"/>
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
@@ -5987,7 +6066,7 @@
       <c r="O127" s="28"/>
       <c r="P127" s="28"/>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
       <c r="D128" s="28"/>
@@ -6004,7 +6083,7 @@
       <c r="O128" s="28"/>
       <c r="P128" s="28"/>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B129" s="28"/>
       <c r="C129" s="28"/>
       <c r="D129" s="28"/>
@@ -6021,7 +6100,7 @@
       <c r="O129" s="28"/>
       <c r="P129" s="28"/>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B130" s="28"/>
       <c r="C130" s="28"/>
       <c r="D130" s="28"/>
@@ -6038,7 +6117,7 @@
       <c r="O130" s="28"/>
       <c r="P130" s="28"/>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
       <c r="D131" s="28"/>
@@ -6055,7 +6134,7 @@
       <c r="O131" s="28"/>
       <c r="P131" s="28"/>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
       <c r="D132" s="28"/>
@@ -6072,7 +6151,7 @@
       <c r="O132" s="28"/>
       <c r="P132" s="28"/>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
       <c r="D133" s="28"/>
@@ -6089,7 +6168,7 @@
       <c r="O133" s="28"/>
       <c r="P133" s="28"/>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B134" s="28"/>
       <c r="C134" s="28"/>
       <c r="D134" s="28"/>
@@ -6106,7 +6185,7 @@
       <c r="O134" s="28"/>
       <c r="P134" s="28"/>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B135" s="28"/>
       <c r="C135" s="28"/>
       <c r="D135" s="28"/>
@@ -6123,7 +6202,7 @@
       <c r="O135" s="28"/>
       <c r="P135" s="28"/>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B136" s="28"/>
       <c r="C136" s="28"/>
       <c r="D136" s="28"/>
@@ -6140,7 +6219,7 @@
       <c r="O136" s="28"/>
       <c r="P136" s="28"/>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
       <c r="D137" s="28"/>
@@ -6157,7 +6236,7 @@
       <c r="O137" s="28"/>
       <c r="P137" s="28"/>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B138" s="28"/>
       <c r="C138" s="28"/>
       <c r="D138" s="28"/>
@@ -6174,7 +6253,7 @@
       <c r="O138" s="28"/>
       <c r="P138" s="28"/>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B139" s="28"/>
       <c r="C139" s="28"/>
       <c r="D139" s="28"/>
@@ -6191,7 +6270,7 @@
       <c r="O139" s="28"/>
       <c r="P139" s="28"/>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B140" s="28"/>
       <c r="C140" s="28"/>
       <c r="D140" s="28"/>
@@ -6208,7 +6287,7 @@
       <c r="O140" s="28"/>
       <c r="P140" s="28"/>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B141" s="28"/>
       <c r="C141" s="28"/>
       <c r="D141" s="28"/>
@@ -6225,7 +6304,7 @@
       <c r="O141" s="28"/>
       <c r="P141" s="28"/>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B142" s="28"/>
       <c r="C142" s="28"/>
       <c r="D142" s="28"/>
@@ -6242,7 +6321,7 @@
       <c r="O142" s="28"/>
       <c r="P142" s="28"/>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B143" s="28"/>
       <c r="C143" s="28"/>
       <c r="D143" s="28"/>
@@ -6259,7 +6338,7 @@
       <c r="O143" s="28"/>
       <c r="P143" s="28"/>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B144" s="28"/>
       <c r="C144" s="28"/>
       <c r="D144" s="28"/>
@@ -6276,7 +6355,7 @@
       <c r="O144" s="28"/>
       <c r="P144" s="28"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
       <c r="D145" s="28"/>
@@ -6293,7 +6372,7 @@
       <c r="O145" s="28"/>
       <c r="P145" s="28"/>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B146" s="28"/>
       <c r="C146" s="28"/>
       <c r="D146" s="28"/>
@@ -6310,7 +6389,7 @@
       <c r="O146" s="28"/>
       <c r="P146" s="28"/>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B147" s="28"/>
       <c r="C147" s="28"/>
       <c r="D147" s="28"/>
@@ -6327,7 +6406,7 @@
       <c r="O147" s="28"/>
       <c r="P147" s="28"/>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B148" s="28"/>
       <c r="C148" s="28"/>
       <c r="D148" s="28"/>
@@ -6344,7 +6423,7 @@
       <c r="O148" s="28"/>
       <c r="P148" s="28"/>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
       <c r="D149" s="28"/>
@@ -6361,7 +6440,7 @@
       <c r="O149" s="28"/>
       <c r="P149" s="28"/>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
       <c r="D150" s="28"/>
@@ -6378,7 +6457,7 @@
       <c r="O150" s="28"/>
       <c r="P150" s="28"/>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
       <c r="D151" s="28"/>
@@ -6395,7 +6474,7 @@
       <c r="O151" s="28"/>
       <c r="P151" s="28"/>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B152" s="28"/>
       <c r="C152" s="28"/>
       <c r="D152" s="28"/>
@@ -6412,7 +6491,7 @@
       <c r="O152" s="28"/>
       <c r="P152" s="28"/>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
       <c r="D153" s="28"/>
@@ -6429,7 +6508,7 @@
       <c r="O153" s="28"/>
       <c r="P153" s="28"/>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B154" s="28"/>
       <c r="C154" s="28"/>
       <c r="D154" s="28"/>
@@ -6446,7 +6525,7 @@
       <c r="O154" s="28"/>
       <c r="P154" s="28"/>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B155" s="28"/>
       <c r="C155" s="28"/>
       <c r="D155" s="28"/>
@@ -6463,7 +6542,7 @@
       <c r="O155" s="28"/>
       <c r="P155" s="28"/>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B156" s="28"/>
       <c r="C156" s="28"/>
       <c r="D156" s="28"/>
@@ -6480,7 +6559,7 @@
       <c r="O156" s="28"/>
       <c r="P156" s="28"/>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B157" s="28"/>
       <c r="C157" s="28"/>
       <c r="D157" s="28"/>
@@ -6497,7 +6576,7 @@
       <c r="O157" s="28"/>
       <c r="P157" s="28"/>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
       <c r="D158" s="28"/>
@@ -6514,7 +6593,7 @@
       <c r="O158" s="28"/>
       <c r="P158" s="28"/>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
       <c r="D159" s="28"/>
@@ -6531,7 +6610,7 @@
       <c r="O159" s="28"/>
       <c r="P159" s="28"/>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
       <c r="D160" s="28"/>
@@ -6556,21 +6635,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I83" sqref="I83"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5546875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5546875" style="2"/>
+    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -6591,7 +6670,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -6612,7 +6691,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -6665,7 +6744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43908</v>
       </c>
@@ -6718,7 +6797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43909</v>
       </c>
@@ -6771,7 +6850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>43910</v>
       </c>
@@ -6824,7 +6903,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>43911</v>
       </c>
@@ -6877,7 +6956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>43912</v>
       </c>
@@ -6930,7 +7009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>43913</v>
       </c>
@@ -6983,7 +7062,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>43914</v>
       </c>
@@ -7036,7 +7115,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>43915</v>
       </c>
@@ -7089,7 +7168,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>43916</v>
       </c>
@@ -7142,7 +7221,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>43917</v>
       </c>
@@ -7195,7 +7274,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>43918</v>
       </c>
@@ -7248,7 +7327,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>43919</v>
       </c>
@@ -7301,7 +7380,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>43920</v>
       </c>
@@ -7354,7 +7433,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>43921</v>
       </c>
@@ -7407,7 +7486,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>43922</v>
       </c>
@@ -7460,7 +7539,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>43923</v>
       </c>
@@ -7513,7 +7592,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>43924</v>
       </c>
@@ -7566,7 +7645,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>43925</v>
       </c>
@@ -7619,7 +7698,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>43926</v>
       </c>
@@ -7672,7 +7751,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>43927</v>
       </c>
@@ -7725,7 +7804,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>43928</v>
       </c>
@@ -7778,7 +7857,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>43929</v>
       </c>
@@ -7831,7 +7910,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>43930</v>
       </c>
@@ -7884,7 +7963,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>43931</v>
       </c>
@@ -7937,7 +8016,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>43932</v>
       </c>
@@ -7990,7 +8069,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>43933</v>
       </c>
@@ -8043,7 +8122,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>43934</v>
       </c>
@@ -8096,7 +8175,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>43935</v>
       </c>
@@ -8149,7 +8228,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>43936</v>
       </c>
@@ -8202,7 +8281,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>43937</v>
       </c>
@@ -8255,7 +8334,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>43938</v>
       </c>
@@ -8308,7 +8387,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>43939</v>
       </c>
@@ -8361,7 +8440,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>43940</v>
       </c>
@@ -8414,7 +8493,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>43941</v>
       </c>
@@ -8467,7 +8546,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>43942</v>
       </c>
@@ -8520,7 +8599,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>43943</v>
       </c>
@@ -8573,7 +8652,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>43944</v>
       </c>
@@ -8626,7 +8705,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>43945</v>
       </c>
@@ -8679,7 +8758,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>43946</v>
       </c>
@@ -8732,7 +8811,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
         <v>43947</v>
       </c>
@@ -8785,7 +8864,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>43948</v>
       </c>
@@ -8838,7 +8917,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
         <v>43949</v>
       </c>
@@ -8891,7 +8970,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="30">
         <v>43950</v>
       </c>
@@ -8944,7 +9023,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
         <v>43951</v>
       </c>
@@ -8997,7 +9076,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="30">
         <v>43952</v>
       </c>
@@ -9050,7 +9129,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="30">
         <v>43953</v>
       </c>
@@ -9103,7 +9182,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>43954</v>
       </c>
@@ -9156,7 +9235,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="30">
         <v>43955</v>
       </c>
@@ -9209,7 +9288,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="30">
         <v>43956</v>
       </c>
@@ -9262,7 +9341,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="30">
         <v>43957</v>
       </c>
@@ -9315,7 +9394,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="30">
         <v>43958</v>
       </c>
@@ -9368,7 +9447,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="30">
         <v>43959</v>
       </c>
@@ -9421,7 +9500,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="30">
         <v>43960</v>
       </c>
@@ -9474,7 +9553,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="30">
         <v>43961</v>
       </c>
@@ -9527,7 +9606,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="30">
         <v>43962</v>
       </c>
@@ -9580,7 +9659,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="30">
         <v>43963</v>
       </c>
@@ -9631,6 +9710,59 @@
       </c>
       <c r="Q59" s="13">
         <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="30">
+        <v>43964</v>
+      </c>
+      <c r="B60" s="11">
+        <v>7</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" s="27">
+        <v>9</v>
+      </c>
+      <c r="H60" s="27">
+        <v>27</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J60" s="27">
+        <v>6</v>
+      </c>
+      <c r="K60" s="27">
+        <v>6</v>
+      </c>
+      <c r="L60" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M60" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N60" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O60" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P60" s="37">
+        <v>6</v>
+      </c>
+      <c r="Q60" s="13">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -9641,23 +9773,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="F37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A51" sqref="A51"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5546875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5546875" style="2"/>
+    <col min="1" max="1" width="15.140625" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -9678,7 +9810,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -9699,7 +9831,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -9752,7 +9884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -9805,7 +9937,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -9858,7 +9990,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -9911,7 +10043,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -9964,7 +10096,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -10017,7 +10149,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -10070,7 +10202,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -10123,7 +10255,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -10176,7 +10308,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -10229,7 +10361,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -10282,7 +10414,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -10335,7 +10467,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -10388,7 +10520,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -10441,7 +10573,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -10494,7 +10626,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -10547,7 +10679,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -10600,7 +10732,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -10653,7 +10785,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -10706,7 +10838,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -10759,7 +10891,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -10812,7 +10944,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -10865,7 +10997,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -10918,7 +11050,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -10971,7 +11103,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -11024,7 +11156,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -11077,7 +11209,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -11130,7 +11262,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -11183,7 +11315,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -11236,7 +11368,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -11289,7 +11421,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -11342,7 +11474,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -11395,7 +11527,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -11448,7 +11580,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -11501,7 +11633,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -11554,7 +11686,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -11607,7 +11739,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -11660,7 +11792,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -11713,7 +11845,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -11766,7 +11898,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -11819,7 +11951,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -11872,7 +12004,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -11925,7 +12057,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -11978,7 +12110,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -12031,7 +12163,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -12084,7 +12216,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="30">
         <v>43960</v>
       </c>
@@ -12137,7 +12269,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="30">
         <v>43961</v>
       </c>
@@ -12190,7 +12322,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>43962</v>
       </c>
@@ -12243,7 +12375,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="30">
         <v>43963</v>
       </c>
@@ -12294,6 +12426,59 @@
       </c>
       <c r="Q51" s="32">
         <v>1131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="30">
+        <v>43964</v>
+      </c>
+      <c r="B52" s="11">
+        <v>39</v>
+      </c>
+      <c r="C52" s="11">
+        <v>27</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="11">
+        <v>75</v>
+      </c>
+      <c r="F52" s="11">
+        <v>25</v>
+      </c>
+      <c r="G52" s="11">
+        <v>97</v>
+      </c>
+      <c r="H52" s="11">
+        <v>486</v>
+      </c>
+      <c r="I52" s="11">
+        <v>5</v>
+      </c>
+      <c r="J52" s="11">
+        <v>106</v>
+      </c>
+      <c r="K52" s="11">
+        <v>206</v>
+      </c>
+      <c r="L52" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M52" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N52" s="11">
+        <v>27</v>
+      </c>
+      <c r="O52" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P52" s="11">
+        <v>6</v>
+      </c>
+      <c r="Q52" s="32">
+        <v>1101</v>
       </c>
     </row>
   </sheetData>
@@ -12304,23 +12489,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="E45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M78" sqref="M78"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5546875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5546875" style="2"/>
+    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -12341,7 +12526,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -12362,7 +12547,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -12415,7 +12600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -12468,7 +12653,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -12521,7 +12706,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -12574,7 +12759,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -12627,7 +12812,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -12680,7 +12865,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -12733,7 +12918,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -12786,7 +12971,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -12839,7 +13024,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -12892,7 +13077,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -12945,7 +13130,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -12998,7 +13183,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -13051,7 +13236,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -13104,7 +13289,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -13157,7 +13342,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -13210,7 +13395,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -13263,7 +13448,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -13316,7 +13501,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -13369,7 +13554,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -13422,7 +13607,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -13475,7 +13660,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -13528,7 +13713,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -13581,7 +13766,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -13634,7 +13819,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -13687,7 +13872,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -13740,7 +13925,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -13793,7 +13978,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -13846,7 +14031,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -13899,7 +14084,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -13952,7 +14137,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -14005,7 +14190,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -14058,7 +14243,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -14111,7 +14296,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -14164,7 +14349,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -14217,7 +14402,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -14270,7 +14455,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -14323,7 +14508,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -14376,7 +14561,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -14429,7 +14614,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -14482,7 +14667,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -14535,7 +14720,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -14588,7 +14773,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -14641,7 +14826,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -14694,7 +14879,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -14747,7 +14932,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="30">
         <v>43960</v>
       </c>
@@ -14800,7 +14985,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="30">
         <v>43961</v>
       </c>
@@ -14853,7 +15038,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>43962</v>
       </c>
@@ -14906,7 +15091,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="30">
         <v>43963</v>
       </c>
@@ -14957,6 +15142,59 @@
       </c>
       <c r="Q51" s="13">
         <v>487</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="30">
+        <v>43964</v>
+      </c>
+      <c r="B52" s="11">
+        <v>30</v>
+      </c>
+      <c r="C52" s="11">
+        <v>13</v>
+      </c>
+      <c r="D52" s="14">
+        <v>8</v>
+      </c>
+      <c r="E52" s="11">
+        <v>22</v>
+      </c>
+      <c r="F52" s="11">
+        <v>55</v>
+      </c>
+      <c r="G52" s="11">
+        <v>42</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I52" s="11">
+        <v>51</v>
+      </c>
+      <c r="J52" s="11">
+        <v>84</v>
+      </c>
+      <c r="K52" s="11">
+        <v>111</v>
+      </c>
+      <c r="L52" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M52" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N52" s="11">
+        <v>14</v>
+      </c>
+      <c r="O52" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P52" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q52" s="13">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -14964,7 +15202,7 @@
 </worksheet>
 </file>
 
-<file path=customXML/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://www.objective.com/ecm/document/metadata/53D26341A57B383EE0540010E0463CCA" version="1.0.0">
   <systemFields>
     <field name="Objective-Id">
@@ -14989,7 +15227,7 @@
       <value order="0"/>
     </field>
     <field name="Objective-ModificationStamp">
-      <value order="0">2020-05-12T11:57:52Z</value>
+      <value order="0">2020-05-13T12:44:44Z</value>
     </field>
     <field name="Objective-Owner">
       <value order="0">Grant, Neil N (u207826)</value>
@@ -15001,16 +15239,16 @@
       <value order="0">Analytical: COVID 19 Analysis: Restricted working papers: Research and analysis: Diseases: 2020-2025</value>
     </field>
     <field name="Objective-State">
-      <value order="0">Being Drafted</value>
+      <value order="0">Being Edited</value>
     </field>
     <field name="Objective-VersionId">
-      <value order="0">vA41088685</value>
+      <value order="0">vA41121127</value>
     </field>
     <field name="Objective-Version">
-      <value order="0">9.13</value>
+      <value order="0">9.17</value>
     </field>
     <field name="Objective-VersionNumber">
-      <value order="0">78</value>
+      <value order="0">82</value>
     </field>
     <field name="Objective-VersionComment">
       <value order="0"/>
@@ -15047,7 +15285,7 @@
 </metadata>
 </file>
 
-<file path=customXML/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5745109E-2DDF-40CB-AC2B-FF9B10C90820}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.objective.com/ecm/document/metadata/53D26341A57B383EE0540010E0463CCA"/>

--- a/data/csv/src/data_latest_sct.xlsx
+++ b/data/csv/src/data_latest_sct.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u201433\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA1432\A28088333\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u207826\Objective\Objects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5985" windowHeight="6015" tabRatio="803" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5990" windowHeight="6020" tabRatio="803"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Table 1 - Cumulative cases'!$A$3:$P$48</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -523,10 +523,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -536,7 +536,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7264400" cy="9036050"/>
+          <a:ext cx="6886575" cy="11201400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1113,6 +1113,17 @@
             </a:rPr>
             <a:t> data on the number of confirmed and suspected COVID-19 patients in hospital on 9th May was revised from 126 to 120 and 74 to 72 respectively on 10th May.</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(iii) The Golden Jubilee National Hospital data on the number of confirmed and suspected COVID-19 patients in ICU on 13 May was revised from 6 to 2.  Therefore, the national totals of confirmed and suspected in ICU were revised from 70 to 66.</a:t>
+          </a:r>
           <a:endParaRPr lang="en-GB" sz="1100">
             <a:effectLst/>
             <a:latin typeface="+mn-lt"/>
@@ -1494,25 +1505,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="90.42578125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.42578125" style="2"/>
+    <col min="2" max="2" width="29.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="90.453125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
@@ -1520,7 +1531,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
@@ -1528,13 +1539,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="23"/>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
         <v>26</v>
       </c>
@@ -1542,7 +1553,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="24" t="s">
         <v>27</v>
       </c>
@@ -1550,7 +1561,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="24" t="s">
         <v>36</v>
       </c>
@@ -1558,7 +1569,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="20" t="s">
         <v>37</v>
       </c>
@@ -1582,16 +1593,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9.42578125" style="2"/>
+    <col min="1" max="16384" width="9.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="43"/>
     </row>
   </sheetData>
@@ -1606,20 +1617,20 @@
   <dimension ref="A1:S160"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G71" sqref="G71"/>
+      <selection pane="bottomRight" activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
-    <col min="2" max="16" width="11.42578125" style="11" customWidth="1"/>
-    <col min="17" max="16384" width="8.5703125" style="2"/>
+    <col min="2" max="16" width="11.453125" style="11" customWidth="1"/>
+    <col min="17" max="16384" width="8.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1639,7 +1650,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -1658,7 +1669,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1708,7 +1719,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>43897</v>
       </c>
@@ -1758,7 +1769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>43898</v>
       </c>
@@ -1808,7 +1819,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>43899</v>
       </c>
@@ -1858,7 +1869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>43900</v>
       </c>
@@ -1908,7 +1919,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>43901</v>
       </c>
@@ -1958,7 +1969,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>43902</v>
       </c>
@@ -2008,7 +2019,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>43903</v>
       </c>
@@ -2058,7 +2069,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>43904</v>
       </c>
@@ -2108,7 +2119,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>43905</v>
       </c>
@@ -2158,7 +2169,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>43906</v>
       </c>
@@ -2208,7 +2219,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>43907</v>
       </c>
@@ -2258,7 +2269,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>43908</v>
       </c>
@@ -2308,7 +2319,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>43909</v>
       </c>
@@ -2358,7 +2369,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>43910</v>
       </c>
@@ -2408,7 +2419,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>43911</v>
       </c>
@@ -2458,7 +2469,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>43912</v>
       </c>
@@ -2508,7 +2519,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>43913</v>
       </c>
@@ -2558,7 +2569,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>43914</v>
       </c>
@@ -2608,7 +2619,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>43915</v>
       </c>
@@ -2658,7 +2669,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>43916</v>
       </c>
@@ -2708,7 +2719,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>43917</v>
       </c>
@@ -2758,7 +2769,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>43918</v>
       </c>
@@ -2808,7 +2819,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>43919</v>
       </c>
@@ -2858,7 +2869,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>43920</v>
       </c>
@@ -2908,7 +2919,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>43921</v>
       </c>
@@ -2958,7 +2969,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>43922</v>
       </c>
@@ -3008,7 +3019,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>43923</v>
       </c>
@@ -3058,7 +3069,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>43924</v>
       </c>
@@ -3108,7 +3119,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>43925</v>
       </c>
@@ -3158,7 +3169,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>43926</v>
       </c>
@@ -3208,7 +3219,7 @@
         <v>3706</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>43927</v>
       </c>
@@ -3258,7 +3269,7 @@
         <v>3961</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>43928</v>
       </c>
@@ -3308,7 +3319,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>43929</v>
       </c>
@@ -3358,7 +3369,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>43930</v>
       </c>
@@ -3408,7 +3419,7 @@
         <v>4957</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>43931</v>
       </c>
@@ -3458,7 +3469,7 @@
         <v>5275</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>43932</v>
       </c>
@@ -3508,7 +3519,7 @@
         <v>5590</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>43933</v>
       </c>
@@ -3558,7 +3569,7 @@
         <v>5912</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>43934</v>
       </c>
@@ -3608,7 +3619,7 @@
         <v>6067</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>43935</v>
       </c>
@@ -3658,7 +3669,7 @@
         <v>6358</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>43936</v>
       </c>
@@ -3708,7 +3719,7 @@
         <v>6748</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>43937</v>
       </c>
@@ -3758,7 +3769,7 @@
         <v>7102</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>43938</v>
       </c>
@@ -3808,7 +3819,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>43939</v>
       </c>
@@ -3858,7 +3869,7 @@
         <v>7820</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>43940</v>
       </c>
@@ -3908,7 +3919,7 @@
         <v>8187</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>43941</v>
       </c>
@@ -3958,7 +3969,7 @@
         <v>8450</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>43942</v>
       </c>
@@ -4008,7 +4019,7 @@
         <v>8672</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>43943</v>
       </c>
@@ -4058,7 +4069,7 @@
         <v>9038</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>43944</v>
       </c>
@@ -4108,7 +4119,7 @@
         <v>9409</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>43945</v>
       </c>
@@ -4158,7 +4169,7 @@
         <v>9697</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>43946</v>
       </c>
@@ -4208,7 +4219,7 @@
         <v>10051</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>43947</v>
       </c>
@@ -4259,7 +4270,7 @@
       </c>
       <c r="R54" s="38"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>43948</v>
       </c>
@@ -4310,7 +4321,7 @@
       </c>
       <c r="R55" s="38"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>43949</v>
       </c>
@@ -4361,7 +4372,7 @@
       </c>
       <c r="R56" s="39"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>43950</v>
       </c>
@@ -4411,7 +4422,7 @@
         <v>11034</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>43951</v>
       </c>
@@ -4462,7 +4473,7 @@
       </c>
       <c r="R58" s="38"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>43952</v>
       </c>
@@ -4514,7 +4525,7 @@
       <c r="R59" s="38"/>
       <c r="S59" s="38"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>43953</v>
       </c>
@@ -4564,7 +4575,7 @@
         <v>11927</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>43954</v>
       </c>
@@ -4614,7 +4625,7 @@
         <v>12097</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>43955</v>
       </c>
@@ -4664,7 +4675,7 @@
         <v>12266</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>43956</v>
       </c>
@@ -4714,7 +4725,7 @@
         <v>12437</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>43957</v>
       </c>
@@ -4764,7 +4775,7 @@
         <v>12709</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>43958</v>
       </c>
@@ -4814,7 +4825,7 @@
         <v>12924</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>43959</v>
       </c>
@@ -4864,7 +4875,7 @@
         <v>13149</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>43960</v>
       </c>
@@ -4914,7 +4925,7 @@
         <v>13305</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>43961</v>
       </c>
@@ -4964,7 +4975,7 @@
         <v>13486</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>43962</v>
       </c>
@@ -5014,7 +5025,7 @@
         <v>13627</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>43963</v>
       </c>
@@ -5064,7 +5075,7 @@
         <v>13763</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>43964</v>
       </c>
@@ -5114,24 +5125,57 @@
         <v>13929</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="28"/>
-      <c r="L72" s="28"/>
-      <c r="M72" s="28"/>
-      <c r="N72" s="28"/>
-      <c r="O72" s="28"/>
-      <c r="P72" s="28"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A72" s="5">
+        <v>43965</v>
+      </c>
+      <c r="B72" s="28">
+        <v>952</v>
+      </c>
+      <c r="C72" s="28">
+        <v>298</v>
+      </c>
+      <c r="D72" s="28">
+        <v>255</v>
+      </c>
+      <c r="E72" s="28">
+        <v>823</v>
+      </c>
+      <c r="F72" s="28">
+        <v>863</v>
+      </c>
+      <c r="G72" s="28">
+        <v>1142</v>
+      </c>
+      <c r="H72" s="28">
+        <v>3628</v>
+      </c>
+      <c r="I72" s="28">
+        <v>328</v>
+      </c>
+      <c r="J72" s="28">
+        <v>1762</v>
+      </c>
+      <c r="K72" s="28">
+        <v>2459</v>
+      </c>
+      <c r="L72" s="28">
+        <v>7</v>
+      </c>
+      <c r="M72" s="28">
+        <v>54</v>
+      </c>
+      <c r="N72" s="28">
+        <v>1540</v>
+      </c>
+      <c r="O72" s="28">
+        <v>6</v>
+      </c>
+      <c r="P72" s="32">
+        <v>14117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B73" s="28"/>
       <c r="C73" s="28"/>
       <c r="D73" s="28"/>
@@ -5148,7 +5192,7 @@
       <c r="O73" s="28"/>
       <c r="P73" s="28"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B74" s="28"/>
       <c r="C74" s="28"/>
       <c r="D74" s="28"/>
@@ -5165,7 +5209,7 @@
       <c r="O74" s="28"/>
       <c r="P74" s="28"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
       <c r="D75" s="28"/>
@@ -5182,7 +5226,7 @@
       <c r="O75" s="28"/>
       <c r="P75" s="28"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
       <c r="D76" s="28"/>
@@ -5199,7 +5243,7 @@
       <c r="O76" s="28"/>
       <c r="P76" s="28"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
       <c r="D77" s="28"/>
@@ -5216,7 +5260,7 @@
       <c r="O77" s="28"/>
       <c r="P77" s="28"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
       <c r="D78" s="28"/>
@@ -5233,7 +5277,7 @@
       <c r="O78" s="28"/>
       <c r="P78" s="28"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
       <c r="D79" s="28"/>
@@ -5250,7 +5294,7 @@
       <c r="O79" s="28"/>
       <c r="P79" s="28"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
       <c r="D80" s="28"/>
@@ -5267,7 +5311,7 @@
       <c r="O80" s="28"/>
       <c r="P80" s="28"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
       <c r="D81" s="28"/>
@@ -5284,7 +5328,7 @@
       <c r="O81" s="28"/>
       <c r="P81" s="28"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B82" s="28"/>
       <c r="C82" s="28"/>
       <c r="D82" s="28"/>
@@ -5301,7 +5345,7 @@
       <c r="O82" s="28"/>
       <c r="P82" s="28"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
       <c r="D83" s="28"/>
@@ -5318,7 +5362,7 @@
       <c r="O83" s="28"/>
       <c r="P83" s="28"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B84" s="28"/>
       <c r="C84" s="28"/>
       <c r="D84" s="28"/>
@@ -5335,7 +5379,7 @@
       <c r="O84" s="28"/>
       <c r="P84" s="28"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B85" s="28"/>
       <c r="C85" s="28"/>
       <c r="D85" s="28"/>
@@ -5352,7 +5396,7 @@
       <c r="O85" s="28"/>
       <c r="P85" s="28"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B86" s="28"/>
       <c r="C86" s="28"/>
       <c r="D86" s="28"/>
@@ -5369,7 +5413,7 @@
       <c r="O86" s="28"/>
       <c r="P86" s="28"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
       <c r="D87" s="28"/>
@@ -5386,7 +5430,7 @@
       <c r="O87" s="28"/>
       <c r="P87" s="28"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B88" s="28"/>
       <c r="C88" s="28"/>
       <c r="D88" s="28"/>
@@ -5403,7 +5447,7 @@
       <c r="O88" s="28"/>
       <c r="P88" s="28"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
       <c r="D89" s="28"/>
@@ -5420,7 +5464,7 @@
       <c r="O89" s="28"/>
       <c r="P89" s="28"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B90" s="28"/>
       <c r="C90" s="28"/>
       <c r="D90" s="28"/>
@@ -5437,7 +5481,7 @@
       <c r="O90" s="28"/>
       <c r="P90" s="28"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
       <c r="D91" s="28"/>
@@ -5454,7 +5498,7 @@
       <c r="O91" s="28"/>
       <c r="P91" s="28"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B92" s="28"/>
       <c r="C92" s="28"/>
       <c r="D92" s="28"/>
@@ -5471,7 +5515,7 @@
       <c r="O92" s="28"/>
       <c r="P92" s="28"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
       <c r="D93" s="28"/>
@@ -5488,7 +5532,7 @@
       <c r="O93" s="28"/>
       <c r="P93" s="28"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
       <c r="D94" s="28"/>
@@ -5505,7 +5549,7 @@
       <c r="O94" s="28"/>
       <c r="P94" s="28"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
       <c r="D95" s="28"/>
@@ -5522,7 +5566,7 @@
       <c r="O95" s="28"/>
       <c r="P95" s="28"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
       <c r="D96" s="28"/>
@@ -5539,7 +5583,7 @@
       <c r="O96" s="28"/>
       <c r="P96" s="28"/>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
@@ -5556,7 +5600,7 @@
       <c r="O97" s="28"/>
       <c r="P97" s="28"/>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
       <c r="D98" s="28"/>
@@ -5573,7 +5617,7 @@
       <c r="O98" s="28"/>
       <c r="P98" s="28"/>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
       <c r="D99" s="28"/>
@@ -5590,7 +5634,7 @@
       <c r="O99" s="28"/>
       <c r="P99" s="28"/>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
       <c r="D100" s="28"/>
@@ -5607,7 +5651,7 @@
       <c r="O100" s="28"/>
       <c r="P100" s="28"/>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
       <c r="D101" s="28"/>
@@ -5624,7 +5668,7 @@
       <c r="O101" s="28"/>
       <c r="P101" s="28"/>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B102" s="28"/>
       <c r="C102" s="28"/>
       <c r="D102" s="28"/>
@@ -5641,7 +5685,7 @@
       <c r="O102" s="28"/>
       <c r="P102" s="28"/>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
       <c r="D103" s="28"/>
@@ -5658,7 +5702,7 @@
       <c r="O103" s="28"/>
       <c r="P103" s="28"/>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
       <c r="D104" s="28"/>
@@ -5675,7 +5719,7 @@
       <c r="O104" s="28"/>
       <c r="P104" s="28"/>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B105" s="28"/>
       <c r="C105" s="28"/>
       <c r="D105" s="28"/>
@@ -5692,7 +5736,7 @@
       <c r="O105" s="28"/>
       <c r="P105" s="28"/>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
       <c r="D106" s="28"/>
@@ -5709,7 +5753,7 @@
       <c r="O106" s="28"/>
       <c r="P106" s="28"/>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
       <c r="D107" s="28"/>
@@ -5726,7 +5770,7 @@
       <c r="O107" s="28"/>
       <c r="P107" s="28"/>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B108" s="28"/>
       <c r="C108" s="28"/>
       <c r="D108" s="28"/>
@@ -5743,7 +5787,7 @@
       <c r="O108" s="28"/>
       <c r="P108" s="28"/>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
       <c r="D109" s="28"/>
@@ -5760,7 +5804,7 @@
       <c r="O109" s="28"/>
       <c r="P109" s="28"/>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B110" s="28"/>
       <c r="C110" s="28"/>
       <c r="D110" s="28"/>
@@ -5777,7 +5821,7 @@
       <c r="O110" s="28"/>
       <c r="P110" s="28"/>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B111" s="28"/>
       <c r="C111" s="28"/>
       <c r="D111" s="28"/>
@@ -5794,7 +5838,7 @@
       <c r="O111" s="28"/>
       <c r="P111" s="28"/>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B112" s="28"/>
       <c r="C112" s="28"/>
       <c r="D112" s="28"/>
@@ -5811,7 +5855,7 @@
       <c r="O112" s="28"/>
       <c r="P112" s="28"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B113" s="28"/>
       <c r="C113" s="28"/>
       <c r="D113" s="28"/>
@@ -5828,7 +5872,7 @@
       <c r="O113" s="28"/>
       <c r="P113" s="28"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B114" s="28"/>
       <c r="C114" s="28"/>
       <c r="D114" s="28"/>
@@ -5845,7 +5889,7 @@
       <c r="O114" s="28"/>
       <c r="P114" s="28"/>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B115" s="28"/>
       <c r="C115" s="28"/>
       <c r="D115" s="28"/>
@@ -5862,7 +5906,7 @@
       <c r="O115" s="28"/>
       <c r="P115" s="28"/>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B116" s="28"/>
       <c r="C116" s="28"/>
       <c r="D116" s="28"/>
@@ -5879,7 +5923,7 @@
       <c r="O116" s="28"/>
       <c r="P116" s="28"/>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
       <c r="D117" s="28"/>
@@ -5896,7 +5940,7 @@
       <c r="O117" s="28"/>
       <c r="P117" s="28"/>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
       <c r="D118" s="28"/>
@@ -5913,7 +5957,7 @@
       <c r="O118" s="28"/>
       <c r="P118" s="28"/>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B119" s="28"/>
       <c r="C119" s="28"/>
       <c r="D119" s="28"/>
@@ -5930,7 +5974,7 @@
       <c r="O119" s="28"/>
       <c r="P119" s="28"/>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B120" s="28"/>
       <c r="C120" s="28"/>
       <c r="D120" s="28"/>
@@ -5947,7 +5991,7 @@
       <c r="O120" s="28"/>
       <c r="P120" s="28"/>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
       <c r="D121" s="28"/>
@@ -5964,7 +6008,7 @@
       <c r="O121" s="28"/>
       <c r="P121" s="28"/>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
       <c r="D122" s="28"/>
@@ -5981,7 +6025,7 @@
       <c r="O122" s="28"/>
       <c r="P122" s="28"/>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
       <c r="D123" s="28"/>
@@ -5998,7 +6042,7 @@
       <c r="O123" s="28"/>
       <c r="P123" s="28"/>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
       <c r="D124" s="28"/>
@@ -6015,7 +6059,7 @@
       <c r="O124" s="28"/>
       <c r="P124" s="28"/>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B125" s="28"/>
       <c r="C125" s="28"/>
       <c r="D125" s="28"/>
@@ -6032,7 +6076,7 @@
       <c r="O125" s="28"/>
       <c r="P125" s="28"/>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B126" s="28"/>
       <c r="C126" s="28"/>
       <c r="D126" s="28"/>
@@ -6049,7 +6093,7 @@
       <c r="O126" s="28"/>
       <c r="P126" s="28"/>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B127" s="28"/>
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
@@ -6066,7 +6110,7 @@
       <c r="O127" s="28"/>
       <c r="P127" s="28"/>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
       <c r="D128" s="28"/>
@@ -6083,7 +6127,7 @@
       <c r="O128" s="28"/>
       <c r="P128" s="28"/>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B129" s="28"/>
       <c r="C129" s="28"/>
       <c r="D129" s="28"/>
@@ -6100,7 +6144,7 @@
       <c r="O129" s="28"/>
       <c r="P129" s="28"/>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B130" s="28"/>
       <c r="C130" s="28"/>
       <c r="D130" s="28"/>
@@ -6117,7 +6161,7 @@
       <c r="O130" s="28"/>
       <c r="P130" s="28"/>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
       <c r="D131" s="28"/>
@@ -6134,7 +6178,7 @@
       <c r="O131" s="28"/>
       <c r="P131" s="28"/>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
       <c r="D132" s="28"/>
@@ -6151,7 +6195,7 @@
       <c r="O132" s="28"/>
       <c r="P132" s="28"/>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
       <c r="D133" s="28"/>
@@ -6168,7 +6212,7 @@
       <c r="O133" s="28"/>
       <c r="P133" s="28"/>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B134" s="28"/>
       <c r="C134" s="28"/>
       <c r="D134" s="28"/>
@@ -6185,7 +6229,7 @@
       <c r="O134" s="28"/>
       <c r="P134" s="28"/>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B135" s="28"/>
       <c r="C135" s="28"/>
       <c r="D135" s="28"/>
@@ -6202,7 +6246,7 @@
       <c r="O135" s="28"/>
       <c r="P135" s="28"/>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B136" s="28"/>
       <c r="C136" s="28"/>
       <c r="D136" s="28"/>
@@ -6219,7 +6263,7 @@
       <c r="O136" s="28"/>
       <c r="P136" s="28"/>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
       <c r="D137" s="28"/>
@@ -6236,7 +6280,7 @@
       <c r="O137" s="28"/>
       <c r="P137" s="28"/>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B138" s="28"/>
       <c r="C138" s="28"/>
       <c r="D138" s="28"/>
@@ -6253,7 +6297,7 @@
       <c r="O138" s="28"/>
       <c r="P138" s="28"/>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B139" s="28"/>
       <c r="C139" s="28"/>
       <c r="D139" s="28"/>
@@ -6270,7 +6314,7 @@
       <c r="O139" s="28"/>
       <c r="P139" s="28"/>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B140" s="28"/>
       <c r="C140" s="28"/>
       <c r="D140" s="28"/>
@@ -6287,7 +6331,7 @@
       <c r="O140" s="28"/>
       <c r="P140" s="28"/>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B141" s="28"/>
       <c r="C141" s="28"/>
       <c r="D141" s="28"/>
@@ -6304,7 +6348,7 @@
       <c r="O141" s="28"/>
       <c r="P141" s="28"/>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B142" s="28"/>
       <c r="C142" s="28"/>
       <c r="D142" s="28"/>
@@ -6321,7 +6365,7 @@
       <c r="O142" s="28"/>
       <c r="P142" s="28"/>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B143" s="28"/>
       <c r="C143" s="28"/>
       <c r="D143" s="28"/>
@@ -6338,7 +6382,7 @@
       <c r="O143" s="28"/>
       <c r="P143" s="28"/>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B144" s="28"/>
       <c r="C144" s="28"/>
       <c r="D144" s="28"/>
@@ -6355,7 +6399,7 @@
       <c r="O144" s="28"/>
       <c r="P144" s="28"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
       <c r="D145" s="28"/>
@@ -6372,7 +6416,7 @@
       <c r="O145" s="28"/>
       <c r="P145" s="28"/>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B146" s="28"/>
       <c r="C146" s="28"/>
       <c r="D146" s="28"/>
@@ -6389,7 +6433,7 @@
       <c r="O146" s="28"/>
       <c r="P146" s="28"/>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B147" s="28"/>
       <c r="C147" s="28"/>
       <c r="D147" s="28"/>
@@ -6406,7 +6450,7 @@
       <c r="O147" s="28"/>
       <c r="P147" s="28"/>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B148" s="28"/>
       <c r="C148" s="28"/>
       <c r="D148" s="28"/>
@@ -6423,7 +6467,7 @@
       <c r="O148" s="28"/>
       <c r="P148" s="28"/>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
       <c r="D149" s="28"/>
@@ -6440,7 +6484,7 @@
       <c r="O149" s="28"/>
       <c r="P149" s="28"/>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
       <c r="D150" s="28"/>
@@ -6457,7 +6501,7 @@
       <c r="O150" s="28"/>
       <c r="P150" s="28"/>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
       <c r="D151" s="28"/>
@@ -6474,7 +6518,7 @@
       <c r="O151" s="28"/>
       <c r="P151" s="28"/>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B152" s="28"/>
       <c r="C152" s="28"/>
       <c r="D152" s="28"/>
@@ -6491,7 +6535,7 @@
       <c r="O152" s="28"/>
       <c r="P152" s="28"/>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
       <c r="D153" s="28"/>
@@ -6508,7 +6552,7 @@
       <c r="O153" s="28"/>
       <c r="P153" s="28"/>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B154" s="28"/>
       <c r="C154" s="28"/>
       <c r="D154" s="28"/>
@@ -6525,7 +6569,7 @@
       <c r="O154" s="28"/>
       <c r="P154" s="28"/>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B155" s="28"/>
       <c r="C155" s="28"/>
       <c r="D155" s="28"/>
@@ -6542,7 +6586,7 @@
       <c r="O155" s="28"/>
       <c r="P155" s="28"/>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B156" s="28"/>
       <c r="C156" s="28"/>
       <c r="D156" s="28"/>
@@ -6559,7 +6603,7 @@
       <c r="O156" s="28"/>
       <c r="P156" s="28"/>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B157" s="28"/>
       <c r="C157" s="28"/>
       <c r="D157" s="28"/>
@@ -6576,7 +6620,7 @@
       <c r="O157" s="28"/>
       <c r="P157" s="28"/>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
       <c r="D158" s="28"/>
@@ -6593,7 +6637,7 @@
       <c r="O158" s="28"/>
       <c r="P158" s="28"/>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
       <c r="D159" s="28"/>
@@ -6610,7 +6654,7 @@
       <c r="O159" s="28"/>
       <c r="P159" s="28"/>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
       <c r="D160" s="28"/>
@@ -6635,21 +6679,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T62" sqref="T62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5703125" style="2"/>
+    <col min="1" max="1" width="12.453125" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -6670,7 +6714,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -6691,7 +6735,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -6744,7 +6788,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>43908</v>
       </c>
@@ -6797,7 +6841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>43909</v>
       </c>
@@ -6850,7 +6894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>43910</v>
       </c>
@@ -6903,7 +6947,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>43911</v>
       </c>
@@ -6956,7 +7000,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>43912</v>
       </c>
@@ -7009,7 +7053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>43913</v>
       </c>
@@ -7062,7 +7106,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>43914</v>
       </c>
@@ -7115,7 +7159,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>43915</v>
       </c>
@@ -7168,7 +7212,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>43916</v>
       </c>
@@ -7221,7 +7265,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>43917</v>
       </c>
@@ -7274,7 +7318,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>43918</v>
       </c>
@@ -7327,7 +7371,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>43919</v>
       </c>
@@ -7380,7 +7424,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>43920</v>
       </c>
@@ -7433,7 +7477,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>43921</v>
       </c>
@@ -7486,7 +7530,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>43922</v>
       </c>
@@ -7539,7 +7583,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>43923</v>
       </c>
@@ -7592,7 +7636,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>43924</v>
       </c>
@@ -7645,7 +7689,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>43925</v>
       </c>
@@ -7698,7 +7742,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>43926</v>
       </c>
@@ -7751,7 +7795,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>43927</v>
       </c>
@@ -7804,7 +7848,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>43928</v>
       </c>
@@ -7857,7 +7901,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>43929</v>
       </c>
@@ -7910,7 +7954,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>43930</v>
       </c>
@@ -7963,7 +8007,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>43931</v>
       </c>
@@ -8016,7 +8060,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>43932</v>
       </c>
@@ -8069,7 +8113,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>43933</v>
       </c>
@@ -8122,7 +8166,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>43934</v>
       </c>
@@ -8175,7 +8219,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>43935</v>
       </c>
@@ -8228,7 +8272,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>43936</v>
       </c>
@@ -8281,7 +8325,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>43937</v>
       </c>
@@ -8334,7 +8378,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>43938</v>
       </c>
@@ -8387,7 +8431,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>43939</v>
       </c>
@@ -8440,7 +8484,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="30">
         <v>43940</v>
       </c>
@@ -8493,7 +8537,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="30">
         <v>43941</v>
       </c>
@@ -8546,7 +8590,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="30">
         <v>43942</v>
       </c>
@@ -8599,7 +8643,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="30">
         <v>43943</v>
       </c>
@@ -8652,7 +8696,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="30">
         <v>43944</v>
       </c>
@@ -8705,7 +8749,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="30">
         <v>43945</v>
       </c>
@@ -8758,7 +8802,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="30">
         <v>43946</v>
       </c>
@@ -8811,7 +8855,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="30">
         <v>43947</v>
       </c>
@@ -8864,7 +8908,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="30">
         <v>43948</v>
       </c>
@@ -8917,7 +8961,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="30">
         <v>43949</v>
       </c>
@@ -8970,7 +9014,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="30">
         <v>43950</v>
       </c>
@@ -9023,7 +9067,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="30">
         <v>43951</v>
       </c>
@@ -9076,7 +9120,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="30">
         <v>43952</v>
       </c>
@@ -9129,7 +9173,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="30">
         <v>43953</v>
       </c>
@@ -9182,7 +9226,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="30">
         <v>43954</v>
       </c>
@@ -9235,7 +9279,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="30">
         <v>43955</v>
       </c>
@@ -9288,7 +9332,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="30">
         <v>43956</v>
       </c>
@@ -9341,7 +9385,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="30">
         <v>43957</v>
       </c>
@@ -9394,7 +9438,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="30">
         <v>43958</v>
       </c>
@@ -9447,7 +9491,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="30">
         <v>43959</v>
       </c>
@@ -9500,7 +9544,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="30">
         <v>43960</v>
       </c>
@@ -9553,7 +9597,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="30">
         <v>43961</v>
       </c>
@@ -9606,7 +9650,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="30">
         <v>43962</v>
       </c>
@@ -9659,7 +9703,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="30">
         <v>43963</v>
       </c>
@@ -9712,7 +9756,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="30">
         <v>43964</v>
       </c>
@@ -9758,11 +9802,64 @@
       <c r="O60" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="P60" s="37">
-        <v>6</v>
+      <c r="P60" s="37" t="s">
+        <v>29</v>
       </c>
       <c r="Q60" s="13">
-        <v>70</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A61" s="30">
+        <v>43965</v>
+      </c>
+      <c r="B61" s="11">
+        <v>5</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" s="27">
+        <v>11</v>
+      </c>
+      <c r="H61" s="27">
+        <v>26</v>
+      </c>
+      <c r="I61" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J61" s="27">
+        <v>7</v>
+      </c>
+      <c r="K61" s="27">
+        <v>10</v>
+      </c>
+      <c r="L61" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M61" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N61" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O61" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P61" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q61" s="13">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -9773,23 +9870,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="K41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5703125" style="2"/>
+    <col min="1" max="1" width="15.1796875" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -9810,7 +9907,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -9831,7 +9928,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -9884,7 +9981,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -9937,7 +10034,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -9990,7 +10087,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -10043,7 +10140,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -10096,7 +10193,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -10149,7 +10246,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -10202,7 +10299,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -10255,7 +10352,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -10308,7 +10405,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -10361,7 +10458,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -10414,7 +10511,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -10467,7 +10564,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -10520,7 +10617,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -10573,7 +10670,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -10626,7 +10723,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -10679,7 +10776,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -10732,7 +10829,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -10785,7 +10882,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -10838,7 +10935,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -10891,7 +10988,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -10944,7 +11041,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -10997,7 +11094,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -11050,7 +11147,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -11103,7 +11200,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -11156,7 +11253,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -11209,7 +11306,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -11262,7 +11359,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -11315,7 +11412,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -11368,7 +11465,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -11421,7 +11518,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -11474,7 +11571,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -11527,7 +11624,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -11580,7 +11677,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -11633,7 +11730,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -11686,7 +11783,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -11739,7 +11836,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -11792,7 +11889,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -11845,7 +11942,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -11898,7 +11995,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -11951,7 +12048,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -12004,7 +12101,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -12057,7 +12154,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -12110,7 +12207,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -12163,7 +12260,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -12216,7 +12313,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="30">
         <v>43960</v>
       </c>
@@ -12269,7 +12366,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="30">
         <v>43961</v>
       </c>
@@ -12322,7 +12419,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="30">
         <v>43962</v>
       </c>
@@ -12375,7 +12472,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="30">
         <v>43963</v>
       </c>
@@ -12428,7 +12525,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="30">
         <v>43964</v>
       </c>
@@ -12479,6 +12576,59 @@
       </c>
       <c r="Q52" s="32">
         <v>1101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A53" s="30">
+        <v>43965</v>
+      </c>
+      <c r="B53" s="11">
+        <v>41</v>
+      </c>
+      <c r="C53" s="11">
+        <v>27</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="11">
+        <v>76</v>
+      </c>
+      <c r="F53" s="11">
+        <v>22</v>
+      </c>
+      <c r="G53" s="11">
+        <v>98</v>
+      </c>
+      <c r="H53" s="11">
+        <v>473</v>
+      </c>
+      <c r="I53" s="11">
+        <v>5</v>
+      </c>
+      <c r="J53" s="11">
+        <v>122</v>
+      </c>
+      <c r="K53" s="11">
+        <v>203</v>
+      </c>
+      <c r="L53" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M53" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N53" s="11">
+        <v>25</v>
+      </c>
+      <c r="O53" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P53" s="11">
+        <v>6</v>
+      </c>
+      <c r="Q53" s="32">
+        <v>1100</v>
       </c>
     </row>
   </sheetData>
@@ -12489,23 +12639,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="Q62" sqref="Q61:Q62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5703125" style="2"/>
+    <col min="1" max="1" width="12.453125" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -12526,7 +12676,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -12547,7 +12697,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -12600,7 +12750,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -12653,7 +12803,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -12706,7 +12856,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -12759,7 +12909,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -12812,7 +12962,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -12865,7 +13015,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -12918,7 +13068,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -12971,7 +13121,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -13024,7 +13174,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -13077,7 +13227,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -13130,7 +13280,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -13183,7 +13333,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -13236,7 +13386,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -13289,7 +13439,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -13342,7 +13492,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -13395,7 +13545,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -13448,7 +13598,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -13501,7 +13651,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -13554,7 +13704,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -13607,7 +13757,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -13660,7 +13810,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -13713,7 +13863,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -13766,7 +13916,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -13819,7 +13969,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -13872,7 +14022,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -13925,7 +14075,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -13978,7 +14128,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -14031,7 +14181,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -14084,7 +14234,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -14137,7 +14287,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -14190,7 +14340,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -14243,7 +14393,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -14296,7 +14446,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -14349,7 +14499,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -14402,7 +14552,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -14455,7 +14605,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -14508,7 +14658,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -14561,7 +14711,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -14614,7 +14764,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -14667,7 +14817,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -14720,7 +14870,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -14773,7 +14923,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -14826,7 +14976,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -14879,7 +15029,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -14932,7 +15082,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="30">
         <v>43960</v>
       </c>
@@ -14985,7 +15135,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="30">
         <v>43961</v>
       </c>
@@ -15038,7 +15188,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="30">
         <v>43962</v>
       </c>
@@ -15091,7 +15241,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="30">
         <v>43963</v>
       </c>
@@ -15144,7 +15294,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="30">
         <v>43964</v>
       </c>
@@ -15195,6 +15345,59 @@
       </c>
       <c r="Q52" s="13">
         <v>433</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A53" s="30">
+        <v>43965</v>
+      </c>
+      <c r="B53" s="11">
+        <v>24</v>
+      </c>
+      <c r="C53" s="11">
+        <v>17</v>
+      </c>
+      <c r="D53" s="14">
+        <v>7</v>
+      </c>
+      <c r="E53" s="11">
+        <v>32</v>
+      </c>
+      <c r="F53" s="11">
+        <v>50</v>
+      </c>
+      <c r="G53" s="11">
+        <v>53</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I53" s="11">
+        <v>28</v>
+      </c>
+      <c r="J53" s="11">
+        <v>61</v>
+      </c>
+      <c r="K53" s="11">
+        <v>88</v>
+      </c>
+      <c r="L53" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M53" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N53" s="11">
+        <v>18</v>
+      </c>
+      <c r="O53" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P53" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q53" s="13">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -15202,7 +15405,7 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXML/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://www.objective.com/ecm/document/metadata/53D26341A57B383EE0540010E0463CCA" version="1.0.0">
   <systemFields>
     <field name="Objective-Id">
@@ -15221,13 +15424,13 @@
       <value order="0">false</value>
     </field>
     <field name="Objective-IsPublished">
-      <value order="0">false</value>
+      <value order="0">true</value>
     </field>
     <field name="Objective-DatePublished">
-      <value order="0"/>
+      <value order="0">2020-05-14T12:37:21Z</value>
     </field>
     <field name="Objective-ModificationStamp">
-      <value order="0">2020-05-13T12:44:44Z</value>
+      <value order="0">2020-05-14T12:37:21Z</value>
     </field>
     <field name="Objective-Owner">
       <value order="0">Grant, Neil N (u207826)</value>
@@ -15239,16 +15442,16 @@
       <value order="0">Analytical: COVID 19 Analysis: Restricted working papers: Research and analysis: Diseases: 2020-2025</value>
     </field>
     <field name="Objective-State">
-      <value order="0">Being Edited</value>
+      <value order="0">Published</value>
     </field>
     <field name="Objective-VersionId">
-      <value order="0">vA41121127</value>
+      <value order="0">vA41150481</value>
     </field>
     <field name="Objective-Version">
-      <value order="0">9.17</value>
+      <value order="0">10.0</value>
     </field>
     <field name="Objective-VersionNumber">
-      <value order="0">82</value>
+      <value order="0">86</value>
     </field>
     <field name="Objective-VersionComment">
       <value order="0"/>
@@ -15285,7 +15488,7 @@
 </metadata>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXML/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5745109E-2DDF-40CB-AC2B-FF9B10C90820}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.objective.com/ecm/document/metadata/53D26341A57B383EE0540010E0463CCA"/>

--- a/data/csv/src/data_latest_sct.xlsx
+++ b/data/csv/src/data_latest_sct.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5990" windowHeight="6020" tabRatio="803"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5990" windowHeight="6010" tabRatio="803"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -1620,7 +1620,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A73" sqref="A73"/>
+      <selection pane="bottomRight" activeCell="P73" sqref="P73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5176,21 +5176,54 @@
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="28"/>
-      <c r="M73" s="28"/>
-      <c r="N73" s="28"/>
-      <c r="O73" s="28"/>
-      <c r="P73" s="28"/>
+      <c r="A73" s="5">
+        <v>43966</v>
+      </c>
+      <c r="B73" s="28">
+        <v>964</v>
+      </c>
+      <c r="C73" s="28">
+        <v>304</v>
+      </c>
+      <c r="D73" s="28">
+        <v>255</v>
+      </c>
+      <c r="E73" s="28">
+        <v>824</v>
+      </c>
+      <c r="F73" s="28">
+        <v>867</v>
+      </c>
+      <c r="G73" s="28">
+        <v>1152</v>
+      </c>
+      <c r="H73" s="28">
+        <v>3663</v>
+      </c>
+      <c r="I73" s="28">
+        <v>331</v>
+      </c>
+      <c r="J73" s="28">
+        <v>1781</v>
+      </c>
+      <c r="K73" s="28">
+        <v>2497</v>
+      </c>
+      <c r="L73" s="28">
+        <v>7</v>
+      </c>
+      <c r="M73" s="28">
+        <v>54</v>
+      </c>
+      <c r="N73" s="28">
+        <v>1555</v>
+      </c>
+      <c r="O73" s="28">
+        <v>6</v>
+      </c>
+      <c r="P73" s="32">
+        <v>14260</v>
+      </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B74" s="28"/>
@@ -6679,11 +6712,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T62" sqref="T62"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N69" sqref="N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9862,6 +9895,59 @@
         <v>71</v>
       </c>
     </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A62" s="30">
+        <v>43966</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" s="27">
+        <v>8</v>
+      </c>
+      <c r="H62" s="27">
+        <v>22</v>
+      </c>
+      <c r="I62" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J62" s="27">
+        <v>12</v>
+      </c>
+      <c r="K62" s="27">
+        <v>12</v>
+      </c>
+      <c r="L62" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M62" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N62" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O62" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P62" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q62" s="13">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -9870,18 +9956,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="K41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A53" sqref="A53"/>
+      <selection pane="bottomRight" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" style="11" customWidth="1"/>
     <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
     <col min="18" max="16384" width="8.54296875" style="2"/>
   </cols>
@@ -12631,6 +12717,59 @@
         <v>1100</v>
       </c>
     </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A54" s="30">
+        <v>43966</v>
+      </c>
+      <c r="B54" s="11">
+        <v>42</v>
+      </c>
+      <c r="C54" s="11">
+        <v>25</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="11">
+        <v>75</v>
+      </c>
+      <c r="F54" s="11">
+        <v>21</v>
+      </c>
+      <c r="G54" s="11">
+        <v>96</v>
+      </c>
+      <c r="H54" s="11">
+        <v>460</v>
+      </c>
+      <c r="I54" s="11">
+        <v>5</v>
+      </c>
+      <c r="J54" s="11">
+        <v>113</v>
+      </c>
+      <c r="K54" s="11">
+        <v>200</v>
+      </c>
+      <c r="L54" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M54" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N54" s="11">
+        <v>23</v>
+      </c>
+      <c r="O54" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P54" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q54" s="32">
+        <v>1066</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -12639,13 +12778,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q62" sqref="Q61:Q62"/>
+      <selection pane="bottomRight" activeCell="P61" sqref="P61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15398,6 +15537,59 @@
       </c>
       <c r="Q53" s="13">
         <v>380</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A54" s="30">
+        <v>43966</v>
+      </c>
+      <c r="B54" s="11">
+        <v>25</v>
+      </c>
+      <c r="C54" s="11">
+        <v>9</v>
+      </c>
+      <c r="D54" s="14">
+        <v>13</v>
+      </c>
+      <c r="E54" s="11">
+        <v>28</v>
+      </c>
+      <c r="F54" s="11">
+        <v>39</v>
+      </c>
+      <c r="G54" s="11">
+        <v>53</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I54" s="11">
+        <v>27</v>
+      </c>
+      <c r="J54" s="11">
+        <v>84</v>
+      </c>
+      <c r="K54" s="11">
+        <v>87</v>
+      </c>
+      <c r="L54" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M54" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N54" s="11">
+        <v>12</v>
+      </c>
+      <c r="O54" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P54" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q54" s="13">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -15427,10 +15619,10 @@
       <value order="0">true</value>
     </field>
     <field name="Objective-DatePublished">
-      <value order="0">2020-05-14T12:37:21Z</value>
+      <value order="0">2020-05-15T12:33:03Z</value>
     </field>
     <field name="Objective-ModificationStamp">
-      <value order="0">2020-05-14T12:37:21Z</value>
+      <value order="0">2020-05-15T12:33:03Z</value>
     </field>
     <field name="Objective-Owner">
       <value order="0">Grant, Neil N (u207826)</value>
@@ -15445,13 +15637,13 @@
       <value order="0">Published</value>
     </field>
     <field name="Objective-VersionId">
-      <value order="0">vA41150481</value>
+      <value order="0">vA41179421</value>
     </field>
     <field name="Objective-Version">
-      <value order="0">10.0</value>
+      <value order="0">11.0</value>
     </field>
     <field name="Objective-VersionNumber">
-      <value order="0">86</value>
+      <value order="0">89</value>
     </field>
     <field name="Objective-VersionComment">
       <value order="0"/>

--- a/data/csv/src/data_latest_sct.xlsx
+++ b/data/csv/src/data_latest_sct.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u207826\Objective\Objects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\scotland.gov.uk\dc2\fs3_home\u205774\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5990" windowHeight="6010" tabRatio="803"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5990" windowHeight="6010" tabRatio="803" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -703,6 +703,23 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-GB" sz="1100">
               <a:effectLst/>
@@ -710,7 +727,44 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>4. It should be noted that testing capacity tends to be lower at weekends, and on public holidays.</a:t>
+            <a:t>4. No data has been received since 12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="30000">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>th</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> May for tests conducted at the NHS Western Isles lab. This lab sends some samples to other labs for testing and these have contained no positive cases.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5. It should be noted that testing capacity tends to be lower at weekends, and on public holidays.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -732,7 +786,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>5. Where errors have been found in previous reported numbers, these have been corrected. </a:t>
+            <a:t>6. Where errors have been found in previous reported numbers, these have been corrected. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -800,7 +854,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>6. The data in Table 2, 3a and 3b includes a snapshot of:</a:t>
+            <a:t>7. The data in Table 2, 3a and 3b includes a snapshot of:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -967,7 +1021,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>7. NHS Boards provide Scottish Government with management information on the numbers of patients in ICU with confirmed or suspected COVID-19 at midnight – this is intended to provide information on patients receiving ICU level 3 care. A small number of NHS Boards have some combined ICU/HDU units and provide information on those units. For example NHS Tayside had included a standalone HDU in returns before 7</a:t>
+            <a:t>8. NHS Boards provide Scottish Government with management information on the numbers of patients in ICU with confirmed or suspected COVID-19 at midnight – this is intended to provide information on patients receiving ICU level 3 care. A small number of NHS Boards have some combined ICU/HDU units and provide information on those units. For example NHS Tayside had included a standalone HDU in returns before 7</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="30000">
@@ -1022,7 +1076,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>8. The number of patients in hospital or ICU reported each day refers to the number of patients overnight, at midnight on the preceding night.</a:t>
+            <a:t>9. The number of patients in hospital or ICU reported each day refers to the number of patients overnight, at midnight on the preceding night.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1044,7 +1098,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>9. Where Boards do not provide their overnight data in time for the daily publication, the previous day’s data will be used and highlighted on each occasion. The figure will be revised the subsequent day to include the correct data. Figures may also be revised if Boards discover an error and have to resubmit their data. </a:t>
+            <a:t>10. Where Boards do not provide their overnight data in time for the daily publication, the previous day’s data will be used and highlighted on each occasion. The figure will be revised the subsequent day to include the correct data. Figures may also be revised if Boards discover an error and have to resubmit their data. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1150,7 +1204,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>10. Other minor variations in the daily returns from Boards (for tables 2 and 3a and 3b) include:</a:t>
+            <a:t>11. Other minor variations in the daily returns from Boards (for tables 2 and 3a and 3b) include:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1505,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1593,9 +1647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1617,10 +1669,10 @@
   <dimension ref="A1:S160"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="H55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P73" sqref="P73"/>
+      <selection pane="bottomRight" activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5226,21 +5278,54 @@
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
-      <c r="K74" s="28"/>
-      <c r="L74" s="28"/>
-      <c r="M74" s="28"/>
-      <c r="N74" s="28"/>
-      <c r="O74" s="28"/>
-      <c r="P74" s="28"/>
+      <c r="A74" s="5">
+        <v>43967</v>
+      </c>
+      <c r="B74" s="28">
+        <v>966</v>
+      </c>
+      <c r="C74" s="28">
+        <v>310</v>
+      </c>
+      <c r="D74" s="28">
+        <v>257</v>
+      </c>
+      <c r="E74" s="28">
+        <v>824</v>
+      </c>
+      <c r="F74" s="28">
+        <v>871</v>
+      </c>
+      <c r="G74" s="28">
+        <v>1181</v>
+      </c>
+      <c r="H74" s="28">
+        <v>3707</v>
+      </c>
+      <c r="I74" s="28">
+        <v>331</v>
+      </c>
+      <c r="J74" s="28">
+        <v>1812</v>
+      </c>
+      <c r="K74" s="28">
+        <v>2539</v>
+      </c>
+      <c r="L74" s="28">
+        <v>7</v>
+      </c>
+      <c r="M74" s="28">
+        <v>54</v>
+      </c>
+      <c r="N74" s="28">
+        <v>1582</v>
+      </c>
+      <c r="O74" s="28">
+        <v>6</v>
+      </c>
+      <c r="P74" s="32">
+        <v>14447</v>
+      </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B75" s="28"/>
@@ -6712,11 +6797,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N69" sqref="N69"/>
+      <selection pane="bottomLeft" activeCell="L67" sqref="L67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9948,6 +10033,59 @@
         <v>71</v>
       </c>
     </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A63" s="30">
+        <v>43967</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" s="27">
+        <v>5</v>
+      </c>
+      <c r="H63" s="27">
+        <v>21</v>
+      </c>
+      <c r="I63" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J63" s="27">
+        <v>10</v>
+      </c>
+      <c r="K63" s="27">
+        <v>11</v>
+      </c>
+      <c r="L63" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M63" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N63" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O63" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P63" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q63" s="13">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -9956,13 +10094,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E54" sqref="E54"/>
+      <selection pane="bottomRight" activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12770,6 +12908,59 @@
         <v>1066</v>
       </c>
     </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A55" s="30">
+        <v>43967</v>
+      </c>
+      <c r="B55" s="11">
+        <v>33</v>
+      </c>
+      <c r="C55" s="11">
+        <v>25</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="11">
+        <v>74</v>
+      </c>
+      <c r="F55" s="11">
+        <v>19</v>
+      </c>
+      <c r="G55" s="11">
+        <v>92</v>
+      </c>
+      <c r="H55" s="11">
+        <v>433</v>
+      </c>
+      <c r="I55" s="11">
+        <v>7</v>
+      </c>
+      <c r="J55" s="11">
+        <v>107</v>
+      </c>
+      <c r="K55" s="11">
+        <v>193</v>
+      </c>
+      <c r="L55" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M55" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N55" s="11">
+        <v>22</v>
+      </c>
+      <c r="O55" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P55" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q55" s="32">
+        <v>1011</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -12778,13 +12969,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P61" sqref="P61"/>
+      <selection pane="bottomRight" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15592,12 +15783,65 @@
         <v>383</v>
       </c>
     </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A55" s="30">
+        <v>43967</v>
+      </c>
+      <c r="B55" s="11">
+        <v>38</v>
+      </c>
+      <c r="C55" s="11">
+        <v>15</v>
+      </c>
+      <c r="D55" s="14">
+        <v>21</v>
+      </c>
+      <c r="E55" s="11">
+        <v>24</v>
+      </c>
+      <c r="F55" s="11">
+        <v>36</v>
+      </c>
+      <c r="G55" s="11">
+        <v>31</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I55" s="11">
+        <v>25</v>
+      </c>
+      <c r="J55" s="11">
+        <v>74</v>
+      </c>
+      <c r="K55" s="11">
+        <v>130</v>
+      </c>
+      <c r="L55" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M55" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N55" s="11">
+        <v>9</v>
+      </c>
+      <c r="O55" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P55" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q55" s="13">
+        <v>405</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=customXML/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://www.objective.com/ecm/document/metadata/53D26341A57B383EE0540010E0463CCA" version="1.0.0">
   <systemFields>
     <field name="Objective-Id">
@@ -15616,13 +15860,13 @@
       <value order="0">false</value>
     </field>
     <field name="Objective-IsPublished">
-      <value order="0">true</value>
+      <value order="0">false</value>
     </field>
     <field name="Objective-DatePublished">
-      <value order="0">2020-05-15T12:33:03Z</value>
+      <value order="0"/>
     </field>
     <field name="Objective-ModificationStamp">
-      <value order="0">2020-05-15T12:33:03Z</value>
+      <value order="0">2020-05-16T14:52:27Z</value>
     </field>
     <field name="Objective-Owner">
       <value order="0">Grant, Neil N (u207826)</value>
@@ -15634,16 +15878,16 @@
       <value order="0">Analytical: COVID 19 Analysis: Restricted working papers: Research and analysis: Diseases: 2020-2025</value>
     </field>
     <field name="Objective-State">
-      <value order="0">Published</value>
+      <value order="0">Being Drafted</value>
     </field>
     <field name="Objective-VersionId">
-      <value order="0">vA41179421</value>
+      <value order="0">vA41192275</value>
     </field>
     <field name="Objective-Version">
-      <value order="0">11.0</value>
+      <value order="0">12.3</value>
     </field>
     <field name="Objective-VersionNumber">
-      <value order="0">89</value>
+      <value order="0">95</value>
     </field>
     <field name="Objective-VersionComment">
       <value order="0"/>
@@ -15680,7 +15924,7 @@
 </metadata>
 </file>
 
-<file path=customXML/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5745109E-2DDF-40CB-AC2B-FF9B10C90820}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.objective.com/ecm/document/metadata/53D26341A57B383EE0540010E0463CCA"/>

--- a/data/csv/src/data_latest_sct.xlsx
+++ b/data/csv/src/data_latest_sct.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\scotland.gov.uk\dc2\fs3_home\u205774\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u419207\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA10434\A28088333\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5990" windowHeight="6010" tabRatio="803" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5990" windowHeight="6020" tabRatio="803" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -1647,7 +1647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1668,11 +1668,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S160"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="H55" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="H56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M59" sqref="M59"/>
+      <selection pane="bottomRight" activeCell="R75" sqref="R75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5328,21 +5328,54 @@
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="28"/>
-      <c r="M75" s="28"/>
-      <c r="N75" s="28"/>
-      <c r="O75" s="28"/>
-      <c r="P75" s="28"/>
+      <c r="A75" s="5">
+        <v>43968</v>
+      </c>
+      <c r="B75" s="28">
+        <v>974</v>
+      </c>
+      <c r="C75" s="28">
+        <v>313</v>
+      </c>
+      <c r="D75" s="28">
+        <v>257</v>
+      </c>
+      <c r="E75" s="28">
+        <v>824</v>
+      </c>
+      <c r="F75" s="28">
+        <v>873</v>
+      </c>
+      <c r="G75" s="28">
+        <v>1189</v>
+      </c>
+      <c r="H75" s="28">
+        <v>3731</v>
+      </c>
+      <c r="I75" s="28">
+        <v>331</v>
+      </c>
+      <c r="J75" s="28">
+        <v>1828</v>
+      </c>
+      <c r="K75" s="28">
+        <v>2561</v>
+      </c>
+      <c r="L75" s="28">
+        <v>7</v>
+      </c>
+      <c r="M75" s="28">
+        <v>54</v>
+      </c>
+      <c r="N75" s="28">
+        <v>1589</v>
+      </c>
+      <c r="O75" s="28">
+        <v>6</v>
+      </c>
+      <c r="P75" s="32">
+        <v>14537</v>
+      </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B76" s="28"/>
@@ -6797,11 +6830,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L67" sqref="L67"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10086,6 +10119,59 @@
         <v>59</v>
       </c>
     </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A64" s="30">
+        <v>43968</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" s="11">
+        <v>5</v>
+      </c>
+      <c r="H64" s="11">
+        <v>20</v>
+      </c>
+      <c r="I64" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J64" s="11">
+        <v>11</v>
+      </c>
+      <c r="K64" s="11">
+        <v>7</v>
+      </c>
+      <c r="L64" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M64" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N64" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O64" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P64" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q64" s="36">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -10094,18 +10180,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I55" sqref="I55"/>
+      <selection pane="bottomRight" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" style="11" customWidth="1"/>
     <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
     <col min="18" max="16384" width="8.54296875" style="2"/>
   </cols>
@@ -12961,6 +13047,59 @@
         <v>1011</v>
       </c>
     </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A56" s="30">
+        <v>43968</v>
+      </c>
+      <c r="B56" s="11">
+        <v>32</v>
+      </c>
+      <c r="C56" s="11">
+        <v>26</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="11">
+        <v>76</v>
+      </c>
+      <c r="F56" s="11">
+        <v>19</v>
+      </c>
+      <c r="G56" s="11">
+        <v>89</v>
+      </c>
+      <c r="H56" s="11">
+        <v>432</v>
+      </c>
+      <c r="I56" s="11">
+        <v>6</v>
+      </c>
+      <c r="J56" s="11">
+        <v>107</v>
+      </c>
+      <c r="K56" s="11">
+        <v>192</v>
+      </c>
+      <c r="L56" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M56" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N56" s="11">
+        <v>23</v>
+      </c>
+      <c r="O56" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P56" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q56" s="32">
+        <v>1007</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -12969,13 +13108,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F74" sqref="F74"/>
+      <selection pane="bottomRight" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15836,12 +15975,65 @@
         <v>405</v>
       </c>
     </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A56" s="30">
+        <v>43968</v>
+      </c>
+      <c r="B56" s="11">
+        <v>48</v>
+      </c>
+      <c r="C56" s="11">
+        <v>14</v>
+      </c>
+      <c r="D56" s="11">
+        <v>15</v>
+      </c>
+      <c r="E56" s="11">
+        <v>21</v>
+      </c>
+      <c r="F56" s="11">
+        <v>43</v>
+      </c>
+      <c r="G56" s="11">
+        <v>28</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I56" s="11">
+        <v>30</v>
+      </c>
+      <c r="J56" s="11">
+        <v>28</v>
+      </c>
+      <c r="K56" s="11">
+        <v>52</v>
+      </c>
+      <c r="L56" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M56" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N56" s="11">
+        <v>20</v>
+      </c>
+      <c r="O56" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P56" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q56" s="36">
+        <v>301</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXML/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://www.objective.com/ecm/document/metadata/53D26341A57B383EE0540010E0463CCA" version="1.0.0">
   <systemFields>
     <field name="Objective-Id">
@@ -15866,7 +16058,7 @@
       <value order="0"/>
     </field>
     <field name="Objective-ModificationStamp">
-      <value order="0">2020-05-16T14:52:27Z</value>
+      <value order="0">2020-05-17T11:33:36Z</value>
     </field>
     <field name="Objective-Owner">
       <value order="0">Grant, Neil N (u207826)</value>
@@ -15881,16 +16073,16 @@
       <value order="0">Being Drafted</value>
     </field>
     <field name="Objective-VersionId">
-      <value order="0">vA41192275</value>
+      <value order="0">vA41193538</value>
     </field>
     <field name="Objective-Version">
-      <value order="0">12.3</value>
+      <value order="0">12.5</value>
     </field>
     <field name="Objective-VersionNumber">
-      <value order="0">95</value>
+      <value order="0">97</value>
     </field>
     <field name="Objective-VersionComment">
-      <value order="0"/>
+      <value order="0">boards testing update</value>
     </field>
     <field name="Objective-FileNumber">
       <value order="0">PUBRES/4199</value>
@@ -15924,7 +16116,7 @@
 </metadata>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXML/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5745109E-2DDF-40CB-AC2B-FF9B10C90820}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.objective.com/ecm/document/metadata/53D26341A57B383EE0540010E0463CCA"/>

--- a/data/csv/src/data_latest_sct.xlsx
+++ b/data/csv/src/data_latest_sct.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u419207\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA10434\A28088333\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Z616594\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA19704\A28088333\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5990" windowHeight="6020" tabRatio="803" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5985" windowHeight="6015" tabRatio="803" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -1563,21 +1563,21 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="90.453125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.453125" style="2"/>
+    <col min="2" max="2" width="29.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="90.42578125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
@@ -1593,13 +1593,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="23"/>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>26</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>27</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>36</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
         <v>37</v>
       </c>
@@ -1649,12 +1649,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.453125" style="2"/>
+    <col min="1" max="16384" width="9.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="44" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
     </row>
   </sheetData>
@@ -1669,20 +1669,20 @@
   <dimension ref="A1:S160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="H56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R75" sqref="R75"/>
+      <selection pane="bottomRight" activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
-    <col min="2" max="16" width="11.453125" style="11" customWidth="1"/>
-    <col min="17" max="16384" width="8.54296875" style="2"/>
+    <col min="2" max="16" width="11.42578125" style="11" customWidth="1"/>
+    <col min="17" max="16384" width="8.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1702,7 +1702,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -1721,7 +1721,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43897</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>43898</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>43899</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>43900</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>43901</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>43902</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>43903</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>43904</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>43905</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>43906</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>43907</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>43908</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>43909</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>43910</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>43911</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>43912</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>43913</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>43914</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>43915</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>43916</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>43917</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>43918</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>43919</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>43920</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>43921</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>43922</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>43923</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>43924</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>43925</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>43926</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>3706</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>43927</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>3961</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>43928</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>43929</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>43930</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>4957</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>43931</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>5275</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>43932</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>5590</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>43933</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>5912</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>43934</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>6067</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>43935</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>6358</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>43936</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>6748</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43937</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>7102</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>43938</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>43939</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>7820</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>43940</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>8187</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>43941</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>8450</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>43942</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>8672</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>43943</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>9038</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>43944</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>9409</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>43945</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>9697</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>43946</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>10051</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>43947</v>
       </c>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="R54" s="38"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>43948</v>
       </c>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="R55" s="38"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>43949</v>
       </c>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="R56" s="39"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>43950</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>11034</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>43951</v>
       </c>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="R58" s="38"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>43952</v>
       </c>
@@ -4577,7 +4577,7 @@
       <c r="R59" s="38"/>
       <c r="S59" s="38"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>43953</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>11927</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>43954</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>12097</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>43955</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>12266</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>43956</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>12437</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>43957</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>12709</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>43958</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>12924</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>43959</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>13149</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>43960</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>13305</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>43961</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>13486</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>43962</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>13627</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>43963</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>13763</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>43964</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>13929</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>43965</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>14117</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>43966</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>14260</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>43967</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>14447</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>43968</v>
       </c>
@@ -5377,24 +5377,57 @@
         <v>14537</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="28"/>
-      <c r="L76" s="28"/>
-      <c r="M76" s="28"/>
-      <c r="N76" s="28"/>
-      <c r="O76" s="28"/>
-      <c r="P76" s="28"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>43969</v>
+      </c>
+      <c r="B76" s="28">
+        <v>976</v>
+      </c>
+      <c r="C76" s="28">
+        <v>316</v>
+      </c>
+      <c r="D76" s="28">
+        <v>257</v>
+      </c>
+      <c r="E76" s="28">
+        <v>824</v>
+      </c>
+      <c r="F76" s="28">
+        <v>880</v>
+      </c>
+      <c r="G76" s="28">
+        <v>1200</v>
+      </c>
+      <c r="H76" s="28">
+        <v>3742</v>
+      </c>
+      <c r="I76" s="28">
+        <v>331</v>
+      </c>
+      <c r="J76" s="28">
+        <v>1840</v>
+      </c>
+      <c r="K76" s="28">
+        <v>2568</v>
+      </c>
+      <c r="L76" s="28">
+        <v>7</v>
+      </c>
+      <c r="M76" s="28">
+        <v>54</v>
+      </c>
+      <c r="N76" s="28">
+        <v>1593</v>
+      </c>
+      <c r="O76" s="41">
+        <v>6</v>
+      </c>
+      <c r="P76" s="32">
+        <v>14594</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
       <c r="D77" s="28"/>
@@ -5411,7 +5444,7 @@
       <c r="O77" s="28"/>
       <c r="P77" s="28"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
       <c r="D78" s="28"/>
@@ -5428,7 +5461,7 @@
       <c r="O78" s="28"/>
       <c r="P78" s="28"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
       <c r="D79" s="28"/>
@@ -5445,7 +5478,7 @@
       <c r="O79" s="28"/>
       <c r="P79" s="28"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
       <c r="D80" s="28"/>
@@ -5462,7 +5495,7 @@
       <c r="O80" s="28"/>
       <c r="P80" s="28"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
       <c r="D81" s="28"/>
@@ -5479,7 +5512,7 @@
       <c r="O81" s="28"/>
       <c r="P81" s="28"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" s="28"/>
       <c r="C82" s="28"/>
       <c r="D82" s="28"/>
@@ -5496,7 +5529,7 @@
       <c r="O82" s="28"/>
       <c r="P82" s="28"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
       <c r="D83" s="28"/>
@@ -5513,7 +5546,7 @@
       <c r="O83" s="28"/>
       <c r="P83" s="28"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B84" s="28"/>
       <c r="C84" s="28"/>
       <c r="D84" s="28"/>
@@ -5530,7 +5563,7 @@
       <c r="O84" s="28"/>
       <c r="P84" s="28"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B85" s="28"/>
       <c r="C85" s="28"/>
       <c r="D85" s="28"/>
@@ -5547,7 +5580,7 @@
       <c r="O85" s="28"/>
       <c r="P85" s="28"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" s="28"/>
       <c r="C86" s="28"/>
       <c r="D86" s="28"/>
@@ -5564,7 +5597,7 @@
       <c r="O86" s="28"/>
       <c r="P86" s="28"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
       <c r="D87" s="28"/>
@@ -5581,7 +5614,7 @@
       <c r="O87" s="28"/>
       <c r="P87" s="28"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B88" s="28"/>
       <c r="C88" s="28"/>
       <c r="D88" s="28"/>
@@ -5598,7 +5631,7 @@
       <c r="O88" s="28"/>
       <c r="P88" s="28"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
       <c r="D89" s="28"/>
@@ -5615,7 +5648,7 @@
       <c r="O89" s="28"/>
       <c r="P89" s="28"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" s="28"/>
       <c r="C90" s="28"/>
       <c r="D90" s="28"/>
@@ -5632,7 +5665,7 @@
       <c r="O90" s="28"/>
       <c r="P90" s="28"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
       <c r="D91" s="28"/>
@@ -5649,7 +5682,7 @@
       <c r="O91" s="28"/>
       <c r="P91" s="28"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B92" s="28"/>
       <c r="C92" s="28"/>
       <c r="D92" s="28"/>
@@ -5666,7 +5699,7 @@
       <c r="O92" s="28"/>
       <c r="P92" s="28"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
       <c r="D93" s="28"/>
@@ -5683,7 +5716,7 @@
       <c r="O93" s="28"/>
       <c r="P93" s="28"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
       <c r="D94" s="28"/>
@@ -5700,7 +5733,7 @@
       <c r="O94" s="28"/>
       <c r="P94" s="28"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
       <c r="D95" s="28"/>
@@ -5717,7 +5750,7 @@
       <c r="O95" s="28"/>
       <c r="P95" s="28"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
       <c r="D96" s="28"/>
@@ -5734,7 +5767,7 @@
       <c r="O96" s="28"/>
       <c r="P96" s="28"/>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
@@ -5751,7 +5784,7 @@
       <c r="O97" s="28"/>
       <c r="P97" s="28"/>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
       <c r="D98" s="28"/>
@@ -5768,7 +5801,7 @@
       <c r="O98" s="28"/>
       <c r="P98" s="28"/>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
       <c r="D99" s="28"/>
@@ -5785,7 +5818,7 @@
       <c r="O99" s="28"/>
       <c r="P99" s="28"/>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
       <c r="D100" s="28"/>
@@ -5802,7 +5835,7 @@
       <c r="O100" s="28"/>
       <c r="P100" s="28"/>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
       <c r="D101" s="28"/>
@@ -5819,7 +5852,7 @@
       <c r="O101" s="28"/>
       <c r="P101" s="28"/>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B102" s="28"/>
       <c r="C102" s="28"/>
       <c r="D102" s="28"/>
@@ -5836,7 +5869,7 @@
       <c r="O102" s="28"/>
       <c r="P102" s="28"/>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
       <c r="D103" s="28"/>
@@ -5853,7 +5886,7 @@
       <c r="O103" s="28"/>
       <c r="P103" s="28"/>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
       <c r="D104" s="28"/>
@@ -5870,7 +5903,7 @@
       <c r="O104" s="28"/>
       <c r="P104" s="28"/>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B105" s="28"/>
       <c r="C105" s="28"/>
       <c r="D105" s="28"/>
@@ -5887,7 +5920,7 @@
       <c r="O105" s="28"/>
       <c r="P105" s="28"/>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
       <c r="D106" s="28"/>
@@ -5904,7 +5937,7 @@
       <c r="O106" s="28"/>
       <c r="P106" s="28"/>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
       <c r="D107" s="28"/>
@@ -5921,7 +5954,7 @@
       <c r="O107" s="28"/>
       <c r="P107" s="28"/>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B108" s="28"/>
       <c r="C108" s="28"/>
       <c r="D108" s="28"/>
@@ -5938,7 +5971,7 @@
       <c r="O108" s="28"/>
       <c r="P108" s="28"/>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
       <c r="D109" s="28"/>
@@ -5955,7 +5988,7 @@
       <c r="O109" s="28"/>
       <c r="P109" s="28"/>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B110" s="28"/>
       <c r="C110" s="28"/>
       <c r="D110" s="28"/>
@@ -5972,7 +6005,7 @@
       <c r="O110" s="28"/>
       <c r="P110" s="28"/>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B111" s="28"/>
       <c r="C111" s="28"/>
       <c r="D111" s="28"/>
@@ -5989,7 +6022,7 @@
       <c r="O111" s="28"/>
       <c r="P111" s="28"/>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B112" s="28"/>
       <c r="C112" s="28"/>
       <c r="D112" s="28"/>
@@ -6006,7 +6039,7 @@
       <c r="O112" s="28"/>
       <c r="P112" s="28"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B113" s="28"/>
       <c r="C113" s="28"/>
       <c r="D113" s="28"/>
@@ -6023,7 +6056,7 @@
       <c r="O113" s="28"/>
       <c r="P113" s="28"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B114" s="28"/>
       <c r="C114" s="28"/>
       <c r="D114" s="28"/>
@@ -6040,7 +6073,7 @@
       <c r="O114" s="28"/>
       <c r="P114" s="28"/>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B115" s="28"/>
       <c r="C115" s="28"/>
       <c r="D115" s="28"/>
@@ -6057,7 +6090,7 @@
       <c r="O115" s="28"/>
       <c r="P115" s="28"/>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B116" s="28"/>
       <c r="C116" s="28"/>
       <c r="D116" s="28"/>
@@ -6074,7 +6107,7 @@
       <c r="O116" s="28"/>
       <c r="P116" s="28"/>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
       <c r="D117" s="28"/>
@@ -6091,7 +6124,7 @@
       <c r="O117" s="28"/>
       <c r="P117" s="28"/>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
       <c r="D118" s="28"/>
@@ -6108,7 +6141,7 @@
       <c r="O118" s="28"/>
       <c r="P118" s="28"/>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B119" s="28"/>
       <c r="C119" s="28"/>
       <c r="D119" s="28"/>
@@ -6125,7 +6158,7 @@
       <c r="O119" s="28"/>
       <c r="P119" s="28"/>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B120" s="28"/>
       <c r="C120" s="28"/>
       <c r="D120" s="28"/>
@@ -6142,7 +6175,7 @@
       <c r="O120" s="28"/>
       <c r="P120" s="28"/>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
       <c r="D121" s="28"/>
@@ -6159,7 +6192,7 @@
       <c r="O121" s="28"/>
       <c r="P121" s="28"/>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
       <c r="D122" s="28"/>
@@ -6176,7 +6209,7 @@
       <c r="O122" s="28"/>
       <c r="P122" s="28"/>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
       <c r="D123" s="28"/>
@@ -6193,7 +6226,7 @@
       <c r="O123" s="28"/>
       <c r="P123" s="28"/>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
       <c r="D124" s="28"/>
@@ -6210,7 +6243,7 @@
       <c r="O124" s="28"/>
       <c r="P124" s="28"/>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B125" s="28"/>
       <c r="C125" s="28"/>
       <c r="D125" s="28"/>
@@ -6227,7 +6260,7 @@
       <c r="O125" s="28"/>
       <c r="P125" s="28"/>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B126" s="28"/>
       <c r="C126" s="28"/>
       <c r="D126" s="28"/>
@@ -6244,7 +6277,7 @@
       <c r="O126" s="28"/>
       <c r="P126" s="28"/>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B127" s="28"/>
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
@@ -6261,7 +6294,7 @@
       <c r="O127" s="28"/>
       <c r="P127" s="28"/>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
       <c r="D128" s="28"/>
@@ -6278,7 +6311,7 @@
       <c r="O128" s="28"/>
       <c r="P128" s="28"/>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B129" s="28"/>
       <c r="C129" s="28"/>
       <c r="D129" s="28"/>
@@ -6295,7 +6328,7 @@
       <c r="O129" s="28"/>
       <c r="P129" s="28"/>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B130" s="28"/>
       <c r="C130" s="28"/>
       <c r="D130" s="28"/>
@@ -6312,7 +6345,7 @@
       <c r="O130" s="28"/>
       <c r="P130" s="28"/>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
       <c r="D131" s="28"/>
@@ -6329,7 +6362,7 @@
       <c r="O131" s="28"/>
       <c r="P131" s="28"/>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
       <c r="D132" s="28"/>
@@ -6346,7 +6379,7 @@
       <c r="O132" s="28"/>
       <c r="P132" s="28"/>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
       <c r="D133" s="28"/>
@@ -6363,7 +6396,7 @@
       <c r="O133" s="28"/>
       <c r="P133" s="28"/>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B134" s="28"/>
       <c r="C134" s="28"/>
       <c r="D134" s="28"/>
@@ -6380,7 +6413,7 @@
       <c r="O134" s="28"/>
       <c r="P134" s="28"/>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B135" s="28"/>
       <c r="C135" s="28"/>
       <c r="D135" s="28"/>
@@ -6397,7 +6430,7 @@
       <c r="O135" s="28"/>
       <c r="P135" s="28"/>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B136" s="28"/>
       <c r="C136" s="28"/>
       <c r="D136" s="28"/>
@@ -6414,7 +6447,7 @@
       <c r="O136" s="28"/>
       <c r="P136" s="28"/>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
       <c r="D137" s="28"/>
@@ -6431,7 +6464,7 @@
       <c r="O137" s="28"/>
       <c r="P137" s="28"/>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B138" s="28"/>
       <c r="C138" s="28"/>
       <c r="D138" s="28"/>
@@ -6448,7 +6481,7 @@
       <c r="O138" s="28"/>
       <c r="P138" s="28"/>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B139" s="28"/>
       <c r="C139" s="28"/>
       <c r="D139" s="28"/>
@@ -6465,7 +6498,7 @@
       <c r="O139" s="28"/>
       <c r="P139" s="28"/>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B140" s="28"/>
       <c r="C140" s="28"/>
       <c r="D140" s="28"/>
@@ -6482,7 +6515,7 @@
       <c r="O140" s="28"/>
       <c r="P140" s="28"/>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B141" s="28"/>
       <c r="C141" s="28"/>
       <c r="D141" s="28"/>
@@ -6499,7 +6532,7 @@
       <c r="O141" s="28"/>
       <c r="P141" s="28"/>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B142" s="28"/>
       <c r="C142" s="28"/>
       <c r="D142" s="28"/>
@@ -6516,7 +6549,7 @@
       <c r="O142" s="28"/>
       <c r="P142" s="28"/>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B143" s="28"/>
       <c r="C143" s="28"/>
       <c r="D143" s="28"/>
@@ -6533,7 +6566,7 @@
       <c r="O143" s="28"/>
       <c r="P143" s="28"/>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B144" s="28"/>
       <c r="C144" s="28"/>
       <c r="D144" s="28"/>
@@ -6550,7 +6583,7 @@
       <c r="O144" s="28"/>
       <c r="P144" s="28"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
       <c r="D145" s="28"/>
@@ -6567,7 +6600,7 @@
       <c r="O145" s="28"/>
       <c r="P145" s="28"/>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B146" s="28"/>
       <c r="C146" s="28"/>
       <c r="D146" s="28"/>
@@ -6584,7 +6617,7 @@
       <c r="O146" s="28"/>
       <c r="P146" s="28"/>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B147" s="28"/>
       <c r="C147" s="28"/>
       <c r="D147" s="28"/>
@@ -6601,7 +6634,7 @@
       <c r="O147" s="28"/>
       <c r="P147" s="28"/>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B148" s="28"/>
       <c r="C148" s="28"/>
       <c r="D148" s="28"/>
@@ -6618,7 +6651,7 @@
       <c r="O148" s="28"/>
       <c r="P148" s="28"/>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
       <c r="D149" s="28"/>
@@ -6635,7 +6668,7 @@
       <c r="O149" s="28"/>
       <c r="P149" s="28"/>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
       <c r="D150" s="28"/>
@@ -6652,7 +6685,7 @@
       <c r="O150" s="28"/>
       <c r="P150" s="28"/>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
       <c r="D151" s="28"/>
@@ -6669,7 +6702,7 @@
       <c r="O151" s="28"/>
       <c r="P151" s="28"/>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B152" s="28"/>
       <c r="C152" s="28"/>
       <c r="D152" s="28"/>
@@ -6686,7 +6719,7 @@
       <c r="O152" s="28"/>
       <c r="P152" s="28"/>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
       <c r="D153" s="28"/>
@@ -6703,7 +6736,7 @@
       <c r="O153" s="28"/>
       <c r="P153" s="28"/>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B154" s="28"/>
       <c r="C154" s="28"/>
       <c r="D154" s="28"/>
@@ -6720,7 +6753,7 @@
       <c r="O154" s="28"/>
       <c r="P154" s="28"/>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B155" s="28"/>
       <c r="C155" s="28"/>
       <c r="D155" s="28"/>
@@ -6737,7 +6770,7 @@
       <c r="O155" s="28"/>
       <c r="P155" s="28"/>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B156" s="28"/>
       <c r="C156" s="28"/>
       <c r="D156" s="28"/>
@@ -6754,7 +6787,7 @@
       <c r="O156" s="28"/>
       <c r="P156" s="28"/>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B157" s="28"/>
       <c r="C157" s="28"/>
       <c r="D157" s="28"/>
@@ -6771,7 +6804,7 @@
       <c r="O157" s="28"/>
       <c r="P157" s="28"/>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
       <c r="D158" s="28"/>
@@ -6788,7 +6821,7 @@
       <c r="O158" s="28"/>
       <c r="P158" s="28"/>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
       <c r="D159" s="28"/>
@@ -6805,7 +6838,7 @@
       <c r="O159" s="28"/>
       <c r="P159" s="28"/>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
       <c r="D160" s="28"/>
@@ -6830,21 +6863,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
+      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.54296875" style="2"/>
+    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -6865,7 +6898,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -6886,7 +6919,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -6939,7 +6972,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43908</v>
       </c>
@@ -6992,7 +7025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43909</v>
       </c>
@@ -7045,7 +7078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>43910</v>
       </c>
@@ -7098,7 +7131,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>43911</v>
       </c>
@@ -7151,7 +7184,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>43912</v>
       </c>
@@ -7204,7 +7237,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>43913</v>
       </c>
@@ -7257,7 +7290,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>43914</v>
       </c>
@@ -7310,7 +7343,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>43915</v>
       </c>
@@ -7363,7 +7396,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>43916</v>
       </c>
@@ -7416,7 +7449,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>43917</v>
       </c>
@@ -7469,7 +7502,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>43918</v>
       </c>
@@ -7522,7 +7555,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>43919</v>
       </c>
@@ -7575,7 +7608,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>43920</v>
       </c>
@@ -7628,7 +7661,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>43921</v>
       </c>
@@ -7681,7 +7714,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>43922</v>
       </c>
@@ -7734,7 +7767,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>43923</v>
       </c>
@@ -7787,7 +7820,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>43924</v>
       </c>
@@ -7840,7 +7873,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>43925</v>
       </c>
@@ -7893,7 +7926,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>43926</v>
       </c>
@@ -7946,7 +7979,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>43927</v>
       </c>
@@ -7999,7 +8032,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>43928</v>
       </c>
@@ -8052,7 +8085,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>43929</v>
       </c>
@@ -8105,7 +8138,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>43930</v>
       </c>
@@ -8158,7 +8191,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>43931</v>
       </c>
@@ -8211,7 +8244,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>43932</v>
       </c>
@@ -8264,7 +8297,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>43933</v>
       </c>
@@ -8317,7 +8350,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>43934</v>
       </c>
@@ -8370,7 +8403,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>43935</v>
       </c>
@@ -8423,7 +8456,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>43936</v>
       </c>
@@ -8476,7 +8509,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>43937</v>
       </c>
@@ -8529,7 +8562,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>43938</v>
       </c>
@@ -8582,7 +8615,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>43939</v>
       </c>
@@ -8635,7 +8668,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>43940</v>
       </c>
@@ -8688,7 +8721,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>43941</v>
       </c>
@@ -8741,7 +8774,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>43942</v>
       </c>
@@ -8794,7 +8827,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>43943</v>
       </c>
@@ -8847,7 +8880,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>43944</v>
       </c>
@@ -8900,7 +8933,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>43945</v>
       </c>
@@ -8953,7 +8986,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>43946</v>
       </c>
@@ -9006,7 +9039,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
         <v>43947</v>
       </c>
@@ -9059,7 +9092,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>43948</v>
       </c>
@@ -9112,7 +9145,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
         <v>43949</v>
       </c>
@@ -9165,7 +9198,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="30">
         <v>43950</v>
       </c>
@@ -9218,7 +9251,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
         <v>43951</v>
       </c>
@@ -9271,7 +9304,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="30">
         <v>43952</v>
       </c>
@@ -9324,7 +9357,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="30">
         <v>43953</v>
       </c>
@@ -9377,7 +9410,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>43954</v>
       </c>
@@ -9430,7 +9463,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="30">
         <v>43955</v>
       </c>
@@ -9483,7 +9516,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="30">
         <v>43956</v>
       </c>
@@ -9536,7 +9569,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="30">
         <v>43957</v>
       </c>
@@ -9589,7 +9622,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="30">
         <v>43958</v>
       </c>
@@ -9642,7 +9675,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="30">
         <v>43959</v>
       </c>
@@ -9695,7 +9728,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="30">
         <v>43960</v>
       </c>
@@ -9748,7 +9781,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="30">
         <v>43961</v>
       </c>
@@ -9801,7 +9834,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="30">
         <v>43962</v>
       </c>
@@ -9854,7 +9887,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="30">
         <v>43963</v>
       </c>
@@ -9907,7 +9940,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="30">
         <v>43964</v>
       </c>
@@ -9960,7 +9993,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="30">
         <v>43965</v>
       </c>
@@ -10013,7 +10046,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="30">
         <v>43966</v>
       </c>
@@ -10066,7 +10099,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="30">
         <v>43967</v>
       </c>
@@ -10119,7 +10152,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="30">
         <v>43968</v>
       </c>
@@ -10170,6 +10203,59 @@
       </c>
       <c r="Q64" s="36">
         <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="30">
+        <v>43969</v>
+      </c>
+      <c r="B65" s="11">
+        <v>5</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="11">
+        <v>7</v>
+      </c>
+      <c r="H65" s="11">
+        <v>20</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J65" s="11">
+        <v>10</v>
+      </c>
+      <c r="K65" s="11">
+        <v>10</v>
+      </c>
+      <c r="L65" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M65" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N65" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O65" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P65" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q65" s="13">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -10180,23 +10266,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A57" sqref="A57"/>
+      <selection pane="bottomRight" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.54296875" style="2"/>
+    <col min="1" max="1" width="15.140625" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -10217,7 +10303,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -10238,7 +10324,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -10291,7 +10377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -10344,7 +10430,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -10397,7 +10483,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -10450,7 +10536,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -10503,7 +10589,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -10556,7 +10642,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -10609,7 +10695,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -10662,7 +10748,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -10715,7 +10801,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -10768,7 +10854,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -10821,7 +10907,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -10874,7 +10960,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -10927,7 +11013,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -10980,7 +11066,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -11033,7 +11119,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -11086,7 +11172,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -11139,7 +11225,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -11192,7 +11278,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -11245,7 +11331,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -11298,7 +11384,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -11351,7 +11437,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -11404,7 +11490,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -11457,7 +11543,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -11510,7 +11596,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -11563,7 +11649,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -11616,7 +11702,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -11669,7 +11755,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -11722,7 +11808,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -11775,7 +11861,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -11828,7 +11914,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -11881,7 +11967,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -11934,7 +12020,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -11987,7 +12073,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -12040,7 +12126,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -12093,7 +12179,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -12146,7 +12232,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -12199,7 +12285,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -12252,7 +12338,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -12305,7 +12391,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -12358,7 +12444,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -12411,7 +12497,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -12464,7 +12550,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -12517,7 +12603,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -12570,7 +12656,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -12623,7 +12709,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="30">
         <v>43960</v>
       </c>
@@ -12676,7 +12762,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="30">
         <v>43961</v>
       </c>
@@ -12729,7 +12815,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>43962</v>
       </c>
@@ -12782,7 +12868,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="30">
         <v>43963</v>
       </c>
@@ -12835,7 +12921,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="30">
         <v>43964</v>
       </c>
@@ -12888,7 +12974,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="30">
         <v>43965</v>
       </c>
@@ -12941,7 +13027,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="30">
         <v>43966</v>
       </c>
@@ -12994,7 +13080,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="30">
         <v>43967</v>
       </c>
@@ -13047,7 +13133,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="30">
         <v>43968</v>
       </c>
@@ -13098,6 +13184,59 @@
       </c>
       <c r="Q56" s="32">
         <v>1007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="30">
+        <v>43969</v>
+      </c>
+      <c r="B57" s="11">
+        <v>32</v>
+      </c>
+      <c r="C57" s="11">
+        <v>27</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="11">
+        <v>75</v>
+      </c>
+      <c r="F57" s="11">
+        <v>19</v>
+      </c>
+      <c r="G57" s="11">
+        <v>88</v>
+      </c>
+      <c r="H57" s="11">
+        <v>434</v>
+      </c>
+      <c r="I57" s="11">
+        <v>6</v>
+      </c>
+      <c r="J57" s="11">
+        <v>103</v>
+      </c>
+      <c r="K57" s="11">
+        <v>192</v>
+      </c>
+      <c r="L57" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M57" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N57" s="11">
+        <v>23</v>
+      </c>
+      <c r="O57" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P57" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q57" s="32">
+        <v>1005</v>
       </c>
     </row>
   </sheetData>
@@ -13108,23 +13247,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A57" sqref="A57"/>
+      <selection pane="bottomRight" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.54296875" style="2"/>
+    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -13145,7 +13284,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -13166,7 +13305,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -13219,7 +13358,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -13272,7 +13411,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -13325,7 +13464,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -13378,7 +13517,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -13431,7 +13570,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -13484,7 +13623,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -13537,7 +13676,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -13590,7 +13729,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -13643,7 +13782,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -13696,7 +13835,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -13749,7 +13888,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -13802,7 +13941,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -13855,7 +13994,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -13908,7 +14047,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -13961,7 +14100,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -14014,7 +14153,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -14067,7 +14206,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -14120,7 +14259,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -14173,7 +14312,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -14226,7 +14365,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -14279,7 +14418,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -14332,7 +14471,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -14385,7 +14524,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -14438,7 +14577,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -14491,7 +14630,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -14544,7 +14683,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -14597,7 +14736,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -14650,7 +14789,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -14703,7 +14842,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -14756,7 +14895,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -14809,7 +14948,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -14862,7 +15001,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -14915,7 +15054,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -14968,7 +15107,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -15021,7 +15160,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -15074,7 +15213,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -15127,7 +15266,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -15180,7 +15319,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -15233,7 +15372,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -15286,7 +15425,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -15339,7 +15478,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -15392,7 +15531,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -15445,7 +15584,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -15498,7 +15637,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -15551,7 +15690,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="30">
         <v>43960</v>
       </c>
@@ -15604,7 +15743,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="30">
         <v>43961</v>
       </c>
@@ -15657,7 +15796,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>43962</v>
       </c>
@@ -15710,7 +15849,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="30">
         <v>43963</v>
       </c>
@@ -15763,7 +15902,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="30">
         <v>43964</v>
       </c>
@@ -15816,7 +15955,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="30">
         <v>43965</v>
       </c>
@@ -15869,7 +16008,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="30">
         <v>43966</v>
       </c>
@@ -15922,7 +16061,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="30">
         <v>43967</v>
       </c>
@@ -15975,7 +16114,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="30">
         <v>43968</v>
       </c>
@@ -16026,6 +16165,59 @@
       </c>
       <c r="Q56" s="36">
         <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="30">
+        <v>43969</v>
+      </c>
+      <c r="B57" s="11">
+        <v>57</v>
+      </c>
+      <c r="C57" s="11">
+        <v>17</v>
+      </c>
+      <c r="D57" s="11">
+        <v>10</v>
+      </c>
+      <c r="E57" s="11">
+        <v>28</v>
+      </c>
+      <c r="F57" s="11">
+        <v>37</v>
+      </c>
+      <c r="G57" s="11">
+        <v>61</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I57" s="11">
+        <v>22</v>
+      </c>
+      <c r="J57" s="11">
+        <v>63</v>
+      </c>
+      <c r="K57" s="11">
+        <v>90</v>
+      </c>
+      <c r="L57" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M57" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N57" s="11">
+        <v>33</v>
+      </c>
+      <c r="O57" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P57" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q57" s="36">
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -16058,7 +16250,7 @@
       <value order="0"/>
     </field>
     <field name="Objective-ModificationStamp">
-      <value order="0">2020-05-17T11:33:36Z</value>
+      <value order="0">2020-05-18T12:18:51Z</value>
     </field>
     <field name="Objective-Owner">
       <value order="0">Grant, Neil N (u207826)</value>
@@ -16070,19 +16262,19 @@
       <value order="0">Analytical: COVID 19 Analysis: Restricted working papers: Research and analysis: Diseases: 2020-2025</value>
     </field>
     <field name="Objective-State">
-      <value order="0">Being Drafted</value>
+      <value order="0">Being Edited</value>
     </field>
     <field name="Objective-VersionId">
-      <value order="0">vA41193538</value>
+      <value order="0">vA41212977</value>
     </field>
     <field name="Objective-Version">
-      <value order="0">12.5</value>
+      <value order="0">12.8</value>
     </field>
     <field name="Objective-VersionNumber">
-      <value order="0">97</value>
+      <value order="0">100</value>
     </field>
     <field name="Objective-VersionComment">
-      <value order="0">boards testing update</value>
+      <value order="0"/>
     </field>
     <field name="Objective-FileNumber">
       <value order="0">PUBRES/4199</value>

--- a/data/csv/src/data_latest_sct.xlsx
+++ b/data/csv/src/data_latest_sct.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Z616594\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA19704\A28088333\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U445783\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA18464\A28088333\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5985" windowHeight="6015" tabRatio="803" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5988" windowHeight="6012" tabRatio="803" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -1563,21 +1563,21 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="90.42578125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.42578125" style="2"/>
+    <col min="2" max="2" width="29.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="90.44140625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
@@ -1593,13 +1593,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="23"/>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>26</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
         <v>27</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="24" t="s">
         <v>36</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20" t="s">
         <v>37</v>
       </c>
@@ -1649,12 +1649,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.42578125" style="2"/>
+    <col min="1" max="16384" width="9.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A44" s="43"/>
     </row>
   </sheetData>
@@ -1669,20 +1669,20 @@
   <dimension ref="A1:S160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A76" sqref="A76"/>
+      <selection pane="bottomRight" activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
-    <col min="2" max="16" width="11.42578125" style="11" customWidth="1"/>
-    <col min="17" max="16384" width="8.5703125" style="2"/>
+    <col min="2" max="16" width="11.44140625" style="11" customWidth="1"/>
+    <col min="17" max="16384" width="8.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1702,7 +1702,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -1721,7 +1721,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>43897</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43898</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43899</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43900</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43901</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43902</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43903</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43904</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>43905</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>43906</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>43907</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>43908</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>43909</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>43910</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>43911</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>43912</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>43913</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>43914</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43915</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43916</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43917</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>43918</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>43919</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>43920</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>43921</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43922</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43923</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>43924</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>43925</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>43926</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>3706</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>43927</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>3961</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>43928</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>43929</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>43930</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>4957</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>43931</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>5275</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>43932</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>5590</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>43933</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>5912</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>43934</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>6067</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>43935</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>6358</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>43936</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>6748</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>43937</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>7102</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>43938</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>43939</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>7820</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>43940</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>8187</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>43941</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>8450</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>43942</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>8672</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>43943</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>9038</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>43944</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>9409</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>43945</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>9697</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>43946</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>10051</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>43947</v>
       </c>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="R54" s="38"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>43948</v>
       </c>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="R55" s="38"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>43949</v>
       </c>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="R56" s="39"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>43950</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>11034</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>43951</v>
       </c>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="R58" s="38"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>43952</v>
       </c>
@@ -4577,7 +4577,7 @@
       <c r="R59" s="38"/>
       <c r="S59" s="38"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>43953</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>11927</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>43954</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>12097</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>43955</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>12266</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>43956</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>12437</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>43957</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>12709</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>43958</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>12924</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>43959</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>13149</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>43960</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>13305</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>43961</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>13486</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>43962</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>13627</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>43963</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>13763</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>43964</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>13929</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>43965</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>14117</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>43966</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>14260</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>43967</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>14447</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>43968</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>14537</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>43969</v>
       </c>
@@ -5427,24 +5427,57 @@
         <v>14594</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="28"/>
-      <c r="M77" s="28"/>
-      <c r="N77" s="28"/>
-      <c r="O77" s="28"/>
-      <c r="P77" s="28"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A77" s="5">
+        <v>43970</v>
+      </c>
+      <c r="B77" s="28">
+        <v>981</v>
+      </c>
+      <c r="C77" s="28">
+        <v>317</v>
+      </c>
+      <c r="D77" s="28">
+        <v>257</v>
+      </c>
+      <c r="E77" s="28">
+        <v>825</v>
+      </c>
+      <c r="F77" s="28">
+        <v>883</v>
+      </c>
+      <c r="G77" s="28">
+        <v>1206</v>
+      </c>
+      <c r="H77" s="28">
+        <v>3759</v>
+      </c>
+      <c r="I77" s="28">
+        <v>333</v>
+      </c>
+      <c r="J77" s="28">
+        <v>1853</v>
+      </c>
+      <c r="K77" s="28">
+        <v>2575</v>
+      </c>
+      <c r="L77" s="28">
+        <v>7</v>
+      </c>
+      <c r="M77" s="28">
+        <v>54</v>
+      </c>
+      <c r="N77" s="28">
+        <v>1599</v>
+      </c>
+      <c r="O77" s="28">
+        <v>6</v>
+      </c>
+      <c r="P77" s="32">
+        <v>14655</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
       <c r="D78" s="28"/>
@@ -5461,7 +5494,7 @@
       <c r="O78" s="28"/>
       <c r="P78" s="28"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
       <c r="D79" s="28"/>
@@ -5478,7 +5511,7 @@
       <c r="O79" s="28"/>
       <c r="P79" s="28"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
       <c r="D80" s="28"/>
@@ -5495,7 +5528,7 @@
       <c r="O80" s="28"/>
       <c r="P80" s="28"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
       <c r="D81" s="28"/>
@@ -5512,7 +5545,7 @@
       <c r="O81" s="28"/>
       <c r="P81" s="28"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B82" s="28"/>
       <c r="C82" s="28"/>
       <c r="D82" s="28"/>
@@ -5529,7 +5562,7 @@
       <c r="O82" s="28"/>
       <c r="P82" s="28"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
       <c r="D83" s="28"/>
@@ -5546,7 +5579,7 @@
       <c r="O83" s="28"/>
       <c r="P83" s="28"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B84" s="28"/>
       <c r="C84" s="28"/>
       <c r="D84" s="28"/>
@@ -5563,7 +5596,7 @@
       <c r="O84" s="28"/>
       <c r="P84" s="28"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B85" s="28"/>
       <c r="C85" s="28"/>
       <c r="D85" s="28"/>
@@ -5580,7 +5613,7 @@
       <c r="O85" s="28"/>
       <c r="P85" s="28"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B86" s="28"/>
       <c r="C86" s="28"/>
       <c r="D86" s="28"/>
@@ -5597,7 +5630,7 @@
       <c r="O86" s="28"/>
       <c r="P86" s="28"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
       <c r="D87" s="28"/>
@@ -5614,7 +5647,7 @@
       <c r="O87" s="28"/>
       <c r="P87" s="28"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B88" s="28"/>
       <c r="C88" s="28"/>
       <c r="D88" s="28"/>
@@ -5631,7 +5664,7 @@
       <c r="O88" s="28"/>
       <c r="P88" s="28"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
       <c r="D89" s="28"/>
@@ -5648,7 +5681,7 @@
       <c r="O89" s="28"/>
       <c r="P89" s="28"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B90" s="28"/>
       <c r="C90" s="28"/>
       <c r="D90" s="28"/>
@@ -5665,7 +5698,7 @@
       <c r="O90" s="28"/>
       <c r="P90" s="28"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
       <c r="D91" s="28"/>
@@ -5682,7 +5715,7 @@
       <c r="O91" s="28"/>
       <c r="P91" s="28"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B92" s="28"/>
       <c r="C92" s="28"/>
       <c r="D92" s="28"/>
@@ -5699,7 +5732,7 @@
       <c r="O92" s="28"/>
       <c r="P92" s="28"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
       <c r="D93" s="28"/>
@@ -5716,7 +5749,7 @@
       <c r="O93" s="28"/>
       <c r="P93" s="28"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
       <c r="D94" s="28"/>
@@ -5733,7 +5766,7 @@
       <c r="O94" s="28"/>
       <c r="P94" s="28"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
       <c r="D95" s="28"/>
@@ -5750,7 +5783,7 @@
       <c r="O95" s="28"/>
       <c r="P95" s="28"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
       <c r="D96" s="28"/>
@@ -5767,7 +5800,7 @@
       <c r="O96" s="28"/>
       <c r="P96" s="28"/>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
@@ -5784,7 +5817,7 @@
       <c r="O97" s="28"/>
       <c r="P97" s="28"/>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
       <c r="D98" s="28"/>
@@ -5801,7 +5834,7 @@
       <c r="O98" s="28"/>
       <c r="P98" s="28"/>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
       <c r="D99" s="28"/>
@@ -5818,7 +5851,7 @@
       <c r="O99" s="28"/>
       <c r="P99" s="28"/>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
       <c r="D100" s="28"/>
@@ -5835,7 +5868,7 @@
       <c r="O100" s="28"/>
       <c r="P100" s="28"/>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
       <c r="D101" s="28"/>
@@ -5852,7 +5885,7 @@
       <c r="O101" s="28"/>
       <c r="P101" s="28"/>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B102" s="28"/>
       <c r="C102" s="28"/>
       <c r="D102" s="28"/>
@@ -5869,7 +5902,7 @@
       <c r="O102" s="28"/>
       <c r="P102" s="28"/>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
       <c r="D103" s="28"/>
@@ -5886,7 +5919,7 @@
       <c r="O103" s="28"/>
       <c r="P103" s="28"/>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
       <c r="D104" s="28"/>
@@ -5903,7 +5936,7 @@
       <c r="O104" s="28"/>
       <c r="P104" s="28"/>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B105" s="28"/>
       <c r="C105" s="28"/>
       <c r="D105" s="28"/>
@@ -5920,7 +5953,7 @@
       <c r="O105" s="28"/>
       <c r="P105" s="28"/>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
       <c r="D106" s="28"/>
@@ -5937,7 +5970,7 @@
       <c r="O106" s="28"/>
       <c r="P106" s="28"/>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
       <c r="D107" s="28"/>
@@ -5954,7 +5987,7 @@
       <c r="O107" s="28"/>
       <c r="P107" s="28"/>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B108" s="28"/>
       <c r="C108" s="28"/>
       <c r="D108" s="28"/>
@@ -5971,7 +6004,7 @@
       <c r="O108" s="28"/>
       <c r="P108" s="28"/>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
       <c r="D109" s="28"/>
@@ -5988,7 +6021,7 @@
       <c r="O109" s="28"/>
       <c r="P109" s="28"/>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B110" s="28"/>
       <c r="C110" s="28"/>
       <c r="D110" s="28"/>
@@ -6005,7 +6038,7 @@
       <c r="O110" s="28"/>
       <c r="P110" s="28"/>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B111" s="28"/>
       <c r="C111" s="28"/>
       <c r="D111" s="28"/>
@@ -6022,7 +6055,7 @@
       <c r="O111" s="28"/>
       <c r="P111" s="28"/>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B112" s="28"/>
       <c r="C112" s="28"/>
       <c r="D112" s="28"/>
@@ -6039,7 +6072,7 @@
       <c r="O112" s="28"/>
       <c r="P112" s="28"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B113" s="28"/>
       <c r="C113" s="28"/>
       <c r="D113" s="28"/>
@@ -6056,7 +6089,7 @@
       <c r="O113" s="28"/>
       <c r="P113" s="28"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B114" s="28"/>
       <c r="C114" s="28"/>
       <c r="D114" s="28"/>
@@ -6073,7 +6106,7 @@
       <c r="O114" s="28"/>
       <c r="P114" s="28"/>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B115" s="28"/>
       <c r="C115" s="28"/>
       <c r="D115" s="28"/>
@@ -6090,7 +6123,7 @@
       <c r="O115" s="28"/>
       <c r="P115" s="28"/>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B116" s="28"/>
       <c r="C116" s="28"/>
       <c r="D116" s="28"/>
@@ -6107,7 +6140,7 @@
       <c r="O116" s="28"/>
       <c r="P116" s="28"/>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
       <c r="D117" s="28"/>
@@ -6124,7 +6157,7 @@
       <c r="O117" s="28"/>
       <c r="P117" s="28"/>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
       <c r="D118" s="28"/>
@@ -6141,7 +6174,7 @@
       <c r="O118" s="28"/>
       <c r="P118" s="28"/>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B119" s="28"/>
       <c r="C119" s="28"/>
       <c r="D119" s="28"/>
@@ -6158,7 +6191,7 @@
       <c r="O119" s="28"/>
       <c r="P119" s="28"/>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B120" s="28"/>
       <c r="C120" s="28"/>
       <c r="D120" s="28"/>
@@ -6175,7 +6208,7 @@
       <c r="O120" s="28"/>
       <c r="P120" s="28"/>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
       <c r="D121" s="28"/>
@@ -6192,7 +6225,7 @@
       <c r="O121" s="28"/>
       <c r="P121" s="28"/>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
       <c r="D122" s="28"/>
@@ -6209,7 +6242,7 @@
       <c r="O122" s="28"/>
       <c r="P122" s="28"/>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
       <c r="D123" s="28"/>
@@ -6226,7 +6259,7 @@
       <c r="O123" s="28"/>
       <c r="P123" s="28"/>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
       <c r="D124" s="28"/>
@@ -6243,7 +6276,7 @@
       <c r="O124" s="28"/>
       <c r="P124" s="28"/>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B125" s="28"/>
       <c r="C125" s="28"/>
       <c r="D125" s="28"/>
@@ -6260,7 +6293,7 @@
       <c r="O125" s="28"/>
       <c r="P125" s="28"/>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B126" s="28"/>
       <c r="C126" s="28"/>
       <c r="D126" s="28"/>
@@ -6277,7 +6310,7 @@
       <c r="O126" s="28"/>
       <c r="P126" s="28"/>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B127" s="28"/>
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
@@ -6294,7 +6327,7 @@
       <c r="O127" s="28"/>
       <c r="P127" s="28"/>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
       <c r="D128" s="28"/>
@@ -6311,7 +6344,7 @@
       <c r="O128" s="28"/>
       <c r="P128" s="28"/>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B129" s="28"/>
       <c r="C129" s="28"/>
       <c r="D129" s="28"/>
@@ -6328,7 +6361,7 @@
       <c r="O129" s="28"/>
       <c r="P129" s="28"/>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B130" s="28"/>
       <c r="C130" s="28"/>
       <c r="D130" s="28"/>
@@ -6345,7 +6378,7 @@
       <c r="O130" s="28"/>
       <c r="P130" s="28"/>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
       <c r="D131" s="28"/>
@@ -6362,7 +6395,7 @@
       <c r="O131" s="28"/>
       <c r="P131" s="28"/>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
       <c r="D132" s="28"/>
@@ -6379,7 +6412,7 @@
       <c r="O132" s="28"/>
       <c r="P132" s="28"/>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
       <c r="D133" s="28"/>
@@ -6396,7 +6429,7 @@
       <c r="O133" s="28"/>
       <c r="P133" s="28"/>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B134" s="28"/>
       <c r="C134" s="28"/>
       <c r="D134" s="28"/>
@@ -6413,7 +6446,7 @@
       <c r="O134" s="28"/>
       <c r="P134" s="28"/>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B135" s="28"/>
       <c r="C135" s="28"/>
       <c r="D135" s="28"/>
@@ -6430,7 +6463,7 @@
       <c r="O135" s="28"/>
       <c r="P135" s="28"/>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B136" s="28"/>
       <c r="C136" s="28"/>
       <c r="D136" s="28"/>
@@ -6447,7 +6480,7 @@
       <c r="O136" s="28"/>
       <c r="P136" s="28"/>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
       <c r="D137" s="28"/>
@@ -6464,7 +6497,7 @@
       <c r="O137" s="28"/>
       <c r="P137" s="28"/>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B138" s="28"/>
       <c r="C138" s="28"/>
       <c r="D138" s="28"/>
@@ -6481,7 +6514,7 @@
       <c r="O138" s="28"/>
       <c r="P138" s="28"/>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B139" s="28"/>
       <c r="C139" s="28"/>
       <c r="D139" s="28"/>
@@ -6498,7 +6531,7 @@
       <c r="O139" s="28"/>
       <c r="P139" s="28"/>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B140" s="28"/>
       <c r="C140" s="28"/>
       <c r="D140" s="28"/>
@@ -6515,7 +6548,7 @@
       <c r="O140" s="28"/>
       <c r="P140" s="28"/>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B141" s="28"/>
       <c r="C141" s="28"/>
       <c r="D141" s="28"/>
@@ -6532,7 +6565,7 @@
       <c r="O141" s="28"/>
       <c r="P141" s="28"/>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B142" s="28"/>
       <c r="C142" s="28"/>
       <c r="D142" s="28"/>
@@ -6549,7 +6582,7 @@
       <c r="O142" s="28"/>
       <c r="P142" s="28"/>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B143" s="28"/>
       <c r="C143" s="28"/>
       <c r="D143" s="28"/>
@@ -6566,7 +6599,7 @@
       <c r="O143" s="28"/>
       <c r="P143" s="28"/>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B144" s="28"/>
       <c r="C144" s="28"/>
       <c r="D144" s="28"/>
@@ -6583,7 +6616,7 @@
       <c r="O144" s="28"/>
       <c r="P144" s="28"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
       <c r="D145" s="28"/>
@@ -6600,7 +6633,7 @@
       <c r="O145" s="28"/>
       <c r="P145" s="28"/>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B146" s="28"/>
       <c r="C146" s="28"/>
       <c r="D146" s="28"/>
@@ -6617,7 +6650,7 @@
       <c r="O146" s="28"/>
       <c r="P146" s="28"/>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B147" s="28"/>
       <c r="C147" s="28"/>
       <c r="D147" s="28"/>
@@ -6634,7 +6667,7 @@
       <c r="O147" s="28"/>
       <c r="P147" s="28"/>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B148" s="28"/>
       <c r="C148" s="28"/>
       <c r="D148" s="28"/>
@@ -6651,7 +6684,7 @@
       <c r="O148" s="28"/>
       <c r="P148" s="28"/>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
       <c r="D149" s="28"/>
@@ -6668,7 +6701,7 @@
       <c r="O149" s="28"/>
       <c r="P149" s="28"/>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
       <c r="D150" s="28"/>
@@ -6685,7 +6718,7 @@
       <c r="O150" s="28"/>
       <c r="P150" s="28"/>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
       <c r="D151" s="28"/>
@@ -6702,7 +6735,7 @@
       <c r="O151" s="28"/>
       <c r="P151" s="28"/>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B152" s="28"/>
       <c r="C152" s="28"/>
       <c r="D152" s="28"/>
@@ -6719,7 +6752,7 @@
       <c r="O152" s="28"/>
       <c r="P152" s="28"/>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
       <c r="D153" s="28"/>
@@ -6736,7 +6769,7 @@
       <c r="O153" s="28"/>
       <c r="P153" s="28"/>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B154" s="28"/>
       <c r="C154" s="28"/>
       <c r="D154" s="28"/>
@@ -6753,7 +6786,7 @@
       <c r="O154" s="28"/>
       <c r="P154" s="28"/>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B155" s="28"/>
       <c r="C155" s="28"/>
       <c r="D155" s="28"/>
@@ -6770,7 +6803,7 @@
       <c r="O155" s="28"/>
       <c r="P155" s="28"/>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B156" s="28"/>
       <c r="C156" s="28"/>
       <c r="D156" s="28"/>
@@ -6787,7 +6820,7 @@
       <c r="O156" s="28"/>
       <c r="P156" s="28"/>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B157" s="28"/>
       <c r="C157" s="28"/>
       <c r="D157" s="28"/>
@@ -6804,7 +6837,7 @@
       <c r="O157" s="28"/>
       <c r="P157" s="28"/>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
       <c r="D158" s="28"/>
@@ -6821,7 +6854,7 @@
       <c r="O158" s="28"/>
       <c r="P158" s="28"/>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
       <c r="D159" s="28"/>
@@ -6838,7 +6871,7 @@
       <c r="O159" s="28"/>
       <c r="P159" s="28"/>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
       <c r="D160" s="28"/>
@@ -6863,21 +6896,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
+      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5703125" style="2"/>
+    <col min="1" max="1" width="12.44140625" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5546875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -6898,7 +6931,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -6919,7 +6952,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -6972,7 +7005,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>43908</v>
       </c>
@@ -7025,7 +7058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>43909</v>
       </c>
@@ -7078,7 +7111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>43910</v>
       </c>
@@ -7131,7 +7164,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>43911</v>
       </c>
@@ -7184,7 +7217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>43912</v>
       </c>
@@ -7237,7 +7270,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>43913</v>
       </c>
@@ -7290,7 +7323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>43914</v>
       </c>
@@ -7343,7 +7376,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>43915</v>
       </c>
@@ -7396,7 +7429,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>43916</v>
       </c>
@@ -7449,7 +7482,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>43917</v>
       </c>
@@ -7502,7 +7535,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>43918</v>
       </c>
@@ -7555,7 +7588,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>43919</v>
       </c>
@@ -7608,7 +7641,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>43920</v>
       </c>
@@ -7661,7 +7694,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>43921</v>
       </c>
@@ -7714,7 +7747,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>43922</v>
       </c>
@@ -7767,7 +7800,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>43923</v>
       </c>
@@ -7820,7 +7853,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>43924</v>
       </c>
@@ -7873,7 +7906,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>43925</v>
       </c>
@@ -7926,7 +7959,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>43926</v>
       </c>
@@ -7979,7 +8012,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>43927</v>
       </c>
@@ -8032,7 +8065,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>43928</v>
       </c>
@@ -8085,7 +8118,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>43929</v>
       </c>
@@ -8138,7 +8171,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>43930</v>
       </c>
@@ -8191,7 +8224,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>43931</v>
       </c>
@@ -8244,7 +8277,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>43932</v>
       </c>
@@ -8297,7 +8330,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>43933</v>
       </c>
@@ -8350,7 +8383,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>43934</v>
       </c>
@@ -8403,7 +8436,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>43935</v>
       </c>
@@ -8456,7 +8489,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>43936</v>
       </c>
@@ -8509,7 +8542,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>43937</v>
       </c>
@@ -8562,7 +8595,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>43938</v>
       </c>
@@ -8615,7 +8648,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>43939</v>
       </c>
@@ -8668,7 +8701,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="30">
         <v>43940</v>
       </c>
@@ -8721,7 +8754,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="30">
         <v>43941</v>
       </c>
@@ -8774,7 +8807,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="30">
         <v>43942</v>
       </c>
@@ -8827,7 +8860,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="30">
         <v>43943</v>
       </c>
@@ -8880,7 +8913,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="30">
         <v>43944</v>
       </c>
@@ -8933,7 +8966,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="30">
         <v>43945</v>
       </c>
@@ -8986,7 +9019,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="30">
         <v>43946</v>
       </c>
@@ -9039,7 +9072,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="30">
         <v>43947</v>
       </c>
@@ -9092,7 +9125,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="30">
         <v>43948</v>
       </c>
@@ -9145,7 +9178,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="30">
         <v>43949</v>
       </c>
@@ -9198,7 +9231,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="30">
         <v>43950</v>
       </c>
@@ -9251,7 +9284,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="30">
         <v>43951</v>
       </c>
@@ -9304,7 +9337,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="30">
         <v>43952</v>
       </c>
@@ -9357,7 +9390,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="30">
         <v>43953</v>
       </c>
@@ -9410,7 +9443,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="30">
         <v>43954</v>
       </c>
@@ -9463,7 +9496,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="30">
         <v>43955</v>
       </c>
@@ -9516,7 +9549,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="30">
         <v>43956</v>
       </c>
@@ -9569,7 +9602,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="30">
         <v>43957</v>
       </c>
@@ -9622,7 +9655,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="30">
         <v>43958</v>
       </c>
@@ -9675,7 +9708,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="30">
         <v>43959</v>
       </c>
@@ -9728,7 +9761,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="30">
         <v>43960</v>
       </c>
@@ -9781,7 +9814,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="30">
         <v>43961</v>
       </c>
@@ -9834,7 +9867,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="30">
         <v>43962</v>
       </c>
@@ -9887,7 +9920,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="30">
         <v>43963</v>
       </c>
@@ -9940,7 +9973,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="30">
         <v>43964</v>
       </c>
@@ -9993,7 +10026,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="30">
         <v>43965</v>
       </c>
@@ -10046,7 +10079,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="30">
         <v>43966</v>
       </c>
@@ -10099,7 +10132,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="30">
         <v>43967</v>
       </c>
@@ -10152,7 +10185,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="30">
         <v>43968</v>
       </c>
@@ -10205,7 +10238,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="30">
         <v>43969</v>
       </c>
@@ -10256,6 +10289,59 @@
       </c>
       <c r="Q65" s="13">
         <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66" s="30">
+        <v>43970</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" s="11">
+        <v>6</v>
+      </c>
+      <c r="H66" s="11">
+        <v>20</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J66" s="11">
+        <v>7</v>
+      </c>
+      <c r="K66" s="11">
+        <v>7</v>
+      </c>
+      <c r="L66" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M66" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N66" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O66" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P66" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q66" s="36">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -10266,23 +10352,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A58" sqref="A58"/>
+      <selection pane="bottomRight" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5703125" style="2"/>
+    <col min="1" max="1" width="15.109375" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5546875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -10303,7 +10389,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -10324,7 +10410,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -10377,7 +10463,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -10430,7 +10516,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -10483,7 +10569,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -10536,7 +10622,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -10589,7 +10675,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -10642,7 +10728,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -10695,7 +10781,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -10748,7 +10834,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -10801,7 +10887,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -10854,7 +10940,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -10907,7 +10993,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -10960,7 +11046,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -11013,7 +11099,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -11066,7 +11152,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -11119,7 +11205,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -11172,7 +11258,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -11225,7 +11311,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -11278,7 +11364,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -11331,7 +11417,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -11384,7 +11470,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -11437,7 +11523,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -11490,7 +11576,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -11543,7 +11629,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -11596,7 +11682,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -11649,7 +11735,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -11702,7 +11788,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -11755,7 +11841,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -11808,7 +11894,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -11861,7 +11947,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -11914,7 +12000,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -11967,7 +12053,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -12020,7 +12106,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -12073,7 +12159,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -12126,7 +12212,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -12179,7 +12265,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -12232,7 +12318,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -12285,7 +12371,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -12338,7 +12424,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -12391,7 +12477,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -12444,7 +12530,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -12497,7 +12583,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -12550,7 +12636,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -12603,7 +12689,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -12656,7 +12742,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -12709,7 +12795,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="30">
         <v>43960</v>
       </c>
@@ -12762,7 +12848,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="30">
         <v>43961</v>
       </c>
@@ -12815,7 +12901,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="30">
         <v>43962</v>
       </c>
@@ -12868,7 +12954,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="30">
         <v>43963</v>
       </c>
@@ -12921,7 +13007,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="30">
         <v>43964</v>
       </c>
@@ -12974,7 +13060,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="30">
         <v>43965</v>
       </c>
@@ -13027,7 +13113,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="30">
         <v>43966</v>
       </c>
@@ -13080,7 +13166,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="30">
         <v>43967</v>
       </c>
@@ -13133,7 +13219,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="30">
         <v>43968</v>
       </c>
@@ -13186,7 +13272,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="30">
         <v>43969</v>
       </c>
@@ -13237,6 +13323,59 @@
       </c>
       <c r="Q57" s="32">
         <v>1005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="30">
+        <v>43970</v>
+      </c>
+      <c r="B58" s="11">
+        <v>32</v>
+      </c>
+      <c r="C58" s="11">
+        <v>21</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="11">
+        <v>74</v>
+      </c>
+      <c r="F58" s="11">
+        <v>19</v>
+      </c>
+      <c r="G58" s="11">
+        <v>84</v>
+      </c>
+      <c r="H58" s="11">
+        <v>428</v>
+      </c>
+      <c r="I58" s="11">
+        <v>5</v>
+      </c>
+      <c r="J58" s="11">
+        <v>95</v>
+      </c>
+      <c r="K58" s="11">
+        <v>187</v>
+      </c>
+      <c r="L58" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M58" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N58" s="11">
+        <v>18</v>
+      </c>
+      <c r="O58" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P58" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q58" s="36">
+        <v>969</v>
       </c>
     </row>
   </sheetData>
@@ -13247,23 +13386,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A58" sqref="A58"/>
+      <selection pane="bottomRight" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5703125" style="2"/>
+    <col min="1" max="1" width="12.44140625" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5546875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -13284,7 +13423,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -13305,7 +13444,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -13358,7 +13497,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -13411,7 +13550,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -13464,7 +13603,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -13517,7 +13656,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -13570,7 +13709,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -13623,7 +13762,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -13676,7 +13815,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -13729,7 +13868,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -13782,7 +13921,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -13835,7 +13974,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -13888,7 +14027,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -13941,7 +14080,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -13994,7 +14133,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -14047,7 +14186,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -14100,7 +14239,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -14153,7 +14292,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -14206,7 +14345,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -14259,7 +14398,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -14312,7 +14451,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -14365,7 +14504,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -14418,7 +14557,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -14471,7 +14610,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -14524,7 +14663,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -14577,7 +14716,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -14630,7 +14769,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -14683,7 +14822,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -14736,7 +14875,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -14789,7 +14928,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -14842,7 +14981,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -14895,7 +15034,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -14948,7 +15087,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -15001,7 +15140,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -15054,7 +15193,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -15107,7 +15246,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -15160,7 +15299,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -15213,7 +15352,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -15266,7 +15405,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -15319,7 +15458,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -15372,7 +15511,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -15425,7 +15564,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -15478,7 +15617,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -15531,7 +15670,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -15584,7 +15723,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -15637,7 +15776,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -15690,7 +15829,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="30">
         <v>43960</v>
       </c>
@@ -15743,7 +15882,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="30">
         <v>43961</v>
       </c>
@@ -15796,7 +15935,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="30">
         <v>43962</v>
       </c>
@@ -15849,7 +15988,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="30">
         <v>43963</v>
       </c>
@@ -15902,7 +16041,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="30">
         <v>43964</v>
       </c>
@@ -15955,7 +16094,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="30">
         <v>43965</v>
       </c>
@@ -16008,7 +16147,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="30">
         <v>43966</v>
       </c>
@@ -16061,7 +16200,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="30">
         <v>43967</v>
       </c>
@@ -16114,7 +16253,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="30">
         <v>43968</v>
       </c>
@@ -16167,7 +16306,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="30">
         <v>43969</v>
       </c>
@@ -16218,6 +16357,59 @@
       </c>
       <c r="Q57" s="36">
         <v>422</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="30">
+        <v>43970</v>
+      </c>
+      <c r="B58" s="11">
+        <v>63</v>
+      </c>
+      <c r="C58" s="11">
+        <v>14</v>
+      </c>
+      <c r="D58" s="11">
+        <v>11</v>
+      </c>
+      <c r="E58" s="11">
+        <v>34</v>
+      </c>
+      <c r="F58" s="11">
+        <v>47</v>
+      </c>
+      <c r="G58" s="11">
+        <v>55</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I58" s="11">
+        <v>57</v>
+      </c>
+      <c r="J58" s="11">
+        <v>77</v>
+      </c>
+      <c r="K58" s="11">
+        <v>87</v>
+      </c>
+      <c r="L58" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M58" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N58" s="11">
+        <v>25</v>
+      </c>
+      <c r="O58" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P58" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q58" s="36">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -16250,7 +16442,7 @@
       <value order="0"/>
     </field>
     <field name="Objective-ModificationStamp">
-      <value order="0">2020-05-18T12:18:51Z</value>
+      <value order="0">2020-05-19T12:01:01Z</value>
     </field>
     <field name="Objective-Owner">
       <value order="0">Grant, Neil N (u207826)</value>
@@ -16262,16 +16454,16 @@
       <value order="0">Analytical: COVID 19 Analysis: Restricted working papers: Research and analysis: Diseases: 2020-2025</value>
     </field>
     <field name="Objective-State">
-      <value order="0">Being Edited</value>
+      <value order="0">Being Drafted</value>
     </field>
     <field name="Objective-VersionId">
-      <value order="0">vA41212977</value>
+      <value order="0">vA41241866</value>
     </field>
     <field name="Objective-Version">
-      <value order="0">12.8</value>
+      <value order="0">12.11</value>
     </field>
     <field name="Objective-VersionNumber">
-      <value order="0">100</value>
+      <value order="0">103</value>
     </field>
     <field name="Objective-VersionComment">
       <value order="0"/>

--- a/data/csv/src/data_latest_sct.xlsx
+++ b/data/csv/src/data_latest_sct.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U445783\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA18464\A28088333\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u419207\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA10434\A28088333\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5988" windowHeight="6012" tabRatio="803" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5990" windowHeight="6010" tabRatio="803" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -1563,21 +1563,21 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="90.44140625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.44140625" style="2"/>
+    <col min="2" max="2" width="29.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="90.453125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
@@ -1593,13 +1593,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="23"/>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
         <v>26</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="24" t="s">
         <v>27</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="24" t="s">
         <v>36</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="20" t="s">
         <v>37</v>
       </c>
@@ -1649,12 +1649,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9.44140625" style="2"/>
+    <col min="1" max="16384" width="9.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="43"/>
     </row>
   </sheetData>
@@ -1669,20 +1669,20 @@
   <dimension ref="A1:S160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I87" sqref="I87"/>
+      <selection pane="bottomRight" activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
-    <col min="2" max="16" width="11.44140625" style="11" customWidth="1"/>
-    <col min="17" max="16384" width="8.5546875" style="2"/>
+    <col min="2" max="16" width="11.453125" style="11" customWidth="1"/>
+    <col min="17" max="16384" width="8.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1702,7 +1702,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -1721,7 +1721,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>43897</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>43898</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>43899</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>43900</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>43901</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>43902</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>43903</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>43904</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>43905</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>43906</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>43907</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>43908</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>43909</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>43910</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>43911</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>43912</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>43913</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>43914</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>43915</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>43916</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>43917</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>43918</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>43919</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>43920</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>43921</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>43922</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>43923</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>43924</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>43925</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>43926</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>3706</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>43927</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>3961</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>43928</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>43929</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>43930</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>4957</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>43931</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>5275</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>43932</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>5590</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>43933</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>5912</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>43934</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>6067</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>43935</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>6358</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>43936</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>6748</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>43937</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>7102</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>43938</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>43939</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>7820</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>43940</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>8187</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>43941</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>8450</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>43942</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>8672</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>43943</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>9038</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>43944</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>9409</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>43945</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>9697</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>43946</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>10051</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>43947</v>
       </c>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="R54" s="38"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>43948</v>
       </c>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="R55" s="38"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>43949</v>
       </c>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="R56" s="39"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>43950</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>11034</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>43951</v>
       </c>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="R58" s="38"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>43952</v>
       </c>
@@ -4577,7 +4577,7 @@
       <c r="R59" s="38"/>
       <c r="S59" s="38"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>43953</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>11927</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>43954</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>12097</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>43955</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>12266</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>43956</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>12437</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>43957</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>12709</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>43958</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>12924</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>43959</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>13149</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>43960</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>13305</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>43961</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>13486</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>43962</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>13627</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>43963</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>13763</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>43964</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>13929</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>43965</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>14117</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>43966</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>14260</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>43967</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>14447</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>43968</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>14537</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>43969</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>14594</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>43970</v>
       </c>
@@ -5477,24 +5477,57 @@
         <v>14655</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="28"/>
-      <c r="L78" s="28"/>
-      <c r="M78" s="28"/>
-      <c r="N78" s="28"/>
-      <c r="O78" s="28"/>
-      <c r="P78" s="28"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A78" s="5">
+        <v>43971</v>
+      </c>
+      <c r="B78" s="28">
+        <v>987</v>
+      </c>
+      <c r="C78" s="28">
+        <v>322</v>
+      </c>
+      <c r="D78" s="28">
+        <v>257</v>
+      </c>
+      <c r="E78" s="28">
+        <v>826</v>
+      </c>
+      <c r="F78" s="28">
+        <v>894</v>
+      </c>
+      <c r="G78" s="28">
+        <v>1216</v>
+      </c>
+      <c r="H78" s="28">
+        <v>3780</v>
+      </c>
+      <c r="I78" s="28">
+        <v>334</v>
+      </c>
+      <c r="J78" s="28">
+        <v>1867</v>
+      </c>
+      <c r="K78" s="28">
+        <v>2584</v>
+      </c>
+      <c r="L78" s="28">
+        <v>7</v>
+      </c>
+      <c r="M78" s="28">
+        <v>54</v>
+      </c>
+      <c r="N78" s="28">
+        <v>1617</v>
+      </c>
+      <c r="O78" s="28">
+        <v>6</v>
+      </c>
+      <c r="P78" s="41">
+        <v>14751</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B79" s="28"/>
       <c r="C79" s="28"/>
       <c r="D79" s="28"/>
@@ -5511,7 +5544,7 @@
       <c r="O79" s="28"/>
       <c r="P79" s="28"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B80" s="28"/>
       <c r="C80" s="28"/>
       <c r="D80" s="28"/>
@@ -5528,7 +5561,7 @@
       <c r="O80" s="28"/>
       <c r="P80" s="28"/>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
       <c r="D81" s="28"/>
@@ -5545,7 +5578,7 @@
       <c r="O81" s="28"/>
       <c r="P81" s="28"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B82" s="28"/>
       <c r="C82" s="28"/>
       <c r="D82" s="28"/>
@@ -5562,7 +5595,7 @@
       <c r="O82" s="28"/>
       <c r="P82" s="28"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
       <c r="D83" s="28"/>
@@ -5579,7 +5612,7 @@
       <c r="O83" s="28"/>
       <c r="P83" s="28"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B84" s="28"/>
       <c r="C84" s="28"/>
       <c r="D84" s="28"/>
@@ -5596,7 +5629,7 @@
       <c r="O84" s="28"/>
       <c r="P84" s="28"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B85" s="28"/>
       <c r="C85" s="28"/>
       <c r="D85" s="28"/>
@@ -5613,7 +5646,7 @@
       <c r="O85" s="28"/>
       <c r="P85" s="28"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B86" s="28"/>
       <c r="C86" s="28"/>
       <c r="D86" s="28"/>
@@ -5630,7 +5663,7 @@
       <c r="O86" s="28"/>
       <c r="P86" s="28"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
       <c r="D87" s="28"/>
@@ -5647,7 +5680,7 @@
       <c r="O87" s="28"/>
       <c r="P87" s="28"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B88" s="28"/>
       <c r="C88" s="28"/>
       <c r="D88" s="28"/>
@@ -5664,7 +5697,7 @@
       <c r="O88" s="28"/>
       <c r="P88" s="28"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
       <c r="D89" s="28"/>
@@ -5681,7 +5714,7 @@
       <c r="O89" s="28"/>
       <c r="P89" s="28"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B90" s="28"/>
       <c r="C90" s="28"/>
       <c r="D90" s="28"/>
@@ -5698,7 +5731,7 @@
       <c r="O90" s="28"/>
       <c r="P90" s="28"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
       <c r="D91" s="28"/>
@@ -5715,7 +5748,7 @@
       <c r="O91" s="28"/>
       <c r="P91" s="28"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B92" s="28"/>
       <c r="C92" s="28"/>
       <c r="D92" s="28"/>
@@ -5732,7 +5765,7 @@
       <c r="O92" s="28"/>
       <c r="P92" s="28"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
       <c r="D93" s="28"/>
@@ -5749,7 +5782,7 @@
       <c r="O93" s="28"/>
       <c r="P93" s="28"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
       <c r="D94" s="28"/>
@@ -5766,7 +5799,7 @@
       <c r="O94" s="28"/>
       <c r="P94" s="28"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
       <c r="D95" s="28"/>
@@ -5783,7 +5816,7 @@
       <c r="O95" s="28"/>
       <c r="P95" s="28"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
       <c r="D96" s="28"/>
@@ -5800,7 +5833,7 @@
       <c r="O96" s="28"/>
       <c r="P96" s="28"/>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
@@ -5817,7 +5850,7 @@
       <c r="O97" s="28"/>
       <c r="P97" s="28"/>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
       <c r="D98" s="28"/>
@@ -5834,7 +5867,7 @@
       <c r="O98" s="28"/>
       <c r="P98" s="28"/>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
       <c r="D99" s="28"/>
@@ -5851,7 +5884,7 @@
       <c r="O99" s="28"/>
       <c r="P99" s="28"/>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
       <c r="D100" s="28"/>
@@ -5868,7 +5901,7 @@
       <c r="O100" s="28"/>
       <c r="P100" s="28"/>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
       <c r="D101" s="28"/>
@@ -5885,7 +5918,7 @@
       <c r="O101" s="28"/>
       <c r="P101" s="28"/>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B102" s="28"/>
       <c r="C102" s="28"/>
       <c r="D102" s="28"/>
@@ -5902,7 +5935,7 @@
       <c r="O102" s="28"/>
       <c r="P102" s="28"/>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
       <c r="D103" s="28"/>
@@ -5919,7 +5952,7 @@
       <c r="O103" s="28"/>
       <c r="P103" s="28"/>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
       <c r="D104" s="28"/>
@@ -5936,7 +5969,7 @@
       <c r="O104" s="28"/>
       <c r="P104" s="28"/>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B105" s="28"/>
       <c r="C105" s="28"/>
       <c r="D105" s="28"/>
@@ -5953,7 +5986,7 @@
       <c r="O105" s="28"/>
       <c r="P105" s="28"/>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
       <c r="D106" s="28"/>
@@ -5970,7 +6003,7 @@
       <c r="O106" s="28"/>
       <c r="P106" s="28"/>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
       <c r="D107" s="28"/>
@@ -5987,7 +6020,7 @@
       <c r="O107" s="28"/>
       <c r="P107" s="28"/>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B108" s="28"/>
       <c r="C108" s="28"/>
       <c r="D108" s="28"/>
@@ -6004,7 +6037,7 @@
       <c r="O108" s="28"/>
       <c r="P108" s="28"/>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
       <c r="D109" s="28"/>
@@ -6021,7 +6054,7 @@
       <c r="O109" s="28"/>
       <c r="P109" s="28"/>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B110" s="28"/>
       <c r="C110" s="28"/>
       <c r="D110" s="28"/>
@@ -6038,7 +6071,7 @@
       <c r="O110" s="28"/>
       <c r="P110" s="28"/>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B111" s="28"/>
       <c r="C111" s="28"/>
       <c r="D111" s="28"/>
@@ -6055,7 +6088,7 @@
       <c r="O111" s="28"/>
       <c r="P111" s="28"/>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B112" s="28"/>
       <c r="C112" s="28"/>
       <c r="D112" s="28"/>
@@ -6072,7 +6105,7 @@
       <c r="O112" s="28"/>
       <c r="P112" s="28"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B113" s="28"/>
       <c r="C113" s="28"/>
       <c r="D113" s="28"/>
@@ -6089,7 +6122,7 @@
       <c r="O113" s="28"/>
       <c r="P113" s="28"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B114" s="28"/>
       <c r="C114" s="28"/>
       <c r="D114" s="28"/>
@@ -6106,7 +6139,7 @@
       <c r="O114" s="28"/>
       <c r="P114" s="28"/>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B115" s="28"/>
       <c r="C115" s="28"/>
       <c r="D115" s="28"/>
@@ -6123,7 +6156,7 @@
       <c r="O115" s="28"/>
       <c r="P115" s="28"/>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B116" s="28"/>
       <c r="C116" s="28"/>
       <c r="D116" s="28"/>
@@ -6140,7 +6173,7 @@
       <c r="O116" s="28"/>
       <c r="P116" s="28"/>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
       <c r="D117" s="28"/>
@@ -6157,7 +6190,7 @@
       <c r="O117" s="28"/>
       <c r="P117" s="28"/>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
       <c r="D118" s="28"/>
@@ -6174,7 +6207,7 @@
       <c r="O118" s="28"/>
       <c r="P118" s="28"/>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B119" s="28"/>
       <c r="C119" s="28"/>
       <c r="D119" s="28"/>
@@ -6191,7 +6224,7 @@
       <c r="O119" s="28"/>
       <c r="P119" s="28"/>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B120" s="28"/>
       <c r="C120" s="28"/>
       <c r="D120" s="28"/>
@@ -6208,7 +6241,7 @@
       <c r="O120" s="28"/>
       <c r="P120" s="28"/>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
       <c r="D121" s="28"/>
@@ -6225,7 +6258,7 @@
       <c r="O121" s="28"/>
       <c r="P121" s="28"/>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
       <c r="D122" s="28"/>
@@ -6242,7 +6275,7 @@
       <c r="O122" s="28"/>
       <c r="P122" s="28"/>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
       <c r="D123" s="28"/>
@@ -6259,7 +6292,7 @@
       <c r="O123" s="28"/>
       <c r="P123" s="28"/>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
       <c r="D124" s="28"/>
@@ -6276,7 +6309,7 @@
       <c r="O124" s="28"/>
       <c r="P124" s="28"/>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B125" s="28"/>
       <c r="C125" s="28"/>
       <c r="D125" s="28"/>
@@ -6293,7 +6326,7 @@
       <c r="O125" s="28"/>
       <c r="P125" s="28"/>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B126" s="28"/>
       <c r="C126" s="28"/>
       <c r="D126" s="28"/>
@@ -6310,7 +6343,7 @@
       <c r="O126" s="28"/>
       <c r="P126" s="28"/>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B127" s="28"/>
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
@@ -6327,7 +6360,7 @@
       <c r="O127" s="28"/>
       <c r="P127" s="28"/>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
       <c r="D128" s="28"/>
@@ -6344,7 +6377,7 @@
       <c r="O128" s="28"/>
       <c r="P128" s="28"/>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B129" s="28"/>
       <c r="C129" s="28"/>
       <c r="D129" s="28"/>
@@ -6361,7 +6394,7 @@
       <c r="O129" s="28"/>
       <c r="P129" s="28"/>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B130" s="28"/>
       <c r="C130" s="28"/>
       <c r="D130" s="28"/>
@@ -6378,7 +6411,7 @@
       <c r="O130" s="28"/>
       <c r="P130" s="28"/>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
       <c r="D131" s="28"/>
@@ -6395,7 +6428,7 @@
       <c r="O131" s="28"/>
       <c r="P131" s="28"/>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
       <c r="D132" s="28"/>
@@ -6412,7 +6445,7 @@
       <c r="O132" s="28"/>
       <c r="P132" s="28"/>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
       <c r="D133" s="28"/>
@@ -6429,7 +6462,7 @@
       <c r="O133" s="28"/>
       <c r="P133" s="28"/>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B134" s="28"/>
       <c r="C134" s="28"/>
       <c r="D134" s="28"/>
@@ -6446,7 +6479,7 @@
       <c r="O134" s="28"/>
       <c r="P134" s="28"/>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B135" s="28"/>
       <c r="C135" s="28"/>
       <c r="D135" s="28"/>
@@ -6463,7 +6496,7 @@
       <c r="O135" s="28"/>
       <c r="P135" s="28"/>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B136" s="28"/>
       <c r="C136" s="28"/>
       <c r="D136" s="28"/>
@@ -6480,7 +6513,7 @@
       <c r="O136" s="28"/>
       <c r="P136" s="28"/>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
       <c r="D137" s="28"/>
@@ -6497,7 +6530,7 @@
       <c r="O137" s="28"/>
       <c r="P137" s="28"/>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B138" s="28"/>
       <c r="C138" s="28"/>
       <c r="D138" s="28"/>
@@ -6514,7 +6547,7 @@
       <c r="O138" s="28"/>
       <c r="P138" s="28"/>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B139" s="28"/>
       <c r="C139" s="28"/>
       <c r="D139" s="28"/>
@@ -6531,7 +6564,7 @@
       <c r="O139" s="28"/>
       <c r="P139" s="28"/>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B140" s="28"/>
       <c r="C140" s="28"/>
       <c r="D140" s="28"/>
@@ -6548,7 +6581,7 @@
       <c r="O140" s="28"/>
       <c r="P140" s="28"/>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B141" s="28"/>
       <c r="C141" s="28"/>
       <c r="D141" s="28"/>
@@ -6565,7 +6598,7 @@
       <c r="O141" s="28"/>
       <c r="P141" s="28"/>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B142" s="28"/>
       <c r="C142" s="28"/>
       <c r="D142" s="28"/>
@@ -6582,7 +6615,7 @@
       <c r="O142" s="28"/>
       <c r="P142" s="28"/>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B143" s="28"/>
       <c r="C143" s="28"/>
       <c r="D143" s="28"/>
@@ -6599,7 +6632,7 @@
       <c r="O143" s="28"/>
       <c r="P143" s="28"/>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B144" s="28"/>
       <c r="C144" s="28"/>
       <c r="D144" s="28"/>
@@ -6616,7 +6649,7 @@
       <c r="O144" s="28"/>
       <c r="P144" s="28"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
       <c r="D145" s="28"/>
@@ -6633,7 +6666,7 @@
       <c r="O145" s="28"/>
       <c r="P145" s="28"/>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B146" s="28"/>
       <c r="C146" s="28"/>
       <c r="D146" s="28"/>
@@ -6650,7 +6683,7 @@
       <c r="O146" s="28"/>
       <c r="P146" s="28"/>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B147" s="28"/>
       <c r="C147" s="28"/>
       <c r="D147" s="28"/>
@@ -6667,7 +6700,7 @@
       <c r="O147" s="28"/>
       <c r="P147" s="28"/>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B148" s="28"/>
       <c r="C148" s="28"/>
       <c r="D148" s="28"/>
@@ -6684,7 +6717,7 @@
       <c r="O148" s="28"/>
       <c r="P148" s="28"/>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
       <c r="D149" s="28"/>
@@ -6701,7 +6734,7 @@
       <c r="O149" s="28"/>
       <c r="P149" s="28"/>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
       <c r="D150" s="28"/>
@@ -6718,7 +6751,7 @@
       <c r="O150" s="28"/>
       <c r="P150" s="28"/>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
       <c r="D151" s="28"/>
@@ -6735,7 +6768,7 @@
       <c r="O151" s="28"/>
       <c r="P151" s="28"/>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B152" s="28"/>
       <c r="C152" s="28"/>
       <c r="D152" s="28"/>
@@ -6752,7 +6785,7 @@
       <c r="O152" s="28"/>
       <c r="P152" s="28"/>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
       <c r="D153" s="28"/>
@@ -6769,7 +6802,7 @@
       <c r="O153" s="28"/>
       <c r="P153" s="28"/>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B154" s="28"/>
       <c r="C154" s="28"/>
       <c r="D154" s="28"/>
@@ -6786,7 +6819,7 @@
       <c r="O154" s="28"/>
       <c r="P154" s="28"/>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B155" s="28"/>
       <c r="C155" s="28"/>
       <c r="D155" s="28"/>
@@ -6803,7 +6836,7 @@
       <c r="O155" s="28"/>
       <c r="P155" s="28"/>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B156" s="28"/>
       <c r="C156" s="28"/>
       <c r="D156" s="28"/>
@@ -6820,7 +6853,7 @@
       <c r="O156" s="28"/>
       <c r="P156" s="28"/>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B157" s="28"/>
       <c r="C157" s="28"/>
       <c r="D157" s="28"/>
@@ -6837,7 +6870,7 @@
       <c r="O157" s="28"/>
       <c r="P157" s="28"/>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
       <c r="D158" s="28"/>
@@ -6854,7 +6887,7 @@
       <c r="O158" s="28"/>
       <c r="P158" s="28"/>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
       <c r="D159" s="28"/>
@@ -6871,7 +6904,7 @@
       <c r="O159" s="28"/>
       <c r="P159" s="28"/>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
       <c r="D160" s="28"/>
@@ -6896,21 +6929,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
+      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5546875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5546875" style="2"/>
+    <col min="1" max="1" width="12.453125" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -6931,7 +6964,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -6952,7 +6985,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -7005,7 +7038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>43908</v>
       </c>
@@ -7058,7 +7091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>43909</v>
       </c>
@@ -7111,7 +7144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>43910</v>
       </c>
@@ -7164,7 +7197,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>43911</v>
       </c>
@@ -7217,7 +7250,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>43912</v>
       </c>
@@ -7270,7 +7303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>43913</v>
       </c>
@@ -7323,7 +7356,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>43914</v>
       </c>
@@ -7376,7 +7409,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>43915</v>
       </c>
@@ -7429,7 +7462,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>43916</v>
       </c>
@@ -7482,7 +7515,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>43917</v>
       </c>
@@ -7535,7 +7568,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>43918</v>
       </c>
@@ -7588,7 +7621,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>43919</v>
       </c>
@@ -7641,7 +7674,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>43920</v>
       </c>
@@ -7694,7 +7727,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>43921</v>
       </c>
@@ -7747,7 +7780,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>43922</v>
       </c>
@@ -7800,7 +7833,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>43923</v>
       </c>
@@ -7853,7 +7886,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>43924</v>
       </c>
@@ -7906,7 +7939,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>43925</v>
       </c>
@@ -7959,7 +7992,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>43926</v>
       </c>
@@ -8012,7 +8045,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>43927</v>
       </c>
@@ -8065,7 +8098,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>43928</v>
       </c>
@@ -8118,7 +8151,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>43929</v>
       </c>
@@ -8171,7 +8204,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>43930</v>
       </c>
@@ -8224,7 +8257,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>43931</v>
       </c>
@@ -8277,7 +8310,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>43932</v>
       </c>
@@ -8330,7 +8363,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>43933</v>
       </c>
@@ -8383,7 +8416,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>43934</v>
       </c>
@@ -8436,7 +8469,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>43935</v>
       </c>
@@ -8489,7 +8522,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>43936</v>
       </c>
@@ -8542,7 +8575,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>43937</v>
       </c>
@@ -8595,7 +8628,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>43938</v>
       </c>
@@ -8648,7 +8681,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>43939</v>
       </c>
@@ -8701,7 +8734,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="30">
         <v>43940</v>
       </c>
@@ -8754,7 +8787,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="30">
         <v>43941</v>
       </c>
@@ -8807,7 +8840,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="30">
         <v>43942</v>
       </c>
@@ -8860,7 +8893,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="30">
         <v>43943</v>
       </c>
@@ -8913,7 +8946,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="30">
         <v>43944</v>
       </c>
@@ -8966,7 +8999,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="30">
         <v>43945</v>
       </c>
@@ -9019,7 +9052,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="30">
         <v>43946</v>
       </c>
@@ -9072,7 +9105,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="30">
         <v>43947</v>
       </c>
@@ -9125,7 +9158,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="30">
         <v>43948</v>
       </c>
@@ -9178,7 +9211,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="30">
         <v>43949</v>
       </c>
@@ -9231,7 +9264,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="30">
         <v>43950</v>
       </c>
@@ -9284,7 +9317,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="30">
         <v>43951</v>
       </c>
@@ -9337,7 +9370,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="30">
         <v>43952</v>
       </c>
@@ -9390,7 +9423,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="30">
         <v>43953</v>
       </c>
@@ -9443,7 +9476,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="30">
         <v>43954</v>
       </c>
@@ -9496,7 +9529,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="30">
         <v>43955</v>
       </c>
@@ -9549,7 +9582,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="30">
         <v>43956</v>
       </c>
@@ -9602,7 +9635,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="30">
         <v>43957</v>
       </c>
@@ -9655,7 +9688,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="30">
         <v>43958</v>
       </c>
@@ -9708,7 +9741,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="30">
         <v>43959</v>
       </c>
@@ -9761,7 +9794,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="30">
         <v>43960</v>
       </c>
@@ -9814,7 +9847,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="30">
         <v>43961</v>
       </c>
@@ -9867,7 +9900,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="30">
         <v>43962</v>
       </c>
@@ -9920,7 +9953,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="30">
         <v>43963</v>
       </c>
@@ -9973,7 +10006,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="30">
         <v>43964</v>
       </c>
@@ -10026,7 +10059,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="30">
         <v>43965</v>
       </c>
@@ -10079,7 +10112,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="30">
         <v>43966</v>
       </c>
@@ -10132,7 +10165,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="30">
         <v>43967</v>
       </c>
@@ -10185,7 +10218,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="30">
         <v>43968</v>
       </c>
@@ -10238,7 +10271,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="30">
         <v>43969</v>
       </c>
@@ -10291,7 +10324,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="30">
         <v>43970</v>
       </c>
@@ -10342,6 +10375,59 @@
       </c>
       <c r="Q66" s="36">
         <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A67" s="30">
+        <v>43971</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="11">
+        <v>6</v>
+      </c>
+      <c r="H67" s="11">
+        <v>18</v>
+      </c>
+      <c r="I67" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J67" s="11">
+        <v>8</v>
+      </c>
+      <c r="K67" s="11">
+        <v>8</v>
+      </c>
+      <c r="L67" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M67" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N67" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O67" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P67" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q67" s="13">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -10352,23 +10438,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A59" sqref="A59"/>
+      <selection pane="bottomRight" activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5546875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5546875" style="2"/>
+    <col min="1" max="1" width="15.08984375" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -10389,7 +10475,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -10410,7 +10496,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -10463,7 +10549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -10516,7 +10602,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -10569,7 +10655,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -10622,7 +10708,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -10675,7 +10761,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -10728,7 +10814,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -10781,7 +10867,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -10834,7 +10920,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -10887,7 +10973,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -10940,7 +11026,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -10993,7 +11079,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -11046,7 +11132,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -11099,7 +11185,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -11152,7 +11238,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -11205,7 +11291,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -11258,7 +11344,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -11311,7 +11397,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -11364,7 +11450,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -11417,7 +11503,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -11470,7 +11556,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -11523,7 +11609,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -11576,7 +11662,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -11629,7 +11715,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -11682,7 +11768,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -11735,7 +11821,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -11788,7 +11874,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -11841,7 +11927,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -11894,7 +11980,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -11947,7 +12033,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -12000,7 +12086,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -12053,7 +12139,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -12106,7 +12192,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -12159,7 +12245,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -12212,7 +12298,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -12265,7 +12351,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -12318,7 +12404,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -12371,7 +12457,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -12424,7 +12510,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -12477,7 +12563,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -12530,7 +12616,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -12583,7 +12669,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -12636,7 +12722,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -12689,7 +12775,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -12742,7 +12828,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -12795,7 +12881,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="30">
         <v>43960</v>
       </c>
@@ -12848,7 +12934,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="30">
         <v>43961</v>
       </c>
@@ -12901,7 +12987,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="30">
         <v>43962</v>
       </c>
@@ -12954,7 +13040,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="30">
         <v>43963</v>
       </c>
@@ -13007,7 +13093,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="30">
         <v>43964</v>
       </c>
@@ -13060,7 +13146,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="30">
         <v>43965</v>
       </c>
@@ -13113,7 +13199,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="30">
         <v>43966</v>
       </c>
@@ -13166,7 +13252,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="30">
         <v>43967</v>
       </c>
@@ -13219,7 +13305,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="30">
         <v>43968</v>
       </c>
@@ -13272,7 +13358,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="30">
         <v>43969</v>
       </c>
@@ -13325,7 +13411,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="30">
         <v>43970</v>
       </c>
@@ -13376,6 +13462,59 @@
       </c>
       <c r="Q58" s="36">
         <v>969</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A59" s="30">
+        <v>43971</v>
+      </c>
+      <c r="B59" s="11">
+        <v>29</v>
+      </c>
+      <c r="C59" s="11">
+        <v>21</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="11">
+        <v>72</v>
+      </c>
+      <c r="F59" s="11">
+        <v>15</v>
+      </c>
+      <c r="G59" s="11">
+        <v>80</v>
+      </c>
+      <c r="H59" s="11">
+        <v>412</v>
+      </c>
+      <c r="I59" s="11">
+        <v>13</v>
+      </c>
+      <c r="J59" s="11">
+        <v>91</v>
+      </c>
+      <c r="K59" s="11">
+        <v>183</v>
+      </c>
+      <c r="L59" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M59" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N59" s="11">
+        <v>21</v>
+      </c>
+      <c r="O59" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P59" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q59" s="13">
+        <v>943</v>
       </c>
     </row>
   </sheetData>
@@ -13386,23 +13525,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A59" sqref="A59"/>
+      <selection pane="bottomRight" activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5546875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5546875" style="2"/>
+    <col min="1" max="1" width="12.453125" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -13423,7 +13562,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -13444,7 +13583,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -13497,7 +13636,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -13550,7 +13689,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -13603,7 +13742,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -13656,7 +13795,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -13709,7 +13848,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -13762,7 +13901,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -13815,7 +13954,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -13868,7 +14007,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -13921,7 +14060,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -13974,7 +14113,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -14027,7 +14166,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -14080,7 +14219,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -14133,7 +14272,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -14186,7 +14325,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -14239,7 +14378,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -14292,7 +14431,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -14345,7 +14484,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -14398,7 +14537,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -14451,7 +14590,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -14504,7 +14643,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -14557,7 +14696,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -14610,7 +14749,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -14663,7 +14802,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -14716,7 +14855,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -14769,7 +14908,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -14822,7 +14961,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -14875,7 +15014,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -14928,7 +15067,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -14981,7 +15120,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -15034,7 +15173,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -15087,7 +15226,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -15140,7 +15279,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -15193,7 +15332,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -15246,7 +15385,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -15299,7 +15438,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -15352,7 +15491,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -15405,7 +15544,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -15458,7 +15597,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -15511,7 +15650,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -15564,7 +15703,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -15617,7 +15756,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -15670,7 +15809,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -15723,7 +15862,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -15776,7 +15915,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -15829,7 +15968,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="30">
         <v>43960</v>
       </c>
@@ -15882,7 +16021,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="30">
         <v>43961</v>
       </c>
@@ -15935,7 +16074,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="30">
         <v>43962</v>
       </c>
@@ -15988,7 +16127,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="30">
         <v>43963</v>
       </c>
@@ -16041,7 +16180,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="30">
         <v>43964</v>
       </c>
@@ -16094,7 +16233,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="30">
         <v>43965</v>
       </c>
@@ -16147,7 +16286,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="30">
         <v>43966</v>
       </c>
@@ -16200,7 +16339,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="30">
         <v>43967</v>
       </c>
@@ -16253,7 +16392,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="30">
         <v>43968</v>
       </c>
@@ -16306,7 +16445,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="30">
         <v>43969</v>
       </c>
@@ -16359,7 +16498,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="30">
         <v>43970</v>
       </c>
@@ -16410,6 +16549,59 @@
       </c>
       <c r="Q58" s="36">
         <v>478</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A59" s="30">
+        <v>43971</v>
+      </c>
+      <c r="B59" s="11">
+        <v>69</v>
+      </c>
+      <c r="C59" s="11">
+        <v>20</v>
+      </c>
+      <c r="D59" s="11">
+        <v>22</v>
+      </c>
+      <c r="E59" s="11">
+        <v>31</v>
+      </c>
+      <c r="F59" s="11">
+        <v>47</v>
+      </c>
+      <c r="G59" s="11">
+        <v>33</v>
+      </c>
+      <c r="H59" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I59" s="11">
+        <v>33</v>
+      </c>
+      <c r="J59" s="11">
+        <v>100</v>
+      </c>
+      <c r="K59" s="11">
+        <v>124</v>
+      </c>
+      <c r="L59" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M59" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N59" s="11">
+        <v>16</v>
+      </c>
+      <c r="O59" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P59" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q59" s="13">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -16442,7 +16634,7 @@
       <value order="0"/>
     </field>
     <field name="Objective-ModificationStamp">
-      <value order="0">2020-05-19T12:01:01Z</value>
+      <value order="0">2020-05-20T11:52:30Z</value>
     </field>
     <field name="Objective-Owner">
       <value order="0">Grant, Neil N (u207826)</value>
@@ -16457,16 +16649,16 @@
       <value order="0">Being Drafted</value>
     </field>
     <field name="Objective-VersionId">
-      <value order="0">vA41241866</value>
+      <value order="0">vA41270674</value>
     </field>
     <field name="Objective-Version">
-      <value order="0">12.11</value>
+      <value order="0">12.13</value>
     </field>
     <field name="Objective-VersionNumber">
-      <value order="0">103</value>
+      <value order="0">105</value>
     </field>
     <field name="Objective-VersionComment">
-      <value order="0"/>
+      <value order="0">testing update</value>
     </field>
     <field name="Objective-FileNumber">
       <value order="0">PUBRES/4199</value>

--- a/data/csv/src/data_latest_sct.xlsx
+++ b/data/csv/src/data_latest_sct.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u419207\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA10434\A28088333\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u207826\Objective\Objects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5990" windowHeight="6010" tabRatio="803" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5990" windowHeight="6010" tabRatio="803"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -1559,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1668,11 +1668,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A78" sqref="A78"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5523,26 +5523,59 @@
       <c r="O78" s="28">
         <v>6</v>
       </c>
-      <c r="P78" s="41">
+      <c r="P78" s="32">
         <v>14751</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
-      <c r="K79" s="28"/>
-      <c r="L79" s="28"/>
-      <c r="M79" s="28"/>
-      <c r="N79" s="28"/>
-      <c r="O79" s="28"/>
-      <c r="P79" s="28"/>
+      <c r="A79" s="5">
+        <v>43972</v>
+      </c>
+      <c r="B79" s="28">
+        <v>995</v>
+      </c>
+      <c r="C79" s="28">
+        <v>322</v>
+      </c>
+      <c r="D79" s="28">
+        <v>257</v>
+      </c>
+      <c r="E79" s="28">
+        <v>826</v>
+      </c>
+      <c r="F79" s="28">
+        <v>896</v>
+      </c>
+      <c r="G79" s="28">
+        <v>1218</v>
+      </c>
+      <c r="H79" s="28">
+        <v>3806</v>
+      </c>
+      <c r="I79" s="28">
+        <v>334</v>
+      </c>
+      <c r="J79" s="28">
+        <v>1892</v>
+      </c>
+      <c r="K79" s="28">
+        <v>2611</v>
+      </c>
+      <c r="L79" s="28">
+        <v>7</v>
+      </c>
+      <c r="M79" s="28">
+        <v>54</v>
+      </c>
+      <c r="N79" s="28">
+        <v>1632</v>
+      </c>
+      <c r="O79" s="28">
+        <v>6</v>
+      </c>
+      <c r="P79" s="32">
+        <v>14856</v>
+      </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B80" s="28"/>
@@ -6929,11 +6962,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
+      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10430,6 +10463,59 @@
         <v>53</v>
       </c>
     </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A68" s="30">
+        <v>43972</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" s="11">
+        <v>6</v>
+      </c>
+      <c r="H68" s="11">
+        <v>16</v>
+      </c>
+      <c r="I68" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J68" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K68" s="11">
+        <v>12</v>
+      </c>
+      <c r="L68" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M68" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N68" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O68" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P68" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q68" s="13">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -10438,13 +10524,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L62" sqref="L62"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13517,6 +13603,59 @@
         <v>943</v>
       </c>
     </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A60" s="30">
+        <v>43972</v>
+      </c>
+      <c r="B60" s="11">
+        <v>29</v>
+      </c>
+      <c r="C60" s="11">
+        <v>12</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="11">
+        <v>70</v>
+      </c>
+      <c r="F60" s="11">
+        <v>14</v>
+      </c>
+      <c r="G60" s="11">
+        <v>72</v>
+      </c>
+      <c r="H60" s="11">
+        <v>400</v>
+      </c>
+      <c r="I60" s="11">
+        <v>12</v>
+      </c>
+      <c r="J60" s="11">
+        <v>95</v>
+      </c>
+      <c r="K60" s="11">
+        <v>180</v>
+      </c>
+      <c r="L60" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M60" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N60" s="11">
+        <v>20</v>
+      </c>
+      <c r="O60" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P60" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q60" s="13">
+        <v>909</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -13525,13 +13664,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J66" sqref="J66"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16602,6 +16741,59 @@
       </c>
       <c r="Q59" s="13">
         <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A60" s="30">
+        <v>43972</v>
+      </c>
+      <c r="B60" s="11">
+        <v>41</v>
+      </c>
+      <c r="C60" s="11">
+        <v>21</v>
+      </c>
+      <c r="D60" s="11">
+        <v>12</v>
+      </c>
+      <c r="E60" s="11">
+        <v>21</v>
+      </c>
+      <c r="F60" s="11">
+        <v>41</v>
+      </c>
+      <c r="G60" s="11">
+        <v>32</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I60" s="11">
+        <v>29</v>
+      </c>
+      <c r="J60" s="11">
+        <v>53</v>
+      </c>
+      <c r="K60" s="11">
+        <v>142</v>
+      </c>
+      <c r="L60" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M60" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N60" s="11">
+        <v>16</v>
+      </c>
+      <c r="O60" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P60" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q60" s="11">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -16628,13 +16820,13 @@
       <value order="0">false</value>
     </field>
     <field name="Objective-IsPublished">
-      <value order="0">false</value>
+      <value order="0">true</value>
     </field>
     <field name="Objective-DatePublished">
-      <value order="0"/>
+      <value order="0">2020-05-21T11:55:59Z</value>
     </field>
     <field name="Objective-ModificationStamp">
-      <value order="0">2020-05-20T11:52:30Z</value>
+      <value order="0">2020-05-21T11:55:59Z</value>
     </field>
     <field name="Objective-Owner">
       <value order="0">Grant, Neil N (u207826)</value>
@@ -16646,19 +16838,19 @@
       <value order="0">Analytical: COVID 19 Analysis: Restricted working papers: Research and analysis: Diseases: 2020-2025</value>
     </field>
     <field name="Objective-State">
-      <value order="0">Being Drafted</value>
+      <value order="0">Published</value>
     </field>
     <field name="Objective-VersionId">
-      <value order="0">vA41270674</value>
+      <value order="0">vA41298545</value>
     </field>
     <field name="Objective-Version">
-      <value order="0">12.13</value>
+      <value order="0">13.0</value>
     </field>
     <field name="Objective-VersionNumber">
-      <value order="0">105</value>
+      <value order="0">108</value>
     </field>
     <field name="Objective-VersionComment">
-      <value order="0">testing update</value>
+      <value order="0"/>
     </field>
     <field name="Objective-FileNumber">
       <value order="0">PUBRES/4199</value>

--- a/data/csv/src/data_latest_sct.xlsx
+++ b/data/csv/src/data_latest_sct.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u207826\Objective\Objects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U445783\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA18464\A28088333\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5990" windowHeight="6010" tabRatio="803"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5988" windowHeight="6012" tabRatio="803" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -1559,25 +1559,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="90.453125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.453125" style="2"/>
+    <col min="2" max="2" width="29.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="90.44140625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
@@ -1593,13 +1593,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="23"/>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>26</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
         <v>27</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="24" t="s">
         <v>36</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20" t="s">
         <v>37</v>
       </c>
@@ -1649,12 +1649,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.453125" style="2"/>
+    <col min="1" max="16384" width="9.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="44" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A44" s="43"/>
     </row>
   </sheetData>
@@ -1668,21 +1668,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S160"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
-    <col min="2" max="16" width="11.453125" style="11" customWidth="1"/>
-    <col min="17" max="16384" width="8.54296875" style="2"/>
+    <col min="2" max="16" width="11.44140625" style="11" customWidth="1"/>
+    <col min="17" max="16384" width="8.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1702,7 +1702,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -1721,7 +1721,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>43897</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43898</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43899</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43900</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43901</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43902</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43903</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43904</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>43905</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>43906</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>43907</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>43908</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>43909</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>43910</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>43911</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>43912</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>43913</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>43914</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43915</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43916</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43917</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>43918</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>43919</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>43920</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>43921</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43922</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43923</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>43924</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>43925</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>43926</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>3706</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>43927</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>3961</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>43928</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>43929</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>43930</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>4957</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>43931</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>5275</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>43932</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>5590</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>43933</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>5912</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>43934</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>6067</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>43935</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>6358</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>43936</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>6748</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>43937</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>7102</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>43938</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>43939</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>7820</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>43940</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>8187</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>43941</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>8450</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>43942</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>8672</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>43943</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>9038</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>43944</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>9409</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>43945</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>9697</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>43946</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>10051</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>43947</v>
       </c>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="R54" s="38"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>43948</v>
       </c>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="R55" s="38"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>43949</v>
       </c>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="R56" s="39"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>43950</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>11034</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>43951</v>
       </c>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="R58" s="38"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>43952</v>
       </c>
@@ -4577,7 +4577,7 @@
       <c r="R59" s="38"/>
       <c r="S59" s="38"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>43953</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>11927</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>43954</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>12097</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>43955</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>12266</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>43956</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>12437</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>43957</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>12709</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>43958</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>12924</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>43959</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>13149</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>43960</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>13305</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>43961</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>13486</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>43962</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>13627</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>43963</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>13763</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>43964</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>13929</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>43965</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>14117</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>43966</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>14260</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>43967</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>14447</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>43968</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>14537</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>43969</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>14594</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>43970</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>14655</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>43971</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>14751</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>43972</v>
       </c>
@@ -5577,24 +5577,57 @@
         <v>14856</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="28"/>
-      <c r="K80" s="28"/>
-      <c r="L80" s="28"/>
-      <c r="M80" s="28"/>
-      <c r="N80" s="28"/>
-      <c r="O80" s="28"/>
-      <c r="P80" s="28"/>
-    </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A80" s="5">
+        <v>43973</v>
+      </c>
+      <c r="B80" s="28">
+        <v>1001</v>
+      </c>
+      <c r="C80" s="28">
+        <v>322</v>
+      </c>
+      <c r="D80" s="28">
+        <v>257</v>
+      </c>
+      <c r="E80" s="28">
+        <v>826</v>
+      </c>
+      <c r="F80" s="28">
+        <v>909</v>
+      </c>
+      <c r="G80" s="28">
+        <v>1223</v>
+      </c>
+      <c r="H80" s="28">
+        <v>3841</v>
+      </c>
+      <c r="I80" s="28">
+        <v>335</v>
+      </c>
+      <c r="J80" s="28">
+        <v>1913</v>
+      </c>
+      <c r="K80" s="28">
+        <v>2634</v>
+      </c>
+      <c r="L80" s="28">
+        <v>7</v>
+      </c>
+      <c r="M80" s="28">
+        <v>54</v>
+      </c>
+      <c r="N80" s="28">
+        <v>1641</v>
+      </c>
+      <c r="O80" s="28">
+        <v>6</v>
+      </c>
+      <c r="P80" s="32">
+        <v>14969</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
       <c r="D81" s="28"/>
@@ -5611,7 +5644,7 @@
       <c r="O81" s="28"/>
       <c r="P81" s="28"/>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B82" s="28"/>
       <c r="C82" s="28"/>
       <c r="D82" s="28"/>
@@ -5628,7 +5661,7 @@
       <c r="O82" s="28"/>
       <c r="P82" s="28"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
       <c r="D83" s="28"/>
@@ -5645,7 +5678,7 @@
       <c r="O83" s="28"/>
       <c r="P83" s="28"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B84" s="28"/>
       <c r="C84" s="28"/>
       <c r="D84" s="28"/>
@@ -5662,7 +5695,7 @@
       <c r="O84" s="28"/>
       <c r="P84" s="28"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B85" s="28"/>
       <c r="C85" s="28"/>
       <c r="D85" s="28"/>
@@ -5679,7 +5712,7 @@
       <c r="O85" s="28"/>
       <c r="P85" s="28"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B86" s="28"/>
       <c r="C86" s="28"/>
       <c r="D86" s="28"/>
@@ -5696,7 +5729,7 @@
       <c r="O86" s="28"/>
       <c r="P86" s="28"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
       <c r="D87" s="28"/>
@@ -5713,7 +5746,7 @@
       <c r="O87" s="28"/>
       <c r="P87" s="28"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B88" s="28"/>
       <c r="C88" s="28"/>
       <c r="D88" s="28"/>
@@ -5730,7 +5763,7 @@
       <c r="O88" s="28"/>
       <c r="P88" s="28"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
       <c r="D89" s="28"/>
@@ -5747,7 +5780,7 @@
       <c r="O89" s="28"/>
       <c r="P89" s="28"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B90" s="28"/>
       <c r="C90" s="28"/>
       <c r="D90" s="28"/>
@@ -5764,7 +5797,7 @@
       <c r="O90" s="28"/>
       <c r="P90" s="28"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
       <c r="D91" s="28"/>
@@ -5781,7 +5814,7 @@
       <c r="O91" s="28"/>
       <c r="P91" s="28"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B92" s="28"/>
       <c r="C92" s="28"/>
       <c r="D92" s="28"/>
@@ -5798,7 +5831,7 @@
       <c r="O92" s="28"/>
       <c r="P92" s="28"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
       <c r="D93" s="28"/>
@@ -5815,7 +5848,7 @@
       <c r="O93" s="28"/>
       <c r="P93" s="28"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
       <c r="D94" s="28"/>
@@ -5832,7 +5865,7 @@
       <c r="O94" s="28"/>
       <c r="P94" s="28"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
       <c r="D95" s="28"/>
@@ -5849,7 +5882,7 @@
       <c r="O95" s="28"/>
       <c r="P95" s="28"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
       <c r="D96" s="28"/>
@@ -5866,7 +5899,7 @@
       <c r="O96" s="28"/>
       <c r="P96" s="28"/>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
@@ -5883,7 +5916,7 @@
       <c r="O97" s="28"/>
       <c r="P97" s="28"/>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
       <c r="D98" s="28"/>
@@ -5900,7 +5933,7 @@
       <c r="O98" s="28"/>
       <c r="P98" s="28"/>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
       <c r="D99" s="28"/>
@@ -5917,7 +5950,7 @@
       <c r="O99" s="28"/>
       <c r="P99" s="28"/>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
       <c r="D100" s="28"/>
@@ -5934,7 +5967,7 @@
       <c r="O100" s="28"/>
       <c r="P100" s="28"/>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
       <c r="D101" s="28"/>
@@ -5951,7 +5984,7 @@
       <c r="O101" s="28"/>
       <c r="P101" s="28"/>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B102" s="28"/>
       <c r="C102" s="28"/>
       <c r="D102" s="28"/>
@@ -5968,7 +6001,7 @@
       <c r="O102" s="28"/>
       <c r="P102" s="28"/>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
       <c r="D103" s="28"/>
@@ -5985,7 +6018,7 @@
       <c r="O103" s="28"/>
       <c r="P103" s="28"/>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
       <c r="D104" s="28"/>
@@ -6002,7 +6035,7 @@
       <c r="O104" s="28"/>
       <c r="P104" s="28"/>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B105" s="28"/>
       <c r="C105" s="28"/>
       <c r="D105" s="28"/>
@@ -6019,7 +6052,7 @@
       <c r="O105" s="28"/>
       <c r="P105" s="28"/>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
       <c r="D106" s="28"/>
@@ -6036,7 +6069,7 @@
       <c r="O106" s="28"/>
       <c r="P106" s="28"/>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
       <c r="D107" s="28"/>
@@ -6053,7 +6086,7 @@
       <c r="O107" s="28"/>
       <c r="P107" s="28"/>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B108" s="28"/>
       <c r="C108" s="28"/>
       <c r="D108" s="28"/>
@@ -6070,7 +6103,7 @@
       <c r="O108" s="28"/>
       <c r="P108" s="28"/>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
       <c r="D109" s="28"/>
@@ -6087,7 +6120,7 @@
       <c r="O109" s="28"/>
       <c r="P109" s="28"/>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B110" s="28"/>
       <c r="C110" s="28"/>
       <c r="D110" s="28"/>
@@ -6104,7 +6137,7 @@
       <c r="O110" s="28"/>
       <c r="P110" s="28"/>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B111" s="28"/>
       <c r="C111" s="28"/>
       <c r="D111" s="28"/>
@@ -6121,7 +6154,7 @@
       <c r="O111" s="28"/>
       <c r="P111" s="28"/>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B112" s="28"/>
       <c r="C112" s="28"/>
       <c r="D112" s="28"/>
@@ -6138,7 +6171,7 @@
       <c r="O112" s="28"/>
       <c r="P112" s="28"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B113" s="28"/>
       <c r="C113" s="28"/>
       <c r="D113" s="28"/>
@@ -6155,7 +6188,7 @@
       <c r="O113" s="28"/>
       <c r="P113" s="28"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B114" s="28"/>
       <c r="C114" s="28"/>
       <c r="D114" s="28"/>
@@ -6172,7 +6205,7 @@
       <c r="O114" s="28"/>
       <c r="P114" s="28"/>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B115" s="28"/>
       <c r="C115" s="28"/>
       <c r="D115" s="28"/>
@@ -6189,7 +6222,7 @@
       <c r="O115" s="28"/>
       <c r="P115" s="28"/>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B116" s="28"/>
       <c r="C116" s="28"/>
       <c r="D116" s="28"/>
@@ -6206,7 +6239,7 @@
       <c r="O116" s="28"/>
       <c r="P116" s="28"/>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
       <c r="D117" s="28"/>
@@ -6223,7 +6256,7 @@
       <c r="O117" s="28"/>
       <c r="P117" s="28"/>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
       <c r="D118" s="28"/>
@@ -6240,7 +6273,7 @@
       <c r="O118" s="28"/>
       <c r="P118" s="28"/>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B119" s="28"/>
       <c r="C119" s="28"/>
       <c r="D119" s="28"/>
@@ -6257,7 +6290,7 @@
       <c r="O119" s="28"/>
       <c r="P119" s="28"/>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B120" s="28"/>
       <c r="C120" s="28"/>
       <c r="D120" s="28"/>
@@ -6274,7 +6307,7 @@
       <c r="O120" s="28"/>
       <c r="P120" s="28"/>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
       <c r="D121" s="28"/>
@@ -6291,7 +6324,7 @@
       <c r="O121" s="28"/>
       <c r="P121" s="28"/>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
       <c r="D122" s="28"/>
@@ -6308,7 +6341,7 @@
       <c r="O122" s="28"/>
       <c r="P122" s="28"/>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
       <c r="D123" s="28"/>
@@ -6325,7 +6358,7 @@
       <c r="O123" s="28"/>
       <c r="P123" s="28"/>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
       <c r="D124" s="28"/>
@@ -6342,7 +6375,7 @@
       <c r="O124" s="28"/>
       <c r="P124" s="28"/>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B125" s="28"/>
       <c r="C125" s="28"/>
       <c r="D125" s="28"/>
@@ -6359,7 +6392,7 @@
       <c r="O125" s="28"/>
       <c r="P125" s="28"/>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B126" s="28"/>
       <c r="C126" s="28"/>
       <c r="D126" s="28"/>
@@ -6376,7 +6409,7 @@
       <c r="O126" s="28"/>
       <c r="P126" s="28"/>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B127" s="28"/>
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
@@ -6393,7 +6426,7 @@
       <c r="O127" s="28"/>
       <c r="P127" s="28"/>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
       <c r="D128" s="28"/>
@@ -6410,7 +6443,7 @@
       <c r="O128" s="28"/>
       <c r="P128" s="28"/>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B129" s="28"/>
       <c r="C129" s="28"/>
       <c r="D129" s="28"/>
@@ -6427,7 +6460,7 @@
       <c r="O129" s="28"/>
       <c r="P129" s="28"/>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B130" s="28"/>
       <c r="C130" s="28"/>
       <c r="D130" s="28"/>
@@ -6444,7 +6477,7 @@
       <c r="O130" s="28"/>
       <c r="P130" s="28"/>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
       <c r="D131" s="28"/>
@@ -6461,7 +6494,7 @@
       <c r="O131" s="28"/>
       <c r="P131" s="28"/>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
       <c r="D132" s="28"/>
@@ -6478,7 +6511,7 @@
       <c r="O132" s="28"/>
       <c r="P132" s="28"/>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
       <c r="D133" s="28"/>
@@ -6495,7 +6528,7 @@
       <c r="O133" s="28"/>
       <c r="P133" s="28"/>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B134" s="28"/>
       <c r="C134" s="28"/>
       <c r="D134" s="28"/>
@@ -6512,7 +6545,7 @@
       <c r="O134" s="28"/>
       <c r="P134" s="28"/>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B135" s="28"/>
       <c r="C135" s="28"/>
       <c r="D135" s="28"/>
@@ -6529,7 +6562,7 @@
       <c r="O135" s="28"/>
       <c r="P135" s="28"/>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B136" s="28"/>
       <c r="C136" s="28"/>
       <c r="D136" s="28"/>
@@ -6546,7 +6579,7 @@
       <c r="O136" s="28"/>
       <c r="P136" s="28"/>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
       <c r="D137" s="28"/>
@@ -6563,7 +6596,7 @@
       <c r="O137" s="28"/>
       <c r="P137" s="28"/>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B138" s="28"/>
       <c r="C138" s="28"/>
       <c r="D138" s="28"/>
@@ -6580,7 +6613,7 @@
       <c r="O138" s="28"/>
       <c r="P138" s="28"/>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B139" s="28"/>
       <c r="C139" s="28"/>
       <c r="D139" s="28"/>
@@ -6597,7 +6630,7 @@
       <c r="O139" s="28"/>
       <c r="P139" s="28"/>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B140" s="28"/>
       <c r="C140" s="28"/>
       <c r="D140" s="28"/>
@@ -6614,7 +6647,7 @@
       <c r="O140" s="28"/>
       <c r="P140" s="28"/>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B141" s="28"/>
       <c r="C141" s="28"/>
       <c r="D141" s="28"/>
@@ -6631,7 +6664,7 @@
       <c r="O141" s="28"/>
       <c r="P141" s="28"/>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B142" s="28"/>
       <c r="C142" s="28"/>
       <c r="D142" s="28"/>
@@ -6648,7 +6681,7 @@
       <c r="O142" s="28"/>
       <c r="P142" s="28"/>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B143" s="28"/>
       <c r="C143" s="28"/>
       <c r="D143" s="28"/>
@@ -6665,7 +6698,7 @@
       <c r="O143" s="28"/>
       <c r="P143" s="28"/>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B144" s="28"/>
       <c r="C144" s="28"/>
       <c r="D144" s="28"/>
@@ -6682,7 +6715,7 @@
       <c r="O144" s="28"/>
       <c r="P144" s="28"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
       <c r="D145" s="28"/>
@@ -6699,7 +6732,7 @@
       <c r="O145" s="28"/>
       <c r="P145" s="28"/>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B146" s="28"/>
       <c r="C146" s="28"/>
       <c r="D146" s="28"/>
@@ -6716,7 +6749,7 @@
       <c r="O146" s="28"/>
       <c r="P146" s="28"/>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B147" s="28"/>
       <c r="C147" s="28"/>
       <c r="D147" s="28"/>
@@ -6733,7 +6766,7 @@
       <c r="O147" s="28"/>
       <c r="P147" s="28"/>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B148" s="28"/>
       <c r="C148" s="28"/>
       <c r="D148" s="28"/>
@@ -6750,7 +6783,7 @@
       <c r="O148" s="28"/>
       <c r="P148" s="28"/>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
       <c r="D149" s="28"/>
@@ -6767,7 +6800,7 @@
       <c r="O149" s="28"/>
       <c r="P149" s="28"/>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
       <c r="D150" s="28"/>
@@ -6784,7 +6817,7 @@
       <c r="O150" s="28"/>
       <c r="P150" s="28"/>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
       <c r="D151" s="28"/>
@@ -6801,7 +6834,7 @@
       <c r="O151" s="28"/>
       <c r="P151" s="28"/>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B152" s="28"/>
       <c r="C152" s="28"/>
       <c r="D152" s="28"/>
@@ -6818,7 +6851,7 @@
       <c r="O152" s="28"/>
       <c r="P152" s="28"/>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
       <c r="D153" s="28"/>
@@ -6835,7 +6868,7 @@
       <c r="O153" s="28"/>
       <c r="P153" s="28"/>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B154" s="28"/>
       <c r="C154" s="28"/>
       <c r="D154" s="28"/>
@@ -6852,7 +6885,7 @@
       <c r="O154" s="28"/>
       <c r="P154" s="28"/>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B155" s="28"/>
       <c r="C155" s="28"/>
       <c r="D155" s="28"/>
@@ -6869,7 +6902,7 @@
       <c r="O155" s="28"/>
       <c r="P155" s="28"/>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B156" s="28"/>
       <c r="C156" s="28"/>
       <c r="D156" s="28"/>
@@ -6886,7 +6919,7 @@
       <c r="O156" s="28"/>
       <c r="P156" s="28"/>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B157" s="28"/>
       <c r="C157" s="28"/>
       <c r="D157" s="28"/>
@@ -6903,7 +6936,7 @@
       <c r="O157" s="28"/>
       <c r="P157" s="28"/>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
       <c r="D158" s="28"/>
@@ -6920,7 +6953,7 @@
       <c r="O158" s="28"/>
       <c r="P158" s="28"/>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
       <c r="D159" s="28"/>
@@ -6937,7 +6970,7 @@
       <c r="O159" s="28"/>
       <c r="P159" s="28"/>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
       <c r="D160" s="28"/>
@@ -6962,21 +6995,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.54296875" style="2"/>
+    <col min="1" max="1" width="12.44140625" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5546875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -6997,7 +7030,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -7018,7 +7051,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -7071,7 +7104,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>43908</v>
       </c>
@@ -7124,7 +7157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>43909</v>
       </c>
@@ -7177,7 +7210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>43910</v>
       </c>
@@ -7230,7 +7263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>43911</v>
       </c>
@@ -7283,7 +7316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>43912</v>
       </c>
@@ -7336,7 +7369,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>43913</v>
       </c>
@@ -7389,7 +7422,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>43914</v>
       </c>
@@ -7442,7 +7475,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>43915</v>
       </c>
@@ -7495,7 +7528,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>43916</v>
       </c>
@@ -7548,7 +7581,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>43917</v>
       </c>
@@ -7601,7 +7634,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>43918</v>
       </c>
@@ -7654,7 +7687,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>43919</v>
       </c>
@@ -7707,7 +7740,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>43920</v>
       </c>
@@ -7760,7 +7793,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>43921</v>
       </c>
@@ -7813,7 +7846,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>43922</v>
       </c>
@@ -7866,7 +7899,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>43923</v>
       </c>
@@ -7919,7 +7952,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>43924</v>
       </c>
@@ -7972,7 +8005,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>43925</v>
       </c>
@@ -8025,7 +8058,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>43926</v>
       </c>
@@ -8078,7 +8111,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>43927</v>
       </c>
@@ -8131,7 +8164,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>43928</v>
       </c>
@@ -8184,7 +8217,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>43929</v>
       </c>
@@ -8237,7 +8270,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>43930</v>
       </c>
@@ -8290,7 +8323,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>43931</v>
       </c>
@@ -8343,7 +8376,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>43932</v>
       </c>
@@ -8396,7 +8429,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>43933</v>
       </c>
@@ -8449,7 +8482,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>43934</v>
       </c>
@@ -8502,7 +8535,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>43935</v>
       </c>
@@ -8555,7 +8588,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>43936</v>
       </c>
@@ -8608,7 +8641,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>43937</v>
       </c>
@@ -8661,7 +8694,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>43938</v>
       </c>
@@ -8714,7 +8747,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>43939</v>
       </c>
@@ -8767,7 +8800,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="30">
         <v>43940</v>
       </c>
@@ -8820,7 +8853,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="30">
         <v>43941</v>
       </c>
@@ -8873,7 +8906,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="30">
         <v>43942</v>
       </c>
@@ -8926,7 +8959,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="30">
         <v>43943</v>
       </c>
@@ -8979,7 +9012,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="30">
         <v>43944</v>
       </c>
@@ -9032,7 +9065,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="30">
         <v>43945</v>
       </c>
@@ -9085,7 +9118,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="30">
         <v>43946</v>
       </c>
@@ -9138,7 +9171,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="30">
         <v>43947</v>
       </c>
@@ -9191,7 +9224,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="30">
         <v>43948</v>
       </c>
@@ -9244,7 +9277,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="30">
         <v>43949</v>
       </c>
@@ -9297,7 +9330,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="30">
         <v>43950</v>
       </c>
@@ -9350,7 +9383,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="30">
         <v>43951</v>
       </c>
@@ -9403,7 +9436,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="30">
         <v>43952</v>
       </c>
@@ -9456,7 +9489,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="30">
         <v>43953</v>
       </c>
@@ -9509,7 +9542,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="30">
         <v>43954</v>
       </c>
@@ -9562,7 +9595,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="30">
         <v>43955</v>
       </c>
@@ -9615,7 +9648,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="30">
         <v>43956</v>
       </c>
@@ -9668,7 +9701,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="30">
         <v>43957</v>
       </c>
@@ -9721,7 +9754,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="30">
         <v>43958</v>
       </c>
@@ -9774,7 +9807,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="30">
         <v>43959</v>
       </c>
@@ -9827,7 +9860,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="30">
         <v>43960</v>
       </c>
@@ -9880,7 +9913,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="30">
         <v>43961</v>
       </c>
@@ -9933,7 +9966,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="30">
         <v>43962</v>
       </c>
@@ -9986,7 +10019,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="30">
         <v>43963</v>
       </c>
@@ -10039,7 +10072,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="30">
         <v>43964</v>
       </c>
@@ -10092,7 +10125,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="30">
         <v>43965</v>
       </c>
@@ -10145,7 +10178,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="30">
         <v>43966</v>
       </c>
@@ -10198,7 +10231,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="30">
         <v>43967</v>
       </c>
@@ -10251,7 +10284,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="30">
         <v>43968</v>
       </c>
@@ -10304,7 +10337,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="30">
         <v>43969</v>
       </c>
@@ -10357,7 +10390,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="30">
         <v>43970</v>
       </c>
@@ -10410,7 +10443,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="30">
         <v>43971</v>
       </c>
@@ -10463,7 +10496,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="30">
         <v>43972</v>
       </c>
@@ -10514,6 +10547,59 @@
       </c>
       <c r="Q68" s="13">
         <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" s="30">
+        <v>43973</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" s="11">
+        <v>6</v>
+      </c>
+      <c r="H69" s="11">
+        <v>14</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J69" s="11">
+        <v>8</v>
+      </c>
+      <c r="K69" s="11">
+        <v>9</v>
+      </c>
+      <c r="L69" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M69" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N69" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O69" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P69" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q69" s="13">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -10524,23 +10610,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.54296875" style="2"/>
+    <col min="1" max="1" width="15.109375" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5546875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -10561,7 +10647,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -10582,7 +10668,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -10635,7 +10721,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -10688,7 +10774,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -10741,7 +10827,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -10794,7 +10880,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -10847,7 +10933,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -10900,7 +10986,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -10953,7 +11039,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -11006,7 +11092,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -11059,7 +11145,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -11112,7 +11198,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -11165,7 +11251,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -11218,7 +11304,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -11271,7 +11357,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -11324,7 +11410,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -11377,7 +11463,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -11430,7 +11516,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -11483,7 +11569,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -11536,7 +11622,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -11589,7 +11675,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -11642,7 +11728,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -11695,7 +11781,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -11748,7 +11834,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -11801,7 +11887,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -11854,7 +11940,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -11907,7 +11993,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -11960,7 +12046,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -12013,7 +12099,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -12066,7 +12152,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -12119,7 +12205,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -12172,7 +12258,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -12225,7 +12311,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -12278,7 +12364,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -12331,7 +12417,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -12384,7 +12470,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -12437,7 +12523,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -12490,7 +12576,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -12543,7 +12629,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -12596,7 +12682,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -12649,7 +12735,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -12702,7 +12788,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -12755,7 +12841,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -12808,7 +12894,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -12861,7 +12947,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -12914,7 +13000,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -12967,7 +13053,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="30">
         <v>43960</v>
       </c>
@@ -13020,7 +13106,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="30">
         <v>43961</v>
       </c>
@@ -13073,7 +13159,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="30">
         <v>43962</v>
       </c>
@@ -13126,7 +13212,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="30">
         <v>43963</v>
       </c>
@@ -13179,7 +13265,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="30">
         <v>43964</v>
       </c>
@@ -13232,7 +13318,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="30">
         <v>43965</v>
       </c>
@@ -13285,7 +13371,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="30">
         <v>43966</v>
       </c>
@@ -13338,7 +13424,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="30">
         <v>43967</v>
       </c>
@@ -13391,7 +13477,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="30">
         <v>43968</v>
       </c>
@@ -13444,7 +13530,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="30">
         <v>43969</v>
       </c>
@@ -13497,7 +13583,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="30">
         <v>43970</v>
       </c>
@@ -13550,7 +13636,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="30">
         <v>43971</v>
       </c>
@@ -13603,7 +13689,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="30">
         <v>43972</v>
       </c>
@@ -13654,6 +13740,59 @@
       </c>
       <c r="Q60" s="13">
         <v>909</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="30">
+        <v>43973</v>
+      </c>
+      <c r="B61" s="11">
+        <v>26</v>
+      </c>
+      <c r="C61" s="11">
+        <v>12</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" s="11">
+        <v>69</v>
+      </c>
+      <c r="F61" s="11">
+        <v>14</v>
+      </c>
+      <c r="G61" s="11">
+        <v>68</v>
+      </c>
+      <c r="H61" s="11">
+        <v>389</v>
+      </c>
+      <c r="I61" s="11">
+        <v>12</v>
+      </c>
+      <c r="J61" s="11">
+        <v>90</v>
+      </c>
+      <c r="K61" s="11">
+        <v>174</v>
+      </c>
+      <c r="L61" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M61" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N61" s="11">
+        <v>15</v>
+      </c>
+      <c r="O61" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P61" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q61" s="13">
+        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -13664,23 +13803,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="S61" sqref="S61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.54296875" style="2"/>
+    <col min="1" max="1" width="12.44140625" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5546875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -13701,7 +13840,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -13722,7 +13861,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -13775,7 +13914,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -13828,7 +13967,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -13881,7 +14020,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -13934,7 +14073,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -13987,7 +14126,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -14040,7 +14179,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -14093,7 +14232,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -14146,7 +14285,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -14199,7 +14338,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -14252,7 +14391,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -14305,7 +14444,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -14358,7 +14497,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -14411,7 +14550,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -14464,7 +14603,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -14517,7 +14656,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -14570,7 +14709,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -14623,7 +14762,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -14676,7 +14815,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -14729,7 +14868,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -14782,7 +14921,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -14835,7 +14974,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -14888,7 +15027,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -14941,7 +15080,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -14994,7 +15133,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -15047,7 +15186,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -15100,7 +15239,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -15153,7 +15292,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -15206,7 +15345,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -15259,7 +15398,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -15312,7 +15451,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -15365,7 +15504,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -15418,7 +15557,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -15471,7 +15610,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -15524,7 +15663,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -15577,7 +15716,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -15630,7 +15769,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -15683,7 +15822,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -15736,7 +15875,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -15789,7 +15928,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -15842,7 +15981,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -15895,7 +16034,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -15948,7 +16087,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -16001,7 +16140,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -16054,7 +16193,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -16107,7 +16246,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="30">
         <v>43960</v>
       </c>
@@ -16160,7 +16299,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="30">
         <v>43961</v>
       </c>
@@ -16213,7 +16352,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="30">
         <v>43962</v>
       </c>
@@ -16266,7 +16405,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="30">
         <v>43963</v>
       </c>
@@ -16319,7 +16458,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="30">
         <v>43964</v>
       </c>
@@ -16372,7 +16511,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="30">
         <v>43965</v>
       </c>
@@ -16425,7 +16564,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="30">
         <v>43966</v>
       </c>
@@ -16478,7 +16617,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="30">
         <v>43967</v>
       </c>
@@ -16531,7 +16670,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="30">
         <v>43968</v>
       </c>
@@ -16584,7 +16723,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="30">
         <v>43969</v>
       </c>
@@ -16637,7 +16776,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="30">
         <v>43970</v>
       </c>
@@ -16690,7 +16829,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="30">
         <v>43971</v>
       </c>
@@ -16743,7 +16882,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="30">
         <v>43972</v>
       </c>
@@ -16792,8 +16931,61 @@
       <c r="P60" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="Q60" s="11">
+      <c r="Q60" s="36">
         <v>409</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="30">
+        <v>43973</v>
+      </c>
+      <c r="B61" s="11">
+        <v>35</v>
+      </c>
+      <c r="C61" s="11">
+        <v>17</v>
+      </c>
+      <c r="D61" s="11">
+        <v>12</v>
+      </c>
+      <c r="E61" s="11">
+        <v>32</v>
+      </c>
+      <c r="F61" s="11">
+        <v>40</v>
+      </c>
+      <c r="G61" s="11">
+        <v>16</v>
+      </c>
+      <c r="H61" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I61" s="11">
+        <v>38</v>
+      </c>
+      <c r="J61" s="11">
+        <v>83</v>
+      </c>
+      <c r="K61" s="11">
+        <v>88</v>
+      </c>
+      <c r="L61" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M61" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N61" s="11">
+        <v>20</v>
+      </c>
+      <c r="O61" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P61" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q61" s="36">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -16801,7 +16993,7 @@
 </worksheet>
 </file>
 
-<file path=customXML/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXML/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://www.objective.com/ecm/document/metadata/53D26341A57B383EE0540010E0463CCA" version="1.0.0">
   <systemFields>
     <field name="Objective-Id">
@@ -16820,13 +17012,13 @@
       <value order="0">false</value>
     </field>
     <field name="Objective-IsPublished">
-      <value order="0">true</value>
+      <value order="0">false</value>
     </field>
     <field name="Objective-DatePublished">
-      <value order="0">2020-05-21T11:55:59Z</value>
+      <value order="0"/>
     </field>
     <field name="Objective-ModificationStamp">
-      <value order="0">2020-05-21T11:55:59Z</value>
+      <value order="0">2020-05-22T12:28:57Z</value>
     </field>
     <field name="Objective-Owner">
       <value order="0">Grant, Neil N (u207826)</value>
@@ -16838,16 +17030,16 @@
       <value order="0">Analytical: COVID 19 Analysis: Restricted working papers: Research and analysis: Diseases: 2020-2025</value>
     </field>
     <field name="Objective-State">
-      <value order="0">Published</value>
+      <value order="0">Being Drafted</value>
     </field>
     <field name="Objective-VersionId">
-      <value order="0">vA41298545</value>
+      <value order="0">vA41318149</value>
     </field>
     <field name="Objective-Version">
-      <value order="0">13.0</value>
+      <value order="0">13.3</value>
     </field>
     <field name="Objective-VersionNumber">
-      <value order="0">108</value>
+      <value order="0">111</value>
     </field>
     <field name="Objective-VersionComment">
       <value order="0"/>
@@ -16884,7 +17076,7 @@
 </metadata>
 </file>
 
-<file path=customXML/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXML/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5745109E-2DDF-40CB-AC2B-FF9B10C90820}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.objective.com/ecm/document/metadata/53D26341A57B383EE0540010E0463CCA"/>

--- a/data/csv/src/data_latest_sct.xlsx
+++ b/data/csv/src/data_latest_sct.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U445783\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA18464\A28088333\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Scotland\dc2\FS5_Home\u204186\Gov.scot content\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5988" windowHeight="6012" tabRatio="803" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5985" windowHeight="6015" tabRatio="803"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -1559,25 +1559,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="90.44140625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.44140625" style="2"/>
+    <col min="2" max="2" width="29.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="90.42578125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
@@ -1593,13 +1593,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="23"/>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>26</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>27</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>36</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
         <v>37</v>
       </c>
@@ -1649,12 +1649,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.44140625" style="2"/>
+    <col min="1" max="16384" width="9.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
     </row>
   </sheetData>
@@ -1668,21 +1668,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G81" sqref="G81"/>
+      <selection pane="bottomRight" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
-    <col min="2" max="16" width="11.44140625" style="11" customWidth="1"/>
-    <col min="17" max="16384" width="8.5546875" style="2"/>
+    <col min="2" max="16" width="11.42578125" style="11" customWidth="1"/>
+    <col min="17" max="16384" width="8.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1702,7 +1702,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -1721,7 +1721,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43897</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>43898</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>43899</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>43900</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>43901</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>43902</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>43903</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>43904</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>43905</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>43906</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>43907</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>43908</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>43909</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>43910</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>43911</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>43912</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>43913</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>43914</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>43915</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>43916</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>43917</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>43918</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>43919</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>43920</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>43921</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>43922</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>43923</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>43924</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>43925</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>43926</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>3706</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>43927</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>3961</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>43928</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>43929</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>43930</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>4957</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>43931</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>5275</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>43932</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>5590</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>43933</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>5912</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>43934</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>6067</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>43935</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>6358</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>43936</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>6748</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43937</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>7102</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>43938</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>43939</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>7820</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>43940</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>8187</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>43941</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>8450</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>43942</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>8672</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>43943</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>9038</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>43944</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>9409</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>43945</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>9697</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>43946</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>10051</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>43947</v>
       </c>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="R54" s="38"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>43948</v>
       </c>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="R55" s="38"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>43949</v>
       </c>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="R56" s="39"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>43950</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>11034</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>43951</v>
       </c>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="R58" s="38"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>43952</v>
       </c>
@@ -4577,7 +4577,7 @@
       <c r="R59" s="38"/>
       <c r="S59" s="38"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>43953</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>11927</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>43954</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>12097</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>43955</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>12266</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>43956</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>12437</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>43957</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>12709</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>43958</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>12924</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>43959</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>13149</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>43960</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>13305</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>43961</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>13486</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>43962</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>13627</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>43963</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>13763</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>43964</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>13929</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>43965</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>14117</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>43966</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>14260</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>43967</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>14447</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>43968</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>14537</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>43969</v>
       </c>
@@ -5427,7 +5427,7 @@
         <v>14594</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>43970</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>14655</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>43971</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>14751</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>43972</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>14856</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>43973</v>
       </c>
@@ -5627,24 +5627,57 @@
         <v>14969</v>
       </c>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
-      <c r="K81" s="28"/>
-      <c r="L81" s="28"/>
-      <c r="M81" s="28"/>
-      <c r="N81" s="28"/>
-      <c r="O81" s="28"/>
-      <c r="P81" s="28"/>
-    </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
+        <v>43974</v>
+      </c>
+      <c r="B81" s="28">
+        <v>1015</v>
+      </c>
+      <c r="C81" s="28">
+        <v>322</v>
+      </c>
+      <c r="D81" s="28">
+        <v>257</v>
+      </c>
+      <c r="E81" s="28">
+        <v>826</v>
+      </c>
+      <c r="F81" s="28">
+        <v>915</v>
+      </c>
+      <c r="G81" s="28">
+        <v>1223</v>
+      </c>
+      <c r="H81" s="28">
+        <v>3865</v>
+      </c>
+      <c r="I81" s="28">
+        <v>335</v>
+      </c>
+      <c r="J81" s="28">
+        <v>1922</v>
+      </c>
+      <c r="K81" s="28">
+        <v>2649</v>
+      </c>
+      <c r="L81" s="28">
+        <v>7</v>
+      </c>
+      <c r="M81" s="28">
+        <v>54</v>
+      </c>
+      <c r="N81" s="28">
+        <v>1645</v>
+      </c>
+      <c r="O81" s="28">
+        <v>6</v>
+      </c>
+      <c r="P81" s="32">
+        <v>15041</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B82" s="28"/>
       <c r="C82" s="28"/>
       <c r="D82" s="28"/>
@@ -5661,7 +5694,7 @@
       <c r="O82" s="28"/>
       <c r="P82" s="28"/>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B83" s="28"/>
       <c r="C83" s="28"/>
       <c r="D83" s="28"/>
@@ -5678,7 +5711,7 @@
       <c r="O83" s="28"/>
       <c r="P83" s="28"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B84" s="28"/>
       <c r="C84" s="28"/>
       <c r="D84" s="28"/>
@@ -5695,7 +5728,7 @@
       <c r="O84" s="28"/>
       <c r="P84" s="28"/>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B85" s="28"/>
       <c r="C85" s="28"/>
       <c r="D85" s="28"/>
@@ -5712,7 +5745,7 @@
       <c r="O85" s="28"/>
       <c r="P85" s="28"/>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B86" s="28"/>
       <c r="C86" s="28"/>
       <c r="D86" s="28"/>
@@ -5729,7 +5762,7 @@
       <c r="O86" s="28"/>
       <c r="P86" s="28"/>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
       <c r="D87" s="28"/>
@@ -5746,7 +5779,7 @@
       <c r="O87" s="28"/>
       <c r="P87" s="28"/>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B88" s="28"/>
       <c r="C88" s="28"/>
       <c r="D88" s="28"/>
@@ -5763,7 +5796,7 @@
       <c r="O88" s="28"/>
       <c r="P88" s="28"/>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
       <c r="D89" s="28"/>
@@ -5780,7 +5813,7 @@
       <c r="O89" s="28"/>
       <c r="P89" s="28"/>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B90" s="28"/>
       <c r="C90" s="28"/>
       <c r="D90" s="28"/>
@@ -5797,7 +5830,7 @@
       <c r="O90" s="28"/>
       <c r="P90" s="28"/>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
       <c r="D91" s="28"/>
@@ -5814,7 +5847,7 @@
       <c r="O91" s="28"/>
       <c r="P91" s="28"/>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B92" s="28"/>
       <c r="C92" s="28"/>
       <c r="D92" s="28"/>
@@ -5831,7 +5864,7 @@
       <c r="O92" s="28"/>
       <c r="P92" s="28"/>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
       <c r="D93" s="28"/>
@@ -5848,7 +5881,7 @@
       <c r="O93" s="28"/>
       <c r="P93" s="28"/>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
       <c r="D94" s="28"/>
@@ -5865,7 +5898,7 @@
       <c r="O94" s="28"/>
       <c r="P94" s="28"/>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
       <c r="D95" s="28"/>
@@ -5882,7 +5915,7 @@
       <c r="O95" s="28"/>
       <c r="P95" s="28"/>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
       <c r="D96" s="28"/>
@@ -5899,7 +5932,7 @@
       <c r="O96" s="28"/>
       <c r="P96" s="28"/>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
@@ -5916,7 +5949,7 @@
       <c r="O97" s="28"/>
       <c r="P97" s="28"/>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
       <c r="D98" s="28"/>
@@ -5933,7 +5966,7 @@
       <c r="O98" s="28"/>
       <c r="P98" s="28"/>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
       <c r="D99" s="28"/>
@@ -5950,7 +5983,7 @@
       <c r="O99" s="28"/>
       <c r="P99" s="28"/>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
       <c r="D100" s="28"/>
@@ -5967,7 +6000,7 @@
       <c r="O100" s="28"/>
       <c r="P100" s="28"/>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
       <c r="D101" s="28"/>
@@ -5984,7 +6017,7 @@
       <c r="O101" s="28"/>
       <c r="P101" s="28"/>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B102" s="28"/>
       <c r="C102" s="28"/>
       <c r="D102" s="28"/>
@@ -6001,7 +6034,7 @@
       <c r="O102" s="28"/>
       <c r="P102" s="28"/>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
       <c r="D103" s="28"/>
@@ -6018,7 +6051,7 @@
       <c r="O103" s="28"/>
       <c r="P103" s="28"/>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
       <c r="D104" s="28"/>
@@ -6035,7 +6068,7 @@
       <c r="O104" s="28"/>
       <c r="P104" s="28"/>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B105" s="28"/>
       <c r="C105" s="28"/>
       <c r="D105" s="28"/>
@@ -6052,7 +6085,7 @@
       <c r="O105" s="28"/>
       <c r="P105" s="28"/>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
       <c r="D106" s="28"/>
@@ -6069,7 +6102,7 @@
       <c r="O106" s="28"/>
       <c r="P106" s="28"/>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
       <c r="D107" s="28"/>
@@ -6086,7 +6119,7 @@
       <c r="O107" s="28"/>
       <c r="P107" s="28"/>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B108" s="28"/>
       <c r="C108" s="28"/>
       <c r="D108" s="28"/>
@@ -6103,7 +6136,7 @@
       <c r="O108" s="28"/>
       <c r="P108" s="28"/>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
       <c r="D109" s="28"/>
@@ -6120,7 +6153,7 @@
       <c r="O109" s="28"/>
       <c r="P109" s="28"/>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B110" s="28"/>
       <c r="C110" s="28"/>
       <c r="D110" s="28"/>
@@ -6137,7 +6170,7 @@
       <c r="O110" s="28"/>
       <c r="P110" s="28"/>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B111" s="28"/>
       <c r="C111" s="28"/>
       <c r="D111" s="28"/>
@@ -6154,7 +6187,7 @@
       <c r="O111" s="28"/>
       <c r="P111" s="28"/>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B112" s="28"/>
       <c r="C112" s="28"/>
       <c r="D112" s="28"/>
@@ -6171,7 +6204,7 @@
       <c r="O112" s="28"/>
       <c r="P112" s="28"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B113" s="28"/>
       <c r="C113" s="28"/>
       <c r="D113" s="28"/>
@@ -6188,7 +6221,7 @@
       <c r="O113" s="28"/>
       <c r="P113" s="28"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B114" s="28"/>
       <c r="C114" s="28"/>
       <c r="D114" s="28"/>
@@ -6205,7 +6238,7 @@
       <c r="O114" s="28"/>
       <c r="P114" s="28"/>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B115" s="28"/>
       <c r="C115" s="28"/>
       <c r="D115" s="28"/>
@@ -6222,7 +6255,7 @@
       <c r="O115" s="28"/>
       <c r="P115" s="28"/>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B116" s="28"/>
       <c r="C116" s="28"/>
       <c r="D116" s="28"/>
@@ -6239,7 +6272,7 @@
       <c r="O116" s="28"/>
       <c r="P116" s="28"/>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
       <c r="D117" s="28"/>
@@ -6256,7 +6289,7 @@
       <c r="O117" s="28"/>
       <c r="P117" s="28"/>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
       <c r="D118" s="28"/>
@@ -6273,7 +6306,7 @@
       <c r="O118" s="28"/>
       <c r="P118" s="28"/>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B119" s="28"/>
       <c r="C119" s="28"/>
       <c r="D119" s="28"/>
@@ -6290,7 +6323,7 @@
       <c r="O119" s="28"/>
       <c r="P119" s="28"/>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B120" s="28"/>
       <c r="C120" s="28"/>
       <c r="D120" s="28"/>
@@ -6307,7 +6340,7 @@
       <c r="O120" s="28"/>
       <c r="P120" s="28"/>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
       <c r="D121" s="28"/>
@@ -6324,7 +6357,7 @@
       <c r="O121" s="28"/>
       <c r="P121" s="28"/>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
       <c r="D122" s="28"/>
@@ -6341,7 +6374,7 @@
       <c r="O122" s="28"/>
       <c r="P122" s="28"/>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
       <c r="D123" s="28"/>
@@ -6358,7 +6391,7 @@
       <c r="O123" s="28"/>
       <c r="P123" s="28"/>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
       <c r="D124" s="28"/>
@@ -6375,7 +6408,7 @@
       <c r="O124" s="28"/>
       <c r="P124" s="28"/>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B125" s="28"/>
       <c r="C125" s="28"/>
       <c r="D125" s="28"/>
@@ -6392,7 +6425,7 @@
       <c r="O125" s="28"/>
       <c r="P125" s="28"/>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B126" s="28"/>
       <c r="C126" s="28"/>
       <c r="D126" s="28"/>
@@ -6409,7 +6442,7 @@
       <c r="O126" s="28"/>
       <c r="P126" s="28"/>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B127" s="28"/>
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
@@ -6426,7 +6459,7 @@
       <c r="O127" s="28"/>
       <c r="P127" s="28"/>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
       <c r="D128" s="28"/>
@@ -6443,7 +6476,7 @@
       <c r="O128" s="28"/>
       <c r="P128" s="28"/>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B129" s="28"/>
       <c r="C129" s="28"/>
       <c r="D129" s="28"/>
@@ -6460,7 +6493,7 @@
       <c r="O129" s="28"/>
       <c r="P129" s="28"/>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B130" s="28"/>
       <c r="C130" s="28"/>
       <c r="D130" s="28"/>
@@ -6477,7 +6510,7 @@
       <c r="O130" s="28"/>
       <c r="P130" s="28"/>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
       <c r="D131" s="28"/>
@@ -6494,7 +6527,7 @@
       <c r="O131" s="28"/>
       <c r="P131" s="28"/>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
       <c r="D132" s="28"/>
@@ -6511,7 +6544,7 @@
       <c r="O132" s="28"/>
       <c r="P132" s="28"/>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
       <c r="D133" s="28"/>
@@ -6528,7 +6561,7 @@
       <c r="O133" s="28"/>
       <c r="P133" s="28"/>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B134" s="28"/>
       <c r="C134" s="28"/>
       <c r="D134" s="28"/>
@@ -6545,7 +6578,7 @@
       <c r="O134" s="28"/>
       <c r="P134" s="28"/>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B135" s="28"/>
       <c r="C135" s="28"/>
       <c r="D135" s="28"/>
@@ -6562,7 +6595,7 @@
       <c r="O135" s="28"/>
       <c r="P135" s="28"/>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B136" s="28"/>
       <c r="C136" s="28"/>
       <c r="D136" s="28"/>
@@ -6579,7 +6612,7 @@
       <c r="O136" s="28"/>
       <c r="P136" s="28"/>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
       <c r="D137" s="28"/>
@@ -6596,7 +6629,7 @@
       <c r="O137" s="28"/>
       <c r="P137" s="28"/>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B138" s="28"/>
       <c r="C138" s="28"/>
       <c r="D138" s="28"/>
@@ -6613,7 +6646,7 @@
       <c r="O138" s="28"/>
       <c r="P138" s="28"/>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B139" s="28"/>
       <c r="C139" s="28"/>
       <c r="D139" s="28"/>
@@ -6630,7 +6663,7 @@
       <c r="O139" s="28"/>
       <c r="P139" s="28"/>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B140" s="28"/>
       <c r="C140" s="28"/>
       <c r="D140" s="28"/>
@@ -6647,7 +6680,7 @@
       <c r="O140" s="28"/>
       <c r="P140" s="28"/>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B141" s="28"/>
       <c r="C141" s="28"/>
       <c r="D141" s="28"/>
@@ -6664,7 +6697,7 @@
       <c r="O141" s="28"/>
       <c r="P141" s="28"/>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B142" s="28"/>
       <c r="C142" s="28"/>
       <c r="D142" s="28"/>
@@ -6681,7 +6714,7 @@
       <c r="O142" s="28"/>
       <c r="P142" s="28"/>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B143" s="28"/>
       <c r="C143" s="28"/>
       <c r="D143" s="28"/>
@@ -6698,7 +6731,7 @@
       <c r="O143" s="28"/>
       <c r="P143" s="28"/>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B144" s="28"/>
       <c r="C144" s="28"/>
       <c r="D144" s="28"/>
@@ -6715,7 +6748,7 @@
       <c r="O144" s="28"/>
       <c r="P144" s="28"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
       <c r="D145" s="28"/>
@@ -6732,7 +6765,7 @@
       <c r="O145" s="28"/>
       <c r="P145" s="28"/>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B146" s="28"/>
       <c r="C146" s="28"/>
       <c r="D146" s="28"/>
@@ -6749,7 +6782,7 @@
       <c r="O146" s="28"/>
       <c r="P146" s="28"/>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B147" s="28"/>
       <c r="C147" s="28"/>
       <c r="D147" s="28"/>
@@ -6766,7 +6799,7 @@
       <c r="O147" s="28"/>
       <c r="P147" s="28"/>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B148" s="28"/>
       <c r="C148" s="28"/>
       <c r="D148" s="28"/>
@@ -6783,7 +6816,7 @@
       <c r="O148" s="28"/>
       <c r="P148" s="28"/>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
       <c r="D149" s="28"/>
@@ -6800,7 +6833,7 @@
       <c r="O149" s="28"/>
       <c r="P149" s="28"/>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
       <c r="D150" s="28"/>
@@ -6817,7 +6850,7 @@
       <c r="O150" s="28"/>
       <c r="P150" s="28"/>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
       <c r="D151" s="28"/>
@@ -6834,7 +6867,7 @@
       <c r="O151" s="28"/>
       <c r="P151" s="28"/>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B152" s="28"/>
       <c r="C152" s="28"/>
       <c r="D152" s="28"/>
@@ -6851,7 +6884,7 @@
       <c r="O152" s="28"/>
       <c r="P152" s="28"/>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
       <c r="D153" s="28"/>
@@ -6868,7 +6901,7 @@
       <c r="O153" s="28"/>
       <c r="P153" s="28"/>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B154" s="28"/>
       <c r="C154" s="28"/>
       <c r="D154" s="28"/>
@@ -6885,7 +6918,7 @@
       <c r="O154" s="28"/>
       <c r="P154" s="28"/>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B155" s="28"/>
       <c r="C155" s="28"/>
       <c r="D155" s="28"/>
@@ -6902,7 +6935,7 @@
       <c r="O155" s="28"/>
       <c r="P155" s="28"/>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B156" s="28"/>
       <c r="C156" s="28"/>
       <c r="D156" s="28"/>
@@ -6919,7 +6952,7 @@
       <c r="O156" s="28"/>
       <c r="P156" s="28"/>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B157" s="28"/>
       <c r="C157" s="28"/>
       <c r="D157" s="28"/>
@@ -6936,7 +6969,7 @@
       <c r="O157" s="28"/>
       <c r="P157" s="28"/>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
       <c r="D158" s="28"/>
@@ -6953,7 +6986,7 @@
       <c r="O158" s="28"/>
       <c r="P158" s="28"/>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
       <c r="D159" s="28"/>
@@ -6970,7 +7003,7 @@
       <c r="O159" s="28"/>
       <c r="P159" s="28"/>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
       <c r="D160" s="28"/>
@@ -6995,21 +7028,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
+      <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5546875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5546875" style="2"/>
+    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -7030,7 +7063,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -7051,7 +7084,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -7104,7 +7137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43908</v>
       </c>
@@ -7157,7 +7190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43909</v>
       </c>
@@ -7210,7 +7243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>43910</v>
       </c>
@@ -7263,7 +7296,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>43911</v>
       </c>
@@ -7316,7 +7349,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>43912</v>
       </c>
@@ -7369,7 +7402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>43913</v>
       </c>
@@ -7422,7 +7455,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>43914</v>
       </c>
@@ -7475,7 +7508,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>43915</v>
       </c>
@@ -7528,7 +7561,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>43916</v>
       </c>
@@ -7581,7 +7614,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>43917</v>
       </c>
@@ -7634,7 +7667,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>43918</v>
       </c>
@@ -7687,7 +7720,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>43919</v>
       </c>
@@ -7740,7 +7773,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>43920</v>
       </c>
@@ -7793,7 +7826,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>43921</v>
       </c>
@@ -7846,7 +7879,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>43922</v>
       </c>
@@ -7899,7 +7932,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>43923</v>
       </c>
@@ -7952,7 +7985,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>43924</v>
       </c>
@@ -8005,7 +8038,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>43925</v>
       </c>
@@ -8058,7 +8091,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>43926</v>
       </c>
@@ -8111,7 +8144,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>43927</v>
       </c>
@@ -8164,7 +8197,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>43928</v>
       </c>
@@ -8217,7 +8250,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>43929</v>
       </c>
@@ -8270,7 +8303,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>43930</v>
       </c>
@@ -8323,7 +8356,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>43931</v>
       </c>
@@ -8376,7 +8409,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>43932</v>
       </c>
@@ -8429,7 +8462,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>43933</v>
       </c>
@@ -8482,7 +8515,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>43934</v>
       </c>
@@ -8535,7 +8568,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>43935</v>
       </c>
@@ -8588,7 +8621,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>43936</v>
       </c>
@@ -8641,7 +8674,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>43937</v>
       </c>
@@ -8694,7 +8727,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>43938</v>
       </c>
@@ -8747,7 +8780,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>43939</v>
       </c>
@@ -8800,7 +8833,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>43940</v>
       </c>
@@ -8853,7 +8886,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>43941</v>
       </c>
@@ -8906,7 +8939,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>43942</v>
       </c>
@@ -8959,7 +8992,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>43943</v>
       </c>
@@ -9012,7 +9045,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>43944</v>
       </c>
@@ -9065,7 +9098,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>43945</v>
       </c>
@@ -9118,7 +9151,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>43946</v>
       </c>
@@ -9171,7 +9204,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
         <v>43947</v>
       </c>
@@ -9224,7 +9257,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>43948</v>
       </c>
@@ -9277,7 +9310,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
         <v>43949</v>
       </c>
@@ -9330,7 +9363,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="30">
         <v>43950</v>
       </c>
@@ -9383,7 +9416,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
         <v>43951</v>
       </c>
@@ -9436,7 +9469,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="30">
         <v>43952</v>
       </c>
@@ -9489,7 +9522,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="30">
         <v>43953</v>
       </c>
@@ -9542,7 +9575,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>43954</v>
       </c>
@@ -9595,7 +9628,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="30">
         <v>43955</v>
       </c>
@@ -9648,7 +9681,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="30">
         <v>43956</v>
       </c>
@@ -9701,7 +9734,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="30">
         <v>43957</v>
       </c>
@@ -9754,7 +9787,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="30">
         <v>43958</v>
       </c>
@@ -9807,7 +9840,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="30">
         <v>43959</v>
       </c>
@@ -9860,7 +9893,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="30">
         <v>43960</v>
       </c>
@@ -9913,7 +9946,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="30">
         <v>43961</v>
       </c>
@@ -9966,7 +9999,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="30">
         <v>43962</v>
       </c>
@@ -10019,7 +10052,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="30">
         <v>43963</v>
       </c>
@@ -10072,7 +10105,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="30">
         <v>43964</v>
       </c>
@@ -10125,7 +10158,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="30">
         <v>43965</v>
       </c>
@@ -10178,7 +10211,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="30">
         <v>43966</v>
       </c>
@@ -10231,7 +10264,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="30">
         <v>43967</v>
       </c>
@@ -10284,7 +10317,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="30">
         <v>43968</v>
       </c>
@@ -10337,7 +10370,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="30">
         <v>43969</v>
       </c>
@@ -10390,7 +10423,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="30">
         <v>43970</v>
       </c>
@@ -10443,7 +10476,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="30">
         <v>43971</v>
       </c>
@@ -10496,7 +10529,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="30">
         <v>43972</v>
       </c>
@@ -10549,7 +10582,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="30">
         <v>43973</v>
       </c>
@@ -10599,6 +10632,59 @@
         <v>29</v>
       </c>
       <c r="Q69" s="13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="30">
+        <v>43974</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H70" s="11">
+        <v>13</v>
+      </c>
+      <c r="I70" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J70" s="11">
+        <v>6</v>
+      </c>
+      <c r="K70" s="11">
+        <v>10</v>
+      </c>
+      <c r="L70" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M70" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N70" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O70" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P70" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q70" s="13">
         <v>50</v>
       </c>
     </row>
@@ -10610,23 +10696,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E66" sqref="E66"/>
+      <selection pane="bottomRight" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5546875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5546875" style="2"/>
+    <col min="1" max="1" width="15.140625" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -10647,7 +10733,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -10668,7 +10754,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -10721,7 +10807,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -10774,7 +10860,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -10827,7 +10913,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -10880,7 +10966,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -10933,7 +11019,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -10986,7 +11072,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -11039,7 +11125,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -11092,7 +11178,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -11145,7 +11231,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -11198,7 +11284,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -11251,7 +11337,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -11304,7 +11390,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -11357,7 +11443,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -11410,7 +11496,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -11463,7 +11549,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -11516,7 +11602,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -11569,7 +11655,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -11622,7 +11708,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -11675,7 +11761,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -11728,7 +11814,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -11781,7 +11867,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -11834,7 +11920,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -11887,7 +11973,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -11940,7 +12026,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -11993,7 +12079,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -12046,7 +12132,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -12099,7 +12185,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -12152,7 +12238,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -12205,7 +12291,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -12258,7 +12344,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -12311,7 +12397,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -12364,7 +12450,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -12417,7 +12503,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -12470,7 +12556,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -12523,7 +12609,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -12576,7 +12662,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -12629,7 +12715,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -12682,7 +12768,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -12735,7 +12821,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -12788,7 +12874,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -12841,7 +12927,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -12894,7 +12980,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -12947,7 +13033,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -13000,7 +13086,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -13053,7 +13139,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="30">
         <v>43960</v>
       </c>
@@ -13106,7 +13192,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="30">
         <v>43961</v>
       </c>
@@ -13159,7 +13245,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>43962</v>
       </c>
@@ -13212,7 +13298,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="30">
         <v>43963</v>
       </c>
@@ -13265,7 +13351,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="30">
         <v>43964</v>
       </c>
@@ -13318,7 +13404,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="30">
         <v>43965</v>
       </c>
@@ -13371,7 +13457,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="30">
         <v>43966</v>
       </c>
@@ -13424,7 +13510,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="30">
         <v>43967</v>
       </c>
@@ -13477,7 +13563,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="30">
         <v>43968</v>
       </c>
@@ -13530,7 +13616,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="30">
         <v>43969</v>
       </c>
@@ -13583,7 +13669,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="30">
         <v>43970</v>
       </c>
@@ -13636,7 +13722,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="30">
         <v>43971</v>
       </c>
@@ -13689,7 +13775,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="30">
         <v>43972</v>
       </c>
@@ -13742,7 +13828,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="30">
         <v>43973</v>
       </c>
@@ -13793,6 +13879,59 @@
       </c>
       <c r="Q61" s="13">
         <v>874</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="30">
+        <v>43974</v>
+      </c>
+      <c r="B62" s="11">
+        <v>21</v>
+      </c>
+      <c r="C62" s="11">
+        <v>11</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="11">
+        <v>69</v>
+      </c>
+      <c r="F62" s="11">
+        <v>16</v>
+      </c>
+      <c r="G62" s="11">
+        <v>70</v>
+      </c>
+      <c r="H62" s="11">
+        <v>379</v>
+      </c>
+      <c r="I62" s="11">
+        <v>10</v>
+      </c>
+      <c r="J62" s="11">
+        <v>86</v>
+      </c>
+      <c r="K62" s="11">
+        <v>162</v>
+      </c>
+      <c r="L62" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M62" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N62" s="11">
+        <v>13</v>
+      </c>
+      <c r="O62" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P62" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q62" s="13">
+        <v>841</v>
       </c>
     </row>
   </sheetData>
@@ -13803,23 +13942,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S61" sqref="S61"/>
+      <selection pane="bottomRight" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5546875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5546875" style="2"/>
+    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -13840,7 +13979,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -13861,7 +14000,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -13914,7 +14053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -13967,7 +14106,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -14020,7 +14159,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -14073,7 +14212,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -14126,7 +14265,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -14179,7 +14318,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -14232,7 +14371,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -14285,7 +14424,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -14338,7 +14477,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -14391,7 +14530,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -14444,7 +14583,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -14497,7 +14636,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -14550,7 +14689,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -14603,7 +14742,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -14656,7 +14795,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -14709,7 +14848,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -14762,7 +14901,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -14815,7 +14954,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -14868,7 +15007,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -14921,7 +15060,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -14974,7 +15113,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -15027,7 +15166,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -15080,7 +15219,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -15133,7 +15272,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -15186,7 +15325,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -15239,7 +15378,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -15292,7 +15431,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -15345,7 +15484,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -15398,7 +15537,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -15451,7 +15590,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -15504,7 +15643,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -15557,7 +15696,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -15610,7 +15749,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -15663,7 +15802,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -15716,7 +15855,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -15769,7 +15908,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -15822,7 +15961,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -15875,7 +16014,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -15928,7 +16067,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -15981,7 +16120,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -16034,7 +16173,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -16087,7 +16226,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -16140,7 +16279,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -16193,7 +16332,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -16246,7 +16385,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="30">
         <v>43960</v>
       </c>
@@ -16299,7 +16438,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="30">
         <v>43961</v>
       </c>
@@ -16352,7 +16491,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>43962</v>
       </c>
@@ -16405,7 +16544,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="30">
         <v>43963</v>
       </c>
@@ -16458,7 +16597,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="30">
         <v>43964</v>
       </c>
@@ -16511,7 +16650,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="30">
         <v>43965</v>
       </c>
@@ -16564,7 +16703,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="30">
         <v>43966</v>
       </c>
@@ -16617,7 +16756,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="30">
         <v>43967</v>
       </c>
@@ -16670,7 +16809,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="30">
         <v>43968</v>
       </c>
@@ -16723,7 +16862,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="30">
         <v>43969</v>
       </c>
@@ -16776,7 +16915,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="30">
         <v>43970</v>
       </c>
@@ -16829,7 +16968,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="30">
         <v>43971</v>
       </c>
@@ -16882,7 +17021,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="30">
         <v>43972</v>
       </c>
@@ -16935,7 +17074,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="30">
         <v>43973</v>
       </c>
@@ -16986,6 +17125,59 @@
       </c>
       <c r="Q61" s="36">
         <v>383</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="30">
+        <v>43974</v>
+      </c>
+      <c r="B62" s="11">
+        <v>39</v>
+      </c>
+      <c r="C62" s="11">
+        <v>18</v>
+      </c>
+      <c r="D62" s="11">
+        <v>14</v>
+      </c>
+      <c r="E62" s="11">
+        <v>29</v>
+      </c>
+      <c r="F62" s="11">
+        <v>53</v>
+      </c>
+      <c r="G62" s="11">
+        <v>21</v>
+      </c>
+      <c r="H62" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I62" s="11">
+        <v>38</v>
+      </c>
+      <c r="J62" s="11">
+        <v>80</v>
+      </c>
+      <c r="K62" s="11">
+        <v>150</v>
+      </c>
+      <c r="L62" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M62" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N62" s="11">
+        <v>19</v>
+      </c>
+      <c r="O62" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P62" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q62" s="36">
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -16993,7 +17185,7 @@
 </worksheet>
 </file>
 
-<file path=customXML/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://www.objective.com/ecm/document/metadata/53D26341A57B383EE0540010E0463CCA" version="1.0.0">
   <systemFields>
     <field name="Objective-Id">
@@ -17012,13 +17204,13 @@
       <value order="0">false</value>
     </field>
     <field name="Objective-IsPublished">
-      <value order="0">false</value>
+      <value order="0">true</value>
     </field>
     <field name="Objective-DatePublished">
-      <value order="0"/>
+      <value order="0">2020-05-23T11:54:27Z</value>
     </field>
     <field name="Objective-ModificationStamp">
-      <value order="0">2020-05-22T12:28:57Z</value>
+      <value order="0">2020-05-23T11:54:27Z</value>
     </field>
     <field name="Objective-Owner">
       <value order="0">Grant, Neil N (u207826)</value>
@@ -17030,16 +17222,16 @@
       <value order="0">Analytical: COVID 19 Analysis: Restricted working papers: Research and analysis: Diseases: 2020-2025</value>
     </field>
     <field name="Objective-State">
-      <value order="0">Being Drafted</value>
+      <value order="0">Published</value>
     </field>
     <field name="Objective-VersionId">
-      <value order="0">vA41318149</value>
+      <value order="0">vA41323571</value>
     </field>
     <field name="Objective-Version">
-      <value order="0">13.3</value>
+      <value order="0">14.0</value>
     </field>
     <field name="Objective-VersionNumber">
-      <value order="0">111</value>
+      <value order="0">115</value>
     </field>
     <field name="Objective-VersionComment">
       <value order="0"/>
@@ -17076,7 +17268,7 @@
 </metadata>
 </file>
 
-<file path=customXML/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5745109E-2DDF-40CB-AC2B-FF9B10C90820}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.objective.com/ecm/document/metadata/53D26341A57B383EE0540010E0463CCA"/>

--- a/data/csv/src/data_latest_sct.xlsx
+++ b/data/csv/src/data_latest_sct.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Scotland\dc2\FS5_Home\u204186\Gov.scot content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Z616594\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA19704\A28088333\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -1672,7 +1672,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B83" sqref="B83"/>
+      <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5678,21 +5678,54 @@
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="28"/>
-      <c r="L82" s="28"/>
-      <c r="M82" s="28"/>
-      <c r="N82" s="28"/>
-      <c r="O82" s="28"/>
-      <c r="P82" s="28"/>
+      <c r="A82" s="5">
+        <v>43975</v>
+      </c>
+      <c r="B82" s="28">
+        <v>1019</v>
+      </c>
+      <c r="C82" s="28">
+        <v>322</v>
+      </c>
+      <c r="D82" s="28">
+        <v>258</v>
+      </c>
+      <c r="E82" s="28">
+        <v>826</v>
+      </c>
+      <c r="F82" s="28">
+        <v>917</v>
+      </c>
+      <c r="G82" s="28">
+        <v>1224</v>
+      </c>
+      <c r="H82" s="28">
+        <v>3876</v>
+      </c>
+      <c r="I82" s="28">
+        <v>335</v>
+      </c>
+      <c r="J82" s="28">
+        <v>1934</v>
+      </c>
+      <c r="K82" s="28">
+        <v>2665</v>
+      </c>
+      <c r="L82" s="28">
+        <v>7</v>
+      </c>
+      <c r="M82" s="28">
+        <v>54</v>
+      </c>
+      <c r="N82" s="28">
+        <v>1658</v>
+      </c>
+      <c r="O82" s="41">
+        <v>6</v>
+      </c>
+      <c r="P82" s="32">
+        <v>15101</v>
+      </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B83" s="28"/>
@@ -7028,11 +7061,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
+      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10688,6 +10721,59 @@
         <v>50</v>
       </c>
     </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="30">
+        <v>43975</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" s="50">
+        <v>12</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J71" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K71" s="50">
+        <v>8</v>
+      </c>
+      <c r="L71" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M71" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N71" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O71" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P71" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q71" s="13">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -10696,7 +10782,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
@@ -13934,6 +14020,59 @@
         <v>841</v>
       </c>
     </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="30">
+        <v>43975</v>
+      </c>
+      <c r="B63" s="50">
+        <v>25</v>
+      </c>
+      <c r="C63" s="50">
+        <v>11</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="50">
+        <v>69</v>
+      </c>
+      <c r="F63" s="50">
+        <v>14</v>
+      </c>
+      <c r="G63" s="50">
+        <v>72</v>
+      </c>
+      <c r="H63" s="50">
+        <v>379</v>
+      </c>
+      <c r="I63" s="50">
+        <v>10</v>
+      </c>
+      <c r="J63" s="50">
+        <v>83</v>
+      </c>
+      <c r="K63" s="50">
+        <v>165</v>
+      </c>
+      <c r="L63" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M63" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N63" s="50">
+        <v>13</v>
+      </c>
+      <c r="O63" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P63" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q63" s="13">
+        <v>845</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -13942,13 +14081,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A62" sqref="A62"/>
+      <selection pane="bottomRight" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17180,12 +17319,65 @@
         <v>464</v>
       </c>
     </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="30">
+        <v>43975</v>
+      </c>
+      <c r="B63" s="50">
+        <v>30</v>
+      </c>
+      <c r="C63" s="50">
+        <v>25</v>
+      </c>
+      <c r="D63" s="50">
+        <v>18</v>
+      </c>
+      <c r="E63" s="50">
+        <v>33</v>
+      </c>
+      <c r="F63" s="50">
+        <v>55</v>
+      </c>
+      <c r="G63" s="50">
+        <v>18</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I63" s="50">
+        <v>26</v>
+      </c>
+      <c r="J63" s="50">
+        <v>69</v>
+      </c>
+      <c r="K63" s="50">
+        <v>187</v>
+      </c>
+      <c r="L63" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M63" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N63" s="50">
+        <v>23</v>
+      </c>
+      <c r="O63" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P63" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q63" s="13">
+        <v>484</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXML/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://www.objective.com/ecm/document/metadata/53D26341A57B383EE0540010E0463CCA" version="1.0.0">
   <systemFields>
     <field name="Objective-Id">
@@ -17204,13 +17396,13 @@
       <value order="0">false</value>
     </field>
     <field name="Objective-IsPublished">
-      <value order="0">true</value>
+      <value order="0">false</value>
     </field>
     <field name="Objective-DatePublished">
-      <value order="0">2020-05-23T11:54:27Z</value>
+      <value order="0"/>
     </field>
     <field name="Objective-ModificationStamp">
-      <value order="0">2020-05-23T11:54:27Z</value>
+      <value order="0">2020-05-24T11:35:08Z</value>
     </field>
     <field name="Objective-Owner">
       <value order="0">Grant, Neil N (u207826)</value>
@@ -17222,16 +17414,16 @@
       <value order="0">Analytical: COVID 19 Analysis: Restricted working papers: Research and analysis: Diseases: 2020-2025</value>
     </field>
     <field name="Objective-State">
-      <value order="0">Published</value>
+      <value order="0">Being Drafted</value>
     </field>
     <field name="Objective-VersionId">
-      <value order="0">vA41323571</value>
+      <value order="0">vA41325109</value>
     </field>
     <field name="Objective-Version">
-      <value order="0">14.0</value>
+      <value order="0">14.1</value>
     </field>
     <field name="Objective-VersionNumber">
-      <value order="0">115</value>
+      <value order="0">116</value>
     </field>
     <field name="Objective-VersionComment">
       <value order="0"/>
@@ -17268,7 +17460,7 @@
 </metadata>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXML/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5745109E-2DDF-40CB-AC2B-FF9B10C90820}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.objective.com/ecm/document/metadata/53D26341A57B383EE0540010E0463CCA"/>

--- a/data/csv/src/data_latest_sct.xlsx
+++ b/data/csv/src/data_latest_sct.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Z616594\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA19704\A28088333\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u201433\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA1432\A28088333\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -666,7 +666,25 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>2. Results reported each day refer to the number of positive tests in the Health Protection Scotland ECOSS system reported to HPS by the laboratories in the 24 hours from 08:00 to 08:00. Therefore, the number of positive tests reported each day refers to the number of individuals tested positive on the day preceding the notification date. These have been compiled into a cumulative figure for positive tests in Table 1.</a:t>
+            <a:t>2. Results reported each day refer to the number of positive tests in the Health Protection Scotland ECOSS system reported to HPS by the laboratories in the 24 hours from 08:00 to 08:00. Therefore, the number of positive tests reported each day refers to the number of individuals with a positive result</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>on the day preceding the notification date. These have been compiled into a cumulative figure for positive tests in Table 1.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1560,7 +1578,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,10 +1687,10 @@
   <dimension ref="A1:S160"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
+      <selection pane="bottomRight" activeCell="L93" sqref="L93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5728,21 +5746,54 @@
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
-      <c r="K83" s="28"/>
-      <c r="L83" s="28"/>
-      <c r="M83" s="28"/>
-      <c r="N83" s="28"/>
-      <c r="O83" s="28"/>
-      <c r="P83" s="28"/>
+      <c r="A83" s="5">
+        <v>43976</v>
+      </c>
+      <c r="B83" s="28">
+        <v>1019</v>
+      </c>
+      <c r="C83" s="28">
+        <v>322</v>
+      </c>
+      <c r="D83" s="28">
+        <v>260</v>
+      </c>
+      <c r="E83" s="28">
+        <v>827</v>
+      </c>
+      <c r="F83" s="28">
+        <v>917</v>
+      </c>
+      <c r="G83" s="28">
+        <v>1245</v>
+      </c>
+      <c r="H83" s="28">
+        <v>3892</v>
+      </c>
+      <c r="I83" s="28">
+        <v>335</v>
+      </c>
+      <c r="J83" s="28">
+        <v>1944</v>
+      </c>
+      <c r="K83" s="28">
+        <v>2669</v>
+      </c>
+      <c r="L83" s="28">
+        <v>7</v>
+      </c>
+      <c r="M83" s="28">
+        <v>54</v>
+      </c>
+      <c r="N83" s="28">
+        <v>1659</v>
+      </c>
+      <c r="O83" s="28">
+        <v>6</v>
+      </c>
+      <c r="P83" s="32">
+        <v>15156</v>
+      </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B84" s="28"/>
@@ -7061,11 +7112,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A71" sqref="A71"/>
+      <selection pane="bottomLeft" activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10774,6 +10825,59 @@
         <v>44</v>
       </c>
     </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="30">
+        <v>43976</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72" s="14">
+        <v>12</v>
+      </c>
+      <c r="I72" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J72" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K72" s="14">
+        <v>9</v>
+      </c>
+      <c r="L72" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M72" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N72" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O72" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P72" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q72" s="31">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -10782,13 +10886,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="F49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A63" sqref="A63"/>
+      <selection pane="bottomRight" activeCell="M71" sqref="M71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14073,6 +14177,59 @@
         <v>845</v>
       </c>
     </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="30">
+        <v>43976</v>
+      </c>
+      <c r="B64" s="14">
+        <v>21</v>
+      </c>
+      <c r="C64" s="14">
+        <v>11</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" s="14">
+        <v>69</v>
+      </c>
+      <c r="F64" s="14">
+        <v>16</v>
+      </c>
+      <c r="G64" s="14">
+        <v>71</v>
+      </c>
+      <c r="H64" s="14">
+        <v>384</v>
+      </c>
+      <c r="I64" s="14">
+        <v>10</v>
+      </c>
+      <c r="J64" s="14">
+        <v>82</v>
+      </c>
+      <c r="K64" s="14">
+        <v>168</v>
+      </c>
+      <c r="L64" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M64" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N64" s="14">
+        <v>14</v>
+      </c>
+      <c r="O64" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P64" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q64" s="31">
+        <v>849</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -14081,13 +14238,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A63" sqref="A63"/>
+      <selection pane="bottomRight" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17372,12 +17529,65 @@
         <v>484</v>
       </c>
     </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="30">
+        <v>43976</v>
+      </c>
+      <c r="B64" s="14">
+        <v>24</v>
+      </c>
+      <c r="C64" s="14">
+        <v>19</v>
+      </c>
+      <c r="D64" s="14">
+        <v>13</v>
+      </c>
+      <c r="E64" s="14">
+        <v>23</v>
+      </c>
+      <c r="F64" s="14">
+        <v>41</v>
+      </c>
+      <c r="G64" s="14">
+        <v>13</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I64" s="14">
+        <v>27</v>
+      </c>
+      <c r="J64" s="14">
+        <v>74</v>
+      </c>
+      <c r="K64" s="14">
+        <v>174</v>
+      </c>
+      <c r="L64" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M64" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N64" s="14">
+        <v>10</v>
+      </c>
+      <c r="O64" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P64" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q64" s="31">
+        <v>420</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=customXML/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://www.objective.com/ecm/document/metadata/53D26341A57B383EE0540010E0463CCA" version="1.0.0">
   <systemFields>
     <field name="Objective-Id">
@@ -17402,7 +17612,7 @@
       <value order="0"/>
     </field>
     <field name="Objective-ModificationStamp">
-      <value order="0">2020-05-24T11:35:08Z</value>
+      <value order="0">2020-05-25T12:39:35Z</value>
     </field>
     <field name="Objective-Owner">
       <value order="0">Grant, Neil N (u207826)</value>
@@ -17417,13 +17627,13 @@
       <value order="0">Being Drafted</value>
     </field>
     <field name="Objective-VersionId">
-      <value order="0">vA41325109</value>
+      <value order="0">vA41329582</value>
     </field>
     <field name="Objective-Version">
-      <value order="0">14.1</value>
+      <value order="0">14.4</value>
     </field>
     <field name="Objective-VersionNumber">
-      <value order="0">116</value>
+      <value order="0">119</value>
     </field>
     <field name="Objective-VersionComment">
       <value order="0"/>
@@ -17460,7 +17670,7 @@
 </metadata>
 </file>
 
-<file path=customXML/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5745109E-2DDF-40CB-AC2B-FF9B10C90820}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.objective.com/ecm/document/metadata/53D26341A57B383EE0540010E0463CCA"/>

--- a/data/csv/src/data_latest_sct.xlsx
+++ b/data/csv/src/data_latest_sct.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u201433\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA1432\A28088333\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u419207\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA10434\A28088333\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5985" windowHeight="6015" tabRatio="803"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5990" windowHeight="6010" tabRatio="803" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -389,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -495,6 +495,7 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1577,25 +1578,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="90.42578125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.42578125" style="2"/>
+    <col min="2" max="2" width="29.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="90.453125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
@@ -1603,7 +1604,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
@@ -1611,13 +1612,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="23"/>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
         <v>26</v>
       </c>
@@ -1625,7 +1626,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="24" t="s">
         <v>27</v>
       </c>
@@ -1633,7 +1634,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="24" t="s">
         <v>36</v>
       </c>
@@ -1641,7 +1642,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="20" t="s">
         <v>37</v>
       </c>
@@ -1667,12 +1668,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9.42578125" style="2"/>
+    <col min="1" max="16384" width="9.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="43"/>
     </row>
   </sheetData>
@@ -1686,21 +1687,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S160"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L93" sqref="L93"/>
+      <selection pane="bottomRight" activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
-    <col min="2" max="16" width="11.42578125" style="11" customWidth="1"/>
-    <col min="17" max="16384" width="8.5703125" style="2"/>
+    <col min="2" max="16" width="11.453125" style="11" customWidth="1"/>
+    <col min="17" max="16384" width="8.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1720,7 +1721,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -1739,7 +1740,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1789,7 +1790,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>43897</v>
       </c>
@@ -1839,7 +1840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>43898</v>
       </c>
@@ -1889,7 +1890,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>43899</v>
       </c>
@@ -1939,7 +1940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>43900</v>
       </c>
@@ -1989,7 +1990,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>43901</v>
       </c>
@@ -2039,7 +2040,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>43902</v>
       </c>
@@ -2089,7 +2090,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>43903</v>
       </c>
@@ -2139,7 +2140,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>43904</v>
       </c>
@@ -2189,7 +2190,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>43905</v>
       </c>
@@ -2239,7 +2240,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>43906</v>
       </c>
@@ -2289,7 +2290,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>43907</v>
       </c>
@@ -2339,7 +2340,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>43908</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>43909</v>
       </c>
@@ -2439,7 +2440,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>43910</v>
       </c>
@@ -2489,7 +2490,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>43911</v>
       </c>
@@ -2539,7 +2540,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>43912</v>
       </c>
@@ -2589,7 +2590,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>43913</v>
       </c>
@@ -2639,7 +2640,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>43914</v>
       </c>
@@ -2689,7 +2690,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>43915</v>
       </c>
@@ -2739,7 +2740,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>43916</v>
       </c>
@@ -2789,7 +2790,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>43917</v>
       </c>
@@ -2839,7 +2840,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>43918</v>
       </c>
@@ -2889,7 +2890,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>43919</v>
       </c>
@@ -2939,7 +2940,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>43920</v>
       </c>
@@ -2989,7 +2990,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>43921</v>
       </c>
@@ -3039,7 +3040,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>43922</v>
       </c>
@@ -3089,7 +3090,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>43923</v>
       </c>
@@ -3139,7 +3140,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>43924</v>
       </c>
@@ -3189,7 +3190,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>43925</v>
       </c>
@@ -3239,7 +3240,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>43926</v>
       </c>
@@ -3289,7 +3290,7 @@
         <v>3706</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>43927</v>
       </c>
@@ -3339,7 +3340,7 @@
         <v>3961</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>43928</v>
       </c>
@@ -3389,7 +3390,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>43929</v>
       </c>
@@ -3439,7 +3440,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>43930</v>
       </c>
@@ -3489,7 +3490,7 @@
         <v>4957</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>43931</v>
       </c>
@@ -3539,7 +3540,7 @@
         <v>5275</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>43932</v>
       </c>
@@ -3589,7 +3590,7 @@
         <v>5590</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>43933</v>
       </c>
@@ -3639,7 +3640,7 @@
         <v>5912</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>43934</v>
       </c>
@@ -3689,7 +3690,7 @@
         <v>6067</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>43935</v>
       </c>
@@ -3739,7 +3740,7 @@
         <v>6358</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>43936</v>
       </c>
@@ -3789,7 +3790,7 @@
         <v>6748</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>43937</v>
       </c>
@@ -3839,7 +3840,7 @@
         <v>7102</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>43938</v>
       </c>
@@ -3889,7 +3890,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>43939</v>
       </c>
@@ -3939,7 +3940,7 @@
         <v>7820</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>43940</v>
       </c>
@@ -3989,7 +3990,7 @@
         <v>8187</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>43941</v>
       </c>
@@ -4039,7 +4040,7 @@
         <v>8450</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>43942</v>
       </c>
@@ -4089,7 +4090,7 @@
         <v>8672</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>43943</v>
       </c>
@@ -4139,7 +4140,7 @@
         <v>9038</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>43944</v>
       </c>
@@ -4189,7 +4190,7 @@
         <v>9409</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>43945</v>
       </c>
@@ -4239,7 +4240,7 @@
         <v>9697</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>43946</v>
       </c>
@@ -4289,7 +4290,7 @@
         <v>10051</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>43947</v>
       </c>
@@ -4340,7 +4341,7 @@
       </c>
       <c r="R54" s="38"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>43948</v>
       </c>
@@ -4391,7 +4392,7 @@
       </c>
       <c r="R55" s="38"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>43949</v>
       </c>
@@ -4442,7 +4443,7 @@
       </c>
       <c r="R56" s="39"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>43950</v>
       </c>
@@ -4492,7 +4493,7 @@
         <v>11034</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>43951</v>
       </c>
@@ -4543,7 +4544,7 @@
       </c>
       <c r="R58" s="38"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>43952</v>
       </c>
@@ -4595,7 +4596,7 @@
       <c r="R59" s="38"/>
       <c r="S59" s="38"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>43953</v>
       </c>
@@ -4645,7 +4646,7 @@
         <v>11927</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>43954</v>
       </c>
@@ -4695,7 +4696,7 @@
         <v>12097</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>43955</v>
       </c>
@@ -4745,7 +4746,7 @@
         <v>12266</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>43956</v>
       </c>
@@ -4795,7 +4796,7 @@
         <v>12437</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>43957</v>
       </c>
@@ -4845,7 +4846,7 @@
         <v>12709</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>43958</v>
       </c>
@@ -4895,7 +4896,7 @@
         <v>12924</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>43959</v>
       </c>
@@ -4945,7 +4946,7 @@
         <v>13149</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>43960</v>
       </c>
@@ -4995,7 +4996,7 @@
         <v>13305</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>43961</v>
       </c>
@@ -5045,7 +5046,7 @@
         <v>13486</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>43962</v>
       </c>
@@ -5095,7 +5096,7 @@
         <v>13627</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>43963</v>
       </c>
@@ -5145,7 +5146,7 @@
         <v>13763</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>43964</v>
       </c>
@@ -5195,7 +5196,7 @@
         <v>13929</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>43965</v>
       </c>
@@ -5245,7 +5246,7 @@
         <v>14117</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>43966</v>
       </c>
@@ -5295,7 +5296,7 @@
         <v>14260</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>43967</v>
       </c>
@@ -5345,7 +5346,7 @@
         <v>14447</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>43968</v>
       </c>
@@ -5395,7 +5396,7 @@
         <v>14537</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>43969</v>
       </c>
@@ -5445,7 +5446,7 @@
         <v>14594</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>43970</v>
       </c>
@@ -5495,7 +5496,7 @@
         <v>14655</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>43971</v>
       </c>
@@ -5545,7 +5546,7 @@
         <v>14751</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>43972</v>
       </c>
@@ -5595,7 +5596,7 @@
         <v>14856</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>43973</v>
       </c>
@@ -5645,7 +5646,7 @@
         <v>14969</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>43974</v>
       </c>
@@ -5695,7 +5696,7 @@
         <v>15041</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>43975</v>
       </c>
@@ -5745,7 +5746,7 @@
         <v>15101</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>43976</v>
       </c>
@@ -5795,24 +5796,57 @@
         <v>15156</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
-      <c r="K84" s="28"/>
-      <c r="L84" s="28"/>
-      <c r="M84" s="28"/>
-      <c r="N84" s="28"/>
-      <c r="O84" s="28"/>
-      <c r="P84" s="28"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A84" s="5">
+        <v>43977</v>
+      </c>
+      <c r="B84" s="28">
+        <v>1023</v>
+      </c>
+      <c r="C84" s="28">
+        <v>323</v>
+      </c>
+      <c r="D84" s="28">
+        <v>260</v>
+      </c>
+      <c r="E84" s="28">
+        <v>828</v>
+      </c>
+      <c r="F84" s="28">
+        <v>918</v>
+      </c>
+      <c r="G84" s="28">
+        <v>1250</v>
+      </c>
+      <c r="H84" s="28">
+        <v>3898</v>
+      </c>
+      <c r="I84" s="28">
+        <v>336</v>
+      </c>
+      <c r="J84" s="28">
+        <v>1948</v>
+      </c>
+      <c r="K84" s="28">
+        <v>2675</v>
+      </c>
+      <c r="L84" s="28">
+        <v>7</v>
+      </c>
+      <c r="M84" s="28">
+        <v>54</v>
+      </c>
+      <c r="N84" s="28">
+        <v>1659</v>
+      </c>
+      <c r="O84" s="28">
+        <v>6</v>
+      </c>
+      <c r="P84" s="32">
+        <v>15185</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B85" s="28"/>
       <c r="C85" s="28"/>
       <c r="D85" s="28"/>
@@ -5829,7 +5863,7 @@
       <c r="O85" s="28"/>
       <c r="P85" s="28"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B86" s="28"/>
       <c r="C86" s="28"/>
       <c r="D86" s="28"/>
@@ -5846,7 +5880,7 @@
       <c r="O86" s="28"/>
       <c r="P86" s="28"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
       <c r="D87" s="28"/>
@@ -5863,7 +5897,7 @@
       <c r="O87" s="28"/>
       <c r="P87" s="28"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B88" s="28"/>
       <c r="C88" s="28"/>
       <c r="D88" s="28"/>
@@ -5880,7 +5914,7 @@
       <c r="O88" s="28"/>
       <c r="P88" s="28"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
       <c r="D89" s="28"/>
@@ -5897,7 +5931,7 @@
       <c r="O89" s="28"/>
       <c r="P89" s="28"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B90" s="28"/>
       <c r="C90" s="28"/>
       <c r="D90" s="28"/>
@@ -5914,7 +5948,7 @@
       <c r="O90" s="28"/>
       <c r="P90" s="28"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
       <c r="D91" s="28"/>
@@ -5931,7 +5965,7 @@
       <c r="O91" s="28"/>
       <c r="P91" s="28"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B92" s="28"/>
       <c r="C92" s="28"/>
       <c r="D92" s="28"/>
@@ -5948,7 +5982,7 @@
       <c r="O92" s="28"/>
       <c r="P92" s="28"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
       <c r="D93" s="28"/>
@@ -5965,7 +5999,7 @@
       <c r="O93" s="28"/>
       <c r="P93" s="28"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
       <c r="D94" s="28"/>
@@ -5982,7 +6016,7 @@
       <c r="O94" s="28"/>
       <c r="P94" s="28"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
       <c r="D95" s="28"/>
@@ -5999,7 +6033,7 @@
       <c r="O95" s="28"/>
       <c r="P95" s="28"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
       <c r="D96" s="28"/>
@@ -6016,7 +6050,7 @@
       <c r="O96" s="28"/>
       <c r="P96" s="28"/>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
@@ -6033,7 +6067,7 @@
       <c r="O97" s="28"/>
       <c r="P97" s="28"/>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
       <c r="D98" s="28"/>
@@ -6050,7 +6084,7 @@
       <c r="O98" s="28"/>
       <c r="P98" s="28"/>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
       <c r="D99" s="28"/>
@@ -6067,7 +6101,7 @@
       <c r="O99" s="28"/>
       <c r="P99" s="28"/>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
       <c r="D100" s="28"/>
@@ -6084,7 +6118,7 @@
       <c r="O100" s="28"/>
       <c r="P100" s="28"/>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
       <c r="D101" s="28"/>
@@ -6101,7 +6135,7 @@
       <c r="O101" s="28"/>
       <c r="P101" s="28"/>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B102" s="28"/>
       <c r="C102" s="28"/>
       <c r="D102" s="28"/>
@@ -6118,7 +6152,7 @@
       <c r="O102" s="28"/>
       <c r="P102" s="28"/>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
       <c r="D103" s="28"/>
@@ -6135,7 +6169,7 @@
       <c r="O103" s="28"/>
       <c r="P103" s="28"/>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
       <c r="D104" s="28"/>
@@ -6152,7 +6186,7 @@
       <c r="O104" s="28"/>
       <c r="P104" s="28"/>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B105" s="28"/>
       <c r="C105" s="28"/>
       <c r="D105" s="28"/>
@@ -6169,7 +6203,7 @@
       <c r="O105" s="28"/>
       <c r="P105" s="28"/>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
       <c r="D106" s="28"/>
@@ -6186,7 +6220,7 @@
       <c r="O106" s="28"/>
       <c r="P106" s="28"/>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
       <c r="D107" s="28"/>
@@ -6203,7 +6237,7 @@
       <c r="O107" s="28"/>
       <c r="P107" s="28"/>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B108" s="28"/>
       <c r="C108" s="28"/>
       <c r="D108" s="28"/>
@@ -6220,7 +6254,7 @@
       <c r="O108" s="28"/>
       <c r="P108" s="28"/>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
       <c r="D109" s="28"/>
@@ -6237,7 +6271,7 @@
       <c r="O109" s="28"/>
       <c r="P109" s="28"/>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B110" s="28"/>
       <c r="C110" s="28"/>
       <c r="D110" s="28"/>
@@ -6254,7 +6288,7 @@
       <c r="O110" s="28"/>
       <c r="P110" s="28"/>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B111" s="28"/>
       <c r="C111" s="28"/>
       <c r="D111" s="28"/>
@@ -6271,7 +6305,7 @@
       <c r="O111" s="28"/>
       <c r="P111" s="28"/>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B112" s="28"/>
       <c r="C112" s="28"/>
       <c r="D112" s="28"/>
@@ -6288,7 +6322,7 @@
       <c r="O112" s="28"/>
       <c r="P112" s="28"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B113" s="28"/>
       <c r="C113" s="28"/>
       <c r="D113" s="28"/>
@@ -6305,7 +6339,7 @@
       <c r="O113" s="28"/>
       <c r="P113" s="28"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B114" s="28"/>
       <c r="C114" s="28"/>
       <c r="D114" s="28"/>
@@ -6322,7 +6356,7 @@
       <c r="O114" s="28"/>
       <c r="P114" s="28"/>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B115" s="28"/>
       <c r="C115" s="28"/>
       <c r="D115" s="28"/>
@@ -6339,7 +6373,7 @@
       <c r="O115" s="28"/>
       <c r="P115" s="28"/>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B116" s="28"/>
       <c r="C116" s="28"/>
       <c r="D116" s="28"/>
@@ -6356,7 +6390,7 @@
       <c r="O116" s="28"/>
       <c r="P116" s="28"/>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
       <c r="D117" s="28"/>
@@ -6373,7 +6407,7 @@
       <c r="O117" s="28"/>
       <c r="P117" s="28"/>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
       <c r="D118" s="28"/>
@@ -6390,7 +6424,7 @@
       <c r="O118" s="28"/>
       <c r="P118" s="28"/>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B119" s="28"/>
       <c r="C119" s="28"/>
       <c r="D119" s="28"/>
@@ -6407,7 +6441,7 @@
       <c r="O119" s="28"/>
       <c r="P119" s="28"/>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B120" s="28"/>
       <c r="C120" s="28"/>
       <c r="D120" s="28"/>
@@ -6424,7 +6458,7 @@
       <c r="O120" s="28"/>
       <c r="P120" s="28"/>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
       <c r="D121" s="28"/>
@@ -6441,7 +6475,7 @@
       <c r="O121" s="28"/>
       <c r="P121" s="28"/>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
       <c r="D122" s="28"/>
@@ -6458,7 +6492,7 @@
       <c r="O122" s="28"/>
       <c r="P122" s="28"/>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
       <c r="D123" s="28"/>
@@ -6475,7 +6509,7 @@
       <c r="O123" s="28"/>
       <c r="P123" s="28"/>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
       <c r="D124" s="28"/>
@@ -6492,7 +6526,7 @@
       <c r="O124" s="28"/>
       <c r="P124" s="28"/>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B125" s="28"/>
       <c r="C125" s="28"/>
       <c r="D125" s="28"/>
@@ -6509,7 +6543,7 @@
       <c r="O125" s="28"/>
       <c r="P125" s="28"/>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B126" s="28"/>
       <c r="C126" s="28"/>
       <c r="D126" s="28"/>
@@ -6526,7 +6560,7 @@
       <c r="O126" s="28"/>
       <c r="P126" s="28"/>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B127" s="28"/>
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
@@ -6543,7 +6577,7 @@
       <c r="O127" s="28"/>
       <c r="P127" s="28"/>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
       <c r="D128" s="28"/>
@@ -6560,7 +6594,7 @@
       <c r="O128" s="28"/>
       <c r="P128" s="28"/>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B129" s="28"/>
       <c r="C129" s="28"/>
       <c r="D129" s="28"/>
@@ -6577,7 +6611,7 @@
       <c r="O129" s="28"/>
       <c r="P129" s="28"/>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B130" s="28"/>
       <c r="C130" s="28"/>
       <c r="D130" s="28"/>
@@ -6594,7 +6628,7 @@
       <c r="O130" s="28"/>
       <c r="P130" s="28"/>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
       <c r="D131" s="28"/>
@@ -6611,7 +6645,7 @@
       <c r="O131" s="28"/>
       <c r="P131" s="28"/>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
       <c r="D132" s="28"/>
@@ -6628,7 +6662,7 @@
       <c r="O132" s="28"/>
       <c r="P132" s="28"/>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
       <c r="D133" s="28"/>
@@ -6645,7 +6679,7 @@
       <c r="O133" s="28"/>
       <c r="P133" s="28"/>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B134" s="28"/>
       <c r="C134" s="28"/>
       <c r="D134" s="28"/>
@@ -6662,7 +6696,7 @@
       <c r="O134" s="28"/>
       <c r="P134" s="28"/>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B135" s="28"/>
       <c r="C135" s="28"/>
       <c r="D135" s="28"/>
@@ -6679,7 +6713,7 @@
       <c r="O135" s="28"/>
       <c r="P135" s="28"/>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B136" s="28"/>
       <c r="C136" s="28"/>
       <c r="D136" s="28"/>
@@ -6696,7 +6730,7 @@
       <c r="O136" s="28"/>
       <c r="P136" s="28"/>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
       <c r="D137" s="28"/>
@@ -6713,7 +6747,7 @@
       <c r="O137" s="28"/>
       <c r="P137" s="28"/>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B138" s="28"/>
       <c r="C138" s="28"/>
       <c r="D138" s="28"/>
@@ -6730,7 +6764,7 @@
       <c r="O138" s="28"/>
       <c r="P138" s="28"/>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B139" s="28"/>
       <c r="C139" s="28"/>
       <c r="D139" s="28"/>
@@ -6747,7 +6781,7 @@
       <c r="O139" s="28"/>
       <c r="P139" s="28"/>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B140" s="28"/>
       <c r="C140" s="28"/>
       <c r="D140" s="28"/>
@@ -6764,7 +6798,7 @@
       <c r="O140" s="28"/>
       <c r="P140" s="28"/>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B141" s="28"/>
       <c r="C141" s="28"/>
       <c r="D141" s="28"/>
@@ -6781,7 +6815,7 @@
       <c r="O141" s="28"/>
       <c r="P141" s="28"/>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B142" s="28"/>
       <c r="C142" s="28"/>
       <c r="D142" s="28"/>
@@ -6798,7 +6832,7 @@
       <c r="O142" s="28"/>
       <c r="P142" s="28"/>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B143" s="28"/>
       <c r="C143" s="28"/>
       <c r="D143" s="28"/>
@@ -6815,7 +6849,7 @@
       <c r="O143" s="28"/>
       <c r="P143" s="28"/>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B144" s="28"/>
       <c r="C144" s="28"/>
       <c r="D144" s="28"/>
@@ -6832,7 +6866,7 @@
       <c r="O144" s="28"/>
       <c r="P144" s="28"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
       <c r="D145" s="28"/>
@@ -6849,7 +6883,7 @@
       <c r="O145" s="28"/>
       <c r="P145" s="28"/>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B146" s="28"/>
       <c r="C146" s="28"/>
       <c r="D146" s="28"/>
@@ -6866,7 +6900,7 @@
       <c r="O146" s="28"/>
       <c r="P146" s="28"/>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B147" s="28"/>
       <c r="C147" s="28"/>
       <c r="D147" s="28"/>
@@ -6883,7 +6917,7 @@
       <c r="O147" s="28"/>
       <c r="P147" s="28"/>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B148" s="28"/>
       <c r="C148" s="28"/>
       <c r="D148" s="28"/>
@@ -6900,7 +6934,7 @@
       <c r="O148" s="28"/>
       <c r="P148" s="28"/>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
       <c r="D149" s="28"/>
@@ -6917,7 +6951,7 @@
       <c r="O149" s="28"/>
       <c r="P149" s="28"/>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
       <c r="D150" s="28"/>
@@ -6934,7 +6968,7 @@
       <c r="O150" s="28"/>
       <c r="P150" s="28"/>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
       <c r="D151" s="28"/>
@@ -6951,7 +6985,7 @@
       <c r="O151" s="28"/>
       <c r="P151" s="28"/>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B152" s="28"/>
       <c r="C152" s="28"/>
       <c r="D152" s="28"/>
@@ -6968,7 +7002,7 @@
       <c r="O152" s="28"/>
       <c r="P152" s="28"/>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
       <c r="D153" s="28"/>
@@ -6985,7 +7019,7 @@
       <c r="O153" s="28"/>
       <c r="P153" s="28"/>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B154" s="28"/>
       <c r="C154" s="28"/>
       <c r="D154" s="28"/>
@@ -7002,7 +7036,7 @@
       <c r="O154" s="28"/>
       <c r="P154" s="28"/>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B155" s="28"/>
       <c r="C155" s="28"/>
       <c r="D155" s="28"/>
@@ -7019,7 +7053,7 @@
       <c r="O155" s="28"/>
       <c r="P155" s="28"/>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B156" s="28"/>
       <c r="C156" s="28"/>
       <c r="D156" s="28"/>
@@ -7036,7 +7070,7 @@
       <c r="O156" s="28"/>
       <c r="P156" s="28"/>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B157" s="28"/>
       <c r="C157" s="28"/>
       <c r="D157" s="28"/>
@@ -7053,7 +7087,7 @@
       <c r="O157" s="28"/>
       <c r="P157" s="28"/>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
       <c r="D158" s="28"/>
@@ -7070,7 +7104,7 @@
       <c r="O158" s="28"/>
       <c r="P158" s="28"/>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
       <c r="D159" s="28"/>
@@ -7087,7 +7121,7 @@
       <c r="O159" s="28"/>
       <c r="P159" s="28"/>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
       <c r="D160" s="28"/>
@@ -7112,21 +7146,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I83" sqref="I83"/>
+      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5703125" style="2"/>
+    <col min="1" max="1" width="12.453125" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -7147,7 +7181,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -7168,7 +7202,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -7221,7 +7255,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>43908</v>
       </c>
@@ -7274,7 +7308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>43909</v>
       </c>
@@ -7327,7 +7361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>43910</v>
       </c>
@@ -7380,7 +7414,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>43911</v>
       </c>
@@ -7433,7 +7467,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>43912</v>
       </c>
@@ -7486,7 +7520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>43913</v>
       </c>
@@ -7539,7 +7573,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>43914</v>
       </c>
@@ -7592,7 +7626,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>43915</v>
       </c>
@@ -7645,7 +7679,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>43916</v>
       </c>
@@ -7698,7 +7732,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>43917</v>
       </c>
@@ -7751,7 +7785,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>43918</v>
       </c>
@@ -7804,7 +7838,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>43919</v>
       </c>
@@ -7857,7 +7891,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>43920</v>
       </c>
@@ -7910,7 +7944,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>43921</v>
       </c>
@@ -7963,7 +7997,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>43922</v>
       </c>
@@ -8016,7 +8050,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>43923</v>
       </c>
@@ -8069,7 +8103,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>43924</v>
       </c>
@@ -8122,7 +8156,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>43925</v>
       </c>
@@ -8175,7 +8209,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>43926</v>
       </c>
@@ -8228,7 +8262,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>43927</v>
       </c>
@@ -8281,7 +8315,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>43928</v>
       </c>
@@ -8334,7 +8368,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>43929</v>
       </c>
@@ -8387,7 +8421,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>43930</v>
       </c>
@@ -8440,7 +8474,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>43931</v>
       </c>
@@ -8493,7 +8527,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>43932</v>
       </c>
@@ -8546,7 +8580,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>43933</v>
       </c>
@@ -8599,7 +8633,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>43934</v>
       </c>
@@ -8652,7 +8686,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>43935</v>
       </c>
@@ -8705,7 +8739,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>43936</v>
       </c>
@@ -8758,7 +8792,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>43937</v>
       </c>
@@ -8811,7 +8845,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>43938</v>
       </c>
@@ -8864,7 +8898,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>43939</v>
       </c>
@@ -8917,7 +8951,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="30">
         <v>43940</v>
       </c>
@@ -8970,7 +9004,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="30">
         <v>43941</v>
       </c>
@@ -9023,7 +9057,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="30">
         <v>43942</v>
       </c>
@@ -9076,7 +9110,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="30">
         <v>43943</v>
       </c>
@@ -9129,7 +9163,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="30">
         <v>43944</v>
       </c>
@@ -9182,7 +9216,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="30">
         <v>43945</v>
       </c>
@@ -9235,7 +9269,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="30">
         <v>43946</v>
       </c>
@@ -9288,7 +9322,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="30">
         <v>43947</v>
       </c>
@@ -9341,7 +9375,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="30">
         <v>43948</v>
       </c>
@@ -9394,7 +9428,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="30">
         <v>43949</v>
       </c>
@@ -9447,7 +9481,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="30">
         <v>43950</v>
       </c>
@@ -9500,7 +9534,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="30">
         <v>43951</v>
       </c>
@@ -9553,7 +9587,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="30">
         <v>43952</v>
       </c>
@@ -9606,7 +9640,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="30">
         <v>43953</v>
       </c>
@@ -9659,7 +9693,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="30">
         <v>43954</v>
       </c>
@@ -9712,7 +9746,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="30">
         <v>43955</v>
       </c>
@@ -9765,7 +9799,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="30">
         <v>43956</v>
       </c>
@@ -9818,7 +9852,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="30">
         <v>43957</v>
       </c>
@@ -9871,7 +9905,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="30">
         <v>43958</v>
       </c>
@@ -9924,7 +9958,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="30">
         <v>43959</v>
       </c>
@@ -9977,7 +10011,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="30">
         <v>43960</v>
       </c>
@@ -10030,7 +10064,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="30">
         <v>43961</v>
       </c>
@@ -10083,7 +10117,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="30">
         <v>43962</v>
       </c>
@@ -10136,7 +10170,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="30">
         <v>43963</v>
       </c>
@@ -10189,7 +10223,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="30">
         <v>43964</v>
       </c>
@@ -10242,7 +10276,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="30">
         <v>43965</v>
       </c>
@@ -10295,7 +10329,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="30">
         <v>43966</v>
       </c>
@@ -10348,7 +10382,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="30">
         <v>43967</v>
       </c>
@@ -10401,7 +10435,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="30">
         <v>43968</v>
       </c>
@@ -10454,7 +10488,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="30">
         <v>43969</v>
       </c>
@@ -10507,7 +10541,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="30">
         <v>43970</v>
       </c>
@@ -10560,7 +10594,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="30">
         <v>43971</v>
       </c>
@@ -10613,7 +10647,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="30">
         <v>43972</v>
       </c>
@@ -10666,7 +10700,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="30">
         <v>43973</v>
       </c>
@@ -10719,7 +10753,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="30">
         <v>43974</v>
       </c>
@@ -10772,7 +10806,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="30">
         <v>43975</v>
       </c>
@@ -10825,7 +10859,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="30">
         <v>43976</v>
       </c>
@@ -10876,6 +10910,59 @@
       </c>
       <c r="Q72" s="31">
         <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A73" s="30">
+        <v>43977</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H73" s="11">
+        <v>11</v>
+      </c>
+      <c r="I73" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J73" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K73" s="11">
+        <v>5</v>
+      </c>
+      <c r="L73" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M73" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N73" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O73" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P73" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q73" s="13">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -10886,23 +10973,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="F49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M71" sqref="M71"/>
+      <selection pane="bottomRight" activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5703125" style="2"/>
+    <col min="1" max="1" width="15.08984375" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -10923,7 +11010,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -10944,7 +11031,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -10997,7 +11084,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -11050,7 +11137,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -11103,7 +11190,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -11156,7 +11243,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -11209,7 +11296,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -11262,7 +11349,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -11315,7 +11402,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -11368,7 +11455,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -11421,7 +11508,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -11474,7 +11561,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -11527,7 +11614,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -11580,7 +11667,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -11633,7 +11720,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -11686,7 +11773,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -11739,7 +11826,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -11792,7 +11879,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -11845,7 +11932,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -11898,7 +11985,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -11951,7 +12038,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -12004,7 +12091,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -12057,7 +12144,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -12110,7 +12197,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -12163,7 +12250,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -12216,7 +12303,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -12269,7 +12356,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -12322,7 +12409,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -12375,7 +12462,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -12428,7 +12515,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -12481,7 +12568,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -12534,7 +12621,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -12587,7 +12674,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -12640,7 +12727,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -12693,7 +12780,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -12746,7 +12833,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -12799,7 +12886,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -12852,7 +12939,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -12905,7 +12992,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -12958,7 +13045,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -13011,7 +13098,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -13064,7 +13151,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -13117,7 +13204,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -13170,7 +13257,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -13223,7 +13310,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -13276,7 +13363,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -13329,7 +13416,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="30">
         <v>43960</v>
       </c>
@@ -13382,7 +13469,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="30">
         <v>43961</v>
       </c>
@@ -13435,7 +13522,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="30">
         <v>43962</v>
       </c>
@@ -13488,7 +13575,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="30">
         <v>43963</v>
       </c>
@@ -13541,7 +13628,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="30">
         <v>43964</v>
       </c>
@@ -13594,7 +13681,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="30">
         <v>43965</v>
       </c>
@@ -13647,7 +13734,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="30">
         <v>43966</v>
       </c>
@@ -13700,7 +13787,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="30">
         <v>43967</v>
       </c>
@@ -13753,7 +13840,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="30">
         <v>43968</v>
       </c>
@@ -13806,7 +13893,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="30">
         <v>43969</v>
       </c>
@@ -13859,7 +13946,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="30">
         <v>43970</v>
       </c>
@@ -13912,7 +13999,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="30">
         <v>43971</v>
       </c>
@@ -13965,7 +14052,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="30">
         <v>43972</v>
       </c>
@@ -14018,7 +14105,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="30">
         <v>43973</v>
       </c>
@@ -14071,7 +14158,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="30">
         <v>43974</v>
       </c>
@@ -14124,7 +14211,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="30">
         <v>43975</v>
       </c>
@@ -14177,7 +14264,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="30">
         <v>43976</v>
       </c>
@@ -14228,6 +14315,59 @@
       </c>
       <c r="Q64" s="31">
         <v>849</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A65" s="51">
+        <v>43977</v>
+      </c>
+      <c r="B65" s="11">
+        <v>19</v>
+      </c>
+      <c r="C65" s="11">
+        <v>9</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" s="11">
+        <v>67</v>
+      </c>
+      <c r="F65" s="11">
+        <v>15</v>
+      </c>
+      <c r="G65" s="11">
+        <v>66</v>
+      </c>
+      <c r="H65" s="11">
+        <v>382</v>
+      </c>
+      <c r="I65" s="11">
+        <v>8</v>
+      </c>
+      <c r="J65" s="11">
+        <v>83</v>
+      </c>
+      <c r="K65" s="11">
+        <v>169</v>
+      </c>
+      <c r="L65" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M65" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N65" s="11">
+        <v>13</v>
+      </c>
+      <c r="O65" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P65" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q65" s="13">
+        <v>833</v>
       </c>
     </row>
   </sheetData>
@@ -14238,23 +14378,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D62" sqref="D62"/>
+      <selection pane="bottomRight" activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5703125" style="2"/>
+    <col min="1" max="1" width="12.453125" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -14275,7 +14415,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -14296,7 +14436,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -14349,7 +14489,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -14402,7 +14542,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -14455,7 +14595,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -14508,7 +14648,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -14561,7 +14701,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -14614,7 +14754,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -14667,7 +14807,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -14720,7 +14860,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -14773,7 +14913,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -14826,7 +14966,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -14879,7 +15019,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -14932,7 +15072,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -14985,7 +15125,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -15038,7 +15178,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -15091,7 +15231,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -15144,7 +15284,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -15197,7 +15337,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -15250,7 +15390,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -15303,7 +15443,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -15356,7 +15496,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -15409,7 +15549,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -15462,7 +15602,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -15515,7 +15655,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -15568,7 +15708,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -15621,7 +15761,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -15674,7 +15814,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -15727,7 +15867,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -15780,7 +15920,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -15833,7 +15973,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -15886,7 +16026,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -15939,7 +16079,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -15992,7 +16132,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -16045,7 +16185,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -16098,7 +16238,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -16151,7 +16291,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -16204,7 +16344,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -16257,7 +16397,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -16310,7 +16450,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -16363,7 +16503,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -16416,7 +16556,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -16469,7 +16609,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -16522,7 +16662,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -16575,7 +16715,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -16628,7 +16768,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -16681,7 +16821,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="30">
         <v>43960</v>
       </c>
@@ -16734,7 +16874,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="30">
         <v>43961</v>
       </c>
@@ -16787,7 +16927,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="30">
         <v>43962</v>
       </c>
@@ -16840,7 +16980,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="30">
         <v>43963</v>
       </c>
@@ -16893,7 +17033,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="30">
         <v>43964</v>
       </c>
@@ -16946,7 +17086,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="30">
         <v>43965</v>
       </c>
@@ -16999,7 +17139,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="30">
         <v>43966</v>
       </c>
@@ -17052,7 +17192,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="30">
         <v>43967</v>
       </c>
@@ -17105,7 +17245,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="30">
         <v>43968</v>
       </c>
@@ -17158,7 +17298,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="30">
         <v>43969</v>
       </c>
@@ -17211,7 +17351,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="30">
         <v>43970</v>
       </c>
@@ -17264,7 +17404,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="30">
         <v>43971</v>
       </c>
@@ -17317,7 +17457,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="30">
         <v>43972</v>
       </c>
@@ -17370,7 +17510,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="30">
         <v>43973</v>
       </c>
@@ -17423,7 +17563,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="30">
         <v>43974</v>
       </c>
@@ -17476,7 +17616,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="30">
         <v>43975</v>
       </c>
@@ -17529,7 +17669,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="30">
         <v>43976</v>
       </c>
@@ -17580,6 +17720,59 @@
       </c>
       <c r="Q64" s="31">
         <v>420</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A65" s="30">
+        <v>43977</v>
+      </c>
+      <c r="B65" s="11">
+        <v>21</v>
+      </c>
+      <c r="C65" s="11">
+        <v>20</v>
+      </c>
+      <c r="D65" s="11">
+        <v>10</v>
+      </c>
+      <c r="E65" s="11">
+        <v>13</v>
+      </c>
+      <c r="F65" s="11">
+        <v>29</v>
+      </c>
+      <c r="G65" s="11">
+        <v>22</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I65" s="11">
+        <v>41</v>
+      </c>
+      <c r="J65" s="11">
+        <v>85</v>
+      </c>
+      <c r="K65" s="11">
+        <v>103</v>
+      </c>
+      <c r="L65" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M65" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N65" s="11">
+        <v>18</v>
+      </c>
+      <c r="O65" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P65" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q65" s="13">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -17587,7 +17780,7 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXML/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://www.objective.com/ecm/document/metadata/53D26341A57B383EE0540010E0463CCA" version="1.0.0">
   <systemFields>
     <field name="Objective-Id">
@@ -17612,7 +17805,7 @@
       <value order="0"/>
     </field>
     <field name="Objective-ModificationStamp">
-      <value order="0">2020-05-25T12:39:35Z</value>
+      <value order="0">2020-05-26T11:48:04Z</value>
     </field>
     <field name="Objective-Owner">
       <value order="0">Grant, Neil N (u207826)</value>
@@ -17627,13 +17820,13 @@
       <value order="0">Being Drafted</value>
     </field>
     <field name="Objective-VersionId">
-      <value order="0">vA41329582</value>
+      <value order="0">vA41346006</value>
     </field>
     <field name="Objective-Version">
-      <value order="0">14.4</value>
+      <value order="0">14.7</value>
     </field>
     <field name="Objective-VersionNumber">
-      <value order="0">119</value>
+      <value order="0">122</value>
     </field>
     <field name="Objective-VersionComment">
       <value order="0"/>
@@ -17670,7 +17863,7 @@
 </metadata>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXML/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5745109E-2DDF-40CB-AC2B-FF9B10C90820}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.objective.com/ecm/document/metadata/53D26341A57B383EE0540010E0463CCA"/>

--- a/data/csv/src/data_latest_sct.xlsx
+++ b/data/csv/src/data_latest_sct.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u419207\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA10434\A28088333\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U445783\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA18464\A28088333\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5990" windowHeight="6010" tabRatio="803" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5988" windowHeight="6012" tabRatio="803" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -1195,7 +1195,18 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>(iii) The Golden Jubilee National Hospital data on the number of confirmed and suspected COVID-19 patients in ICU on 13 May was revised from 6 to 2.  Therefore, the national totals of confirmed and suspected in ICU were revised from 70 to 66.</a:t>
+            <a:t>(iii) Due to a revision on the Golden Jubilee National Hospital data on the number of confirmed and suspected COVID-19 patients in ICU for 13 May, the total figure for Scotland has been revised from 70 to 66.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(iv) Due to a revision on the NHS Fife data on the number of confirmed and suspected COVID-19 patients in ICU for 26 May, the total figure for Scotland has been revised from 36 to 35.</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="1100">
             <a:effectLst/>
@@ -1582,21 +1593,21 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="90.453125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.453125" style="2"/>
+    <col min="2" max="2" width="29.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="90.44140625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
@@ -1604,7 +1615,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
@@ -1612,13 +1623,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="23"/>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>26</v>
       </c>
@@ -1626,7 +1637,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
         <v>27</v>
       </c>
@@ -1634,7 +1645,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="24" t="s">
         <v>36</v>
       </c>
@@ -1642,7 +1653,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20" t="s">
         <v>37</v>
       </c>
@@ -1666,14 +1677,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="P52" sqref="P52"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.453125" style="2"/>
+    <col min="1" max="16384" width="9.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="44" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A44" s="43"/>
     </row>
   </sheetData>
@@ -1688,20 +1701,20 @@
   <dimension ref="A1:S160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K86" sqref="K86"/>
+      <selection pane="bottomRight" activeCell="P93" sqref="P93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
-    <col min="2" max="16" width="11.453125" style="11" customWidth="1"/>
-    <col min="17" max="16384" width="8.54296875" style="2"/>
+    <col min="2" max="16" width="11.44140625" style="11" customWidth="1"/>
+    <col min="17" max="16384" width="8.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1721,7 +1734,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -1740,7 +1753,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1790,7 +1803,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>43897</v>
       </c>
@@ -1840,7 +1853,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43898</v>
       </c>
@@ -1890,7 +1903,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43899</v>
       </c>
@@ -1940,7 +1953,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43900</v>
       </c>
@@ -1990,7 +2003,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43901</v>
       </c>
@@ -2040,7 +2053,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43902</v>
       </c>
@@ -2090,7 +2103,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43903</v>
       </c>
@@ -2140,7 +2153,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43904</v>
       </c>
@@ -2190,7 +2203,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>43905</v>
       </c>
@@ -2240,7 +2253,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>43906</v>
       </c>
@@ -2290,7 +2303,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>43907</v>
       </c>
@@ -2340,7 +2353,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>43908</v>
       </c>
@@ -2390,7 +2403,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>43909</v>
       </c>
@@ -2440,7 +2453,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>43910</v>
       </c>
@@ -2490,7 +2503,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>43911</v>
       </c>
@@ -2540,7 +2553,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>43912</v>
       </c>
@@ -2590,7 +2603,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>43913</v>
       </c>
@@ -2640,7 +2653,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>43914</v>
       </c>
@@ -2690,7 +2703,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43915</v>
       </c>
@@ -2740,7 +2753,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43916</v>
       </c>
@@ -2790,7 +2803,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43917</v>
       </c>
@@ -2840,7 +2853,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>43918</v>
       </c>
@@ -2890,7 +2903,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>43919</v>
       </c>
@@ -2940,7 +2953,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>43920</v>
       </c>
@@ -2990,7 +3003,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>43921</v>
       </c>
@@ -3040,7 +3053,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43922</v>
       </c>
@@ -3090,7 +3103,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43923</v>
       </c>
@@ -3140,7 +3153,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>43924</v>
       </c>
@@ -3190,7 +3203,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>43925</v>
       </c>
@@ -3240,7 +3253,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>43926</v>
       </c>
@@ -3290,7 +3303,7 @@
         <v>3706</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>43927</v>
       </c>
@@ -3340,7 +3353,7 @@
         <v>3961</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>43928</v>
       </c>
@@ -3390,7 +3403,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>43929</v>
       </c>
@@ -3440,7 +3453,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>43930</v>
       </c>
@@ -3490,7 +3503,7 @@
         <v>4957</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>43931</v>
       </c>
@@ -3540,7 +3553,7 @@
         <v>5275</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>43932</v>
       </c>
@@ -3590,7 +3603,7 @@
         <v>5590</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>43933</v>
       </c>
@@ -3640,7 +3653,7 @@
         <v>5912</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>43934</v>
       </c>
@@ -3690,7 +3703,7 @@
         <v>6067</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>43935</v>
       </c>
@@ -3740,7 +3753,7 @@
         <v>6358</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>43936</v>
       </c>
@@ -3790,7 +3803,7 @@
         <v>6748</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>43937</v>
       </c>
@@ -3840,7 +3853,7 @@
         <v>7102</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>43938</v>
       </c>
@@ -3890,7 +3903,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>43939</v>
       </c>
@@ -3940,7 +3953,7 @@
         <v>7820</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>43940</v>
       </c>
@@ -3990,7 +4003,7 @@
         <v>8187</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>43941</v>
       </c>
@@ -4040,7 +4053,7 @@
         <v>8450</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>43942</v>
       </c>
@@ -4090,7 +4103,7 @@
         <v>8672</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>43943</v>
       </c>
@@ -4140,7 +4153,7 @@
         <v>9038</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>43944</v>
       </c>
@@ -4190,7 +4203,7 @@
         <v>9409</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>43945</v>
       </c>
@@ -4240,7 +4253,7 @@
         <v>9697</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>43946</v>
       </c>
@@ -4290,7 +4303,7 @@
         <v>10051</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>43947</v>
       </c>
@@ -4341,7 +4354,7 @@
       </c>
       <c r="R54" s="38"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>43948</v>
       </c>
@@ -4392,7 +4405,7 @@
       </c>
       <c r="R55" s="38"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>43949</v>
       </c>
@@ -4443,7 +4456,7 @@
       </c>
       <c r="R56" s="39"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>43950</v>
       </c>
@@ -4493,7 +4506,7 @@
         <v>11034</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>43951</v>
       </c>
@@ -4544,7 +4557,7 @@
       </c>
       <c r="R58" s="38"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>43952</v>
       </c>
@@ -4596,7 +4609,7 @@
       <c r="R59" s="38"/>
       <c r="S59" s="38"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>43953</v>
       </c>
@@ -4646,7 +4659,7 @@
         <v>11927</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>43954</v>
       </c>
@@ -4696,7 +4709,7 @@
         <v>12097</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>43955</v>
       </c>
@@ -4746,7 +4759,7 @@
         <v>12266</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>43956</v>
       </c>
@@ -4796,7 +4809,7 @@
         <v>12437</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>43957</v>
       </c>
@@ -4846,7 +4859,7 @@
         <v>12709</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>43958</v>
       </c>
@@ -4896,7 +4909,7 @@
         <v>12924</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>43959</v>
       </c>
@@ -4946,7 +4959,7 @@
         <v>13149</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>43960</v>
       </c>
@@ -4996,7 +5009,7 @@
         <v>13305</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>43961</v>
       </c>
@@ -5046,7 +5059,7 @@
         <v>13486</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>43962</v>
       </c>
@@ -5096,7 +5109,7 @@
         <v>13627</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>43963</v>
       </c>
@@ -5146,7 +5159,7 @@
         <v>13763</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>43964</v>
       </c>
@@ -5196,7 +5209,7 @@
         <v>13929</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>43965</v>
       </c>
@@ -5246,7 +5259,7 @@
         <v>14117</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>43966</v>
       </c>
@@ -5296,7 +5309,7 @@
         <v>14260</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>43967</v>
       </c>
@@ -5346,7 +5359,7 @@
         <v>14447</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>43968</v>
       </c>
@@ -5396,7 +5409,7 @@
         <v>14537</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>43969</v>
       </c>
@@ -5446,7 +5459,7 @@
         <v>14594</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>43970</v>
       </c>
@@ -5496,7 +5509,7 @@
         <v>14655</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>43971</v>
       </c>
@@ -5546,7 +5559,7 @@
         <v>14751</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>43972</v>
       </c>
@@ -5596,7 +5609,7 @@
         <v>14856</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>43973</v>
       </c>
@@ -5646,7 +5659,7 @@
         <v>14969</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>43974</v>
       </c>
@@ -5696,7 +5709,7 @@
         <v>15041</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>43975</v>
       </c>
@@ -5746,7 +5759,7 @@
         <v>15101</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>43976</v>
       </c>
@@ -5796,7 +5809,7 @@
         <v>15156</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>43977</v>
       </c>
@@ -5846,24 +5859,57 @@
         <v>15185</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="28"/>
-      <c r="J85" s="28"/>
-      <c r="K85" s="28"/>
-      <c r="L85" s="28"/>
-      <c r="M85" s="28"/>
-      <c r="N85" s="28"/>
-      <c r="O85" s="28"/>
-      <c r="P85" s="28"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A85" s="5">
+        <v>43978</v>
+      </c>
+      <c r="B85" s="28">
+        <v>1029</v>
+      </c>
+      <c r="C85" s="28">
+        <v>323</v>
+      </c>
+      <c r="D85" s="28">
+        <v>260</v>
+      </c>
+      <c r="E85" s="28">
+        <v>830</v>
+      </c>
+      <c r="F85" s="28">
+        <v>919</v>
+      </c>
+      <c r="G85" s="28">
+        <v>1256</v>
+      </c>
+      <c r="H85" s="28">
+        <v>3916</v>
+      </c>
+      <c r="I85" s="28">
+        <v>337</v>
+      </c>
+      <c r="J85" s="28">
+        <v>1957</v>
+      </c>
+      <c r="K85" s="28">
+        <v>2685</v>
+      </c>
+      <c r="L85" s="28">
+        <v>7</v>
+      </c>
+      <c r="M85" s="28">
+        <v>54</v>
+      </c>
+      <c r="N85" s="28">
+        <v>1661</v>
+      </c>
+      <c r="O85" s="28">
+        <v>6</v>
+      </c>
+      <c r="P85" s="32">
+        <v>15240</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B86" s="28"/>
       <c r="C86" s="28"/>
       <c r="D86" s="28"/>
@@ -5880,7 +5926,7 @@
       <c r="O86" s="28"/>
       <c r="P86" s="28"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
       <c r="D87" s="28"/>
@@ -5897,7 +5943,7 @@
       <c r="O87" s="28"/>
       <c r="P87" s="28"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B88" s="28"/>
       <c r="C88" s="28"/>
       <c r="D88" s="28"/>
@@ -5914,7 +5960,7 @@
       <c r="O88" s="28"/>
       <c r="P88" s="28"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
       <c r="D89" s="28"/>
@@ -5931,7 +5977,7 @@
       <c r="O89" s="28"/>
       <c r="P89" s="28"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B90" s="28"/>
       <c r="C90" s="28"/>
       <c r="D90" s="28"/>
@@ -5948,7 +5994,7 @@
       <c r="O90" s="28"/>
       <c r="P90" s="28"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
       <c r="D91" s="28"/>
@@ -5965,7 +6011,7 @@
       <c r="O91" s="28"/>
       <c r="P91" s="28"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B92" s="28"/>
       <c r="C92" s="28"/>
       <c r="D92" s="28"/>
@@ -5982,7 +6028,7 @@
       <c r="O92" s="28"/>
       <c r="P92" s="28"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
       <c r="D93" s="28"/>
@@ -5999,7 +6045,7 @@
       <c r="O93" s="28"/>
       <c r="P93" s="28"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
       <c r="D94" s="28"/>
@@ -6016,7 +6062,7 @@
       <c r="O94" s="28"/>
       <c r="P94" s="28"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
       <c r="D95" s="28"/>
@@ -6033,7 +6079,7 @@
       <c r="O95" s="28"/>
       <c r="P95" s="28"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
       <c r="D96" s="28"/>
@@ -6050,7 +6096,7 @@
       <c r="O96" s="28"/>
       <c r="P96" s="28"/>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
@@ -6067,7 +6113,7 @@
       <c r="O97" s="28"/>
       <c r="P97" s="28"/>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
       <c r="D98" s="28"/>
@@ -6084,7 +6130,7 @@
       <c r="O98" s="28"/>
       <c r="P98" s="28"/>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
       <c r="D99" s="28"/>
@@ -6101,7 +6147,7 @@
       <c r="O99" s="28"/>
       <c r="P99" s="28"/>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
       <c r="D100" s="28"/>
@@ -6118,7 +6164,7 @@
       <c r="O100" s="28"/>
       <c r="P100" s="28"/>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
       <c r="D101" s="28"/>
@@ -6135,7 +6181,7 @@
       <c r="O101" s="28"/>
       <c r="P101" s="28"/>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B102" s="28"/>
       <c r="C102" s="28"/>
       <c r="D102" s="28"/>
@@ -6152,7 +6198,7 @@
       <c r="O102" s="28"/>
       <c r="P102" s="28"/>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
       <c r="D103" s="28"/>
@@ -6169,7 +6215,7 @@
       <c r="O103" s="28"/>
       <c r="P103" s="28"/>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
       <c r="D104" s="28"/>
@@ -6186,7 +6232,7 @@
       <c r="O104" s="28"/>
       <c r="P104" s="28"/>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B105" s="28"/>
       <c r="C105" s="28"/>
       <c r="D105" s="28"/>
@@ -6203,7 +6249,7 @@
       <c r="O105" s="28"/>
       <c r="P105" s="28"/>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
       <c r="D106" s="28"/>
@@ -6220,7 +6266,7 @@
       <c r="O106" s="28"/>
       <c r="P106" s="28"/>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
       <c r="D107" s="28"/>
@@ -6237,7 +6283,7 @@
       <c r="O107" s="28"/>
       <c r="P107" s="28"/>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B108" s="28"/>
       <c r="C108" s="28"/>
       <c r="D108" s="28"/>
@@ -6254,7 +6300,7 @@
       <c r="O108" s="28"/>
       <c r="P108" s="28"/>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
       <c r="D109" s="28"/>
@@ -6271,7 +6317,7 @@
       <c r="O109" s="28"/>
       <c r="P109" s="28"/>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B110" s="28"/>
       <c r="C110" s="28"/>
       <c r="D110" s="28"/>
@@ -6288,7 +6334,7 @@
       <c r="O110" s="28"/>
       <c r="P110" s="28"/>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B111" s="28"/>
       <c r="C111" s="28"/>
       <c r="D111" s="28"/>
@@ -6305,7 +6351,7 @@
       <c r="O111" s="28"/>
       <c r="P111" s="28"/>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B112" s="28"/>
       <c r="C112" s="28"/>
       <c r="D112" s="28"/>
@@ -6322,7 +6368,7 @@
       <c r="O112" s="28"/>
       <c r="P112" s="28"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B113" s="28"/>
       <c r="C113" s="28"/>
       <c r="D113" s="28"/>
@@ -6339,7 +6385,7 @@
       <c r="O113" s="28"/>
       <c r="P113" s="28"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B114" s="28"/>
       <c r="C114" s="28"/>
       <c r="D114" s="28"/>
@@ -6356,7 +6402,7 @@
       <c r="O114" s="28"/>
       <c r="P114" s="28"/>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B115" s="28"/>
       <c r="C115" s="28"/>
       <c r="D115" s="28"/>
@@ -6373,7 +6419,7 @@
       <c r="O115" s="28"/>
       <c r="P115" s="28"/>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B116" s="28"/>
       <c r="C116" s="28"/>
       <c r="D116" s="28"/>
@@ -6390,7 +6436,7 @@
       <c r="O116" s="28"/>
       <c r="P116" s="28"/>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
       <c r="D117" s="28"/>
@@ -6407,7 +6453,7 @@
       <c r="O117" s="28"/>
       <c r="P117" s="28"/>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
       <c r="D118" s="28"/>
@@ -6424,7 +6470,7 @@
       <c r="O118" s="28"/>
       <c r="P118" s="28"/>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B119" s="28"/>
       <c r="C119" s="28"/>
       <c r="D119" s="28"/>
@@ -6441,7 +6487,7 @@
       <c r="O119" s="28"/>
       <c r="P119" s="28"/>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B120" s="28"/>
       <c r="C120" s="28"/>
       <c r="D120" s="28"/>
@@ -6458,7 +6504,7 @@
       <c r="O120" s="28"/>
       <c r="P120" s="28"/>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
       <c r="D121" s="28"/>
@@ -6475,7 +6521,7 @@
       <c r="O121" s="28"/>
       <c r="P121" s="28"/>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
       <c r="D122" s="28"/>
@@ -6492,7 +6538,7 @@
       <c r="O122" s="28"/>
       <c r="P122" s="28"/>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
       <c r="D123" s="28"/>
@@ -6509,7 +6555,7 @@
       <c r="O123" s="28"/>
       <c r="P123" s="28"/>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
       <c r="D124" s="28"/>
@@ -6526,7 +6572,7 @@
       <c r="O124" s="28"/>
       <c r="P124" s="28"/>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B125" s="28"/>
       <c r="C125" s="28"/>
       <c r="D125" s="28"/>
@@ -6543,7 +6589,7 @@
       <c r="O125" s="28"/>
       <c r="P125" s="28"/>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B126" s="28"/>
       <c r="C126" s="28"/>
       <c r="D126" s="28"/>
@@ -6560,7 +6606,7 @@
       <c r="O126" s="28"/>
       <c r="P126" s="28"/>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B127" s="28"/>
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
@@ -6577,7 +6623,7 @@
       <c r="O127" s="28"/>
       <c r="P127" s="28"/>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
       <c r="D128" s="28"/>
@@ -6594,7 +6640,7 @@
       <c r="O128" s="28"/>
       <c r="P128" s="28"/>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B129" s="28"/>
       <c r="C129" s="28"/>
       <c r="D129" s="28"/>
@@ -6611,7 +6657,7 @@
       <c r="O129" s="28"/>
       <c r="P129" s="28"/>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B130" s="28"/>
       <c r="C130" s="28"/>
       <c r="D130" s="28"/>
@@ -6628,7 +6674,7 @@
       <c r="O130" s="28"/>
       <c r="P130" s="28"/>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
       <c r="D131" s="28"/>
@@ -6645,7 +6691,7 @@
       <c r="O131" s="28"/>
       <c r="P131" s="28"/>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
       <c r="D132" s="28"/>
@@ -6662,7 +6708,7 @@
       <c r="O132" s="28"/>
       <c r="P132" s="28"/>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
       <c r="D133" s="28"/>
@@ -6679,7 +6725,7 @@
       <c r="O133" s="28"/>
       <c r="P133" s="28"/>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B134" s="28"/>
       <c r="C134" s="28"/>
       <c r="D134" s="28"/>
@@ -6696,7 +6742,7 @@
       <c r="O134" s="28"/>
       <c r="P134" s="28"/>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B135" s="28"/>
       <c r="C135" s="28"/>
       <c r="D135" s="28"/>
@@ -6713,7 +6759,7 @@
       <c r="O135" s="28"/>
       <c r="P135" s="28"/>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B136" s="28"/>
       <c r="C136" s="28"/>
       <c r="D136" s="28"/>
@@ -6730,7 +6776,7 @@
       <c r="O136" s="28"/>
       <c r="P136" s="28"/>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
       <c r="D137" s="28"/>
@@ -6747,7 +6793,7 @@
       <c r="O137" s="28"/>
       <c r="P137" s="28"/>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B138" s="28"/>
       <c r="C138" s="28"/>
       <c r="D138" s="28"/>
@@ -6764,7 +6810,7 @@
       <c r="O138" s="28"/>
       <c r="P138" s="28"/>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B139" s="28"/>
       <c r="C139" s="28"/>
       <c r="D139" s="28"/>
@@ -6781,7 +6827,7 @@
       <c r="O139" s="28"/>
       <c r="P139" s="28"/>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B140" s="28"/>
       <c r="C140" s="28"/>
       <c r="D140" s="28"/>
@@ -6798,7 +6844,7 @@
       <c r="O140" s="28"/>
       <c r="P140" s="28"/>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B141" s="28"/>
       <c r="C141" s="28"/>
       <c r="D141" s="28"/>
@@ -6815,7 +6861,7 @@
       <c r="O141" s="28"/>
       <c r="P141" s="28"/>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B142" s="28"/>
       <c r="C142" s="28"/>
       <c r="D142" s="28"/>
@@ -6832,7 +6878,7 @@
       <c r="O142" s="28"/>
       <c r="P142" s="28"/>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B143" s="28"/>
       <c r="C143" s="28"/>
       <c r="D143" s="28"/>
@@ -6849,7 +6895,7 @@
       <c r="O143" s="28"/>
       <c r="P143" s="28"/>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B144" s="28"/>
       <c r="C144" s="28"/>
       <c r="D144" s="28"/>
@@ -6866,7 +6912,7 @@
       <c r="O144" s="28"/>
       <c r="P144" s="28"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
       <c r="D145" s="28"/>
@@ -6883,7 +6929,7 @@
       <c r="O145" s="28"/>
       <c r="P145" s="28"/>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B146" s="28"/>
       <c r="C146" s="28"/>
       <c r="D146" s="28"/>
@@ -6900,7 +6946,7 @@
       <c r="O146" s="28"/>
       <c r="P146" s="28"/>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B147" s="28"/>
       <c r="C147" s="28"/>
       <c r="D147" s="28"/>
@@ -6917,7 +6963,7 @@
       <c r="O147" s="28"/>
       <c r="P147" s="28"/>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B148" s="28"/>
       <c r="C148" s="28"/>
       <c r="D148" s="28"/>
@@ -6934,7 +6980,7 @@
       <c r="O148" s="28"/>
       <c r="P148" s="28"/>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
       <c r="D149" s="28"/>
@@ -6951,7 +6997,7 @@
       <c r="O149" s="28"/>
       <c r="P149" s="28"/>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
       <c r="D150" s="28"/>
@@ -6968,7 +7014,7 @@
       <c r="O150" s="28"/>
       <c r="P150" s="28"/>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
       <c r="D151" s="28"/>
@@ -6985,7 +7031,7 @@
       <c r="O151" s="28"/>
       <c r="P151" s="28"/>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B152" s="28"/>
       <c r="C152" s="28"/>
       <c r="D152" s="28"/>
@@ -7002,7 +7048,7 @@
       <c r="O152" s="28"/>
       <c r="P152" s="28"/>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
       <c r="D153" s="28"/>
@@ -7019,7 +7065,7 @@
       <c r="O153" s="28"/>
       <c r="P153" s="28"/>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B154" s="28"/>
       <c r="C154" s="28"/>
       <c r="D154" s="28"/>
@@ -7036,7 +7082,7 @@
       <c r="O154" s="28"/>
       <c r="P154" s="28"/>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B155" s="28"/>
       <c r="C155" s="28"/>
       <c r="D155" s="28"/>
@@ -7053,7 +7099,7 @@
       <c r="O155" s="28"/>
       <c r="P155" s="28"/>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B156" s="28"/>
       <c r="C156" s="28"/>
       <c r="D156" s="28"/>
@@ -7070,7 +7116,7 @@
       <c r="O156" s="28"/>
       <c r="P156" s="28"/>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B157" s="28"/>
       <c r="C157" s="28"/>
       <c r="D157" s="28"/>
@@ -7087,7 +7133,7 @@
       <c r="O157" s="28"/>
       <c r="P157" s="28"/>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
       <c r="D158" s="28"/>
@@ -7104,7 +7150,7 @@
       <c r="O158" s="28"/>
       <c r="P158" s="28"/>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
       <c r="D159" s="28"/>
@@ -7121,7 +7167,7 @@
       <c r="O159" s="28"/>
       <c r="P159" s="28"/>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
       <c r="D160" s="28"/>
@@ -7146,21 +7192,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
+      <selection pane="bottomLeft" activeCell="V68" sqref="V68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.54296875" style="2"/>
+    <col min="1" max="1" width="12.44140625" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5546875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -7181,7 +7227,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -7202,7 +7248,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -7255,7 +7301,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>43908</v>
       </c>
@@ -7308,7 +7354,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>43909</v>
       </c>
@@ -7361,7 +7407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>43910</v>
       </c>
@@ -7414,7 +7460,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>43911</v>
       </c>
@@ -7467,7 +7513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>43912</v>
       </c>
@@ -7520,7 +7566,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>43913</v>
       </c>
@@ -7573,7 +7619,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>43914</v>
       </c>
@@ -7626,7 +7672,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>43915</v>
       </c>
@@ -7679,7 +7725,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>43916</v>
       </c>
@@ -7732,7 +7778,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>43917</v>
       </c>
@@ -7785,7 +7831,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>43918</v>
       </c>
@@ -7838,7 +7884,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>43919</v>
       </c>
@@ -7891,7 +7937,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>43920</v>
       </c>
@@ -7944,7 +7990,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>43921</v>
       </c>
@@ -7997,7 +8043,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>43922</v>
       </c>
@@ -8050,7 +8096,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>43923</v>
       </c>
@@ -8103,7 +8149,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>43924</v>
       </c>
@@ -8156,7 +8202,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>43925</v>
       </c>
@@ -8209,7 +8255,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>43926</v>
       </c>
@@ -8262,7 +8308,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>43927</v>
       </c>
@@ -8315,7 +8361,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>43928</v>
       </c>
@@ -8368,7 +8414,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>43929</v>
       </c>
@@ -8421,7 +8467,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>43930</v>
       </c>
@@ -8474,7 +8520,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>43931</v>
       </c>
@@ -8527,7 +8573,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>43932</v>
       </c>
@@ -8580,7 +8626,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>43933</v>
       </c>
@@ -8633,7 +8679,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>43934</v>
       </c>
@@ -8686,7 +8732,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>43935</v>
       </c>
@@ -8739,7 +8785,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>43936</v>
       </c>
@@ -8792,7 +8838,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>43937</v>
       </c>
@@ -8845,7 +8891,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>43938</v>
       </c>
@@ -8898,7 +8944,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>43939</v>
       </c>
@@ -8951,7 +8997,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="30">
         <v>43940</v>
       </c>
@@ -9004,7 +9050,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="30">
         <v>43941</v>
       </c>
@@ -9057,7 +9103,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="30">
         <v>43942</v>
       </c>
@@ -9110,7 +9156,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="30">
         <v>43943</v>
       </c>
@@ -9163,7 +9209,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="30">
         <v>43944</v>
       </c>
@@ -9216,7 +9262,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="30">
         <v>43945</v>
       </c>
@@ -9269,7 +9315,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="30">
         <v>43946</v>
       </c>
@@ -9322,7 +9368,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="30">
         <v>43947</v>
       </c>
@@ -9375,7 +9421,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="30">
         <v>43948</v>
       </c>
@@ -9428,7 +9474,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="30">
         <v>43949</v>
       </c>
@@ -9481,7 +9527,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="30">
         <v>43950</v>
       </c>
@@ -9534,7 +9580,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="30">
         <v>43951</v>
       </c>
@@ -9587,7 +9633,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="30">
         <v>43952</v>
       </c>
@@ -9640,7 +9686,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="30">
         <v>43953</v>
       </c>
@@ -9693,7 +9739,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="30">
         <v>43954</v>
       </c>
@@ -9746,7 +9792,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="30">
         <v>43955</v>
       </c>
@@ -9799,7 +9845,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="30">
         <v>43956</v>
       </c>
@@ -9852,7 +9898,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="30">
         <v>43957</v>
       </c>
@@ -9905,7 +9951,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="30">
         <v>43958</v>
       </c>
@@ -9958,7 +10004,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="30">
         <v>43959</v>
       </c>
@@ -10011,7 +10057,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="30">
         <v>43960</v>
       </c>
@@ -10064,7 +10110,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="30">
         <v>43961</v>
       </c>
@@ -10117,7 +10163,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="30">
         <v>43962</v>
       </c>
@@ -10170,7 +10216,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="30">
         <v>43963</v>
       </c>
@@ -10223,7 +10269,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="30">
         <v>43964</v>
       </c>
@@ -10276,7 +10322,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="30">
         <v>43965</v>
       </c>
@@ -10329,7 +10375,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="30">
         <v>43966</v>
       </c>
@@ -10382,7 +10428,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="30">
         <v>43967</v>
       </c>
@@ -10435,7 +10481,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="30">
         <v>43968</v>
       </c>
@@ -10488,7 +10534,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="30">
         <v>43969</v>
       </c>
@@ -10541,7 +10587,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="30">
         <v>43970</v>
       </c>
@@ -10594,7 +10640,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="30">
         <v>43971</v>
       </c>
@@ -10647,7 +10693,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="30">
         <v>43972</v>
       </c>
@@ -10700,7 +10746,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="30">
         <v>43973</v>
       </c>
@@ -10753,7 +10799,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="30">
         <v>43974</v>
       </c>
@@ -10806,7 +10852,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="30">
         <v>43975</v>
       </c>
@@ -10859,7 +10905,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="30">
         <v>43976</v>
       </c>
@@ -10912,7 +10958,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="30">
         <v>43977</v>
       </c>
@@ -10962,7 +11008,60 @@
         <v>29</v>
       </c>
       <c r="Q73" s="13">
-        <v>36</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" s="30">
+        <v>43978</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" s="11">
+        <v>9</v>
+      </c>
+      <c r="I74" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J74" s="11">
+        <v>5</v>
+      </c>
+      <c r="K74" s="11">
+        <v>12</v>
+      </c>
+      <c r="L74" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M74" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N74" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O74" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P74" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q74" s="13">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -10973,23 +11072,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J71" sqref="J71"/>
+      <selection pane="bottomRight" activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.54296875" style="2"/>
+    <col min="1" max="1" width="15.109375" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5546875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -11010,7 +11109,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -11031,7 +11130,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -11084,7 +11183,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -11137,7 +11236,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -11190,7 +11289,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -11243,7 +11342,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -11296,7 +11395,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -11349,7 +11448,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -11402,7 +11501,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -11455,7 +11554,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -11508,7 +11607,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -11561,7 +11660,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -11614,7 +11713,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -11667,7 +11766,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -11720,7 +11819,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -11773,7 +11872,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -11826,7 +11925,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -11879,7 +11978,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -11932,7 +12031,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -11985,7 +12084,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -12038,7 +12137,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -12091,7 +12190,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -12144,7 +12243,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -12197,7 +12296,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -12250,7 +12349,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -12303,7 +12402,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -12356,7 +12455,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -12409,7 +12508,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -12462,7 +12561,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -12515,7 +12614,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -12568,7 +12667,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -12621,7 +12720,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -12674,7 +12773,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -12727,7 +12826,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -12780,7 +12879,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -12833,7 +12932,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -12886,7 +12985,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -12939,7 +13038,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -12992,7 +13091,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -13045,7 +13144,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -13098,7 +13197,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -13151,7 +13250,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -13204,7 +13303,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -13257,7 +13356,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -13310,7 +13409,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -13363,7 +13462,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -13416,7 +13515,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="30">
         <v>43960</v>
       </c>
@@ -13469,7 +13568,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="30">
         <v>43961</v>
       </c>
@@ -13522,7 +13621,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="30">
         <v>43962</v>
       </c>
@@ -13575,7 +13674,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="30">
         <v>43963</v>
       </c>
@@ -13628,7 +13727,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="30">
         <v>43964</v>
       </c>
@@ -13681,7 +13780,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="30">
         <v>43965</v>
       </c>
@@ -13734,7 +13833,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="30">
         <v>43966</v>
       </c>
@@ -13787,7 +13886,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="30">
         <v>43967</v>
       </c>
@@ -13840,7 +13939,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="30">
         <v>43968</v>
       </c>
@@ -13893,7 +13992,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="30">
         <v>43969</v>
       </c>
@@ -13946,7 +14045,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="30">
         <v>43970</v>
       </c>
@@ -13999,7 +14098,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="30">
         <v>43971</v>
       </c>
@@ -14052,7 +14151,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="30">
         <v>43972</v>
       </c>
@@ -14105,7 +14204,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="30">
         <v>43973</v>
       </c>
@@ -14158,7 +14257,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="30">
         <v>43974</v>
       </c>
@@ -14211,7 +14310,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="30">
         <v>43975</v>
       </c>
@@ -14264,7 +14363,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="30">
         <v>43976</v>
       </c>
@@ -14317,7 +14416,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="51">
         <v>43977</v>
       </c>
@@ -14368,6 +14467,59 @@
       </c>
       <c r="Q65" s="13">
         <v>833</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66" s="51">
+        <v>43978</v>
+      </c>
+      <c r="B66" s="11">
+        <v>16</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="11">
+        <v>66</v>
+      </c>
+      <c r="F66" s="11">
+        <v>10</v>
+      </c>
+      <c r="G66" s="11">
+        <v>69</v>
+      </c>
+      <c r="H66" s="11">
+        <v>378</v>
+      </c>
+      <c r="I66" s="11">
+        <v>9</v>
+      </c>
+      <c r="J66" s="11">
+        <v>78</v>
+      </c>
+      <c r="K66" s="11">
+        <v>164</v>
+      </c>
+      <c r="L66" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M66" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N66" s="11">
+        <v>14</v>
+      </c>
+      <c r="O66" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P66" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q66" s="13">
+        <v>810</v>
       </c>
     </row>
   </sheetData>
@@ -14378,23 +14530,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K70" sqref="K70"/>
+      <selection pane="bottomRight" activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.54296875" style="2"/>
+    <col min="1" max="1" width="12.44140625" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5546875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -14415,7 +14567,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -14436,7 +14588,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -14489,7 +14641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -14542,7 +14694,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -14595,7 +14747,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -14648,7 +14800,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -14701,7 +14853,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -14754,7 +14906,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -14807,7 +14959,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -14860,7 +15012,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -14913,7 +15065,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -14966,7 +15118,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -15019,7 +15171,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -15072,7 +15224,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -15125,7 +15277,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -15178,7 +15330,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -15231,7 +15383,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -15284,7 +15436,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -15337,7 +15489,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -15390,7 +15542,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -15443,7 +15595,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -15496,7 +15648,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -15549,7 +15701,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -15602,7 +15754,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -15655,7 +15807,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -15708,7 +15860,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -15761,7 +15913,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -15814,7 +15966,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -15867,7 +16019,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -15920,7 +16072,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -15973,7 +16125,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -16026,7 +16178,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -16079,7 +16231,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -16132,7 +16284,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -16185,7 +16337,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -16238,7 +16390,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -16291,7 +16443,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -16344,7 +16496,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -16397,7 +16549,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -16450,7 +16602,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -16503,7 +16655,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -16556,7 +16708,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -16609,7 +16761,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -16662,7 +16814,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -16715,7 +16867,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -16768,7 +16920,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -16821,7 +16973,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="30">
         <v>43960</v>
       </c>
@@ -16874,7 +17026,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="30">
         <v>43961</v>
       </c>
@@ -16927,7 +17079,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="30">
         <v>43962</v>
       </c>
@@ -16980,7 +17132,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="30">
         <v>43963</v>
       </c>
@@ -17033,7 +17185,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="30">
         <v>43964</v>
       </c>
@@ -17086,7 +17238,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="30">
         <v>43965</v>
       </c>
@@ -17139,7 +17291,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="30">
         <v>43966</v>
       </c>
@@ -17192,7 +17344,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="30">
         <v>43967</v>
       </c>
@@ -17245,7 +17397,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="30">
         <v>43968</v>
       </c>
@@ -17298,7 +17450,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="30">
         <v>43969</v>
       </c>
@@ -17351,7 +17503,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="30">
         <v>43970</v>
       </c>
@@ -17404,7 +17556,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="30">
         <v>43971</v>
       </c>
@@ -17457,7 +17609,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="30">
         <v>43972</v>
       </c>
@@ -17510,7 +17662,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="30">
         <v>43973</v>
       </c>
@@ -17563,7 +17715,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="30">
         <v>43974</v>
       </c>
@@ -17616,7 +17768,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="30">
         <v>43975</v>
       </c>
@@ -17669,7 +17821,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="30">
         <v>43976</v>
       </c>
@@ -17722,7 +17874,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="30">
         <v>43977</v>
       </c>
@@ -17773,6 +17925,59 @@
       </c>
       <c r="Q65" s="13">
         <v>367</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66" s="30">
+        <v>43978</v>
+      </c>
+      <c r="B66" s="11">
+        <v>23</v>
+      </c>
+      <c r="C66" s="11">
+        <v>14</v>
+      </c>
+      <c r="D66" s="11">
+        <v>14</v>
+      </c>
+      <c r="E66" s="11">
+        <v>22</v>
+      </c>
+      <c r="F66" s="11">
+        <v>35</v>
+      </c>
+      <c r="G66" s="11">
+        <v>16</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I66" s="11">
+        <v>34</v>
+      </c>
+      <c r="J66" s="11">
+        <v>86</v>
+      </c>
+      <c r="K66" s="11">
+        <v>178</v>
+      </c>
+      <c r="L66" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M66" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N66" s="11">
+        <v>14</v>
+      </c>
+      <c r="O66" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P66" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q66" s="13">
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -17805,7 +18010,7 @@
       <value order="0"/>
     </field>
     <field name="Objective-ModificationStamp">
-      <value order="0">2020-05-26T11:48:04Z</value>
+      <value order="0">2020-05-27T12:22:00Z</value>
     </field>
     <field name="Objective-Owner">
       <value order="0">Grant, Neil N (u207826)</value>
@@ -17820,13 +18025,13 @@
       <value order="0">Being Drafted</value>
     </field>
     <field name="Objective-VersionId">
-      <value order="0">vA41346006</value>
+      <value order="0">vA41372771</value>
     </field>
     <field name="Objective-Version">
-      <value order="0">14.7</value>
+      <value order="0">14.11</value>
     </field>
     <field name="Objective-VersionNumber">
-      <value order="0">122</value>
+      <value order="0">126</value>
     </field>
     <field name="Objective-VersionComment">
       <value order="0"/>

--- a/data/csv/src/data_latest_sct.xlsx
+++ b/data/csv/src/data_latest_sct.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U445783\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA18464\A28088333\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u419207\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA10434\A28088333\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5988" windowHeight="6012" tabRatio="803" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5990" windowHeight="6020" tabRatio="803" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -389,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -496,6 +496,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1589,25 +1590,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="90.44140625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.44140625" style="2"/>
+    <col min="2" max="2" width="29.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="90.453125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
@@ -1615,7 +1614,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
@@ -1623,13 +1622,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="23"/>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
         <v>26</v>
       </c>
@@ -1637,7 +1636,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="24" t="s">
         <v>27</v>
       </c>
@@ -1645,7 +1644,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="24" t="s">
         <v>36</v>
       </c>
@@ -1653,7 +1652,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="20" t="s">
         <v>37</v>
       </c>
@@ -1681,12 +1680,12 @@
       <selection activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9.44140625" style="2"/>
+    <col min="1" max="16384" width="9.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="43"/>
     </row>
   </sheetData>
@@ -1701,20 +1700,20 @@
   <dimension ref="A1:S160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="J70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P93" sqref="P93"/>
+      <selection pane="bottomRight" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
-    <col min="2" max="16" width="11.44140625" style="11" customWidth="1"/>
-    <col min="17" max="16384" width="8.5546875" style="2"/>
+    <col min="2" max="16" width="11.453125" style="11" customWidth="1"/>
+    <col min="17" max="16384" width="8.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1734,7 +1733,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -1753,7 +1752,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1803,7 +1802,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>43897</v>
       </c>
@@ -1853,7 +1852,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>43898</v>
       </c>
@@ -1903,7 +1902,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>43899</v>
       </c>
@@ -1953,7 +1952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>43900</v>
       </c>
@@ -2003,7 +2002,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>43901</v>
       </c>
@@ -2053,7 +2052,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>43902</v>
       </c>
@@ -2103,7 +2102,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>43903</v>
       </c>
@@ -2153,7 +2152,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>43904</v>
       </c>
@@ -2203,7 +2202,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>43905</v>
       </c>
@@ -2253,7 +2252,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>43906</v>
       </c>
@@ -2303,7 +2302,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>43907</v>
       </c>
@@ -2353,7 +2352,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>43908</v>
       </c>
@@ -2403,7 +2402,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>43909</v>
       </c>
@@ -2453,7 +2452,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>43910</v>
       </c>
@@ -2503,7 +2502,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>43911</v>
       </c>
@@ -2553,7 +2552,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>43912</v>
       </c>
@@ -2603,7 +2602,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>43913</v>
       </c>
@@ -2653,7 +2652,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>43914</v>
       </c>
@@ -2703,7 +2702,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>43915</v>
       </c>
@@ -2753,7 +2752,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>43916</v>
       </c>
@@ -2803,7 +2802,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>43917</v>
       </c>
@@ -2853,7 +2852,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>43918</v>
       </c>
@@ -2903,7 +2902,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>43919</v>
       </c>
@@ -2953,7 +2952,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>43920</v>
       </c>
@@ -3003,7 +3002,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>43921</v>
       </c>
@@ -3053,7 +3052,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>43922</v>
       </c>
@@ -3103,7 +3102,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>43923</v>
       </c>
@@ -3153,7 +3152,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>43924</v>
       </c>
@@ -3203,7 +3202,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>43925</v>
       </c>
@@ -3253,7 +3252,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>43926</v>
       </c>
@@ -3303,7 +3302,7 @@
         <v>3706</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>43927</v>
       </c>
@@ -3353,7 +3352,7 @@
         <v>3961</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>43928</v>
       </c>
@@ -3403,7 +3402,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>43929</v>
       </c>
@@ -3453,7 +3452,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>43930</v>
       </c>
@@ -3503,7 +3502,7 @@
         <v>4957</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>43931</v>
       </c>
@@ -3553,7 +3552,7 @@
         <v>5275</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>43932</v>
       </c>
@@ -3603,7 +3602,7 @@
         <v>5590</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>43933</v>
       </c>
@@ -3653,7 +3652,7 @@
         <v>5912</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>43934</v>
       </c>
@@ -3703,7 +3702,7 @@
         <v>6067</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>43935</v>
       </c>
@@ -3753,7 +3752,7 @@
         <v>6358</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>43936</v>
       </c>
@@ -3803,7 +3802,7 @@
         <v>6748</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>43937</v>
       </c>
@@ -3853,7 +3852,7 @@
         <v>7102</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>43938</v>
       </c>
@@ -3903,7 +3902,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>43939</v>
       </c>
@@ -3953,7 +3952,7 @@
         <v>7820</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>43940</v>
       </c>
@@ -4003,7 +4002,7 @@
         <v>8187</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>43941</v>
       </c>
@@ -4053,7 +4052,7 @@
         <v>8450</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>43942</v>
       </c>
@@ -4103,7 +4102,7 @@
         <v>8672</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>43943</v>
       </c>
@@ -4153,7 +4152,7 @@
         <v>9038</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>43944</v>
       </c>
@@ -4203,7 +4202,7 @@
         <v>9409</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>43945</v>
       </c>
@@ -4253,7 +4252,7 @@
         <v>9697</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>43946</v>
       </c>
@@ -4303,7 +4302,7 @@
         <v>10051</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>43947</v>
       </c>
@@ -4354,7 +4353,7 @@
       </c>
       <c r="R54" s="38"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>43948</v>
       </c>
@@ -4405,7 +4404,7 @@
       </c>
       <c r="R55" s="38"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>43949</v>
       </c>
@@ -4456,7 +4455,7 @@
       </c>
       <c r="R56" s="39"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>43950</v>
       </c>
@@ -4506,7 +4505,7 @@
         <v>11034</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>43951</v>
       </c>
@@ -4557,7 +4556,7 @@
       </c>
       <c r="R58" s="38"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>43952</v>
       </c>
@@ -4609,7 +4608,7 @@
       <c r="R59" s="38"/>
       <c r="S59" s="38"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>43953</v>
       </c>
@@ -4659,7 +4658,7 @@
         <v>11927</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>43954</v>
       </c>
@@ -4709,7 +4708,7 @@
         <v>12097</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>43955</v>
       </c>
@@ -4759,7 +4758,7 @@
         <v>12266</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>43956</v>
       </c>
@@ -4809,7 +4808,7 @@
         <v>12437</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>43957</v>
       </c>
@@ -4859,7 +4858,7 @@
         <v>12709</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>43958</v>
       </c>
@@ -4909,7 +4908,7 @@
         <v>12924</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>43959</v>
       </c>
@@ -4959,7 +4958,7 @@
         <v>13149</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>43960</v>
       </c>
@@ -5009,7 +5008,7 @@
         <v>13305</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>43961</v>
       </c>
@@ -5059,7 +5058,7 @@
         <v>13486</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>43962</v>
       </c>
@@ -5109,7 +5108,7 @@
         <v>13627</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>43963</v>
       </c>
@@ -5159,7 +5158,7 @@
         <v>13763</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>43964</v>
       </c>
@@ -5209,7 +5208,7 @@
         <v>13929</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>43965</v>
       </c>
@@ -5259,7 +5258,7 @@
         <v>14117</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>43966</v>
       </c>
@@ -5309,7 +5308,7 @@
         <v>14260</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>43967</v>
       </c>
@@ -5359,7 +5358,7 @@
         <v>14447</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>43968</v>
       </c>
@@ -5409,7 +5408,7 @@
         <v>14537</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>43969</v>
       </c>
@@ -5459,7 +5458,7 @@
         <v>14594</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>43970</v>
       </c>
@@ -5509,7 +5508,7 @@
         <v>14655</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>43971</v>
       </c>
@@ -5559,7 +5558,7 @@
         <v>14751</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>43972</v>
       </c>
@@ -5609,7 +5608,7 @@
         <v>14856</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>43973</v>
       </c>
@@ -5659,7 +5658,7 @@
         <v>14969</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>43974</v>
       </c>
@@ -5709,7 +5708,7 @@
         <v>15041</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>43975</v>
       </c>
@@ -5759,7 +5758,7 @@
         <v>15101</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>43976</v>
       </c>
@@ -5809,7 +5808,7 @@
         <v>15156</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>43977</v>
       </c>
@@ -5859,7 +5858,7 @@
         <v>15185</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>43978</v>
       </c>
@@ -5909,24 +5908,57 @@
         <v>15240</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="28"/>
-      <c r="K86" s="28"/>
-      <c r="L86" s="28"/>
-      <c r="M86" s="28"/>
-      <c r="N86" s="28"/>
-      <c r="O86" s="28"/>
-      <c r="P86" s="28"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A86" s="5">
+        <v>43979</v>
+      </c>
+      <c r="B86" s="28">
+        <v>1035</v>
+      </c>
+      <c r="C86" s="28">
+        <v>323</v>
+      </c>
+      <c r="D86" s="28">
+        <v>260</v>
+      </c>
+      <c r="E86" s="28">
+        <v>830</v>
+      </c>
+      <c r="F86" s="28">
+        <v>919</v>
+      </c>
+      <c r="G86" s="28">
+        <v>1259</v>
+      </c>
+      <c r="H86" s="28">
+        <v>3934</v>
+      </c>
+      <c r="I86" s="28">
+        <v>337</v>
+      </c>
+      <c r="J86" s="28">
+        <v>1968</v>
+      </c>
+      <c r="K86" s="28">
+        <v>2691</v>
+      </c>
+      <c r="L86" s="28">
+        <v>7</v>
+      </c>
+      <c r="M86" s="28">
+        <v>54</v>
+      </c>
+      <c r="N86" s="28">
+        <v>1665</v>
+      </c>
+      <c r="O86" s="28">
+        <v>6</v>
+      </c>
+      <c r="P86" s="32">
+        <v>15288</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
       <c r="D87" s="28"/>
@@ -5943,7 +5975,7 @@
       <c r="O87" s="28"/>
       <c r="P87" s="28"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B88" s="28"/>
       <c r="C88" s="28"/>
       <c r="D88" s="28"/>
@@ -5960,7 +5992,7 @@
       <c r="O88" s="28"/>
       <c r="P88" s="28"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
       <c r="D89" s="28"/>
@@ -5977,7 +6009,7 @@
       <c r="O89" s="28"/>
       <c r="P89" s="28"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B90" s="28"/>
       <c r="C90" s="28"/>
       <c r="D90" s="28"/>
@@ -5994,7 +6026,7 @@
       <c r="O90" s="28"/>
       <c r="P90" s="28"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
       <c r="D91" s="28"/>
@@ -6011,7 +6043,7 @@
       <c r="O91" s="28"/>
       <c r="P91" s="28"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B92" s="28"/>
       <c r="C92" s="28"/>
       <c r="D92" s="28"/>
@@ -6028,7 +6060,7 @@
       <c r="O92" s="28"/>
       <c r="P92" s="28"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
       <c r="D93" s="28"/>
@@ -6045,7 +6077,7 @@
       <c r="O93" s="28"/>
       <c r="P93" s="28"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
       <c r="D94" s="28"/>
@@ -6062,7 +6094,7 @@
       <c r="O94" s="28"/>
       <c r="P94" s="28"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
       <c r="D95" s="28"/>
@@ -6079,7 +6111,7 @@
       <c r="O95" s="28"/>
       <c r="P95" s="28"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
       <c r="D96" s="28"/>
@@ -6096,7 +6128,7 @@
       <c r="O96" s="28"/>
       <c r="P96" s="28"/>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
@@ -6113,7 +6145,7 @@
       <c r="O97" s="28"/>
       <c r="P97" s="28"/>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
       <c r="D98" s="28"/>
@@ -6130,7 +6162,7 @@
       <c r="O98" s="28"/>
       <c r="P98" s="28"/>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
       <c r="D99" s="28"/>
@@ -6147,7 +6179,7 @@
       <c r="O99" s="28"/>
       <c r="P99" s="28"/>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
       <c r="D100" s="28"/>
@@ -6164,7 +6196,7 @@
       <c r="O100" s="28"/>
       <c r="P100" s="28"/>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
       <c r="D101" s="28"/>
@@ -6181,7 +6213,7 @@
       <c r="O101" s="28"/>
       <c r="P101" s="28"/>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B102" s="28"/>
       <c r="C102" s="28"/>
       <c r="D102" s="28"/>
@@ -6198,7 +6230,7 @@
       <c r="O102" s="28"/>
       <c r="P102" s="28"/>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
       <c r="D103" s="28"/>
@@ -6215,7 +6247,7 @@
       <c r="O103" s="28"/>
       <c r="P103" s="28"/>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
       <c r="D104" s="28"/>
@@ -6232,7 +6264,7 @@
       <c r="O104" s="28"/>
       <c r="P104" s="28"/>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B105" s="28"/>
       <c r="C105" s="28"/>
       <c r="D105" s="28"/>
@@ -6249,7 +6281,7 @@
       <c r="O105" s="28"/>
       <c r="P105" s="28"/>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
       <c r="D106" s="28"/>
@@ -6266,7 +6298,7 @@
       <c r="O106" s="28"/>
       <c r="P106" s="28"/>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
       <c r="D107" s="28"/>
@@ -6283,7 +6315,7 @@
       <c r="O107" s="28"/>
       <c r="P107" s="28"/>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B108" s="28"/>
       <c r="C108" s="28"/>
       <c r="D108" s="28"/>
@@ -6300,7 +6332,7 @@
       <c r="O108" s="28"/>
       <c r="P108" s="28"/>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
       <c r="D109" s="28"/>
@@ -6317,7 +6349,7 @@
       <c r="O109" s="28"/>
       <c r="P109" s="28"/>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B110" s="28"/>
       <c r="C110" s="28"/>
       <c r="D110" s="28"/>
@@ -6334,7 +6366,7 @@
       <c r="O110" s="28"/>
       <c r="P110" s="28"/>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B111" s="28"/>
       <c r="C111" s="28"/>
       <c r="D111" s="28"/>
@@ -6351,7 +6383,7 @@
       <c r="O111" s="28"/>
       <c r="P111" s="28"/>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B112" s="28"/>
       <c r="C112" s="28"/>
       <c r="D112" s="28"/>
@@ -6368,7 +6400,7 @@
       <c r="O112" s="28"/>
       <c r="P112" s="28"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B113" s="28"/>
       <c r="C113" s="28"/>
       <c r="D113" s="28"/>
@@ -6385,7 +6417,7 @@
       <c r="O113" s="28"/>
       <c r="P113" s="28"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B114" s="28"/>
       <c r="C114" s="28"/>
       <c r="D114" s="28"/>
@@ -6402,7 +6434,7 @@
       <c r="O114" s="28"/>
       <c r="P114" s="28"/>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B115" s="28"/>
       <c r="C115" s="28"/>
       <c r="D115" s="28"/>
@@ -6419,7 +6451,7 @@
       <c r="O115" s="28"/>
       <c r="P115" s="28"/>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B116" s="28"/>
       <c r="C116" s="28"/>
       <c r="D116" s="28"/>
@@ -6436,7 +6468,7 @@
       <c r="O116" s="28"/>
       <c r="P116" s="28"/>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
       <c r="D117" s="28"/>
@@ -6453,7 +6485,7 @@
       <c r="O117" s="28"/>
       <c r="P117" s="28"/>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
       <c r="D118" s="28"/>
@@ -6470,7 +6502,7 @@
       <c r="O118" s="28"/>
       <c r="P118" s="28"/>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B119" s="28"/>
       <c r="C119" s="28"/>
       <c r="D119" s="28"/>
@@ -6487,7 +6519,7 @@
       <c r="O119" s="28"/>
       <c r="P119" s="28"/>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B120" s="28"/>
       <c r="C120" s="28"/>
       <c r="D120" s="28"/>
@@ -6504,7 +6536,7 @@
       <c r="O120" s="28"/>
       <c r="P120" s="28"/>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
       <c r="D121" s="28"/>
@@ -6521,7 +6553,7 @@
       <c r="O121" s="28"/>
       <c r="P121" s="28"/>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
       <c r="D122" s="28"/>
@@ -6538,7 +6570,7 @@
       <c r="O122" s="28"/>
       <c r="P122" s="28"/>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
       <c r="D123" s="28"/>
@@ -6555,7 +6587,7 @@
       <c r="O123" s="28"/>
       <c r="P123" s="28"/>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
       <c r="D124" s="28"/>
@@ -6572,7 +6604,7 @@
       <c r="O124" s="28"/>
       <c r="P124" s="28"/>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B125" s="28"/>
       <c r="C125" s="28"/>
       <c r="D125" s="28"/>
@@ -6589,7 +6621,7 @@
       <c r="O125" s="28"/>
       <c r="P125" s="28"/>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B126" s="28"/>
       <c r="C126" s="28"/>
       <c r="D126" s="28"/>
@@ -6606,7 +6638,7 @@
       <c r="O126" s="28"/>
       <c r="P126" s="28"/>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B127" s="28"/>
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
@@ -6623,7 +6655,7 @@
       <c r="O127" s="28"/>
       <c r="P127" s="28"/>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
       <c r="D128" s="28"/>
@@ -6640,7 +6672,7 @@
       <c r="O128" s="28"/>
       <c r="P128" s="28"/>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B129" s="28"/>
       <c r="C129" s="28"/>
       <c r="D129" s="28"/>
@@ -6657,7 +6689,7 @@
       <c r="O129" s="28"/>
       <c r="P129" s="28"/>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B130" s="28"/>
       <c r="C130" s="28"/>
       <c r="D130" s="28"/>
@@ -6674,7 +6706,7 @@
       <c r="O130" s="28"/>
       <c r="P130" s="28"/>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
       <c r="D131" s="28"/>
@@ -6691,7 +6723,7 @@
       <c r="O131" s="28"/>
       <c r="P131" s="28"/>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
       <c r="D132" s="28"/>
@@ -6708,7 +6740,7 @@
       <c r="O132" s="28"/>
       <c r="P132" s="28"/>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
       <c r="D133" s="28"/>
@@ -6725,7 +6757,7 @@
       <c r="O133" s="28"/>
       <c r="P133" s="28"/>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B134" s="28"/>
       <c r="C134" s="28"/>
       <c r="D134" s="28"/>
@@ -6742,7 +6774,7 @@
       <c r="O134" s="28"/>
       <c r="P134" s="28"/>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B135" s="28"/>
       <c r="C135" s="28"/>
       <c r="D135" s="28"/>
@@ -6759,7 +6791,7 @@
       <c r="O135" s="28"/>
       <c r="P135" s="28"/>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B136" s="28"/>
       <c r="C136" s="28"/>
       <c r="D136" s="28"/>
@@ -6776,7 +6808,7 @@
       <c r="O136" s="28"/>
       <c r="P136" s="28"/>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
       <c r="D137" s="28"/>
@@ -6793,7 +6825,7 @@
       <c r="O137" s="28"/>
       <c r="P137" s="28"/>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B138" s="28"/>
       <c r="C138" s="28"/>
       <c r="D138" s="28"/>
@@ -6810,7 +6842,7 @@
       <c r="O138" s="28"/>
       <c r="P138" s="28"/>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B139" s="28"/>
       <c r="C139" s="28"/>
       <c r="D139" s="28"/>
@@ -6827,7 +6859,7 @@
       <c r="O139" s="28"/>
       <c r="P139" s="28"/>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B140" s="28"/>
       <c r="C140" s="28"/>
       <c r="D140" s="28"/>
@@ -6844,7 +6876,7 @@
       <c r="O140" s="28"/>
       <c r="P140" s="28"/>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B141" s="28"/>
       <c r="C141" s="28"/>
       <c r="D141" s="28"/>
@@ -6861,7 +6893,7 @@
       <c r="O141" s="28"/>
       <c r="P141" s="28"/>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B142" s="28"/>
       <c r="C142" s="28"/>
       <c r="D142" s="28"/>
@@ -6878,7 +6910,7 @@
       <c r="O142" s="28"/>
       <c r="P142" s="28"/>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B143" s="28"/>
       <c r="C143" s="28"/>
       <c r="D143" s="28"/>
@@ -6895,7 +6927,7 @@
       <c r="O143" s="28"/>
       <c r="P143" s="28"/>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B144" s="28"/>
       <c r="C144" s="28"/>
       <c r="D144" s="28"/>
@@ -6912,7 +6944,7 @@
       <c r="O144" s="28"/>
       <c r="P144" s="28"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
       <c r="D145" s="28"/>
@@ -6929,7 +6961,7 @@
       <c r="O145" s="28"/>
       <c r="P145" s="28"/>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B146" s="28"/>
       <c r="C146" s="28"/>
       <c r="D146" s="28"/>
@@ -6946,7 +6978,7 @@
       <c r="O146" s="28"/>
       <c r="P146" s="28"/>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B147" s="28"/>
       <c r="C147" s="28"/>
       <c r="D147" s="28"/>
@@ -6963,7 +6995,7 @@
       <c r="O147" s="28"/>
       <c r="P147" s="28"/>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B148" s="28"/>
       <c r="C148" s="28"/>
       <c r="D148" s="28"/>
@@ -6980,7 +7012,7 @@
       <c r="O148" s="28"/>
       <c r="P148" s="28"/>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
       <c r="D149" s="28"/>
@@ -6997,7 +7029,7 @@
       <c r="O149" s="28"/>
       <c r="P149" s="28"/>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
       <c r="D150" s="28"/>
@@ -7014,7 +7046,7 @@
       <c r="O150" s="28"/>
       <c r="P150" s="28"/>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
       <c r="D151" s="28"/>
@@ -7031,7 +7063,7 @@
       <c r="O151" s="28"/>
       <c r="P151" s="28"/>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B152" s="28"/>
       <c r="C152" s="28"/>
       <c r="D152" s="28"/>
@@ -7048,7 +7080,7 @@
       <c r="O152" s="28"/>
       <c r="P152" s="28"/>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
       <c r="D153" s="28"/>
@@ -7065,7 +7097,7 @@
       <c r="O153" s="28"/>
       <c r="P153" s="28"/>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B154" s="28"/>
       <c r="C154" s="28"/>
       <c r="D154" s="28"/>
@@ -7082,7 +7114,7 @@
       <c r="O154" s="28"/>
       <c r="P154" s="28"/>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B155" s="28"/>
       <c r="C155" s="28"/>
       <c r="D155" s="28"/>
@@ -7099,7 +7131,7 @@
       <c r="O155" s="28"/>
       <c r="P155" s="28"/>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B156" s="28"/>
       <c r="C156" s="28"/>
       <c r="D156" s="28"/>
@@ -7116,7 +7148,7 @@
       <c r="O156" s="28"/>
       <c r="P156" s="28"/>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B157" s="28"/>
       <c r="C157" s="28"/>
       <c r="D157" s="28"/>
@@ -7133,7 +7165,7 @@
       <c r="O157" s="28"/>
       <c r="P157" s="28"/>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
       <c r="D158" s="28"/>
@@ -7150,7 +7182,7 @@
       <c r="O158" s="28"/>
       <c r="P158" s="28"/>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
       <c r="D159" s="28"/>
@@ -7167,7 +7199,7 @@
       <c r="O159" s="28"/>
       <c r="P159" s="28"/>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
       <c r="D160" s="28"/>
@@ -7192,21 +7224,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V68" sqref="V68"/>
+      <selection pane="bottomLeft" activeCell="N76" sqref="N76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5546875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5546875" style="2"/>
+    <col min="1" max="1" width="12.453125" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -7227,7 +7259,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -7248,7 +7280,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -7301,7 +7333,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>43908</v>
       </c>
@@ -7354,7 +7386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>43909</v>
       </c>
@@ -7407,7 +7439,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>43910</v>
       </c>
@@ -7460,7 +7492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>43911</v>
       </c>
@@ -7513,7 +7545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>43912</v>
       </c>
@@ -7566,7 +7598,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>43913</v>
       </c>
@@ -7619,7 +7651,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>43914</v>
       </c>
@@ -7672,7 +7704,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>43915</v>
       </c>
@@ -7725,7 +7757,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>43916</v>
       </c>
@@ -7778,7 +7810,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>43917</v>
       </c>
@@ -7831,7 +7863,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>43918</v>
       </c>
@@ -7884,7 +7916,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>43919</v>
       </c>
@@ -7937,7 +7969,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>43920</v>
       </c>
@@ -7990,7 +8022,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>43921</v>
       </c>
@@ -8043,7 +8075,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>43922</v>
       </c>
@@ -8096,7 +8128,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>43923</v>
       </c>
@@ -8149,7 +8181,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>43924</v>
       </c>
@@ -8202,7 +8234,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>43925</v>
       </c>
@@ -8255,7 +8287,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>43926</v>
       </c>
@@ -8308,7 +8340,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>43927</v>
       </c>
@@ -8361,7 +8393,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>43928</v>
       </c>
@@ -8414,7 +8446,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>43929</v>
       </c>
@@ -8467,7 +8499,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>43930</v>
       </c>
@@ -8520,7 +8552,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>43931</v>
       </c>
@@ -8573,7 +8605,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>43932</v>
       </c>
@@ -8626,7 +8658,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>43933</v>
       </c>
@@ -8679,7 +8711,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>43934</v>
       </c>
@@ -8732,7 +8764,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>43935</v>
       </c>
@@ -8785,7 +8817,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>43936</v>
       </c>
@@ -8838,7 +8870,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>43937</v>
       </c>
@@ -8891,7 +8923,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>43938</v>
       </c>
@@ -8944,7 +8976,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>43939</v>
       </c>
@@ -8997,7 +9029,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="30">
         <v>43940</v>
       </c>
@@ -9050,7 +9082,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="30">
         <v>43941</v>
       </c>
@@ -9103,7 +9135,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="30">
         <v>43942</v>
       </c>
@@ -9156,7 +9188,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="30">
         <v>43943</v>
       </c>
@@ -9209,7 +9241,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="30">
         <v>43944</v>
       </c>
@@ -9262,7 +9294,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="30">
         <v>43945</v>
       </c>
@@ -9315,7 +9347,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="30">
         <v>43946</v>
       </c>
@@ -9368,7 +9400,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="30">
         <v>43947</v>
       </c>
@@ -9421,7 +9453,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="30">
         <v>43948</v>
       </c>
@@ -9474,7 +9506,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="30">
         <v>43949</v>
       </c>
@@ -9527,7 +9559,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="30">
         <v>43950</v>
       </c>
@@ -9580,7 +9612,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="30">
         <v>43951</v>
       </c>
@@ -9633,7 +9665,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="30">
         <v>43952</v>
       </c>
@@ -9686,7 +9718,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="30">
         <v>43953</v>
       </c>
@@ -9739,7 +9771,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="30">
         <v>43954</v>
       </c>
@@ -9792,7 +9824,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="30">
         <v>43955</v>
       </c>
@@ -9845,7 +9877,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="30">
         <v>43956</v>
       </c>
@@ -9898,7 +9930,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="30">
         <v>43957</v>
       </c>
@@ -9951,7 +9983,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="30">
         <v>43958</v>
       </c>
@@ -10004,7 +10036,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="30">
         <v>43959</v>
       </c>
@@ -10057,7 +10089,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="30">
         <v>43960</v>
       </c>
@@ -10110,7 +10142,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="30">
         <v>43961</v>
       </c>
@@ -10163,7 +10195,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="30">
         <v>43962</v>
       </c>
@@ -10216,7 +10248,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="30">
         <v>43963</v>
       </c>
@@ -10269,7 +10301,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="30">
         <v>43964</v>
       </c>
@@ -10322,7 +10354,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="30">
         <v>43965</v>
       </c>
@@ -10375,7 +10407,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="30">
         <v>43966</v>
       </c>
@@ -10428,7 +10460,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="30">
         <v>43967</v>
       </c>
@@ -10481,7 +10513,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="30">
         <v>43968</v>
       </c>
@@ -10534,7 +10566,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="30">
         <v>43969</v>
       </c>
@@ -10587,7 +10619,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="30">
         <v>43970</v>
       </c>
@@ -10640,7 +10672,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="30">
         <v>43971</v>
       </c>
@@ -10693,7 +10725,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="30">
         <v>43972</v>
       </c>
@@ -10746,7 +10778,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="30">
         <v>43973</v>
       </c>
@@ -10799,7 +10831,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="30">
         <v>43974</v>
       </c>
@@ -10852,7 +10884,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="30">
         <v>43975</v>
       </c>
@@ -10905,7 +10937,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="30">
         <v>43976</v>
       </c>
@@ -10958,7 +10990,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="30">
         <v>43977</v>
       </c>
@@ -11011,7 +11043,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" s="30">
         <v>43978</v>
       </c>
@@ -11062,6 +11094,59 @@
       </c>
       <c r="Q74" s="13">
         <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A75" s="30">
+        <v>43979</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H75" s="11">
+        <v>9</v>
+      </c>
+      <c r="I75" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J75" s="11">
+        <v>9</v>
+      </c>
+      <c r="K75" s="11">
+        <v>8</v>
+      </c>
+      <c r="L75" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M75" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N75" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O75" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P75" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q75" s="13">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -11072,23 +11157,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J68" sqref="J68"/>
+      <selection pane="bottomRight" activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5546875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5546875" style="2"/>
+    <col min="1" max="1" width="15.1796875" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -11109,7 +11194,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -11130,7 +11215,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -11183,7 +11268,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -11236,7 +11321,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -11289,7 +11374,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -11342,7 +11427,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -11395,7 +11480,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -11448,7 +11533,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -11501,7 +11586,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -11554,7 +11639,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -11607,7 +11692,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -11660,7 +11745,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -11713,7 +11798,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -11766,7 +11851,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -11819,7 +11904,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -11872,7 +11957,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -11925,7 +12010,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -11978,7 +12063,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -12031,7 +12116,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -12084,7 +12169,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -12137,7 +12222,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -12190,7 +12275,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -12243,7 +12328,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -12296,7 +12381,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -12349,7 +12434,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -12402,7 +12487,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -12455,7 +12540,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -12508,7 +12593,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -12561,7 +12646,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -12614,7 +12699,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -12667,7 +12752,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -12720,7 +12805,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -12773,7 +12858,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -12826,7 +12911,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -12879,7 +12964,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -12932,7 +13017,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -12985,7 +13070,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -13038,7 +13123,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -13091,7 +13176,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -13144,7 +13229,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -13197,7 +13282,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -13250,7 +13335,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -13303,7 +13388,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -13356,7 +13441,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -13409,7 +13494,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -13462,7 +13547,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -13515,7 +13600,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="30">
         <v>43960</v>
       </c>
@@ -13568,7 +13653,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="30">
         <v>43961</v>
       </c>
@@ -13621,7 +13706,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="30">
         <v>43962</v>
       </c>
@@ -13674,7 +13759,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="30">
         <v>43963</v>
       </c>
@@ -13727,7 +13812,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="30">
         <v>43964</v>
       </c>
@@ -13780,7 +13865,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="30">
         <v>43965</v>
       </c>
@@ -13833,7 +13918,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="30">
         <v>43966</v>
       </c>
@@ -13886,7 +13971,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="30">
         <v>43967</v>
       </c>
@@ -13939,7 +14024,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="30">
         <v>43968</v>
       </c>
@@ -13992,7 +14077,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="30">
         <v>43969</v>
       </c>
@@ -14045,7 +14130,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="30">
         <v>43970</v>
       </c>
@@ -14098,7 +14183,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="30">
         <v>43971</v>
       </c>
@@ -14151,7 +14236,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="30">
         <v>43972</v>
       </c>
@@ -14204,7 +14289,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="30">
         <v>43973</v>
       </c>
@@ -14257,7 +14342,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="30">
         <v>43974</v>
       </c>
@@ -14310,7 +14395,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="30">
         <v>43975</v>
       </c>
@@ -14363,7 +14448,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="30">
         <v>43976</v>
       </c>
@@ -14416,7 +14501,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="51">
         <v>43977</v>
       </c>
@@ -14469,7 +14554,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="51">
         <v>43978</v>
       </c>
@@ -14520,6 +14605,59 @@
       </c>
       <c r="Q66" s="13">
         <v>810</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A67" s="51">
+        <v>43979</v>
+      </c>
+      <c r="B67" s="11">
+        <v>16</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="11">
+        <v>68</v>
+      </c>
+      <c r="F67" s="11">
+        <v>10</v>
+      </c>
+      <c r="G67" s="11">
+        <v>65</v>
+      </c>
+      <c r="H67" s="11">
+        <v>369</v>
+      </c>
+      <c r="I67" s="11">
+        <v>9</v>
+      </c>
+      <c r="J67" s="11">
+        <v>76</v>
+      </c>
+      <c r="K67" s="11">
+        <v>167</v>
+      </c>
+      <c r="L67" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M67" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N67" s="11">
+        <v>13</v>
+      </c>
+      <c r="O67" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P67" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q67" s="13">
+        <v>797</v>
       </c>
     </row>
   </sheetData>
@@ -14530,23 +14668,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H64" sqref="H64"/>
+      <selection pane="bottomRight" activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5546875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5546875" style="2"/>
+    <col min="1" max="1" width="12.453125" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -14567,7 +14705,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -14588,7 +14726,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -14641,7 +14779,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -14694,7 +14832,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -14747,7 +14885,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -14800,7 +14938,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -14853,7 +14991,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -14906,7 +15044,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -14959,7 +15097,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -15012,7 +15150,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -15065,7 +15203,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -15118,7 +15256,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -15171,7 +15309,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -15224,7 +15362,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -15277,7 +15415,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -15330,7 +15468,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -15383,7 +15521,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -15436,7 +15574,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -15489,7 +15627,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -15542,7 +15680,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -15595,7 +15733,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -15648,7 +15786,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -15701,7 +15839,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -15754,7 +15892,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -15807,7 +15945,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -15860,7 +15998,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -15913,7 +16051,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -15966,7 +16104,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -16019,7 +16157,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -16072,7 +16210,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -16125,7 +16263,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -16178,7 +16316,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -16231,7 +16369,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -16284,7 +16422,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -16337,7 +16475,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -16390,7 +16528,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -16443,7 +16581,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -16496,7 +16634,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -16549,7 +16687,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -16602,7 +16740,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -16655,7 +16793,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -16708,7 +16846,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -16761,7 +16899,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -16814,7 +16952,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -16867,7 +17005,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -16920,7 +17058,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -16973,7 +17111,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="30">
         <v>43960</v>
       </c>
@@ -17026,7 +17164,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="30">
         <v>43961</v>
       </c>
@@ -17079,7 +17217,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="30">
         <v>43962</v>
       </c>
@@ -17132,7 +17270,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="30">
         <v>43963</v>
       </c>
@@ -17185,7 +17323,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="30">
         <v>43964</v>
       </c>
@@ -17238,7 +17376,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="30">
         <v>43965</v>
       </c>
@@ -17291,7 +17429,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="30">
         <v>43966</v>
       </c>
@@ -17344,7 +17482,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="30">
         <v>43967</v>
       </c>
@@ -17397,7 +17535,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="30">
         <v>43968</v>
       </c>
@@ -17450,7 +17588,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="30">
         <v>43969</v>
       </c>
@@ -17503,7 +17641,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="30">
         <v>43970</v>
       </c>
@@ -17556,7 +17694,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="30">
         <v>43971</v>
       </c>
@@ -17609,7 +17747,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="30">
         <v>43972</v>
       </c>
@@ -17662,7 +17800,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="30">
         <v>43973</v>
       </c>
@@ -17715,7 +17853,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="30">
         <v>43974</v>
       </c>
@@ -17768,7 +17906,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="30">
         <v>43975</v>
       </c>
@@ -17821,7 +17959,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="30">
         <v>43976</v>
       </c>
@@ -17874,7 +18012,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="30">
         <v>43977</v>
       </c>
@@ -17927,7 +18065,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="30">
         <v>43978</v>
       </c>
@@ -17978,6 +18116,59 @@
       </c>
       <c r="Q66" s="13">
         <v>437</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A67" s="52">
+        <v>43979</v>
+      </c>
+      <c r="B67" s="14">
+        <v>34</v>
+      </c>
+      <c r="C67" s="14">
+        <v>16</v>
+      </c>
+      <c r="D67" s="14">
+        <v>14</v>
+      </c>
+      <c r="E67" s="14">
+        <v>14</v>
+      </c>
+      <c r="F67" s="14">
+        <v>42</v>
+      </c>
+      <c r="G67" s="14">
+        <v>22</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I67" s="14">
+        <v>43</v>
+      </c>
+      <c r="J67" s="14">
+        <v>70</v>
+      </c>
+      <c r="K67" s="14">
+        <v>173</v>
+      </c>
+      <c r="L67" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M67" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N67" s="14">
+        <v>12</v>
+      </c>
+      <c r="O67" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P67" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q67" s="31">
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -17985,7 +18176,7 @@
 </worksheet>
 </file>
 
-<file path=customXML/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXML/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://www.objective.com/ecm/document/metadata/53D26341A57B383EE0540010E0463CCA" version="1.0.0">
   <systemFields>
     <field name="Objective-Id">
@@ -18004,13 +18195,13 @@
       <value order="0">false</value>
     </field>
     <field name="Objective-IsPublished">
-      <value order="0">false</value>
+      <value order="0">true</value>
     </field>
     <field name="Objective-DatePublished">
-      <value order="0"/>
+      <value order="0">2020-05-28T12:25:55Z</value>
     </field>
     <field name="Objective-ModificationStamp">
-      <value order="0">2020-05-27T12:22:00Z</value>
+      <value order="0">2020-05-28T12:25:56Z</value>
     </field>
     <field name="Objective-Owner">
       <value order="0">Grant, Neil N (u207826)</value>
@@ -18022,16 +18213,16 @@
       <value order="0">Analytical: COVID 19 Analysis: Restricted working papers: Research and analysis: Diseases: 2020-2025</value>
     </field>
     <field name="Objective-State">
-      <value order="0">Being Drafted</value>
+      <value order="0">Published</value>
     </field>
     <field name="Objective-VersionId">
-      <value order="0">vA41372771</value>
+      <value order="0">vA41400369</value>
     </field>
     <field name="Objective-Version">
-      <value order="0">14.11</value>
+      <value order="0">15.0</value>
     </field>
     <field name="Objective-VersionNumber">
-      <value order="0">126</value>
+      <value order="0">129</value>
     </field>
     <field name="Objective-VersionComment">
       <value order="0"/>
@@ -18068,7 +18259,7 @@
 </metadata>
 </file>
 
-<file path=customXML/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXML/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5745109E-2DDF-40CB-AC2B-FF9B10C90820}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.objective.com/ecm/document/metadata/53D26341A57B383EE0540010E0463CCA"/>

--- a/data/csv/src/data_latest_sct.xlsx
+++ b/data/csv/src/data_latest_sct.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u419207\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA10434\A28088333\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Z616594\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA19704\A28088333\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5990" windowHeight="6020" tabRatio="803" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5985" windowHeight="6015" tabRatio="803" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -389,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -496,7 +496,6 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1592,21 +1591,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="90.453125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.453125" style="2"/>
+    <col min="2" max="2" width="29.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="90.42578125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
@@ -1614,7 +1613,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
@@ -1622,13 +1621,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="23"/>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>26</v>
       </c>
@@ -1636,7 +1635,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>27</v>
       </c>
@@ -1644,7 +1643,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>36</v>
       </c>
@@ -1652,7 +1651,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
         <v>37</v>
       </c>
@@ -1680,12 +1679,12 @@
       <selection activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.453125" style="2"/>
+    <col min="1" max="16384" width="9.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="44" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
     </row>
   </sheetData>
@@ -1700,20 +1699,20 @@
   <dimension ref="A1:S160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="J70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B87" sqref="B87"/>
+      <selection pane="bottomRight" activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
-    <col min="2" max="16" width="11.453125" style="11" customWidth="1"/>
-    <col min="17" max="16384" width="8.54296875" style="2"/>
+    <col min="2" max="16" width="11.42578125" style="11" customWidth="1"/>
+    <col min="17" max="16384" width="8.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1733,7 +1732,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -1752,7 +1751,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1802,7 +1801,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43897</v>
       </c>
@@ -1852,7 +1851,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>43898</v>
       </c>
@@ -1902,7 +1901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>43899</v>
       </c>
@@ -1952,7 +1951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>43900</v>
       </c>
@@ -2002,7 +2001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>43901</v>
       </c>
@@ -2052,7 +2051,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>43902</v>
       </c>
@@ -2102,7 +2101,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>43903</v>
       </c>
@@ -2152,7 +2151,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>43904</v>
       </c>
@@ -2202,7 +2201,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>43905</v>
       </c>
@@ -2252,7 +2251,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>43906</v>
       </c>
@@ -2302,7 +2301,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>43907</v>
       </c>
@@ -2352,7 +2351,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>43908</v>
       </c>
@@ -2402,7 +2401,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>43909</v>
       </c>
@@ -2452,7 +2451,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>43910</v>
       </c>
@@ -2502,7 +2501,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>43911</v>
       </c>
@@ -2552,7 +2551,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>43912</v>
       </c>
@@ -2602,7 +2601,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>43913</v>
       </c>
@@ -2652,7 +2651,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>43914</v>
       </c>
@@ -2702,7 +2701,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>43915</v>
       </c>
@@ -2752,7 +2751,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>43916</v>
       </c>
@@ -2802,7 +2801,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>43917</v>
       </c>
@@ -2852,7 +2851,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>43918</v>
       </c>
@@ -2902,7 +2901,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>43919</v>
       </c>
@@ -2952,7 +2951,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>43920</v>
       </c>
@@ -3002,7 +3001,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>43921</v>
       </c>
@@ -3052,7 +3051,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>43922</v>
       </c>
@@ -3102,7 +3101,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>43923</v>
       </c>
@@ -3152,7 +3151,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>43924</v>
       </c>
@@ -3202,7 +3201,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>43925</v>
       </c>
@@ -3252,7 +3251,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>43926</v>
       </c>
@@ -3302,7 +3301,7 @@
         <v>3706</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>43927</v>
       </c>
@@ -3352,7 +3351,7 @@
         <v>3961</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>43928</v>
       </c>
@@ -3402,7 +3401,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>43929</v>
       </c>
@@ -3452,7 +3451,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>43930</v>
       </c>
@@ -3502,7 +3501,7 @@
         <v>4957</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>43931</v>
       </c>
@@ -3552,7 +3551,7 @@
         <v>5275</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>43932</v>
       </c>
@@ -3602,7 +3601,7 @@
         <v>5590</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>43933</v>
       </c>
@@ -3652,7 +3651,7 @@
         <v>5912</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>43934</v>
       </c>
@@ -3702,7 +3701,7 @@
         <v>6067</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>43935</v>
       </c>
@@ -3752,7 +3751,7 @@
         <v>6358</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>43936</v>
       </c>
@@ -3802,7 +3801,7 @@
         <v>6748</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43937</v>
       </c>
@@ -3852,7 +3851,7 @@
         <v>7102</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>43938</v>
       </c>
@@ -3902,7 +3901,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>43939</v>
       </c>
@@ -3952,7 +3951,7 @@
         <v>7820</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>43940</v>
       </c>
@@ -4002,7 +4001,7 @@
         <v>8187</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>43941</v>
       </c>
@@ -4052,7 +4051,7 @@
         <v>8450</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>43942</v>
       </c>
@@ -4102,7 +4101,7 @@
         <v>8672</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>43943</v>
       </c>
@@ -4152,7 +4151,7 @@
         <v>9038</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>43944</v>
       </c>
@@ -4202,7 +4201,7 @@
         <v>9409</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>43945</v>
       </c>
@@ -4252,7 +4251,7 @@
         <v>9697</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>43946</v>
       </c>
@@ -4302,7 +4301,7 @@
         <v>10051</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>43947</v>
       </c>
@@ -4353,7 +4352,7 @@
       </c>
       <c r="R54" s="38"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>43948</v>
       </c>
@@ -4404,7 +4403,7 @@
       </c>
       <c r="R55" s="38"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>43949</v>
       </c>
@@ -4455,7 +4454,7 @@
       </c>
       <c r="R56" s="39"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>43950</v>
       </c>
@@ -4505,7 +4504,7 @@
         <v>11034</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>43951</v>
       </c>
@@ -4556,7 +4555,7 @@
       </c>
       <c r="R58" s="38"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>43952</v>
       </c>
@@ -4608,7 +4607,7 @@
       <c r="R59" s="38"/>
       <c r="S59" s="38"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>43953</v>
       </c>
@@ -4658,7 +4657,7 @@
         <v>11927</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>43954</v>
       </c>
@@ -4708,7 +4707,7 @@
         <v>12097</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>43955</v>
       </c>
@@ -4758,7 +4757,7 @@
         <v>12266</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>43956</v>
       </c>
@@ -4808,7 +4807,7 @@
         <v>12437</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>43957</v>
       </c>
@@ -4858,7 +4857,7 @@
         <v>12709</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>43958</v>
       </c>
@@ -4908,7 +4907,7 @@
         <v>12924</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>43959</v>
       </c>
@@ -4958,7 +4957,7 @@
         <v>13149</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>43960</v>
       </c>
@@ -5008,7 +5007,7 @@
         <v>13305</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>43961</v>
       </c>
@@ -5058,7 +5057,7 @@
         <v>13486</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>43962</v>
       </c>
@@ -5108,7 +5107,7 @@
         <v>13627</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>43963</v>
       </c>
@@ -5158,7 +5157,7 @@
         <v>13763</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>43964</v>
       </c>
@@ -5208,7 +5207,7 @@
         <v>13929</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>43965</v>
       </c>
@@ -5258,7 +5257,7 @@
         <v>14117</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>43966</v>
       </c>
@@ -5308,7 +5307,7 @@
         <v>14260</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>43967</v>
       </c>
@@ -5358,7 +5357,7 @@
         <v>14447</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>43968</v>
       </c>
@@ -5408,7 +5407,7 @@
         <v>14537</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>43969</v>
       </c>
@@ -5458,7 +5457,7 @@
         <v>14594</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>43970</v>
       </c>
@@ -5508,7 +5507,7 @@
         <v>14655</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>43971</v>
       </c>
@@ -5558,7 +5557,7 @@
         <v>14751</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>43972</v>
       </c>
@@ -5608,7 +5607,7 @@
         <v>14856</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>43973</v>
       </c>
@@ -5658,7 +5657,7 @@
         <v>14969</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>43974</v>
       </c>
@@ -5708,7 +5707,7 @@
         <v>15041</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>43975</v>
       </c>
@@ -5758,7 +5757,7 @@
         <v>15101</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>43976</v>
       </c>
@@ -5808,7 +5807,7 @@
         <v>15156</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>43977</v>
       </c>
@@ -5858,7 +5857,7 @@
         <v>15185</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>43978</v>
       </c>
@@ -5908,7 +5907,7 @@
         <v>15240</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>43979</v>
       </c>
@@ -5958,24 +5957,57 @@
         <v>15288</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
-      <c r="J87" s="28"/>
-      <c r="K87" s="28"/>
-      <c r="L87" s="28"/>
-      <c r="M87" s="28"/>
-      <c r="N87" s="28"/>
-      <c r="O87" s="28"/>
-      <c r="P87" s="28"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
+        <v>43980</v>
+      </c>
+      <c r="B87" s="28">
+        <v>1039</v>
+      </c>
+      <c r="C87" s="28">
+        <v>325</v>
+      </c>
+      <c r="D87" s="28">
+        <v>260</v>
+      </c>
+      <c r="E87" s="28">
+        <v>831</v>
+      </c>
+      <c r="F87" s="28">
+        <v>919</v>
+      </c>
+      <c r="G87" s="28">
+        <v>1269</v>
+      </c>
+      <c r="H87" s="28">
+        <v>3939</v>
+      </c>
+      <c r="I87" s="28">
+        <v>337</v>
+      </c>
+      <c r="J87" s="28">
+        <v>1974</v>
+      </c>
+      <c r="K87" s="28">
+        <v>2698</v>
+      </c>
+      <c r="L87" s="28">
+        <v>8</v>
+      </c>
+      <c r="M87" s="28">
+        <v>54</v>
+      </c>
+      <c r="N87" s="28">
+        <v>1668</v>
+      </c>
+      <c r="O87" s="41">
+        <v>6</v>
+      </c>
+      <c r="P87" s="32">
+        <v>15327</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B88" s="28"/>
       <c r="C88" s="28"/>
       <c r="D88" s="28"/>
@@ -5992,7 +6024,7 @@
       <c r="O88" s="28"/>
       <c r="P88" s="28"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
       <c r="D89" s="28"/>
@@ -6009,7 +6041,7 @@
       <c r="O89" s="28"/>
       <c r="P89" s="28"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B90" s="28"/>
       <c r="C90" s="28"/>
       <c r="D90" s="28"/>
@@ -6026,7 +6058,7 @@
       <c r="O90" s="28"/>
       <c r="P90" s="28"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
       <c r="D91" s="28"/>
@@ -6043,7 +6075,7 @@
       <c r="O91" s="28"/>
       <c r="P91" s="28"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B92" s="28"/>
       <c r="C92" s="28"/>
       <c r="D92" s="28"/>
@@ -6060,7 +6092,7 @@
       <c r="O92" s="28"/>
       <c r="P92" s="28"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
       <c r="D93" s="28"/>
@@ -6077,7 +6109,7 @@
       <c r="O93" s="28"/>
       <c r="P93" s="28"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
       <c r="D94" s="28"/>
@@ -6094,7 +6126,7 @@
       <c r="O94" s="28"/>
       <c r="P94" s="28"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
       <c r="D95" s="28"/>
@@ -6111,7 +6143,7 @@
       <c r="O95" s="28"/>
       <c r="P95" s="28"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
       <c r="D96" s="28"/>
@@ -6128,7 +6160,7 @@
       <c r="O96" s="28"/>
       <c r="P96" s="28"/>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
@@ -6145,7 +6177,7 @@
       <c r="O97" s="28"/>
       <c r="P97" s="28"/>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
       <c r="D98" s="28"/>
@@ -6162,7 +6194,7 @@
       <c r="O98" s="28"/>
       <c r="P98" s="28"/>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
       <c r="D99" s="28"/>
@@ -6179,7 +6211,7 @@
       <c r="O99" s="28"/>
       <c r="P99" s="28"/>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
       <c r="D100" s="28"/>
@@ -6196,7 +6228,7 @@
       <c r="O100" s="28"/>
       <c r="P100" s="28"/>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
       <c r="D101" s="28"/>
@@ -6213,7 +6245,7 @@
       <c r="O101" s="28"/>
       <c r="P101" s="28"/>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B102" s="28"/>
       <c r="C102" s="28"/>
       <c r="D102" s="28"/>
@@ -6230,7 +6262,7 @@
       <c r="O102" s="28"/>
       <c r="P102" s="28"/>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
       <c r="D103" s="28"/>
@@ -6247,7 +6279,7 @@
       <c r="O103" s="28"/>
       <c r="P103" s="28"/>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
       <c r="D104" s="28"/>
@@ -6264,7 +6296,7 @@
       <c r="O104" s="28"/>
       <c r="P104" s="28"/>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B105" s="28"/>
       <c r="C105" s="28"/>
       <c r="D105" s="28"/>
@@ -6281,7 +6313,7 @@
       <c r="O105" s="28"/>
       <c r="P105" s="28"/>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
       <c r="D106" s="28"/>
@@ -6298,7 +6330,7 @@
       <c r="O106" s="28"/>
       <c r="P106" s="28"/>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
       <c r="D107" s="28"/>
@@ -6315,7 +6347,7 @@
       <c r="O107" s="28"/>
       <c r="P107" s="28"/>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B108" s="28"/>
       <c r="C108" s="28"/>
       <c r="D108" s="28"/>
@@ -6332,7 +6364,7 @@
       <c r="O108" s="28"/>
       <c r="P108" s="28"/>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
       <c r="D109" s="28"/>
@@ -6349,7 +6381,7 @@
       <c r="O109" s="28"/>
       <c r="P109" s="28"/>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B110" s="28"/>
       <c r="C110" s="28"/>
       <c r="D110" s="28"/>
@@ -6366,7 +6398,7 @@
       <c r="O110" s="28"/>
       <c r="P110" s="28"/>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B111" s="28"/>
       <c r="C111" s="28"/>
       <c r="D111" s="28"/>
@@ -6383,7 +6415,7 @@
       <c r="O111" s="28"/>
       <c r="P111" s="28"/>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B112" s="28"/>
       <c r="C112" s="28"/>
       <c r="D112" s="28"/>
@@ -6400,7 +6432,7 @@
       <c r="O112" s="28"/>
       <c r="P112" s="28"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B113" s="28"/>
       <c r="C113" s="28"/>
       <c r="D113" s="28"/>
@@ -6417,7 +6449,7 @@
       <c r="O113" s="28"/>
       <c r="P113" s="28"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B114" s="28"/>
       <c r="C114" s="28"/>
       <c r="D114" s="28"/>
@@ -6434,7 +6466,7 @@
       <c r="O114" s="28"/>
       <c r="P114" s="28"/>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B115" s="28"/>
       <c r="C115" s="28"/>
       <c r="D115" s="28"/>
@@ -6451,7 +6483,7 @@
       <c r="O115" s="28"/>
       <c r="P115" s="28"/>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B116" s="28"/>
       <c r="C116" s="28"/>
       <c r="D116" s="28"/>
@@ -6468,7 +6500,7 @@
       <c r="O116" s="28"/>
       <c r="P116" s="28"/>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
       <c r="D117" s="28"/>
@@ -6485,7 +6517,7 @@
       <c r="O117" s="28"/>
       <c r="P117" s="28"/>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
       <c r="D118" s="28"/>
@@ -6502,7 +6534,7 @@
       <c r="O118" s="28"/>
       <c r="P118" s="28"/>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B119" s="28"/>
       <c r="C119" s="28"/>
       <c r="D119" s="28"/>
@@ -6519,7 +6551,7 @@
       <c r="O119" s="28"/>
       <c r="P119" s="28"/>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B120" s="28"/>
       <c r="C120" s="28"/>
       <c r="D120" s="28"/>
@@ -6536,7 +6568,7 @@
       <c r="O120" s="28"/>
       <c r="P120" s="28"/>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
       <c r="D121" s="28"/>
@@ -6553,7 +6585,7 @@
       <c r="O121" s="28"/>
       <c r="P121" s="28"/>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
       <c r="D122" s="28"/>
@@ -6570,7 +6602,7 @@
       <c r="O122" s="28"/>
       <c r="P122" s="28"/>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
       <c r="D123" s="28"/>
@@ -6587,7 +6619,7 @@
       <c r="O123" s="28"/>
       <c r="P123" s="28"/>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
       <c r="D124" s="28"/>
@@ -6604,7 +6636,7 @@
       <c r="O124" s="28"/>
       <c r="P124" s="28"/>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B125" s="28"/>
       <c r="C125" s="28"/>
       <c r="D125" s="28"/>
@@ -6621,7 +6653,7 @@
       <c r="O125" s="28"/>
       <c r="P125" s="28"/>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B126" s="28"/>
       <c r="C126" s="28"/>
       <c r="D126" s="28"/>
@@ -6638,7 +6670,7 @@
       <c r="O126" s="28"/>
       <c r="P126" s="28"/>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B127" s="28"/>
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
@@ -6655,7 +6687,7 @@
       <c r="O127" s="28"/>
       <c r="P127" s="28"/>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
       <c r="D128" s="28"/>
@@ -6672,7 +6704,7 @@
       <c r="O128" s="28"/>
       <c r="P128" s="28"/>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B129" s="28"/>
       <c r="C129" s="28"/>
       <c r="D129" s="28"/>
@@ -6689,7 +6721,7 @@
       <c r="O129" s="28"/>
       <c r="P129" s="28"/>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B130" s="28"/>
       <c r="C130" s="28"/>
       <c r="D130" s="28"/>
@@ -6706,7 +6738,7 @@
       <c r="O130" s="28"/>
       <c r="P130" s="28"/>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
       <c r="D131" s="28"/>
@@ -6723,7 +6755,7 @@
       <c r="O131" s="28"/>
       <c r="P131" s="28"/>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
       <c r="D132" s="28"/>
@@ -6740,7 +6772,7 @@
       <c r="O132" s="28"/>
       <c r="P132" s="28"/>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
       <c r="D133" s="28"/>
@@ -6757,7 +6789,7 @@
       <c r="O133" s="28"/>
       <c r="P133" s="28"/>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B134" s="28"/>
       <c r="C134" s="28"/>
       <c r="D134" s="28"/>
@@ -6774,7 +6806,7 @@
       <c r="O134" s="28"/>
       <c r="P134" s="28"/>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B135" s="28"/>
       <c r="C135" s="28"/>
       <c r="D135" s="28"/>
@@ -6791,7 +6823,7 @@
       <c r="O135" s="28"/>
       <c r="P135" s="28"/>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B136" s="28"/>
       <c r="C136" s="28"/>
       <c r="D136" s="28"/>
@@ -6808,7 +6840,7 @@
       <c r="O136" s="28"/>
       <c r="P136" s="28"/>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
       <c r="D137" s="28"/>
@@ -6825,7 +6857,7 @@
       <c r="O137" s="28"/>
       <c r="P137" s="28"/>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B138" s="28"/>
       <c r="C138" s="28"/>
       <c r="D138" s="28"/>
@@ -6842,7 +6874,7 @@
       <c r="O138" s="28"/>
       <c r="P138" s="28"/>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B139" s="28"/>
       <c r="C139" s="28"/>
       <c r="D139" s="28"/>
@@ -6859,7 +6891,7 @@
       <c r="O139" s="28"/>
       <c r="P139" s="28"/>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B140" s="28"/>
       <c r="C140" s="28"/>
       <c r="D140" s="28"/>
@@ -6876,7 +6908,7 @@
       <c r="O140" s="28"/>
       <c r="P140" s="28"/>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B141" s="28"/>
       <c r="C141" s="28"/>
       <c r="D141" s="28"/>
@@ -6893,7 +6925,7 @@
       <c r="O141" s="28"/>
       <c r="P141" s="28"/>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B142" s="28"/>
       <c r="C142" s="28"/>
       <c r="D142" s="28"/>
@@ -6910,7 +6942,7 @@
       <c r="O142" s="28"/>
       <c r="P142" s="28"/>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B143" s="28"/>
       <c r="C143" s="28"/>
       <c r="D143" s="28"/>
@@ -6927,7 +6959,7 @@
       <c r="O143" s="28"/>
       <c r="P143" s="28"/>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B144" s="28"/>
       <c r="C144" s="28"/>
       <c r="D144" s="28"/>
@@ -6944,7 +6976,7 @@
       <c r="O144" s="28"/>
       <c r="P144" s="28"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
       <c r="D145" s="28"/>
@@ -6961,7 +6993,7 @@
       <c r="O145" s="28"/>
       <c r="P145" s="28"/>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B146" s="28"/>
       <c r="C146" s="28"/>
       <c r="D146" s="28"/>
@@ -6978,7 +7010,7 @@
       <c r="O146" s="28"/>
       <c r="P146" s="28"/>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B147" s="28"/>
       <c r="C147" s="28"/>
       <c r="D147" s="28"/>
@@ -6995,7 +7027,7 @@
       <c r="O147" s="28"/>
       <c r="P147" s="28"/>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B148" s="28"/>
       <c r="C148" s="28"/>
       <c r="D148" s="28"/>
@@ -7012,7 +7044,7 @@
       <c r="O148" s="28"/>
       <c r="P148" s="28"/>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
       <c r="D149" s="28"/>
@@ -7029,7 +7061,7 @@
       <c r="O149" s="28"/>
       <c r="P149" s="28"/>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
       <c r="D150" s="28"/>
@@ -7046,7 +7078,7 @@
       <c r="O150" s="28"/>
       <c r="P150" s="28"/>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
       <c r="D151" s="28"/>
@@ -7063,7 +7095,7 @@
       <c r="O151" s="28"/>
       <c r="P151" s="28"/>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B152" s="28"/>
       <c r="C152" s="28"/>
       <c r="D152" s="28"/>
@@ -7080,7 +7112,7 @@
       <c r="O152" s="28"/>
       <c r="P152" s="28"/>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
       <c r="D153" s="28"/>
@@ -7097,7 +7129,7 @@
       <c r="O153" s="28"/>
       <c r="P153" s="28"/>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B154" s="28"/>
       <c r="C154" s="28"/>
       <c r="D154" s="28"/>
@@ -7114,7 +7146,7 @@
       <c r="O154" s="28"/>
       <c r="P154" s="28"/>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B155" s="28"/>
       <c r="C155" s="28"/>
       <c r="D155" s="28"/>
@@ -7131,7 +7163,7 @@
       <c r="O155" s="28"/>
       <c r="P155" s="28"/>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B156" s="28"/>
       <c r="C156" s="28"/>
       <c r="D156" s="28"/>
@@ -7148,7 +7180,7 @@
       <c r="O156" s="28"/>
       <c r="P156" s="28"/>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B157" s="28"/>
       <c r="C157" s="28"/>
       <c r="D157" s="28"/>
@@ -7165,7 +7197,7 @@
       <c r="O157" s="28"/>
       <c r="P157" s="28"/>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
       <c r="D158" s="28"/>
@@ -7182,7 +7214,7 @@
       <c r="O158" s="28"/>
       <c r="P158" s="28"/>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
       <c r="D159" s="28"/>
@@ -7199,7 +7231,7 @@
       <c r="O159" s="28"/>
       <c r="P159" s="28"/>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
       <c r="D160" s="28"/>
@@ -7224,21 +7256,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N76" sqref="N76"/>
+      <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.54296875" style="2"/>
+    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -7259,7 +7291,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -7280,7 +7312,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -7333,7 +7365,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43908</v>
       </c>
@@ -7386,7 +7418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43909</v>
       </c>
@@ -7439,7 +7471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>43910</v>
       </c>
@@ -7492,7 +7524,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>43911</v>
       </c>
@@ -7545,7 +7577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>43912</v>
       </c>
@@ -7598,7 +7630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>43913</v>
       </c>
@@ -7651,7 +7683,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>43914</v>
       </c>
@@ -7704,7 +7736,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>43915</v>
       </c>
@@ -7757,7 +7789,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>43916</v>
       </c>
@@ -7810,7 +7842,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>43917</v>
       </c>
@@ -7863,7 +7895,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>43918</v>
       </c>
@@ -7916,7 +7948,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>43919</v>
       </c>
@@ -7969,7 +8001,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>43920</v>
       </c>
@@ -8022,7 +8054,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>43921</v>
       </c>
@@ -8075,7 +8107,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>43922</v>
       </c>
@@ -8128,7 +8160,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>43923</v>
       </c>
@@ -8181,7 +8213,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>43924</v>
       </c>
@@ -8234,7 +8266,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>43925</v>
       </c>
@@ -8287,7 +8319,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>43926</v>
       </c>
@@ -8340,7 +8372,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>43927</v>
       </c>
@@ -8393,7 +8425,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>43928</v>
       </c>
@@ -8446,7 +8478,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>43929</v>
       </c>
@@ -8499,7 +8531,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>43930</v>
       </c>
@@ -8552,7 +8584,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>43931</v>
       </c>
@@ -8605,7 +8637,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>43932</v>
       </c>
@@ -8658,7 +8690,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>43933</v>
       </c>
@@ -8711,7 +8743,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>43934</v>
       </c>
@@ -8764,7 +8796,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>43935</v>
       </c>
@@ -8817,7 +8849,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>43936</v>
       </c>
@@ -8870,7 +8902,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>43937</v>
       </c>
@@ -8923,7 +8955,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>43938</v>
       </c>
@@ -8976,7 +9008,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>43939</v>
       </c>
@@ -9029,7 +9061,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>43940</v>
       </c>
@@ -9082,7 +9114,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>43941</v>
       </c>
@@ -9135,7 +9167,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>43942</v>
       </c>
@@ -9188,7 +9220,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>43943</v>
       </c>
@@ -9241,7 +9273,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>43944</v>
       </c>
@@ -9294,7 +9326,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>43945</v>
       </c>
@@ -9347,7 +9379,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>43946</v>
       </c>
@@ -9400,7 +9432,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
         <v>43947</v>
       </c>
@@ -9453,7 +9485,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>43948</v>
       </c>
@@ -9506,7 +9538,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
         <v>43949</v>
       </c>
@@ -9559,7 +9591,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="30">
         <v>43950</v>
       </c>
@@ -9612,7 +9644,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
         <v>43951</v>
       </c>
@@ -9665,7 +9697,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="30">
         <v>43952</v>
       </c>
@@ -9718,7 +9750,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="30">
         <v>43953</v>
       </c>
@@ -9771,7 +9803,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>43954</v>
       </c>
@@ -9824,7 +9856,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="30">
         <v>43955</v>
       </c>
@@ -9877,7 +9909,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="30">
         <v>43956</v>
       </c>
@@ -9930,7 +9962,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="30">
         <v>43957</v>
       </c>
@@ -9983,7 +10015,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="30">
         <v>43958</v>
       </c>
@@ -10036,7 +10068,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="30">
         <v>43959</v>
       </c>
@@ -10089,7 +10121,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="30">
         <v>43960</v>
       </c>
@@ -10142,7 +10174,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="30">
         <v>43961</v>
       </c>
@@ -10195,7 +10227,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="30">
         <v>43962</v>
       </c>
@@ -10248,7 +10280,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="30">
         <v>43963</v>
       </c>
@@ -10301,7 +10333,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="30">
         <v>43964</v>
       </c>
@@ -10354,7 +10386,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="30">
         <v>43965</v>
       </c>
@@ -10407,7 +10439,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="30">
         <v>43966</v>
       </c>
@@ -10460,7 +10492,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="30">
         <v>43967</v>
       </c>
@@ -10513,7 +10545,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="30">
         <v>43968</v>
       </c>
@@ -10566,7 +10598,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="30">
         <v>43969</v>
       </c>
@@ -10619,7 +10651,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="30">
         <v>43970</v>
       </c>
@@ -10672,7 +10704,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="30">
         <v>43971</v>
       </c>
@@ -10725,7 +10757,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="30">
         <v>43972</v>
       </c>
@@ -10778,7 +10810,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="30">
         <v>43973</v>
       </c>
@@ -10831,7 +10863,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="30">
         <v>43974</v>
       </c>
@@ -10884,7 +10916,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="30">
         <v>43975</v>
       </c>
@@ -10937,7 +10969,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="30">
         <v>43976</v>
       </c>
@@ -10990,7 +11022,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="30">
         <v>43977</v>
       </c>
@@ -11043,7 +11075,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="30">
         <v>43978</v>
       </c>
@@ -11096,7 +11128,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="30">
         <v>43979</v>
       </c>
@@ -11147,6 +11179,59 @@
       </c>
       <c r="Q75" s="13">
         <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="30">
+        <v>43980</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76" s="11">
+        <v>5</v>
+      </c>
+      <c r="H76" s="50">
+        <v>9</v>
+      </c>
+      <c r="I76" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J76" s="11">
+        <v>8</v>
+      </c>
+      <c r="K76" s="50">
+        <v>9</v>
+      </c>
+      <c r="L76" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M76" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N76" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O76" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P76" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q76" s="13">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -11157,23 +11242,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G78" sqref="G78"/>
+      <selection pane="bottomRight" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.54296875" style="2"/>
+    <col min="1" max="1" width="15.140625" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -11194,7 +11279,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -11215,7 +11300,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -11268,7 +11353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -11321,7 +11406,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -11374,7 +11459,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -11427,7 +11512,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -11480,7 +11565,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -11533,7 +11618,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -11586,7 +11671,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -11639,7 +11724,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -11692,7 +11777,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -11745,7 +11830,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -11798,7 +11883,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -11851,7 +11936,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -11904,7 +11989,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -11957,7 +12042,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -12010,7 +12095,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -12063,7 +12148,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -12116,7 +12201,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -12169,7 +12254,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -12222,7 +12307,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -12275,7 +12360,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -12328,7 +12413,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -12381,7 +12466,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -12434,7 +12519,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -12487,7 +12572,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -12540,7 +12625,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -12593,7 +12678,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -12646,7 +12731,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -12699,7 +12784,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -12752,7 +12837,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -12805,7 +12890,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -12858,7 +12943,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -12911,7 +12996,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -12964,7 +13049,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -13017,7 +13102,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -13070,7 +13155,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -13123,7 +13208,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -13176,7 +13261,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -13229,7 +13314,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -13282,7 +13367,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -13335,7 +13420,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -13388,7 +13473,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -13441,7 +13526,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -13494,7 +13579,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -13547,7 +13632,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -13600,7 +13685,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="30">
         <v>43960</v>
       </c>
@@ -13653,7 +13738,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="30">
         <v>43961</v>
       </c>
@@ -13706,7 +13791,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>43962</v>
       </c>
@@ -13759,7 +13844,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="30">
         <v>43963</v>
       </c>
@@ -13812,7 +13897,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="30">
         <v>43964</v>
       </c>
@@ -13865,7 +13950,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="30">
         <v>43965</v>
       </c>
@@ -13918,7 +14003,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="30">
         <v>43966</v>
       </c>
@@ -13971,7 +14056,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="30">
         <v>43967</v>
       </c>
@@ -14024,7 +14109,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="30">
         <v>43968</v>
       </c>
@@ -14077,7 +14162,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="30">
         <v>43969</v>
       </c>
@@ -14130,7 +14215,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="30">
         <v>43970</v>
       </c>
@@ -14183,7 +14268,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="30">
         <v>43971</v>
       </c>
@@ -14236,7 +14321,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="30">
         <v>43972</v>
       </c>
@@ -14289,7 +14374,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="30">
         <v>43973</v>
       </c>
@@ -14342,7 +14427,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="30">
         <v>43974</v>
       </c>
@@ -14395,7 +14480,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="30">
         <v>43975</v>
       </c>
@@ -14448,7 +14533,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="30">
         <v>43976</v>
       </c>
@@ -14501,7 +14586,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="51">
         <v>43977</v>
       </c>
@@ -14554,7 +14639,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="51">
         <v>43978</v>
       </c>
@@ -14607,7 +14692,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="51">
         <v>43979</v>
       </c>
@@ -14658,6 +14743,59 @@
       </c>
       <c r="Q67" s="13">
         <v>797</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="51">
+        <v>43980</v>
+      </c>
+      <c r="B68" s="11">
+        <v>13</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="11">
+        <v>65</v>
+      </c>
+      <c r="F68" s="11">
+        <v>10</v>
+      </c>
+      <c r="G68" s="11">
+        <v>65</v>
+      </c>
+      <c r="H68" s="11">
+        <v>354</v>
+      </c>
+      <c r="I68" s="11">
+        <v>11</v>
+      </c>
+      <c r="J68" s="11">
+        <v>77</v>
+      </c>
+      <c r="K68" s="11">
+        <v>160</v>
+      </c>
+      <c r="L68" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M68" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N68" s="11">
+        <v>10</v>
+      </c>
+      <c r="O68" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P68" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q68" s="13">
+        <v>769</v>
       </c>
     </row>
   </sheetData>
@@ -14668,23 +14806,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G75" sqref="G75"/>
+      <selection pane="bottomRight" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.54296875" style="2"/>
+    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -14705,7 +14843,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -14726,7 +14864,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -14779,7 +14917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -14832,7 +14970,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -14885,7 +15023,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -14938,7 +15076,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -14991,7 +15129,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -15044,7 +15182,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -15097,7 +15235,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -15150,7 +15288,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -15203,7 +15341,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -15256,7 +15394,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -15309,7 +15447,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -15362,7 +15500,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -15415,7 +15553,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -15468,7 +15606,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -15521,7 +15659,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -15574,7 +15712,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -15627,7 +15765,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -15680,7 +15818,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -15733,7 +15871,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -15786,7 +15924,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -15839,7 +15977,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -15892,7 +16030,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -15945,7 +16083,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -15998,7 +16136,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -16051,7 +16189,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -16104,7 +16242,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -16157,7 +16295,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -16210,7 +16348,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -16263,7 +16401,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -16316,7 +16454,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -16369,7 +16507,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -16422,7 +16560,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -16475,7 +16613,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -16528,7 +16666,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -16581,7 +16719,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -16634,7 +16772,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -16687,7 +16825,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -16740,7 +16878,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -16793,7 +16931,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -16846,7 +16984,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -16899,7 +17037,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -16952,7 +17090,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -17005,7 +17143,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -17058,7 +17196,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -17111,7 +17249,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="30">
         <v>43960</v>
       </c>
@@ -17164,7 +17302,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="30">
         <v>43961</v>
       </c>
@@ -17217,7 +17355,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>43962</v>
       </c>
@@ -17270,7 +17408,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="30">
         <v>43963</v>
       </c>
@@ -17323,7 +17461,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="30">
         <v>43964</v>
       </c>
@@ -17376,7 +17514,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="30">
         <v>43965</v>
       </c>
@@ -17429,7 +17567,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="30">
         <v>43966</v>
       </c>
@@ -17482,7 +17620,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="30">
         <v>43967</v>
       </c>
@@ -17535,7 +17673,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="30">
         <v>43968</v>
       </c>
@@ -17588,7 +17726,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="30">
         <v>43969</v>
       </c>
@@ -17641,7 +17779,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="30">
         <v>43970</v>
       </c>
@@ -17694,7 +17832,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="30">
         <v>43971</v>
       </c>
@@ -17747,7 +17885,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="30">
         <v>43972</v>
       </c>
@@ -17800,7 +17938,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="30">
         <v>43973</v>
       </c>
@@ -17853,7 +17991,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="30">
         <v>43974</v>
       </c>
@@ -17906,7 +18044,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="30">
         <v>43975</v>
       </c>
@@ -17959,7 +18097,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="30">
         <v>43976</v>
       </c>
@@ -18012,7 +18150,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="30">
         <v>43977</v>
       </c>
@@ -18065,7 +18203,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="30">
         <v>43978</v>
       </c>
@@ -18118,8 +18256,8 @@
         <v>437</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A67" s="52">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="30">
         <v>43979</v>
       </c>
       <c r="B67" s="14">
@@ -18169,6 +18307,59 @@
       </c>
       <c r="Q67" s="31">
         <v>441</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="30">
+        <v>43980</v>
+      </c>
+      <c r="B68" s="14">
+        <v>33</v>
+      </c>
+      <c r="C68" s="14">
+        <v>11</v>
+      </c>
+      <c r="D68" s="14">
+        <v>18</v>
+      </c>
+      <c r="E68" s="14">
+        <v>29</v>
+      </c>
+      <c r="F68" s="14">
+        <v>41</v>
+      </c>
+      <c r="G68" s="14">
+        <v>22</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I68" s="14">
+        <v>34</v>
+      </c>
+      <c r="J68" s="14">
+        <v>66</v>
+      </c>
+      <c r="K68" s="14">
+        <v>183</v>
+      </c>
+      <c r="L68" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M68" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N68" s="14">
+        <v>10</v>
+      </c>
+      <c r="O68" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P68" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q68" s="13">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -18198,10 +18389,10 @@
       <value order="0">true</value>
     </field>
     <field name="Objective-DatePublished">
-      <value order="0">2020-05-28T12:25:55Z</value>
+      <value order="0">2020-05-29T12:20:20Z</value>
     </field>
     <field name="Objective-ModificationStamp">
-      <value order="0">2020-05-28T12:25:56Z</value>
+      <value order="0">2020-05-29T12:20:20Z</value>
     </field>
     <field name="Objective-Owner">
       <value order="0">Grant, Neil N (u207826)</value>
@@ -18216,13 +18407,13 @@
       <value order="0">Published</value>
     </field>
     <field name="Objective-VersionId">
-      <value order="0">vA41400369</value>
+      <value order="0">vA41423195</value>
     </field>
     <field name="Objective-Version">
-      <value order="0">15.0</value>
+      <value order="0">16.0</value>
     </field>
     <field name="Objective-VersionNumber">
-      <value order="0">129</value>
+      <value order="0">132</value>
     </field>
     <field name="Objective-VersionComment">
       <value order="0"/>

--- a/data/csv/src/data_latest_sct.xlsx
+++ b/data/csv/src/data_latest_sct.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Z616594\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA19704\A28088333\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u207826\Objective\Objects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5985" windowHeight="6015" tabRatio="803" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5990" windowHeight="6020" tabRatio="803"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -1589,23 +1589,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="90.42578125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.42578125" style="2"/>
+    <col min="2" max="2" width="29.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="90.453125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
@@ -1621,13 +1621,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="23"/>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
         <v>26</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="24" t="s">
         <v>27</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="24" t="s">
         <v>36</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="20" t="s">
         <v>37</v>
       </c>
@@ -1679,12 +1679,12 @@
       <selection activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9.42578125" style="2"/>
+    <col min="1" max="16384" width="9.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="43"/>
     </row>
   </sheetData>
@@ -1698,21 +1698,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B70" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="I79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A87" sqref="A87"/>
+      <selection pane="bottomRight" activeCell="P88" sqref="P88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
-    <col min="2" max="16" width="11.42578125" style="11" customWidth="1"/>
-    <col min="17" max="16384" width="8.5703125" style="2"/>
+    <col min="2" max="16" width="11.453125" style="11" customWidth="1"/>
+    <col min="17" max="16384" width="8.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1732,7 +1732,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -1751,7 +1751,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>43897</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>43898</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>43899</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>43900</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>43901</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>43902</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>43903</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>43904</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>43905</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>43906</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>43907</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>43908</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>43909</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>43910</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>43911</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>43912</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>43913</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>43914</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>43915</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>43916</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>43917</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>43918</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>43919</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>43920</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>43921</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>43922</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>43923</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>43924</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>43925</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>43926</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>3706</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>43927</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>3961</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>43928</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>43929</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>43930</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>4957</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>43931</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>5275</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>43932</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>5590</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>43933</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>5912</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>43934</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>6067</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>43935</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>6358</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>43936</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>6748</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>43937</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>7102</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>43938</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>43939</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>7820</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>43940</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>8187</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>43941</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>8450</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>43942</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>8672</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>43943</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>9038</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>43944</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>9409</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>43945</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>9697</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>43946</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>10051</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>43947</v>
       </c>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="R54" s="38"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>43948</v>
       </c>
@@ -4403,7 +4403,7 @@
       </c>
       <c r="R55" s="38"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>43949</v>
       </c>
@@ -4454,7 +4454,7 @@
       </c>
       <c r="R56" s="39"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>43950</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>11034</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>43951</v>
       </c>
@@ -4555,7 +4555,7 @@
       </c>
       <c r="R58" s="38"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>43952</v>
       </c>
@@ -4607,7 +4607,7 @@
       <c r="R59" s="38"/>
       <c r="S59" s="38"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>43953</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>11927</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>43954</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>12097</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>43955</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>12266</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>43956</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>12437</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>43957</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>12709</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>43958</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>12924</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>43959</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>13149</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>43960</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>13305</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>43961</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>13486</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>43962</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>13627</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>43963</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>13763</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>43964</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>13929</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>43965</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>14117</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>43966</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>14260</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>43967</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>14447</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>43968</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>14537</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>43969</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>14594</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>43970</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>14655</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>43971</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>14751</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>43972</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>14856</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>43973</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>14969</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>43974</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>15041</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>43975</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>15101</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>43976</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>15156</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>43977</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>15185</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>43978</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>15240</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>43979</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>15288</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>43980</v>
       </c>
@@ -6007,24 +6007,57 @@
         <v>15327</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
-      <c r="J88" s="28"/>
-      <c r="K88" s="28"/>
-      <c r="L88" s="28"/>
-      <c r="M88" s="28"/>
-      <c r="N88" s="28"/>
-      <c r="O88" s="28"/>
-      <c r="P88" s="28"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A88" s="5">
+        <v>43981</v>
+      </c>
+      <c r="B88" s="28">
+        <v>1058</v>
+      </c>
+      <c r="C88" s="28">
+        <v>325</v>
+      </c>
+      <c r="D88" s="28">
+        <v>260</v>
+      </c>
+      <c r="E88" s="28">
+        <v>834</v>
+      </c>
+      <c r="F88" s="28">
+        <v>924</v>
+      </c>
+      <c r="G88" s="28">
+        <v>1273</v>
+      </c>
+      <c r="H88" s="28">
+        <v>3943</v>
+      </c>
+      <c r="I88" s="28">
+        <v>337</v>
+      </c>
+      <c r="J88" s="28">
+        <v>1984</v>
+      </c>
+      <c r="K88" s="28">
+        <v>2706</v>
+      </c>
+      <c r="L88" s="28">
+        <v>8</v>
+      </c>
+      <c r="M88" s="28">
+        <v>54</v>
+      </c>
+      <c r="N88" s="28">
+        <v>1670</v>
+      </c>
+      <c r="O88" s="28">
+        <v>6</v>
+      </c>
+      <c r="P88" s="32">
+        <v>15382</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
       <c r="D89" s="28"/>
@@ -6041,7 +6074,7 @@
       <c r="O89" s="28"/>
       <c r="P89" s="28"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B90" s="28"/>
       <c r="C90" s="28"/>
       <c r="D90" s="28"/>
@@ -6058,7 +6091,7 @@
       <c r="O90" s="28"/>
       <c r="P90" s="28"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
       <c r="D91" s="28"/>
@@ -6075,7 +6108,7 @@
       <c r="O91" s="28"/>
       <c r="P91" s="28"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B92" s="28"/>
       <c r="C92" s="28"/>
       <c r="D92" s="28"/>
@@ -6092,7 +6125,7 @@
       <c r="O92" s="28"/>
       <c r="P92" s="28"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
       <c r="D93" s="28"/>
@@ -6109,7 +6142,7 @@
       <c r="O93" s="28"/>
       <c r="P93" s="28"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
       <c r="D94" s="28"/>
@@ -6126,7 +6159,7 @@
       <c r="O94" s="28"/>
       <c r="P94" s="28"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
       <c r="D95" s="28"/>
@@ -6143,7 +6176,7 @@
       <c r="O95" s="28"/>
       <c r="P95" s="28"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
       <c r="D96" s="28"/>
@@ -6160,7 +6193,7 @@
       <c r="O96" s="28"/>
       <c r="P96" s="28"/>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
@@ -6177,7 +6210,7 @@
       <c r="O97" s="28"/>
       <c r="P97" s="28"/>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
       <c r="D98" s="28"/>
@@ -6194,7 +6227,7 @@
       <c r="O98" s="28"/>
       <c r="P98" s="28"/>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
       <c r="D99" s="28"/>
@@ -6211,7 +6244,7 @@
       <c r="O99" s="28"/>
       <c r="P99" s="28"/>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
       <c r="D100" s="28"/>
@@ -6228,7 +6261,7 @@
       <c r="O100" s="28"/>
       <c r="P100" s="28"/>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
       <c r="D101" s="28"/>
@@ -6245,7 +6278,7 @@
       <c r="O101" s="28"/>
       <c r="P101" s="28"/>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B102" s="28"/>
       <c r="C102" s="28"/>
       <c r="D102" s="28"/>
@@ -6262,7 +6295,7 @@
       <c r="O102" s="28"/>
       <c r="P102" s="28"/>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
       <c r="D103" s="28"/>
@@ -6279,7 +6312,7 @@
       <c r="O103" s="28"/>
       <c r="P103" s="28"/>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
       <c r="D104" s="28"/>
@@ -6296,7 +6329,7 @@
       <c r="O104" s="28"/>
       <c r="P104" s="28"/>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B105" s="28"/>
       <c r="C105" s="28"/>
       <c r="D105" s="28"/>
@@ -6313,7 +6346,7 @@
       <c r="O105" s="28"/>
       <c r="P105" s="28"/>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
       <c r="D106" s="28"/>
@@ -6330,7 +6363,7 @@
       <c r="O106" s="28"/>
       <c r="P106" s="28"/>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
       <c r="D107" s="28"/>
@@ -6347,7 +6380,7 @@
       <c r="O107" s="28"/>
       <c r="P107" s="28"/>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B108" s="28"/>
       <c r="C108" s="28"/>
       <c r="D108" s="28"/>
@@ -6364,7 +6397,7 @@
       <c r="O108" s="28"/>
       <c r="P108" s="28"/>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
       <c r="D109" s="28"/>
@@ -6381,7 +6414,7 @@
       <c r="O109" s="28"/>
       <c r="P109" s="28"/>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B110" s="28"/>
       <c r="C110" s="28"/>
       <c r="D110" s="28"/>
@@ -6398,7 +6431,7 @@
       <c r="O110" s="28"/>
       <c r="P110" s="28"/>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B111" s="28"/>
       <c r="C111" s="28"/>
       <c r="D111" s="28"/>
@@ -6415,7 +6448,7 @@
       <c r="O111" s="28"/>
       <c r="P111" s="28"/>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B112" s="28"/>
       <c r="C112" s="28"/>
       <c r="D112" s="28"/>
@@ -6432,7 +6465,7 @@
       <c r="O112" s="28"/>
       <c r="P112" s="28"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B113" s="28"/>
       <c r="C113" s="28"/>
       <c r="D113" s="28"/>
@@ -6449,7 +6482,7 @@
       <c r="O113" s="28"/>
       <c r="P113" s="28"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B114" s="28"/>
       <c r="C114" s="28"/>
       <c r="D114" s="28"/>
@@ -6466,7 +6499,7 @@
       <c r="O114" s="28"/>
       <c r="P114" s="28"/>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B115" s="28"/>
       <c r="C115" s="28"/>
       <c r="D115" s="28"/>
@@ -6483,7 +6516,7 @@
       <c r="O115" s="28"/>
       <c r="P115" s="28"/>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B116" s="28"/>
       <c r="C116" s="28"/>
       <c r="D116" s="28"/>
@@ -6500,7 +6533,7 @@
       <c r="O116" s="28"/>
       <c r="P116" s="28"/>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
       <c r="D117" s="28"/>
@@ -6517,7 +6550,7 @@
       <c r="O117" s="28"/>
       <c r="P117" s="28"/>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
       <c r="D118" s="28"/>
@@ -6534,7 +6567,7 @@
       <c r="O118" s="28"/>
       <c r="P118" s="28"/>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B119" s="28"/>
       <c r="C119" s="28"/>
       <c r="D119" s="28"/>
@@ -6551,7 +6584,7 @@
       <c r="O119" s="28"/>
       <c r="P119" s="28"/>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B120" s="28"/>
       <c r="C120" s="28"/>
       <c r="D120" s="28"/>
@@ -6568,7 +6601,7 @@
       <c r="O120" s="28"/>
       <c r="P120" s="28"/>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
       <c r="D121" s="28"/>
@@ -6585,7 +6618,7 @@
       <c r="O121" s="28"/>
       <c r="P121" s="28"/>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
       <c r="D122" s="28"/>
@@ -6602,7 +6635,7 @@
       <c r="O122" s="28"/>
       <c r="P122" s="28"/>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
       <c r="D123" s="28"/>
@@ -6619,7 +6652,7 @@
       <c r="O123" s="28"/>
       <c r="P123" s="28"/>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
       <c r="D124" s="28"/>
@@ -6636,7 +6669,7 @@
       <c r="O124" s="28"/>
       <c r="P124" s="28"/>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B125" s="28"/>
       <c r="C125" s="28"/>
       <c r="D125" s="28"/>
@@ -6653,7 +6686,7 @@
       <c r="O125" s="28"/>
       <c r="P125" s="28"/>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B126" s="28"/>
       <c r="C126" s="28"/>
       <c r="D126" s="28"/>
@@ -6670,7 +6703,7 @@
       <c r="O126" s="28"/>
       <c r="P126" s="28"/>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B127" s="28"/>
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
@@ -6687,7 +6720,7 @@
       <c r="O127" s="28"/>
       <c r="P127" s="28"/>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
       <c r="D128" s="28"/>
@@ -6704,7 +6737,7 @@
       <c r="O128" s="28"/>
       <c r="P128" s="28"/>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B129" s="28"/>
       <c r="C129" s="28"/>
       <c r="D129" s="28"/>
@@ -6721,7 +6754,7 @@
       <c r="O129" s="28"/>
       <c r="P129" s="28"/>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B130" s="28"/>
       <c r="C130" s="28"/>
       <c r="D130" s="28"/>
@@ -6738,7 +6771,7 @@
       <c r="O130" s="28"/>
       <c r="P130" s="28"/>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
       <c r="D131" s="28"/>
@@ -6755,7 +6788,7 @@
       <c r="O131" s="28"/>
       <c r="P131" s="28"/>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
       <c r="D132" s="28"/>
@@ -6772,7 +6805,7 @@
       <c r="O132" s="28"/>
       <c r="P132" s="28"/>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
       <c r="D133" s="28"/>
@@ -6789,7 +6822,7 @@
       <c r="O133" s="28"/>
       <c r="P133" s="28"/>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B134" s="28"/>
       <c r="C134" s="28"/>
       <c r="D134" s="28"/>
@@ -6806,7 +6839,7 @@
       <c r="O134" s="28"/>
       <c r="P134" s="28"/>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B135" s="28"/>
       <c r="C135" s="28"/>
       <c r="D135" s="28"/>
@@ -6823,7 +6856,7 @@
       <c r="O135" s="28"/>
       <c r="P135" s="28"/>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B136" s="28"/>
       <c r="C136" s="28"/>
       <c r="D136" s="28"/>
@@ -6840,7 +6873,7 @@
       <c r="O136" s="28"/>
       <c r="P136" s="28"/>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
       <c r="D137" s="28"/>
@@ -6857,7 +6890,7 @@
       <c r="O137" s="28"/>
       <c r="P137" s="28"/>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B138" s="28"/>
       <c r="C138" s="28"/>
       <c r="D138" s="28"/>
@@ -6874,7 +6907,7 @@
       <c r="O138" s="28"/>
       <c r="P138" s="28"/>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B139" s="28"/>
       <c r="C139" s="28"/>
       <c r="D139" s="28"/>
@@ -6891,7 +6924,7 @@
       <c r="O139" s="28"/>
       <c r="P139" s="28"/>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B140" s="28"/>
       <c r="C140" s="28"/>
       <c r="D140" s="28"/>
@@ -6908,7 +6941,7 @@
       <c r="O140" s="28"/>
       <c r="P140" s="28"/>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B141" s="28"/>
       <c r="C141" s="28"/>
       <c r="D141" s="28"/>
@@ -6925,7 +6958,7 @@
       <c r="O141" s="28"/>
       <c r="P141" s="28"/>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B142" s="28"/>
       <c r="C142" s="28"/>
       <c r="D142" s="28"/>
@@ -6942,7 +6975,7 @@
       <c r="O142" s="28"/>
       <c r="P142" s="28"/>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B143" s="28"/>
       <c r="C143" s="28"/>
       <c r="D143" s="28"/>
@@ -6959,7 +6992,7 @@
       <c r="O143" s="28"/>
       <c r="P143" s="28"/>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B144" s="28"/>
       <c r="C144" s="28"/>
       <c r="D144" s="28"/>
@@ -6976,7 +7009,7 @@
       <c r="O144" s="28"/>
       <c r="P144" s="28"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
       <c r="D145" s="28"/>
@@ -6993,7 +7026,7 @@
       <c r="O145" s="28"/>
       <c r="P145" s="28"/>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B146" s="28"/>
       <c r="C146" s="28"/>
       <c r="D146" s="28"/>
@@ -7010,7 +7043,7 @@
       <c r="O146" s="28"/>
       <c r="P146" s="28"/>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B147" s="28"/>
       <c r="C147" s="28"/>
       <c r="D147" s="28"/>
@@ -7027,7 +7060,7 @@
       <c r="O147" s="28"/>
       <c r="P147" s="28"/>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B148" s="28"/>
       <c r="C148" s="28"/>
       <c r="D148" s="28"/>
@@ -7044,7 +7077,7 @@
       <c r="O148" s="28"/>
       <c r="P148" s="28"/>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
       <c r="D149" s="28"/>
@@ -7061,7 +7094,7 @@
       <c r="O149" s="28"/>
       <c r="P149" s="28"/>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
       <c r="D150" s="28"/>
@@ -7078,7 +7111,7 @@
       <c r="O150" s="28"/>
       <c r="P150" s="28"/>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
       <c r="D151" s="28"/>
@@ -7095,7 +7128,7 @@
       <c r="O151" s="28"/>
       <c r="P151" s="28"/>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B152" s="28"/>
       <c r="C152" s="28"/>
       <c r="D152" s="28"/>
@@ -7112,7 +7145,7 @@
       <c r="O152" s="28"/>
       <c r="P152" s="28"/>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
       <c r="D153" s="28"/>
@@ -7129,7 +7162,7 @@
       <c r="O153" s="28"/>
       <c r="P153" s="28"/>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B154" s="28"/>
       <c r="C154" s="28"/>
       <c r="D154" s="28"/>
@@ -7146,7 +7179,7 @@
       <c r="O154" s="28"/>
       <c r="P154" s="28"/>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B155" s="28"/>
       <c r="C155" s="28"/>
       <c r="D155" s="28"/>
@@ -7163,7 +7196,7 @@
       <c r="O155" s="28"/>
       <c r="P155" s="28"/>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B156" s="28"/>
       <c r="C156" s="28"/>
       <c r="D156" s="28"/>
@@ -7180,7 +7213,7 @@
       <c r="O156" s="28"/>
       <c r="P156" s="28"/>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B157" s="28"/>
       <c r="C157" s="28"/>
       <c r="D157" s="28"/>
@@ -7197,7 +7230,7 @@
       <c r="O157" s="28"/>
       <c r="P157" s="28"/>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
       <c r="D158" s="28"/>
@@ -7214,7 +7247,7 @@
       <c r="O158" s="28"/>
       <c r="P158" s="28"/>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
       <c r="D159" s="28"/>
@@ -7231,7 +7264,7 @@
       <c r="O159" s="28"/>
       <c r="P159" s="28"/>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
       <c r="D160" s="28"/>
@@ -7256,21 +7289,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q76"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
+    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5703125" style="2"/>
+    <col min="1" max="1" width="12.453125" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -7291,7 +7324,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -7312,7 +7345,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -7365,7 +7398,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>43908</v>
       </c>
@@ -7418,7 +7451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>43909</v>
       </c>
@@ -7471,7 +7504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>43910</v>
       </c>
@@ -7524,7 +7557,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>43911</v>
       </c>
@@ -7577,7 +7610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>43912</v>
       </c>
@@ -7630,7 +7663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>43913</v>
       </c>
@@ -7683,7 +7716,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>43914</v>
       </c>
@@ -7736,7 +7769,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>43915</v>
       </c>
@@ -7789,7 +7822,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>43916</v>
       </c>
@@ -7842,7 +7875,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>43917</v>
       </c>
@@ -7895,7 +7928,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>43918</v>
       </c>
@@ -7948,7 +7981,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>43919</v>
       </c>
@@ -8001,7 +8034,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>43920</v>
       </c>
@@ -8054,7 +8087,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>43921</v>
       </c>
@@ -8107,7 +8140,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>43922</v>
       </c>
@@ -8160,7 +8193,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>43923</v>
       </c>
@@ -8213,7 +8246,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>43924</v>
       </c>
@@ -8266,7 +8299,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>43925</v>
       </c>
@@ -8319,7 +8352,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>43926</v>
       </c>
@@ -8372,7 +8405,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>43927</v>
       </c>
@@ -8425,7 +8458,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>43928</v>
       </c>
@@ -8478,7 +8511,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>43929</v>
       </c>
@@ -8531,7 +8564,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>43930</v>
       </c>
@@ -8584,7 +8617,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>43931</v>
       </c>
@@ -8637,7 +8670,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>43932</v>
       </c>
@@ -8690,7 +8723,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>43933</v>
       </c>
@@ -8743,7 +8776,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>43934</v>
       </c>
@@ -8796,7 +8829,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>43935</v>
       </c>
@@ -8849,7 +8882,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>43936</v>
       </c>
@@ -8902,7 +8935,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>43937</v>
       </c>
@@ -8955,7 +8988,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>43938</v>
       </c>
@@ -9008,7 +9041,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>43939</v>
       </c>
@@ -9061,7 +9094,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="30">
         <v>43940</v>
       </c>
@@ -9114,7 +9147,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="30">
         <v>43941</v>
       </c>
@@ -9167,7 +9200,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="30">
         <v>43942</v>
       </c>
@@ -9220,7 +9253,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="30">
         <v>43943</v>
       </c>
@@ -9273,7 +9306,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="30">
         <v>43944</v>
       </c>
@@ -9326,7 +9359,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="30">
         <v>43945</v>
       </c>
@@ -9379,7 +9412,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="30">
         <v>43946</v>
       </c>
@@ -9432,7 +9465,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="30">
         <v>43947</v>
       </c>
@@ -9485,7 +9518,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="30">
         <v>43948</v>
       </c>
@@ -9538,7 +9571,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="30">
         <v>43949</v>
       </c>
@@ -9591,7 +9624,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="30">
         <v>43950</v>
       </c>
@@ -9644,7 +9677,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="30">
         <v>43951</v>
       </c>
@@ -9697,7 +9730,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="30">
         <v>43952</v>
       </c>
@@ -9750,7 +9783,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="30">
         <v>43953</v>
       </c>
@@ -9803,7 +9836,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="30">
         <v>43954</v>
       </c>
@@ -9856,7 +9889,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="30">
         <v>43955</v>
       </c>
@@ -9909,7 +9942,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="30">
         <v>43956</v>
       </c>
@@ -9962,7 +9995,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="30">
         <v>43957</v>
       </c>
@@ -10015,7 +10048,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="30">
         <v>43958</v>
       </c>
@@ -10068,7 +10101,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="30">
         <v>43959</v>
       </c>
@@ -10121,7 +10154,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="30">
         <v>43960</v>
       </c>
@@ -10174,7 +10207,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="30">
         <v>43961</v>
       </c>
@@ -10227,7 +10260,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="30">
         <v>43962</v>
       </c>
@@ -10280,7 +10313,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="30">
         <v>43963</v>
       </c>
@@ -10333,7 +10366,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="30">
         <v>43964</v>
       </c>
@@ -10386,7 +10419,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="30">
         <v>43965</v>
       </c>
@@ -10439,7 +10472,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="30">
         <v>43966</v>
       </c>
@@ -10492,7 +10525,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="30">
         <v>43967</v>
       </c>
@@ -10545,7 +10578,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="30">
         <v>43968</v>
       </c>
@@ -10598,7 +10631,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="30">
         <v>43969</v>
       </c>
@@ -10651,7 +10684,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="30">
         <v>43970</v>
       </c>
@@ -10704,7 +10737,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="30">
         <v>43971</v>
       </c>
@@ -10757,7 +10790,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="30">
         <v>43972</v>
       </c>
@@ -10810,7 +10843,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="30">
         <v>43973</v>
       </c>
@@ -10863,7 +10896,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="30">
         <v>43974</v>
       </c>
@@ -10916,7 +10949,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="30">
         <v>43975</v>
       </c>
@@ -10969,7 +11002,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="30">
         <v>43976</v>
       </c>
@@ -11022,7 +11055,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="30">
         <v>43977</v>
       </c>
@@ -11075,7 +11108,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" s="30">
         <v>43978</v>
       </c>
@@ -11128,7 +11161,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" s="30">
         <v>43979</v>
       </c>
@@ -11181,7 +11214,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" s="30">
         <v>43980</v>
       </c>
@@ -11203,7 +11236,7 @@
       <c r="G76" s="11">
         <v>5</v>
       </c>
-      <c r="H76" s="50">
+      <c r="H76" s="40">
         <v>9</v>
       </c>
       <c r="I76" s="14" t="s">
@@ -11212,7 +11245,7 @@
       <c r="J76" s="11">
         <v>8</v>
       </c>
-      <c r="K76" s="50">
+      <c r="K76" s="40">
         <v>9</v>
       </c>
       <c r="L76" s="14" t="s">
@@ -11232,6 +11265,59 @@
       </c>
       <c r="Q76" s="13">
         <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A77" s="30">
+        <v>43981</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H77" s="40">
+        <v>9</v>
+      </c>
+      <c r="I77" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J77" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K77" s="40">
+        <v>9</v>
+      </c>
+      <c r="L77" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M77" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N77" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O77" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P77" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q77" s="13">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -11242,23 +11328,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A68" sqref="A68"/>
+      <selection pane="bottomRight" activeCell="Q69" sqref="Q69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5703125" style="2"/>
+    <col min="1" max="1" width="15.1796875" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -11279,7 +11365,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -11300,7 +11386,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -11353,7 +11439,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -11406,7 +11492,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -11459,7 +11545,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -11512,7 +11598,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -11565,7 +11651,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -11618,7 +11704,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -11671,7 +11757,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -11724,7 +11810,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -11777,7 +11863,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -11830,7 +11916,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -11883,7 +11969,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -11936,7 +12022,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -11989,7 +12075,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -12042,7 +12128,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -12095,7 +12181,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -12148,7 +12234,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -12201,7 +12287,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -12254,7 +12340,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -12307,7 +12393,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -12360,7 +12446,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -12413,7 +12499,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -12466,7 +12552,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -12519,7 +12605,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -12572,7 +12658,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -12625,7 +12711,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -12678,7 +12764,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -12731,7 +12817,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -12784,7 +12870,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -12837,7 +12923,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -12890,7 +12976,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -12943,7 +13029,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -12996,7 +13082,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -13049,7 +13135,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -13102,7 +13188,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -13155,7 +13241,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -13208,7 +13294,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -13261,7 +13347,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -13314,7 +13400,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -13367,7 +13453,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -13420,7 +13506,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -13473,7 +13559,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -13526,7 +13612,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -13579,7 +13665,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -13632,7 +13718,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -13685,7 +13771,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="30">
         <v>43960</v>
       </c>
@@ -13738,7 +13824,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="30">
         <v>43961</v>
       </c>
@@ -13791,7 +13877,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="30">
         <v>43962</v>
       </c>
@@ -13844,7 +13930,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="30">
         <v>43963</v>
       </c>
@@ -13897,7 +13983,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="30">
         <v>43964</v>
       </c>
@@ -13950,7 +14036,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="30">
         <v>43965</v>
       </c>
@@ -14003,7 +14089,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="30">
         <v>43966</v>
       </c>
@@ -14056,7 +14142,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="30">
         <v>43967</v>
       </c>
@@ -14109,7 +14195,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="30">
         <v>43968</v>
       </c>
@@ -14162,7 +14248,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="30">
         <v>43969</v>
       </c>
@@ -14215,7 +14301,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="30">
         <v>43970</v>
       </c>
@@ -14268,7 +14354,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="30">
         <v>43971</v>
       </c>
@@ -14321,7 +14407,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="30">
         <v>43972</v>
       </c>
@@ -14374,7 +14460,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="30">
         <v>43973</v>
       </c>
@@ -14427,7 +14513,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="30">
         <v>43974</v>
       </c>
@@ -14480,7 +14566,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="30">
         <v>43975</v>
       </c>
@@ -14533,7 +14619,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="30">
         <v>43976</v>
       </c>
@@ -14586,7 +14672,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="51">
         <v>43977</v>
       </c>
@@ -14639,7 +14725,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="51">
         <v>43978</v>
       </c>
@@ -14692,7 +14778,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="51">
         <v>43979</v>
       </c>
@@ -14745,7 +14831,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="51">
         <v>43980</v>
       </c>
@@ -14796,6 +14882,59 @@
       </c>
       <c r="Q68" s="13">
         <v>769</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A69" s="51">
+        <v>43981</v>
+      </c>
+      <c r="B69" s="11">
+        <v>11</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="11">
+        <v>61</v>
+      </c>
+      <c r="F69" s="11">
+        <v>10</v>
+      </c>
+      <c r="G69" s="11">
+        <v>66</v>
+      </c>
+      <c r="H69" s="11">
+        <v>343</v>
+      </c>
+      <c r="I69" s="11">
+        <v>9</v>
+      </c>
+      <c r="J69" s="11">
+        <v>69</v>
+      </c>
+      <c r="K69" s="11">
+        <v>155</v>
+      </c>
+      <c r="L69" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M69" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N69" s="11">
+        <v>8</v>
+      </c>
+      <c r="O69" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P69" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q69" s="13">
+        <v>735</v>
       </c>
     </row>
   </sheetData>
@@ -14806,23 +14945,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A68" sqref="A68"/>
+      <selection pane="bottomRight" activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5703125" style="2"/>
+    <col min="1" max="1" width="12.453125" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -14843,7 +14982,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -14864,7 +15003,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -14917,7 +15056,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -14970,7 +15109,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -15023,7 +15162,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -15076,7 +15215,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -15129,7 +15268,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -15182,7 +15321,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -15235,7 +15374,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -15288,7 +15427,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -15341,7 +15480,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -15394,7 +15533,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -15447,7 +15586,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -15500,7 +15639,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -15553,7 +15692,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -15606,7 +15745,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -15659,7 +15798,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -15712,7 +15851,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -15765,7 +15904,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -15818,7 +15957,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -15871,7 +16010,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -15924,7 +16063,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -15977,7 +16116,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -16030,7 +16169,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -16083,7 +16222,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -16136,7 +16275,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -16189,7 +16328,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -16242,7 +16381,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -16295,7 +16434,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -16348,7 +16487,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -16401,7 +16540,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -16454,7 +16593,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -16507,7 +16646,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -16560,7 +16699,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -16613,7 +16752,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -16666,7 +16805,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -16719,7 +16858,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -16772,7 +16911,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -16825,7 +16964,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -16878,7 +17017,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -16931,7 +17070,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -16984,7 +17123,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -17037,7 +17176,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -17090,7 +17229,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -17143,7 +17282,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -17196,7 +17335,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -17249,7 +17388,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="30">
         <v>43960</v>
       </c>
@@ -17302,7 +17441,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="30">
         <v>43961</v>
       </c>
@@ -17355,7 +17494,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="30">
         <v>43962</v>
       </c>
@@ -17408,7 +17547,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="30">
         <v>43963</v>
       </c>
@@ -17461,7 +17600,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="30">
         <v>43964</v>
       </c>
@@ -17514,7 +17653,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="30">
         <v>43965</v>
       </c>
@@ -17567,7 +17706,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="30">
         <v>43966</v>
       </c>
@@ -17620,7 +17759,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="30">
         <v>43967</v>
       </c>
@@ -17673,7 +17812,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="30">
         <v>43968</v>
       </c>
@@ -17726,7 +17865,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="30">
         <v>43969</v>
       </c>
@@ -17779,7 +17918,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="30">
         <v>43970</v>
       </c>
@@ -17832,7 +17971,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="30">
         <v>43971</v>
       </c>
@@ -17885,7 +18024,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="30">
         <v>43972</v>
       </c>
@@ -17938,7 +18077,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="30">
         <v>43973</v>
       </c>
@@ -17991,7 +18130,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="30">
         <v>43974</v>
       </c>
@@ -18044,7 +18183,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="30">
         <v>43975</v>
       </c>
@@ -18097,7 +18236,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="30">
         <v>43976</v>
       </c>
@@ -18150,7 +18289,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="30">
         <v>43977</v>
       </c>
@@ -18203,7 +18342,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="30">
         <v>43978</v>
       </c>
@@ -18256,7 +18395,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="30">
         <v>43979</v>
       </c>
@@ -18309,7 +18448,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="30">
         <v>43980</v>
       </c>
@@ -18360,6 +18499,59 @@
       </c>
       <c r="Q68" s="13">
         <v>447</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A69" s="30">
+        <v>43981</v>
+      </c>
+      <c r="B69" s="14">
+        <v>28</v>
+      </c>
+      <c r="C69" s="14">
+        <v>10</v>
+      </c>
+      <c r="D69" s="14">
+        <v>17</v>
+      </c>
+      <c r="E69" s="14">
+        <v>30</v>
+      </c>
+      <c r="F69" s="14">
+        <v>36</v>
+      </c>
+      <c r="G69" s="14">
+        <v>19</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I69" s="14">
+        <v>29</v>
+      </c>
+      <c r="J69" s="14">
+        <v>68</v>
+      </c>
+      <c r="K69" s="14">
+        <v>128</v>
+      </c>
+      <c r="L69" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M69" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N69" s="14">
+        <v>12</v>
+      </c>
+      <c r="O69" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P69" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q69" s="13">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -18367,7 +18559,7 @@
 </worksheet>
 </file>
 
-<file path=customXML/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXML/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://www.objective.com/ecm/document/metadata/53D26341A57B383EE0540010E0463CCA" version="1.0.0">
   <systemFields>
     <field name="Objective-Id">
@@ -18389,10 +18581,10 @@
       <value order="0">true</value>
     </field>
     <field name="Objective-DatePublished">
-      <value order="0">2020-05-29T12:20:20Z</value>
+      <value order="0">2020-05-30T12:34:31Z</value>
     </field>
     <field name="Objective-ModificationStamp">
-      <value order="0">2020-05-29T12:20:20Z</value>
+      <value order="0">2020-05-30T12:34:31Z</value>
     </field>
     <field name="Objective-Owner">
       <value order="0">Grant, Neil N (u207826)</value>
@@ -18407,13 +18599,13 @@
       <value order="0">Published</value>
     </field>
     <field name="Objective-VersionId">
-      <value order="0">vA41423195</value>
+      <value order="0">vA41431898</value>
     </field>
     <field name="Objective-Version">
-      <value order="0">16.0</value>
+      <value order="0">17.0</value>
     </field>
     <field name="Objective-VersionNumber">
-      <value order="0">132</value>
+      <value order="0">135</value>
     </field>
     <field name="Objective-VersionComment">
       <value order="0"/>
@@ -18450,7 +18642,7 @@
 </metadata>
 </file>
 
-<file path=customXML/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXML/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5745109E-2DDF-40CB-AC2B-FF9B10C90820}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.objective.com/ecm/document/metadata/53D26341A57B383EE0540010E0463CCA"/>

--- a/data/csv/src/data_latest_sct.xlsx
+++ b/data/csv/src/data_latest_sct.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u207826\Objective\Objects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U445783\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA18464\A28088333\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5990" windowHeight="6020" tabRatio="803"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5988" windowHeight="6012" tabRatio="803" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -1589,23 +1589,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="90.453125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.453125" style="2"/>
+    <col min="2" max="2" width="29.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="90.44140625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
@@ -1621,13 +1621,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="23"/>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>26</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
         <v>27</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="24" t="s">
         <v>36</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20" t="s">
         <v>37</v>
       </c>
@@ -1679,12 +1679,12 @@
       <selection activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.453125" style="2"/>
+    <col min="1" max="16384" width="9.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="44" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A44" s="43"/>
     </row>
   </sheetData>
@@ -1698,21 +1698,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S160"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="I79" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P88" sqref="P88"/>
+      <selection pane="bottomRight" activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
-    <col min="2" max="16" width="11.453125" style="11" customWidth="1"/>
-    <col min="17" max="16384" width="8.54296875" style="2"/>
+    <col min="2" max="16" width="11.44140625" style="11" customWidth="1"/>
+    <col min="17" max="16384" width="8.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1732,7 +1732,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -1751,7 +1751,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>43897</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>43898</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>43899</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43900</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>43901</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>43902</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>43903</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>43904</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>43905</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>43906</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>43907</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>43908</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>43909</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>43910</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>43911</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>43912</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>43913</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>43914</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>43915</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>43916</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>43917</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>43918</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>43919</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>43920</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>43921</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>43922</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>43923</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>43924</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>43925</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>43926</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>3706</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>43927</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>3961</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>43928</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>43929</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>43930</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>4957</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>43931</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>5275</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>43932</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>5590</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>43933</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>5912</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>43934</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>6067</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>43935</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>6358</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>43936</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>6748</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>43937</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>7102</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>43938</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>43939</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>7820</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>43940</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>8187</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>43941</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>8450</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>43942</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>8672</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>43943</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>9038</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>43944</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>9409</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>43945</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>9697</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>43946</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>10051</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>43947</v>
       </c>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="R54" s="38"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>43948</v>
       </c>
@@ -4403,7 +4403,7 @@
       </c>
       <c r="R55" s="38"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>43949</v>
       </c>
@@ -4454,7 +4454,7 @@
       </c>
       <c r="R56" s="39"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>43950</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>11034</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>43951</v>
       </c>
@@ -4555,7 +4555,7 @@
       </c>
       <c r="R58" s="38"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>43952</v>
       </c>
@@ -4607,7 +4607,7 @@
       <c r="R59" s="38"/>
       <c r="S59" s="38"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>43953</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>11927</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>43954</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>12097</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>43955</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>12266</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>43956</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>12437</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>43957</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>12709</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>43958</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>12924</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>43959</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>13149</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>43960</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>13305</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>43961</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>13486</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>43962</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>13627</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>43963</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>13763</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>43964</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>13929</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>43965</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>14117</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>43966</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>14260</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>43967</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>14447</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>43968</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>14537</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>43969</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>14594</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>43970</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>14655</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>43971</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>14751</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>43972</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>14856</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>43973</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>14969</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>43974</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>15041</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>43975</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>15101</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>43976</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>15156</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>43977</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>15185</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>43978</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>15240</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>43979</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>15288</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>43980</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>15327</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>43981</v>
       </c>
@@ -6057,24 +6057,57 @@
         <v>15382</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B89" s="28"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="28"/>
-      <c r="K89" s="28"/>
-      <c r="L89" s="28"/>
-      <c r="M89" s="28"/>
-      <c r="N89" s="28"/>
-      <c r="O89" s="28"/>
-      <c r="P89" s="28"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A89" s="5">
+        <v>43982</v>
+      </c>
+      <c r="B89" s="28">
+        <v>1060</v>
+      </c>
+      <c r="C89" s="28">
+        <v>325</v>
+      </c>
+      <c r="D89" s="28">
+        <v>260</v>
+      </c>
+      <c r="E89" s="28">
+        <v>835</v>
+      </c>
+      <c r="F89" s="28">
+        <v>928</v>
+      </c>
+      <c r="G89" s="28">
+        <v>1274</v>
+      </c>
+      <c r="H89" s="28">
+        <v>3946</v>
+      </c>
+      <c r="I89" s="28">
+        <v>337</v>
+      </c>
+      <c r="J89" s="28">
+        <v>1987</v>
+      </c>
+      <c r="K89" s="28">
+        <v>2709</v>
+      </c>
+      <c r="L89" s="28">
+        <v>8</v>
+      </c>
+      <c r="M89" s="28">
+        <v>54</v>
+      </c>
+      <c r="N89" s="28">
+        <v>1671</v>
+      </c>
+      <c r="O89" s="28">
+        <v>6</v>
+      </c>
+      <c r="P89" s="32">
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B90" s="28"/>
       <c r="C90" s="28"/>
       <c r="D90" s="28"/>
@@ -6091,7 +6124,7 @@
       <c r="O90" s="28"/>
       <c r="P90" s="28"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B91" s="28"/>
       <c r="C91" s="28"/>
       <c r="D91" s="28"/>
@@ -6108,7 +6141,7 @@
       <c r="O91" s="28"/>
       <c r="P91" s="28"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B92" s="28"/>
       <c r="C92" s="28"/>
       <c r="D92" s="28"/>
@@ -6125,7 +6158,7 @@
       <c r="O92" s="28"/>
       <c r="P92" s="28"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
       <c r="D93" s="28"/>
@@ -6142,7 +6175,7 @@
       <c r="O93" s="28"/>
       <c r="P93" s="28"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
       <c r="D94" s="28"/>
@@ -6159,7 +6192,7 @@
       <c r="O94" s="28"/>
       <c r="P94" s="28"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
       <c r="D95" s="28"/>
@@ -6176,7 +6209,7 @@
       <c r="O95" s="28"/>
       <c r="P95" s="28"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
       <c r="D96" s="28"/>
@@ -6193,7 +6226,7 @@
       <c r="O96" s="28"/>
       <c r="P96" s="28"/>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
@@ -6210,7 +6243,7 @@
       <c r="O97" s="28"/>
       <c r="P97" s="28"/>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
       <c r="D98" s="28"/>
@@ -6227,7 +6260,7 @@
       <c r="O98" s="28"/>
       <c r="P98" s="28"/>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
       <c r="D99" s="28"/>
@@ -6244,7 +6277,7 @@
       <c r="O99" s="28"/>
       <c r="P99" s="28"/>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
       <c r="D100" s="28"/>
@@ -6261,7 +6294,7 @@
       <c r="O100" s="28"/>
       <c r="P100" s="28"/>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
       <c r="D101" s="28"/>
@@ -6278,7 +6311,7 @@
       <c r="O101" s="28"/>
       <c r="P101" s="28"/>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B102" s="28"/>
       <c r="C102" s="28"/>
       <c r="D102" s="28"/>
@@ -6295,7 +6328,7 @@
       <c r="O102" s="28"/>
       <c r="P102" s="28"/>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
       <c r="D103" s="28"/>
@@ -6312,7 +6345,7 @@
       <c r="O103" s="28"/>
       <c r="P103" s="28"/>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
       <c r="D104" s="28"/>
@@ -6329,7 +6362,7 @@
       <c r="O104" s="28"/>
       <c r="P104" s="28"/>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B105" s="28"/>
       <c r="C105" s="28"/>
       <c r="D105" s="28"/>
@@ -6346,7 +6379,7 @@
       <c r="O105" s="28"/>
       <c r="P105" s="28"/>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
       <c r="D106" s="28"/>
@@ -6363,7 +6396,7 @@
       <c r="O106" s="28"/>
       <c r="P106" s="28"/>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
       <c r="D107" s="28"/>
@@ -6380,7 +6413,7 @@
       <c r="O107" s="28"/>
       <c r="P107" s="28"/>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B108" s="28"/>
       <c r="C108" s="28"/>
       <c r="D108" s="28"/>
@@ -6397,7 +6430,7 @@
       <c r="O108" s="28"/>
       <c r="P108" s="28"/>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
       <c r="D109" s="28"/>
@@ -6414,7 +6447,7 @@
       <c r="O109" s="28"/>
       <c r="P109" s="28"/>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B110" s="28"/>
       <c r="C110" s="28"/>
       <c r="D110" s="28"/>
@@ -6431,7 +6464,7 @@
       <c r="O110" s="28"/>
       <c r="P110" s="28"/>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B111" s="28"/>
       <c r="C111" s="28"/>
       <c r="D111" s="28"/>
@@ -6448,7 +6481,7 @@
       <c r="O111" s="28"/>
       <c r="P111" s="28"/>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B112" s="28"/>
       <c r="C112" s="28"/>
       <c r="D112" s="28"/>
@@ -6465,7 +6498,7 @@
       <c r="O112" s="28"/>
       <c r="P112" s="28"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B113" s="28"/>
       <c r="C113" s="28"/>
       <c r="D113" s="28"/>
@@ -6482,7 +6515,7 @@
       <c r="O113" s="28"/>
       <c r="P113" s="28"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B114" s="28"/>
       <c r="C114" s="28"/>
       <c r="D114" s="28"/>
@@ -6499,7 +6532,7 @@
       <c r="O114" s="28"/>
       <c r="P114" s="28"/>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B115" s="28"/>
       <c r="C115" s="28"/>
       <c r="D115" s="28"/>
@@ -6516,7 +6549,7 @@
       <c r="O115" s="28"/>
       <c r="P115" s="28"/>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B116" s="28"/>
       <c r="C116" s="28"/>
       <c r="D116" s="28"/>
@@ -6533,7 +6566,7 @@
       <c r="O116" s="28"/>
       <c r="P116" s="28"/>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
       <c r="D117" s="28"/>
@@ -6550,7 +6583,7 @@
       <c r="O117" s="28"/>
       <c r="P117" s="28"/>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
       <c r="D118" s="28"/>
@@ -6567,7 +6600,7 @@
       <c r="O118" s="28"/>
       <c r="P118" s="28"/>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B119" s="28"/>
       <c r="C119" s="28"/>
       <c r="D119" s="28"/>
@@ -6584,7 +6617,7 @@
       <c r="O119" s="28"/>
       <c r="P119" s="28"/>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B120" s="28"/>
       <c r="C120" s="28"/>
       <c r="D120" s="28"/>
@@ -6601,7 +6634,7 @@
       <c r="O120" s="28"/>
       <c r="P120" s="28"/>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
       <c r="D121" s="28"/>
@@ -6618,7 +6651,7 @@
       <c r="O121" s="28"/>
       <c r="P121" s="28"/>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
       <c r="D122" s="28"/>
@@ -6635,7 +6668,7 @@
       <c r="O122" s="28"/>
       <c r="P122" s="28"/>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
       <c r="D123" s="28"/>
@@ -6652,7 +6685,7 @@
       <c r="O123" s="28"/>
       <c r="P123" s="28"/>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
       <c r="D124" s="28"/>
@@ -6669,7 +6702,7 @@
       <c r="O124" s="28"/>
       <c r="P124" s="28"/>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B125" s="28"/>
       <c r="C125" s="28"/>
       <c r="D125" s="28"/>
@@ -6686,7 +6719,7 @@
       <c r="O125" s="28"/>
       <c r="P125" s="28"/>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B126" s="28"/>
       <c r="C126" s="28"/>
       <c r="D126" s="28"/>
@@ -6703,7 +6736,7 @@
       <c r="O126" s="28"/>
       <c r="P126" s="28"/>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B127" s="28"/>
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
@@ -6720,7 +6753,7 @@
       <c r="O127" s="28"/>
       <c r="P127" s="28"/>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
       <c r="D128" s="28"/>
@@ -6737,7 +6770,7 @@
       <c r="O128" s="28"/>
       <c r="P128" s="28"/>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B129" s="28"/>
       <c r="C129" s="28"/>
       <c r="D129" s="28"/>
@@ -6754,7 +6787,7 @@
       <c r="O129" s="28"/>
       <c r="P129" s="28"/>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B130" s="28"/>
       <c r="C130" s="28"/>
       <c r="D130" s="28"/>
@@ -6771,7 +6804,7 @@
       <c r="O130" s="28"/>
       <c r="P130" s="28"/>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
       <c r="D131" s="28"/>
@@ -6788,7 +6821,7 @@
       <c r="O131" s="28"/>
       <c r="P131" s="28"/>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
       <c r="D132" s="28"/>
@@ -6805,7 +6838,7 @@
       <c r="O132" s="28"/>
       <c r="P132" s="28"/>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
       <c r="D133" s="28"/>
@@ -6822,7 +6855,7 @@
       <c r="O133" s="28"/>
       <c r="P133" s="28"/>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B134" s="28"/>
       <c r="C134" s="28"/>
       <c r="D134" s="28"/>
@@ -6839,7 +6872,7 @@
       <c r="O134" s="28"/>
       <c r="P134" s="28"/>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B135" s="28"/>
       <c r="C135" s="28"/>
       <c r="D135" s="28"/>
@@ -6856,7 +6889,7 @@
       <c r="O135" s="28"/>
       <c r="P135" s="28"/>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B136" s="28"/>
       <c r="C136" s="28"/>
       <c r="D136" s="28"/>
@@ -6873,7 +6906,7 @@
       <c r="O136" s="28"/>
       <c r="P136" s="28"/>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
       <c r="D137" s="28"/>
@@ -6890,7 +6923,7 @@
       <c r="O137" s="28"/>
       <c r="P137" s="28"/>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B138" s="28"/>
       <c r="C138" s="28"/>
       <c r="D138" s="28"/>
@@ -6907,7 +6940,7 @@
       <c r="O138" s="28"/>
       <c r="P138" s="28"/>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B139" s="28"/>
       <c r="C139" s="28"/>
       <c r="D139" s="28"/>
@@ -6924,7 +6957,7 @@
       <c r="O139" s="28"/>
       <c r="P139" s="28"/>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B140" s="28"/>
       <c r="C140" s="28"/>
       <c r="D140" s="28"/>
@@ -6941,7 +6974,7 @@
       <c r="O140" s="28"/>
       <c r="P140" s="28"/>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B141" s="28"/>
       <c r="C141" s="28"/>
       <c r="D141" s="28"/>
@@ -6958,7 +6991,7 @@
       <c r="O141" s="28"/>
       <c r="P141" s="28"/>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B142" s="28"/>
       <c r="C142" s="28"/>
       <c r="D142" s="28"/>
@@ -6975,7 +7008,7 @@
       <c r="O142" s="28"/>
       <c r="P142" s="28"/>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B143" s="28"/>
       <c r="C143" s="28"/>
       <c r="D143" s="28"/>
@@ -6992,7 +7025,7 @@
       <c r="O143" s="28"/>
       <c r="P143" s="28"/>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B144" s="28"/>
       <c r="C144" s="28"/>
       <c r="D144" s="28"/>
@@ -7009,7 +7042,7 @@
       <c r="O144" s="28"/>
       <c r="P144" s="28"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
       <c r="D145" s="28"/>
@@ -7026,7 +7059,7 @@
       <c r="O145" s="28"/>
       <c r="P145" s="28"/>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B146" s="28"/>
       <c r="C146" s="28"/>
       <c r="D146" s="28"/>
@@ -7043,7 +7076,7 @@
       <c r="O146" s="28"/>
       <c r="P146" s="28"/>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B147" s="28"/>
       <c r="C147" s="28"/>
       <c r="D147" s="28"/>
@@ -7060,7 +7093,7 @@
       <c r="O147" s="28"/>
       <c r="P147" s="28"/>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B148" s="28"/>
       <c r="C148" s="28"/>
       <c r="D148" s="28"/>
@@ -7077,7 +7110,7 @@
       <c r="O148" s="28"/>
       <c r="P148" s="28"/>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
       <c r="D149" s="28"/>
@@ -7094,7 +7127,7 @@
       <c r="O149" s="28"/>
       <c r="P149" s="28"/>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
       <c r="D150" s="28"/>
@@ -7111,7 +7144,7 @@
       <c r="O150" s="28"/>
       <c r="P150" s="28"/>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
       <c r="D151" s="28"/>
@@ -7128,7 +7161,7 @@
       <c r="O151" s="28"/>
       <c r="P151" s="28"/>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B152" s="28"/>
       <c r="C152" s="28"/>
       <c r="D152" s="28"/>
@@ -7145,7 +7178,7 @@
       <c r="O152" s="28"/>
       <c r="P152" s="28"/>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
       <c r="D153" s="28"/>
@@ -7162,7 +7195,7 @@
       <c r="O153" s="28"/>
       <c r="P153" s="28"/>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B154" s="28"/>
       <c r="C154" s="28"/>
       <c r="D154" s="28"/>
@@ -7179,7 +7212,7 @@
       <c r="O154" s="28"/>
       <c r="P154" s="28"/>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B155" s="28"/>
       <c r="C155" s="28"/>
       <c r="D155" s="28"/>
@@ -7196,7 +7229,7 @@
       <c r="O155" s="28"/>
       <c r="P155" s="28"/>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B156" s="28"/>
       <c r="C156" s="28"/>
       <c r="D156" s="28"/>
@@ -7213,7 +7246,7 @@
       <c r="O156" s="28"/>
       <c r="P156" s="28"/>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B157" s="28"/>
       <c r="C157" s="28"/>
       <c r="D157" s="28"/>
@@ -7230,7 +7263,7 @@
       <c r="O157" s="28"/>
       <c r="P157" s="28"/>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
       <c r="D158" s="28"/>
@@ -7247,7 +7280,7 @@
       <c r="O158" s="28"/>
       <c r="P158" s="28"/>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
       <c r="D159" s="28"/>
@@ -7264,7 +7297,7 @@
       <c r="O159" s="28"/>
       <c r="P159" s="28"/>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
       <c r="D160" s="28"/>
@@ -7289,21 +7322,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H77" sqref="H77"/>
+      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.54296875" style="2"/>
+    <col min="1" max="1" width="12.44140625" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5546875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -7324,7 +7357,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -7345,7 +7378,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -7398,7 +7431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>43908</v>
       </c>
@@ -7451,7 +7484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>43909</v>
       </c>
@@ -7504,7 +7537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>43910</v>
       </c>
@@ -7557,7 +7590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>43911</v>
       </c>
@@ -7610,7 +7643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>43912</v>
       </c>
@@ -7663,7 +7696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>43913</v>
       </c>
@@ -7716,7 +7749,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>43914</v>
       </c>
@@ -7769,7 +7802,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>43915</v>
       </c>
@@ -7822,7 +7855,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>43916</v>
       </c>
@@ -7875,7 +7908,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>43917</v>
       </c>
@@ -7928,7 +7961,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>43918</v>
       </c>
@@ -7981,7 +8014,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>43919</v>
       </c>
@@ -8034,7 +8067,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>43920</v>
       </c>
@@ -8087,7 +8120,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>43921</v>
       </c>
@@ -8140,7 +8173,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>43922</v>
       </c>
@@ -8193,7 +8226,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>43923</v>
       </c>
@@ -8246,7 +8279,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>43924</v>
       </c>
@@ -8299,7 +8332,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>43925</v>
       </c>
@@ -8352,7 +8385,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>43926</v>
       </c>
@@ -8405,7 +8438,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>43927</v>
       </c>
@@ -8458,7 +8491,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>43928</v>
       </c>
@@ -8511,7 +8544,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>43929</v>
       </c>
@@ -8564,7 +8597,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>43930</v>
       </c>
@@ -8617,7 +8650,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>43931</v>
       </c>
@@ -8670,7 +8703,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>43932</v>
       </c>
@@ -8723,7 +8756,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>43933</v>
       </c>
@@ -8776,7 +8809,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>43934</v>
       </c>
@@ -8829,7 +8862,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>43935</v>
       </c>
@@ -8882,7 +8915,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>43936</v>
       </c>
@@ -8935,7 +8968,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>43937</v>
       </c>
@@ -8988,7 +9021,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>43938</v>
       </c>
@@ -9041,7 +9074,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>43939</v>
       </c>
@@ -9094,7 +9127,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="30">
         <v>43940</v>
       </c>
@@ -9147,7 +9180,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="30">
         <v>43941</v>
       </c>
@@ -9200,7 +9233,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="30">
         <v>43942</v>
       </c>
@@ -9253,7 +9286,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="30">
         <v>43943</v>
       </c>
@@ -9306,7 +9339,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="30">
         <v>43944</v>
       </c>
@@ -9359,7 +9392,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="30">
         <v>43945</v>
       </c>
@@ -9412,7 +9445,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="30">
         <v>43946</v>
       </c>
@@ -9465,7 +9498,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="30">
         <v>43947</v>
       </c>
@@ -9518,7 +9551,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="30">
         <v>43948</v>
       </c>
@@ -9571,7 +9604,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="30">
         <v>43949</v>
       </c>
@@ -9624,7 +9657,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="30">
         <v>43950</v>
       </c>
@@ -9677,7 +9710,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="30">
         <v>43951</v>
       </c>
@@ -9730,7 +9763,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="30">
         <v>43952</v>
       </c>
@@ -9783,7 +9816,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="30">
         <v>43953</v>
       </c>
@@ -9836,7 +9869,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="30">
         <v>43954</v>
       </c>
@@ -9889,7 +9922,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="30">
         <v>43955</v>
       </c>
@@ -9942,7 +9975,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="30">
         <v>43956</v>
       </c>
@@ -9995,7 +10028,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="30">
         <v>43957</v>
       </c>
@@ -10048,7 +10081,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="30">
         <v>43958</v>
       </c>
@@ -10101,7 +10134,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="30">
         <v>43959</v>
       </c>
@@ -10154,7 +10187,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="30">
         <v>43960</v>
       </c>
@@ -10207,7 +10240,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="30">
         <v>43961</v>
       </c>
@@ -10260,7 +10293,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="30">
         <v>43962</v>
       </c>
@@ -10313,7 +10346,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="30">
         <v>43963</v>
       </c>
@@ -10366,7 +10399,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="30">
         <v>43964</v>
       </c>
@@ -10419,7 +10452,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="30">
         <v>43965</v>
       </c>
@@ -10472,7 +10505,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="30">
         <v>43966</v>
       </c>
@@ -10525,7 +10558,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="30">
         <v>43967</v>
       </c>
@@ -10578,7 +10611,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="30">
         <v>43968</v>
       </c>
@@ -10631,7 +10664,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="30">
         <v>43969</v>
       </c>
@@ -10684,7 +10717,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="30">
         <v>43970</v>
       </c>
@@ -10737,7 +10770,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="30">
         <v>43971</v>
       </c>
@@ -10790,7 +10823,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="30">
         <v>43972</v>
       </c>
@@ -10843,7 +10876,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="30">
         <v>43973</v>
       </c>
@@ -10896,7 +10929,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="30">
         <v>43974</v>
       </c>
@@ -10949,7 +10982,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="30">
         <v>43975</v>
       </c>
@@ -11002,7 +11035,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="30">
         <v>43976</v>
       </c>
@@ -11055,7 +11088,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="30">
         <v>43977</v>
       </c>
@@ -11108,7 +11141,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="30">
         <v>43978</v>
       </c>
@@ -11161,7 +11194,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="30">
         <v>43979</v>
       </c>
@@ -11214,7 +11247,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="30">
         <v>43980</v>
       </c>
@@ -11267,7 +11300,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="30">
         <v>43981</v>
       </c>
@@ -11318,6 +11351,59 @@
       </c>
       <c r="Q77" s="13">
         <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78" s="30">
+        <v>43982</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G78" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H78" s="40">
+        <v>7</v>
+      </c>
+      <c r="I78" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J78" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K78" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L78" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M78" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N78" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O78" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P78" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q78" s="13">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -11328,23 +11414,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q69" sqref="Q69"/>
+      <selection pane="bottomRight" activeCell="O73" sqref="O73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.54296875" style="2"/>
+    <col min="1" max="1" width="15.109375" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5546875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -11365,7 +11451,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -11386,7 +11472,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -11439,7 +11525,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -11492,7 +11578,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -11545,7 +11631,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -11598,7 +11684,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -11651,7 +11737,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -11704,7 +11790,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -11757,7 +11843,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -11810,7 +11896,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -11863,7 +11949,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -11916,7 +12002,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -11969,7 +12055,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -12022,7 +12108,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -12075,7 +12161,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -12128,7 +12214,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -12181,7 +12267,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -12234,7 +12320,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -12287,7 +12373,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -12340,7 +12426,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -12393,7 +12479,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -12446,7 +12532,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -12499,7 +12585,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -12552,7 +12638,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -12605,7 +12691,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -12658,7 +12744,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -12711,7 +12797,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -12764,7 +12850,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -12817,7 +12903,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -12870,7 +12956,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -12923,7 +13009,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -12976,7 +13062,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -13029,7 +13115,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -13082,7 +13168,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -13135,7 +13221,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -13188,7 +13274,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -13241,7 +13327,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -13294,7 +13380,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -13347,7 +13433,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -13400,7 +13486,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -13453,7 +13539,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -13506,7 +13592,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -13559,7 +13645,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -13612,7 +13698,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -13665,7 +13751,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -13718,7 +13804,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -13771,7 +13857,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="30">
         <v>43960</v>
       </c>
@@ -13824,7 +13910,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="30">
         <v>43961</v>
       </c>
@@ -13877,7 +13963,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="30">
         <v>43962</v>
       </c>
@@ -13930,7 +14016,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="30">
         <v>43963</v>
       </c>
@@ -13983,7 +14069,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="30">
         <v>43964</v>
       </c>
@@ -14036,7 +14122,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="30">
         <v>43965</v>
       </c>
@@ -14089,7 +14175,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="30">
         <v>43966</v>
       </c>
@@ -14142,7 +14228,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="30">
         <v>43967</v>
       </c>
@@ -14195,7 +14281,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="30">
         <v>43968</v>
       </c>
@@ -14248,7 +14334,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="30">
         <v>43969</v>
       </c>
@@ -14301,7 +14387,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="30">
         <v>43970</v>
       </c>
@@ -14354,7 +14440,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="30">
         <v>43971</v>
       </c>
@@ -14407,7 +14493,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="30">
         <v>43972</v>
       </c>
@@ -14460,7 +14546,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="30">
         <v>43973</v>
       </c>
@@ -14513,7 +14599,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="30">
         <v>43974</v>
       </c>
@@ -14566,7 +14652,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="30">
         <v>43975</v>
       </c>
@@ -14619,7 +14705,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="30">
         <v>43976</v>
       </c>
@@ -14672,7 +14758,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="51">
         <v>43977</v>
       </c>
@@ -14725,7 +14811,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="51">
         <v>43978</v>
       </c>
@@ -14778,7 +14864,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="51">
         <v>43979</v>
       </c>
@@ -14831,7 +14917,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="51">
         <v>43980</v>
       </c>
@@ -14884,7 +14970,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="51">
         <v>43981</v>
       </c>
@@ -14935,6 +15021,59 @@
       </c>
       <c r="Q69" s="13">
         <v>735</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" s="51">
+        <v>43982</v>
+      </c>
+      <c r="B70" s="11">
+        <v>11</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="11">
+        <v>62</v>
+      </c>
+      <c r="F70" s="11">
+        <v>10</v>
+      </c>
+      <c r="G70" s="11">
+        <v>66</v>
+      </c>
+      <c r="H70" s="11">
+        <v>338</v>
+      </c>
+      <c r="I70" s="11">
+        <v>9</v>
+      </c>
+      <c r="J70" s="11">
+        <v>71</v>
+      </c>
+      <c r="K70" s="11">
+        <v>156</v>
+      </c>
+      <c r="L70" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M70" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N70" s="11">
+        <v>9</v>
+      </c>
+      <c r="O70" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P70" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q70" s="13">
+        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -14945,23 +15084,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A69" sqref="A69"/>
+      <selection pane="bottomRight" activeCell="L88" sqref="L88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.54296875" style="2"/>
+    <col min="1" max="1" width="12.44140625" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5546875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -14982,7 +15121,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -15003,7 +15142,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -15056,7 +15195,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -15109,7 +15248,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -15162,7 +15301,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -15215,7 +15354,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -15268,7 +15407,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -15321,7 +15460,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -15374,7 +15513,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -15427,7 +15566,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -15480,7 +15619,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -15533,7 +15672,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -15586,7 +15725,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -15639,7 +15778,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -15692,7 +15831,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -15745,7 +15884,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -15798,7 +15937,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -15851,7 +15990,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -15904,7 +16043,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -15957,7 +16096,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -16010,7 +16149,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -16063,7 +16202,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -16116,7 +16255,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -16169,7 +16308,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -16222,7 +16361,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -16275,7 +16414,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -16328,7 +16467,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -16381,7 +16520,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -16434,7 +16573,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -16487,7 +16626,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -16540,7 +16679,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -16593,7 +16732,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -16646,7 +16785,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -16699,7 +16838,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -16752,7 +16891,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -16805,7 +16944,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -16858,7 +16997,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -16911,7 +17050,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -16964,7 +17103,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -17017,7 +17156,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -17070,7 +17209,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -17123,7 +17262,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -17176,7 +17315,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -17229,7 +17368,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -17282,7 +17421,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -17335,7 +17474,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -17388,7 +17527,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="30">
         <v>43960</v>
       </c>
@@ -17441,7 +17580,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="30">
         <v>43961</v>
       </c>
@@ -17494,7 +17633,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="30">
         <v>43962</v>
       </c>
@@ -17547,7 +17686,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="30">
         <v>43963</v>
       </c>
@@ -17600,7 +17739,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="30">
         <v>43964</v>
       </c>
@@ -17653,7 +17792,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="30">
         <v>43965</v>
       </c>
@@ -17706,7 +17845,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="30">
         <v>43966</v>
       </c>
@@ -17759,7 +17898,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="30">
         <v>43967</v>
       </c>
@@ -17812,7 +17951,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="30">
         <v>43968</v>
       </c>
@@ -17865,7 +18004,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="30">
         <v>43969</v>
       </c>
@@ -17918,7 +18057,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="30">
         <v>43970</v>
       </c>
@@ -17971,7 +18110,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="30">
         <v>43971</v>
       </c>
@@ -18024,7 +18163,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="30">
         <v>43972</v>
       </c>
@@ -18077,7 +18216,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="30">
         <v>43973</v>
       </c>
@@ -18130,7 +18269,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="30">
         <v>43974</v>
       </c>
@@ -18183,7 +18322,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="30">
         <v>43975</v>
       </c>
@@ -18236,7 +18375,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="30">
         <v>43976</v>
       </c>
@@ -18289,7 +18428,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="30">
         <v>43977</v>
       </c>
@@ -18342,7 +18481,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="30">
         <v>43978</v>
       </c>
@@ -18395,7 +18534,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="30">
         <v>43979</v>
       </c>
@@ -18448,7 +18587,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="30">
         <v>43980</v>
       </c>
@@ -18501,7 +18640,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="30">
         <v>43981</v>
       </c>
@@ -18552,6 +18691,59 @@
       </c>
       <c r="Q69" s="13">
         <v>379</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" s="30">
+        <v>43982</v>
+      </c>
+      <c r="B70" s="14">
+        <v>27</v>
+      </c>
+      <c r="C70" s="14">
+        <v>17</v>
+      </c>
+      <c r="D70" s="14">
+        <v>14</v>
+      </c>
+      <c r="E70" s="14">
+        <v>17</v>
+      </c>
+      <c r="F70" s="14">
+        <v>39</v>
+      </c>
+      <c r="G70" s="14">
+        <v>9</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I70" s="14">
+        <v>20</v>
+      </c>
+      <c r="J70" s="14">
+        <v>64</v>
+      </c>
+      <c r="K70" s="14">
+        <v>120</v>
+      </c>
+      <c r="L70" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M70" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N70" s="14">
+        <v>13</v>
+      </c>
+      <c r="O70" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P70" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q70" s="13">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -18578,13 +18770,13 @@
       <value order="0">false</value>
     </field>
     <field name="Objective-IsPublished">
-      <value order="0">true</value>
+      <value order="0">false</value>
     </field>
     <field name="Objective-DatePublished">
-      <value order="0">2020-05-30T12:34:31Z</value>
+      <value order="0"/>
     </field>
     <field name="Objective-ModificationStamp">
-      <value order="0">2020-05-30T12:34:31Z</value>
+      <value order="0">2020-05-31T12:11:23Z</value>
     </field>
     <field name="Objective-Owner">
       <value order="0">Grant, Neil N (u207826)</value>
@@ -18596,16 +18788,16 @@
       <value order="0">Analytical: COVID 19 Analysis: Restricted working papers: Research and analysis: Diseases: 2020-2025</value>
     </field>
     <field name="Objective-State">
-      <value order="0">Published</value>
+      <value order="0">Being Drafted</value>
     </field>
     <field name="Objective-VersionId">
-      <value order="0">vA41431898</value>
+      <value order="0">vA41433326</value>
     </field>
     <field name="Objective-Version">
-      <value order="0">17.0</value>
+      <value order="0">17.2</value>
     </field>
     <field name="Objective-VersionNumber">
-      <value order="0">135</value>
+      <value order="0">137</value>
     </field>
     <field name="Objective-VersionComment">
       <value order="0"/>

--- a/data/csv/src/data_latest_sct.xlsx
+++ b/data/csv/src/data_latest_sct.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -1699,10 +1699,10 @@
   <dimension ref="A1:S160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H90" sqref="H90"/>
+      <selection pane="bottomRight" activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6108,21 +6108,54 @@
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B90" s="28"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="28"/>
-      <c r="J90" s="28"/>
-      <c r="K90" s="28"/>
-      <c r="L90" s="28"/>
-      <c r="M90" s="28"/>
-      <c r="N90" s="28"/>
-      <c r="O90" s="28"/>
-      <c r="P90" s="28"/>
+      <c r="A90" s="5">
+        <v>43983</v>
+      </c>
+      <c r="B90" s="28">
+        <v>1061</v>
+      </c>
+      <c r="C90" s="28">
+        <v>325</v>
+      </c>
+      <c r="D90" s="28">
+        <v>260</v>
+      </c>
+      <c r="E90" s="28">
+        <v>836</v>
+      </c>
+      <c r="F90" s="28">
+        <v>931</v>
+      </c>
+      <c r="G90" s="28">
+        <v>1278</v>
+      </c>
+      <c r="H90" s="28">
+        <v>3949</v>
+      </c>
+      <c r="I90" s="28">
+        <v>338</v>
+      </c>
+      <c r="J90" s="28">
+        <v>1987</v>
+      </c>
+      <c r="K90" s="28">
+        <v>2714</v>
+      </c>
+      <c r="L90" s="28">
+        <v>8</v>
+      </c>
+      <c r="M90" s="28">
+        <v>54</v>
+      </c>
+      <c r="N90" s="28">
+        <v>1671</v>
+      </c>
+      <c r="O90" s="28">
+        <v>6</v>
+      </c>
+      <c r="P90" s="32">
+        <v>15418</v>
+      </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B91" s="28"/>
@@ -7322,11 +7355,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
+      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11406,6 +11439,59 @@
         <v>27</v>
       </c>
     </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79" s="30">
+        <v>43983</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" s="40">
+        <v>7</v>
+      </c>
+      <c r="I79" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J79" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K79" s="14">
+        <v>5</v>
+      </c>
+      <c r="L79" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M79" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N79" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O79" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P79" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q79" s="13">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -11414,13 +11500,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O73" sqref="O73"/>
+      <selection pane="bottomRight" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15076,6 +15162,75 @@
         <v>732</v>
       </c>
     </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" s="51">
+        <v>43983</v>
+      </c>
+      <c r="B71" s="11">
+        <v>13</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" s="14">
+        <v>63</v>
+      </c>
+      <c r="F71" s="14">
+        <v>9</v>
+      </c>
+      <c r="G71" s="14">
+        <v>69</v>
+      </c>
+      <c r="H71" s="14">
+        <v>338</v>
+      </c>
+      <c r="I71" s="14">
+        <v>9</v>
+      </c>
+      <c r="J71" s="14">
+        <v>68</v>
+      </c>
+      <c r="K71" s="14">
+        <v>156</v>
+      </c>
+      <c r="L71" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M71" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N71" s="14">
+        <v>10</v>
+      </c>
+      <c r="O71" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P71" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q71" s="13">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="14"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -15084,13 +15239,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L88" sqref="L88"/>
+      <selection pane="bottomRight" activeCell="O77" sqref="O77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18744,6 +18899,59 @@
       </c>
       <c r="Q70" s="13">
         <v>341</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" s="30">
+        <v>43983</v>
+      </c>
+      <c r="B71" s="14">
+        <v>28</v>
+      </c>
+      <c r="C71" s="14">
+        <v>18</v>
+      </c>
+      <c r="D71" s="14">
+        <v>12</v>
+      </c>
+      <c r="E71" s="14">
+        <v>20</v>
+      </c>
+      <c r="F71" s="14">
+        <v>44</v>
+      </c>
+      <c r="G71" s="14">
+        <v>6</v>
+      </c>
+      <c r="H71" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I71" s="14">
+        <v>23</v>
+      </c>
+      <c r="J71" s="14">
+        <v>57</v>
+      </c>
+      <c r="K71" s="14">
+        <v>83</v>
+      </c>
+      <c r="L71" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M71" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N71" s="14">
+        <v>18</v>
+      </c>
+      <c r="O71" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P71" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q71" s="13">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -18776,7 +18984,7 @@
       <value order="0"/>
     </field>
     <field name="Objective-ModificationStamp">
-      <value order="0">2020-05-31T12:11:23Z</value>
+      <value order="0">2020-06-01T12:10:15Z</value>
     </field>
     <field name="Objective-Owner">
       <value order="0">Grant, Neil N (u207826)</value>
@@ -18791,13 +18999,13 @@
       <value order="0">Being Drafted</value>
     </field>
     <field name="Objective-VersionId">
-      <value order="0">vA41433326</value>
+      <value order="0">vA41452408</value>
     </field>
     <field name="Objective-Version">
-      <value order="0">17.2</value>
+      <value order="0">17.4</value>
     </field>
     <field name="Objective-VersionNumber">
-      <value order="0">137</value>
+      <value order="0">139</value>
     </field>
     <field name="Objective-VersionComment">
       <value order="0"/>

--- a/data/csv/src/data_latest_sct.xlsx
+++ b/data/csv/src/data_latest_sct.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U445783\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA18464\A28088333\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u201433\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA1432\A28088333\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5988" windowHeight="6012" tabRatio="803" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5985" windowHeight="6015" tabRatio="803" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -526,8 +526,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -537,7 +537,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6886575" cy="11201400"/>
+          <a:ext cx="6886575" cy="11677650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1307,6 +1307,62 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>12.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> For Table 1, the daily total of people found positive on 2/6/20 contains 40 historic samples from an NHS Fife laboratory.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100">
               <a:effectLst/>
@@ -1591,21 +1647,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="90.44140625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.44140625" style="2"/>
+    <col min="2" max="2" width="29.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="90.42578125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
@@ -1613,7 +1669,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
@@ -1621,13 +1677,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="23"/>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>26</v>
       </c>
@@ -1635,7 +1691,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>27</v>
       </c>
@@ -1643,7 +1699,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>36</v>
       </c>
@@ -1651,7 +1707,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
         <v>37</v>
       </c>
@@ -1675,16 +1731,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A44"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="P52" sqref="P52"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.44140625" style="2"/>
+    <col min="1" max="16384" width="9.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
     </row>
   </sheetData>
@@ -1698,21 +1754,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J95" sqref="J95"/>
+      <selection pane="bottomRight" activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
-    <col min="2" max="16" width="11.44140625" style="11" customWidth="1"/>
-    <col min="17" max="16384" width="8.5546875" style="2"/>
+    <col min="2" max="16" width="11.42578125" style="11" customWidth="1"/>
+    <col min="17" max="16384" width="8.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1732,7 +1788,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -1751,7 +1807,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1801,7 +1857,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43897</v>
       </c>
@@ -1851,7 +1907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>43898</v>
       </c>
@@ -1901,7 +1957,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>43899</v>
       </c>
@@ -1951,7 +2007,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>43900</v>
       </c>
@@ -2001,7 +2057,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>43901</v>
       </c>
@@ -2051,7 +2107,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>43902</v>
       </c>
@@ -2101,7 +2157,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>43903</v>
       </c>
@@ -2151,7 +2207,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>43904</v>
       </c>
@@ -2201,7 +2257,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>43905</v>
       </c>
@@ -2251,7 +2307,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>43906</v>
       </c>
@@ -2301,7 +2357,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>43907</v>
       </c>
@@ -2351,7 +2407,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>43908</v>
       </c>
@@ -2401,7 +2457,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>43909</v>
       </c>
@@ -2451,7 +2507,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>43910</v>
       </c>
@@ -2501,7 +2557,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>43911</v>
       </c>
@@ -2551,7 +2607,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>43912</v>
       </c>
@@ -2601,7 +2657,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>43913</v>
       </c>
@@ -2651,7 +2707,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>43914</v>
       </c>
@@ -2701,7 +2757,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>43915</v>
       </c>
@@ -2751,7 +2807,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>43916</v>
       </c>
@@ -2801,7 +2857,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>43917</v>
       </c>
@@ -2851,7 +2907,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>43918</v>
       </c>
@@ -2901,7 +2957,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>43919</v>
       </c>
@@ -2951,7 +3007,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>43920</v>
       </c>
@@ -3001,7 +3057,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>43921</v>
       </c>
@@ -3051,7 +3107,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>43922</v>
       </c>
@@ -3101,7 +3157,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>43923</v>
       </c>
@@ -3151,7 +3207,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>43924</v>
       </c>
@@ -3201,7 +3257,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>43925</v>
       </c>
@@ -3251,7 +3307,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>43926</v>
       </c>
@@ -3301,7 +3357,7 @@
         <v>3706</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>43927</v>
       </c>
@@ -3351,7 +3407,7 @@
         <v>3961</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>43928</v>
       </c>
@@ -3401,7 +3457,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>43929</v>
       </c>
@@ -3451,7 +3507,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>43930</v>
       </c>
@@ -3501,7 +3557,7 @@
         <v>4957</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>43931</v>
       </c>
@@ -3551,7 +3607,7 @@
         <v>5275</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>43932</v>
       </c>
@@ -3601,7 +3657,7 @@
         <v>5590</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>43933</v>
       </c>
@@ -3651,7 +3707,7 @@
         <v>5912</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>43934</v>
       </c>
@@ -3701,7 +3757,7 @@
         <v>6067</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>43935</v>
       </c>
@@ -3751,7 +3807,7 @@
         <v>6358</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>43936</v>
       </c>
@@ -3801,7 +3857,7 @@
         <v>6748</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43937</v>
       </c>
@@ -3851,7 +3907,7 @@
         <v>7102</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>43938</v>
       </c>
@@ -3901,7 +3957,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>43939</v>
       </c>
@@ -3951,7 +4007,7 @@
         <v>7820</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>43940</v>
       </c>
@@ -4001,7 +4057,7 @@
         <v>8187</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>43941</v>
       </c>
@@ -4051,7 +4107,7 @@
         <v>8450</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>43942</v>
       </c>
@@ -4101,7 +4157,7 @@
         <v>8672</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>43943</v>
       </c>
@@ -4151,7 +4207,7 @@
         <v>9038</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>43944</v>
       </c>
@@ -4201,7 +4257,7 @@
         <v>9409</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>43945</v>
       </c>
@@ -4251,7 +4307,7 @@
         <v>9697</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>43946</v>
       </c>
@@ -4301,7 +4357,7 @@
         <v>10051</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>43947</v>
       </c>
@@ -4352,7 +4408,7 @@
       </c>
       <c r="R54" s="38"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>43948</v>
       </c>
@@ -4403,7 +4459,7 @@
       </c>
       <c r="R55" s="38"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>43949</v>
       </c>
@@ -4454,7 +4510,7 @@
       </c>
       <c r="R56" s="39"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>43950</v>
       </c>
@@ -4504,7 +4560,7 @@
         <v>11034</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>43951</v>
       </c>
@@ -4555,7 +4611,7 @@
       </c>
       <c r="R58" s="38"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>43952</v>
       </c>
@@ -4607,7 +4663,7 @@
       <c r="R59" s="38"/>
       <c r="S59" s="38"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>43953</v>
       </c>
@@ -4657,7 +4713,7 @@
         <v>11927</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>43954</v>
       </c>
@@ -4707,7 +4763,7 @@
         <v>12097</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>43955</v>
       </c>
@@ -4757,7 +4813,7 @@
         <v>12266</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>43956</v>
       </c>
@@ -4807,7 +4863,7 @@
         <v>12437</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>43957</v>
       </c>
@@ -4857,7 +4913,7 @@
         <v>12709</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>43958</v>
       </c>
@@ -4907,7 +4963,7 @@
         <v>12924</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>43959</v>
       </c>
@@ -4957,7 +5013,7 @@
         <v>13149</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>43960</v>
       </c>
@@ -5007,7 +5063,7 @@
         <v>13305</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>43961</v>
       </c>
@@ -5057,7 +5113,7 @@
         <v>13486</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>43962</v>
       </c>
@@ -5107,7 +5163,7 @@
         <v>13627</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>43963</v>
       </c>
@@ -5157,7 +5213,7 @@
         <v>13763</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>43964</v>
       </c>
@@ -5207,7 +5263,7 @@
         <v>13929</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>43965</v>
       </c>
@@ -5257,7 +5313,7 @@
         <v>14117</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>43966</v>
       </c>
@@ -5307,7 +5363,7 @@
         <v>14260</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>43967</v>
       </c>
@@ -5357,7 +5413,7 @@
         <v>14447</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>43968</v>
       </c>
@@ -5407,7 +5463,7 @@
         <v>14537</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>43969</v>
       </c>
@@ -5457,7 +5513,7 @@
         <v>14594</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>43970</v>
       </c>
@@ -5507,7 +5563,7 @@
         <v>14655</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>43971</v>
       </c>
@@ -5557,7 +5613,7 @@
         <v>14751</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>43972</v>
       </c>
@@ -5607,7 +5663,7 @@
         <v>14856</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>43973</v>
       </c>
@@ -5657,7 +5713,7 @@
         <v>14969</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>43974</v>
       </c>
@@ -5707,7 +5763,7 @@
         <v>15041</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>43975</v>
       </c>
@@ -5757,7 +5813,7 @@
         <v>15101</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>43976</v>
       </c>
@@ -5807,7 +5863,7 @@
         <v>15156</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>43977</v>
       </c>
@@ -5857,7 +5913,7 @@
         <v>15185</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>43978</v>
       </c>
@@ -5907,7 +5963,7 @@
         <v>15240</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>43979</v>
       </c>
@@ -5957,7 +6013,7 @@
         <v>15288</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>43980</v>
       </c>
@@ -6007,7 +6063,7 @@
         <v>15327</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>43981</v>
       </c>
@@ -6057,7 +6113,7 @@
         <v>15382</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>43982</v>
       </c>
@@ -6107,7 +6163,7 @@
         <v>15400</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>43983</v>
       </c>
@@ -6157,41 +6213,107 @@
         <v>15418</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
-      <c r="K91" s="28"/>
-      <c r="L91" s="28"/>
-      <c r="M91" s="28"/>
-      <c r="N91" s="28"/>
-      <c r="O91" s="28"/>
-      <c r="P91" s="28"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="28"/>
-      <c r="J92" s="28"/>
-      <c r="K92" s="28"/>
-      <c r="L92" s="28"/>
-      <c r="M92" s="28"/>
-      <c r="N92" s="28"/>
-      <c r="O92" s="28"/>
-      <c r="P92" s="28"/>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" s="5">
+        <v>43984</v>
+      </c>
+      <c r="B91" s="28">
+        <v>1061</v>
+      </c>
+      <c r="C91" s="28">
+        <v>325</v>
+      </c>
+      <c r="D91" s="28">
+        <v>260</v>
+      </c>
+      <c r="E91" s="28">
+        <v>871</v>
+      </c>
+      <c r="F91" s="28">
+        <v>935</v>
+      </c>
+      <c r="G91" s="28">
+        <v>1281</v>
+      </c>
+      <c r="H91" s="28">
+        <v>3950</v>
+      </c>
+      <c r="I91" s="28">
+        <v>338</v>
+      </c>
+      <c r="J91" s="28">
+        <v>1995</v>
+      </c>
+      <c r="K91" s="28">
+        <v>2716</v>
+      </c>
+      <c r="L91" s="28">
+        <v>8</v>
+      </c>
+      <c r="M91" s="28">
+        <v>54</v>
+      </c>
+      <c r="N91" s="28">
+        <v>1671</v>
+      </c>
+      <c r="O91" s="28">
+        <v>6</v>
+      </c>
+      <c r="P91" s="32">
+        <v>15471</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
+        <v>43985</v>
+      </c>
+      <c r="B92" s="28">
+        <v>1066</v>
+      </c>
+      <c r="C92" s="28">
+        <v>325</v>
+      </c>
+      <c r="D92" s="28">
+        <v>260</v>
+      </c>
+      <c r="E92" s="28">
+        <v>876</v>
+      </c>
+      <c r="F92" s="28">
+        <v>942</v>
+      </c>
+      <c r="G92" s="28">
+        <v>1282</v>
+      </c>
+      <c r="H92" s="28">
+        <v>3954</v>
+      </c>
+      <c r="I92" s="28">
+        <v>339</v>
+      </c>
+      <c r="J92" s="28">
+        <v>1998</v>
+      </c>
+      <c r="K92" s="28">
+        <v>2723</v>
+      </c>
+      <c r="L92" s="28">
+        <v>8</v>
+      </c>
+      <c r="M92" s="28">
+        <v>54</v>
+      </c>
+      <c r="N92" s="28">
+        <v>1671</v>
+      </c>
+      <c r="O92" s="28">
+        <v>6</v>
+      </c>
+      <c r="P92" s="32">
+        <v>15504</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B93" s="28"/>
       <c r="C93" s="28"/>
       <c r="D93" s="28"/>
@@ -6208,7 +6330,7 @@
       <c r="O93" s="28"/>
       <c r="P93" s="28"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
       <c r="D94" s="28"/>
@@ -6225,7 +6347,7 @@
       <c r="O94" s="28"/>
       <c r="P94" s="28"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
       <c r="D95" s="28"/>
@@ -6242,7 +6364,7 @@
       <c r="O95" s="28"/>
       <c r="P95" s="28"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
       <c r="D96" s="28"/>
@@ -6259,7 +6381,7 @@
       <c r="O96" s="28"/>
       <c r="P96" s="28"/>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
@@ -6276,7 +6398,7 @@
       <c r="O97" s="28"/>
       <c r="P97" s="28"/>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
       <c r="D98" s="28"/>
@@ -6293,7 +6415,7 @@
       <c r="O98" s="28"/>
       <c r="P98" s="28"/>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
       <c r="D99" s="28"/>
@@ -6310,7 +6432,7 @@
       <c r="O99" s="28"/>
       <c r="P99" s="28"/>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
       <c r="D100" s="28"/>
@@ -6327,7 +6449,7 @@
       <c r="O100" s="28"/>
       <c r="P100" s="28"/>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
       <c r="D101" s="28"/>
@@ -6344,7 +6466,7 @@
       <c r="O101" s="28"/>
       <c r="P101" s="28"/>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B102" s="28"/>
       <c r="C102" s="28"/>
       <c r="D102" s="28"/>
@@ -6361,7 +6483,7 @@
       <c r="O102" s="28"/>
       <c r="P102" s="28"/>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
       <c r="D103" s="28"/>
@@ -6378,7 +6500,7 @@
       <c r="O103" s="28"/>
       <c r="P103" s="28"/>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
       <c r="D104" s="28"/>
@@ -6395,7 +6517,7 @@
       <c r="O104" s="28"/>
       <c r="P104" s="28"/>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B105" s="28"/>
       <c r="C105" s="28"/>
       <c r="D105" s="28"/>
@@ -6412,7 +6534,7 @@
       <c r="O105" s="28"/>
       <c r="P105" s="28"/>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
       <c r="D106" s="28"/>
@@ -6429,7 +6551,7 @@
       <c r="O106" s="28"/>
       <c r="P106" s="28"/>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
       <c r="D107" s="28"/>
@@ -6446,7 +6568,7 @@
       <c r="O107" s="28"/>
       <c r="P107" s="28"/>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B108" s="28"/>
       <c r="C108" s="28"/>
       <c r="D108" s="28"/>
@@ -6463,7 +6585,7 @@
       <c r="O108" s="28"/>
       <c r="P108" s="28"/>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
       <c r="D109" s="28"/>
@@ -6480,7 +6602,7 @@
       <c r="O109" s="28"/>
       <c r="P109" s="28"/>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B110" s="28"/>
       <c r="C110" s="28"/>
       <c r="D110" s="28"/>
@@ -6497,7 +6619,7 @@
       <c r="O110" s="28"/>
       <c r="P110" s="28"/>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B111" s="28"/>
       <c r="C111" s="28"/>
       <c r="D111" s="28"/>
@@ -6514,7 +6636,7 @@
       <c r="O111" s="28"/>
       <c r="P111" s="28"/>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B112" s="28"/>
       <c r="C112" s="28"/>
       <c r="D112" s="28"/>
@@ -6531,7 +6653,7 @@
       <c r="O112" s="28"/>
       <c r="P112" s="28"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B113" s="28"/>
       <c r="C113" s="28"/>
       <c r="D113" s="28"/>
@@ -6548,7 +6670,7 @@
       <c r="O113" s="28"/>
       <c r="P113" s="28"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B114" s="28"/>
       <c r="C114" s="28"/>
       <c r="D114" s="28"/>
@@ -6565,7 +6687,7 @@
       <c r="O114" s="28"/>
       <c r="P114" s="28"/>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B115" s="28"/>
       <c r="C115" s="28"/>
       <c r="D115" s="28"/>
@@ -6582,7 +6704,7 @@
       <c r="O115" s="28"/>
       <c r="P115" s="28"/>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B116" s="28"/>
       <c r="C116" s="28"/>
       <c r="D116" s="28"/>
@@ -6599,7 +6721,7 @@
       <c r="O116" s="28"/>
       <c r="P116" s="28"/>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
       <c r="D117" s="28"/>
@@ -6616,7 +6738,7 @@
       <c r="O117" s="28"/>
       <c r="P117" s="28"/>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
       <c r="D118" s="28"/>
@@ -6633,7 +6755,7 @@
       <c r="O118" s="28"/>
       <c r="P118" s="28"/>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B119" s="28"/>
       <c r="C119" s="28"/>
       <c r="D119" s="28"/>
@@ -6650,7 +6772,7 @@
       <c r="O119" s="28"/>
       <c r="P119" s="28"/>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B120" s="28"/>
       <c r="C120" s="28"/>
       <c r="D120" s="28"/>
@@ -6667,7 +6789,7 @@
       <c r="O120" s="28"/>
       <c r="P120" s="28"/>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
       <c r="D121" s="28"/>
@@ -6684,7 +6806,7 @@
       <c r="O121" s="28"/>
       <c r="P121" s="28"/>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
       <c r="D122" s="28"/>
@@ -6701,7 +6823,7 @@
       <c r="O122" s="28"/>
       <c r="P122" s="28"/>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
       <c r="D123" s="28"/>
@@ -6718,7 +6840,7 @@
       <c r="O123" s="28"/>
       <c r="P123" s="28"/>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
       <c r="D124" s="28"/>
@@ -6735,7 +6857,7 @@
       <c r="O124" s="28"/>
       <c r="P124" s="28"/>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B125" s="28"/>
       <c r="C125" s="28"/>
       <c r="D125" s="28"/>
@@ -6752,7 +6874,7 @@
       <c r="O125" s="28"/>
       <c r="P125" s="28"/>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B126" s="28"/>
       <c r="C126" s="28"/>
       <c r="D126" s="28"/>
@@ -6769,7 +6891,7 @@
       <c r="O126" s="28"/>
       <c r="P126" s="28"/>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B127" s="28"/>
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
@@ -6786,7 +6908,7 @@
       <c r="O127" s="28"/>
       <c r="P127" s="28"/>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
       <c r="D128" s="28"/>
@@ -6803,7 +6925,7 @@
       <c r="O128" s="28"/>
       <c r="P128" s="28"/>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B129" s="28"/>
       <c r="C129" s="28"/>
       <c r="D129" s="28"/>
@@ -6820,7 +6942,7 @@
       <c r="O129" s="28"/>
       <c r="P129" s="28"/>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B130" s="28"/>
       <c r="C130" s="28"/>
       <c r="D130" s="28"/>
@@ -6837,7 +6959,7 @@
       <c r="O130" s="28"/>
       <c r="P130" s="28"/>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
       <c r="D131" s="28"/>
@@ -6854,7 +6976,7 @@
       <c r="O131" s="28"/>
       <c r="P131" s="28"/>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
       <c r="D132" s="28"/>
@@ -6871,7 +6993,7 @@
       <c r="O132" s="28"/>
       <c r="P132" s="28"/>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
       <c r="D133" s="28"/>
@@ -6888,7 +7010,7 @@
       <c r="O133" s="28"/>
       <c r="P133" s="28"/>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B134" s="28"/>
       <c r="C134" s="28"/>
       <c r="D134" s="28"/>
@@ -6905,7 +7027,7 @@
       <c r="O134" s="28"/>
       <c r="P134" s="28"/>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B135" s="28"/>
       <c r="C135" s="28"/>
       <c r="D135" s="28"/>
@@ -6922,7 +7044,7 @@
       <c r="O135" s="28"/>
       <c r="P135" s="28"/>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B136" s="28"/>
       <c r="C136" s="28"/>
       <c r="D136" s="28"/>
@@ -6939,7 +7061,7 @@
       <c r="O136" s="28"/>
       <c r="P136" s="28"/>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
       <c r="D137" s="28"/>
@@ -6956,7 +7078,7 @@
       <c r="O137" s="28"/>
       <c r="P137" s="28"/>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B138" s="28"/>
       <c r="C138" s="28"/>
       <c r="D138" s="28"/>
@@ -6973,7 +7095,7 @@
       <c r="O138" s="28"/>
       <c r="P138" s="28"/>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B139" s="28"/>
       <c r="C139" s="28"/>
       <c r="D139" s="28"/>
@@ -6990,7 +7112,7 @@
       <c r="O139" s="28"/>
       <c r="P139" s="28"/>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B140" s="28"/>
       <c r="C140" s="28"/>
       <c r="D140" s="28"/>
@@ -7007,7 +7129,7 @@
       <c r="O140" s="28"/>
       <c r="P140" s="28"/>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B141" s="28"/>
       <c r="C141" s="28"/>
       <c r="D141" s="28"/>
@@ -7024,7 +7146,7 @@
       <c r="O141" s="28"/>
       <c r="P141" s="28"/>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B142" s="28"/>
       <c r="C142" s="28"/>
       <c r="D142" s="28"/>
@@ -7041,7 +7163,7 @@
       <c r="O142" s="28"/>
       <c r="P142" s="28"/>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B143" s="28"/>
       <c r="C143" s="28"/>
       <c r="D143" s="28"/>
@@ -7058,7 +7180,7 @@
       <c r="O143" s="28"/>
       <c r="P143" s="28"/>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B144" s="28"/>
       <c r="C144" s="28"/>
       <c r="D144" s="28"/>
@@ -7075,7 +7197,7 @@
       <c r="O144" s="28"/>
       <c r="P144" s="28"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
       <c r="D145" s="28"/>
@@ -7092,7 +7214,7 @@
       <c r="O145" s="28"/>
       <c r="P145" s="28"/>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B146" s="28"/>
       <c r="C146" s="28"/>
       <c r="D146" s="28"/>
@@ -7109,7 +7231,7 @@
       <c r="O146" s="28"/>
       <c r="P146" s="28"/>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B147" s="28"/>
       <c r="C147" s="28"/>
       <c r="D147" s="28"/>
@@ -7126,7 +7248,7 @@
       <c r="O147" s="28"/>
       <c r="P147" s="28"/>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B148" s="28"/>
       <c r="C148" s="28"/>
       <c r="D148" s="28"/>
@@ -7143,7 +7265,7 @@
       <c r="O148" s="28"/>
       <c r="P148" s="28"/>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
       <c r="D149" s="28"/>
@@ -7160,7 +7282,7 @@
       <c r="O149" s="28"/>
       <c r="P149" s="28"/>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
       <c r="D150" s="28"/>
@@ -7177,7 +7299,7 @@
       <c r="O150" s="28"/>
       <c r="P150" s="28"/>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
       <c r="D151" s="28"/>
@@ -7194,7 +7316,7 @@
       <c r="O151" s="28"/>
       <c r="P151" s="28"/>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B152" s="28"/>
       <c r="C152" s="28"/>
       <c r="D152" s="28"/>
@@ -7211,7 +7333,7 @@
       <c r="O152" s="28"/>
       <c r="P152" s="28"/>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
       <c r="D153" s="28"/>
@@ -7228,7 +7350,7 @@
       <c r="O153" s="28"/>
       <c r="P153" s="28"/>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B154" s="28"/>
       <c r="C154" s="28"/>
       <c r="D154" s="28"/>
@@ -7245,7 +7367,7 @@
       <c r="O154" s="28"/>
       <c r="P154" s="28"/>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B155" s="28"/>
       <c r="C155" s="28"/>
       <c r="D155" s="28"/>
@@ -7262,7 +7384,7 @@
       <c r="O155" s="28"/>
       <c r="P155" s="28"/>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B156" s="28"/>
       <c r="C156" s="28"/>
       <c r="D156" s="28"/>
@@ -7279,7 +7401,7 @@
       <c r="O156" s="28"/>
       <c r="P156" s="28"/>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B157" s="28"/>
       <c r="C157" s="28"/>
       <c r="D157" s="28"/>
@@ -7296,7 +7418,7 @@
       <c r="O157" s="28"/>
       <c r="P157" s="28"/>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
       <c r="D158" s="28"/>
@@ -7313,7 +7435,7 @@
       <c r="O158" s="28"/>
       <c r="P158" s="28"/>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
       <c r="D159" s="28"/>
@@ -7330,7 +7452,7 @@
       <c r="O159" s="28"/>
       <c r="P159" s="28"/>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
       <c r="D160" s="28"/>
@@ -7355,21 +7477,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H81" sqref="H81"/>
+      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N80" sqref="N80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5546875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5546875" style="2"/>
+    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -7390,7 +7512,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -7411,7 +7533,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -7464,7 +7586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43908</v>
       </c>
@@ -7517,7 +7639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43909</v>
       </c>
@@ -7570,7 +7692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>43910</v>
       </c>
@@ -7623,7 +7745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>43911</v>
       </c>
@@ -7676,7 +7798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>43912</v>
       </c>
@@ -7729,7 +7851,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>43913</v>
       </c>
@@ -7782,7 +7904,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>43914</v>
       </c>
@@ -7835,7 +7957,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>43915</v>
       </c>
@@ -7888,7 +8010,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>43916</v>
       </c>
@@ -7941,7 +8063,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>43917</v>
       </c>
@@ -7994,7 +8116,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>43918</v>
       </c>
@@ -8047,7 +8169,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>43919</v>
       </c>
@@ -8100,7 +8222,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>43920</v>
       </c>
@@ -8153,7 +8275,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>43921</v>
       </c>
@@ -8206,7 +8328,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>43922</v>
       </c>
@@ -8259,7 +8381,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>43923</v>
       </c>
@@ -8312,7 +8434,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>43924</v>
       </c>
@@ -8365,7 +8487,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>43925</v>
       </c>
@@ -8418,7 +8540,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>43926</v>
       </c>
@@ -8471,7 +8593,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>43927</v>
       </c>
@@ -8524,7 +8646,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>43928</v>
       </c>
@@ -8577,7 +8699,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>43929</v>
       </c>
@@ -8630,7 +8752,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>43930</v>
       </c>
@@ -8683,7 +8805,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>43931</v>
       </c>
@@ -8736,7 +8858,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>43932</v>
       </c>
@@ -8789,7 +8911,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>43933</v>
       </c>
@@ -8842,7 +8964,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>43934</v>
       </c>
@@ -8895,7 +9017,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>43935</v>
       </c>
@@ -8948,7 +9070,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>43936</v>
       </c>
@@ -9001,7 +9123,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>43937</v>
       </c>
@@ -9054,7 +9176,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>43938</v>
       </c>
@@ -9107,7 +9229,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>43939</v>
       </c>
@@ -9160,7 +9282,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>43940</v>
       </c>
@@ -9213,7 +9335,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>43941</v>
       </c>
@@ -9266,7 +9388,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>43942</v>
       </c>
@@ -9319,7 +9441,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>43943</v>
       </c>
@@ -9372,7 +9494,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>43944</v>
       </c>
@@ -9425,7 +9547,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>43945</v>
       </c>
@@ -9478,7 +9600,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>43946</v>
       </c>
@@ -9531,7 +9653,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
         <v>43947</v>
       </c>
@@ -9584,7 +9706,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>43948</v>
       </c>
@@ -9637,7 +9759,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
         <v>43949</v>
       </c>
@@ -9690,7 +9812,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="30">
         <v>43950</v>
       </c>
@@ -9743,7 +9865,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
         <v>43951</v>
       </c>
@@ -9796,7 +9918,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="30">
         <v>43952</v>
       </c>
@@ -9849,7 +9971,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="30">
         <v>43953</v>
       </c>
@@ -9902,7 +10024,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>43954</v>
       </c>
@@ -9955,7 +10077,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="30">
         <v>43955</v>
       </c>
@@ -10008,7 +10130,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="30">
         <v>43956</v>
       </c>
@@ -10061,7 +10183,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="30">
         <v>43957</v>
       </c>
@@ -10114,7 +10236,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="30">
         <v>43958</v>
       </c>
@@ -10167,7 +10289,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="30">
         <v>43959</v>
       </c>
@@ -10220,7 +10342,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="30">
         <v>43960</v>
       </c>
@@ -10273,7 +10395,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="30">
         <v>43961</v>
       </c>
@@ -10326,7 +10448,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="30">
         <v>43962</v>
       </c>
@@ -10379,7 +10501,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="30">
         <v>43963</v>
       </c>
@@ -10432,7 +10554,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="30">
         <v>43964</v>
       </c>
@@ -10485,7 +10607,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="30">
         <v>43965</v>
       </c>
@@ -10538,7 +10660,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="30">
         <v>43966</v>
       </c>
@@ -10591,7 +10713,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="30">
         <v>43967</v>
       </c>
@@ -10644,7 +10766,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="30">
         <v>43968</v>
       </c>
@@ -10697,7 +10819,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="30">
         <v>43969</v>
       </c>
@@ -10750,7 +10872,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="30">
         <v>43970</v>
       </c>
@@ -10803,7 +10925,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="30">
         <v>43971</v>
       </c>
@@ -10856,7 +10978,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="30">
         <v>43972</v>
       </c>
@@ -10909,7 +11031,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="30">
         <v>43973</v>
       </c>
@@ -10962,7 +11084,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="30">
         <v>43974</v>
       </c>
@@ -11015,7 +11137,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="30">
         <v>43975</v>
       </c>
@@ -11068,7 +11190,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="30">
         <v>43976</v>
       </c>
@@ -11121,7 +11243,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="30">
         <v>43977</v>
       </c>
@@ -11174,7 +11296,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="30">
         <v>43978</v>
       </c>
@@ -11227,7 +11349,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="30">
         <v>43979</v>
       </c>
@@ -11280,7 +11402,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="30">
         <v>43980</v>
       </c>
@@ -11333,7 +11455,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="30">
         <v>43981</v>
       </c>
@@ -11386,7 +11508,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="30">
         <v>43982</v>
       </c>
@@ -11439,7 +11561,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="30">
         <v>43983</v>
       </c>
@@ -11490,6 +11612,112 @@
       </c>
       <c r="Q79" s="13">
         <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="30">
+        <v>43984</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E80" s="11">
+        <v>5</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G80" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H80" s="11">
+        <v>7</v>
+      </c>
+      <c r="I80" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J80" s="11">
+        <v>7</v>
+      </c>
+      <c r="K80" s="11">
+        <v>5</v>
+      </c>
+      <c r="L80" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M80" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N80" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O80" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P80" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q80" s="13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" s="30">
+        <v>43985</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H81" s="11">
+        <v>6</v>
+      </c>
+      <c r="I81" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J81" s="11">
+        <v>6</v>
+      </c>
+      <c r="K81" s="11">
+        <v>9</v>
+      </c>
+      <c r="L81" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M81" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N81" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O81" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P81" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q81" s="13">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -11500,23 +11728,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F72" sqref="F72"/>
+      <selection pane="bottomRight" activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5546875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5546875" style="2"/>
+    <col min="1" max="1" width="15.140625" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -11537,7 +11765,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -11558,7 +11786,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -11611,7 +11839,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -11664,7 +11892,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -11717,7 +11945,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -11770,7 +11998,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -11823,7 +12051,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -11876,7 +12104,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -11929,7 +12157,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -11982,7 +12210,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -12035,7 +12263,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -12088,7 +12316,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -12141,7 +12369,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -12194,7 +12422,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -12247,7 +12475,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -12300,7 +12528,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -12353,7 +12581,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -12406,7 +12634,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -12459,7 +12687,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -12512,7 +12740,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -12565,7 +12793,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -12618,7 +12846,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -12671,7 +12899,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -12724,7 +12952,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -12777,7 +13005,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -12830,7 +13058,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -12883,7 +13111,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -12936,7 +13164,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -12989,7 +13217,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -13042,7 +13270,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -13095,7 +13323,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -13148,7 +13376,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -13201,7 +13429,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -13254,7 +13482,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -13307,7 +13535,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -13360,7 +13588,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -13413,7 +13641,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -13466,7 +13694,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -13519,7 +13747,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -13572,7 +13800,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -13625,7 +13853,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -13678,7 +13906,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -13731,7 +13959,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -13784,7 +14012,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -13837,7 +14065,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -13890,7 +14118,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -13943,7 +14171,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="30">
         <v>43960</v>
       </c>
@@ -13996,7 +14224,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="30">
         <v>43961</v>
       </c>
@@ -14049,7 +14277,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>43962</v>
       </c>
@@ -14102,7 +14330,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="30">
         <v>43963</v>
       </c>
@@ -14155,7 +14383,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="30">
         <v>43964</v>
       </c>
@@ -14208,7 +14436,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="30">
         <v>43965</v>
       </c>
@@ -14261,7 +14489,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="30">
         <v>43966</v>
       </c>
@@ -14314,7 +14542,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="30">
         <v>43967</v>
       </c>
@@ -14367,7 +14595,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="30">
         <v>43968</v>
       </c>
@@ -14420,7 +14648,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="30">
         <v>43969</v>
       </c>
@@ -14473,7 +14701,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="30">
         <v>43970</v>
       </c>
@@ -14526,7 +14754,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="30">
         <v>43971</v>
       </c>
@@ -14579,7 +14807,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="30">
         <v>43972</v>
       </c>
@@ -14632,7 +14860,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="30">
         <v>43973</v>
       </c>
@@ -14685,7 +14913,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="30">
         <v>43974</v>
       </c>
@@ -14738,7 +14966,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="30">
         <v>43975</v>
       </c>
@@ -14791,7 +15019,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="30">
         <v>43976</v>
       </c>
@@ -14844,7 +15072,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="51">
         <v>43977</v>
       </c>
@@ -14897,7 +15125,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="51">
         <v>43978</v>
       </c>
@@ -14950,7 +15178,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="51">
         <v>43979</v>
       </c>
@@ -15003,7 +15231,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="51">
         <v>43980</v>
       </c>
@@ -15056,7 +15284,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="51">
         <v>43981</v>
       </c>
@@ -15109,7 +15337,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="51">
         <v>43982</v>
       </c>
@@ -15162,7 +15390,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="51">
         <v>43983</v>
       </c>
@@ -15215,21 +15443,111 @@
         <v>735</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="14"/>
-      <c r="O72" s="14"/>
-      <c r="P72" s="14"/>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="51">
+        <v>43984</v>
+      </c>
+      <c r="B72" s="11">
+        <v>11</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" s="11">
+        <v>60</v>
+      </c>
+      <c r="F72" s="11">
+        <v>9</v>
+      </c>
+      <c r="G72" s="11">
+        <v>64</v>
+      </c>
+      <c r="H72" s="11">
+        <v>332</v>
+      </c>
+      <c r="I72" s="11">
+        <v>10</v>
+      </c>
+      <c r="J72" s="11">
+        <v>66</v>
+      </c>
+      <c r="K72" s="11">
+        <v>150</v>
+      </c>
+      <c r="L72" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M72" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N72" s="11">
+        <v>10</v>
+      </c>
+      <c r="O72" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P72" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q72" s="13">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="51">
+        <v>43985</v>
+      </c>
+      <c r="B73" s="11">
+        <v>10</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="11">
+        <v>60</v>
+      </c>
+      <c r="F73" s="11">
+        <v>12</v>
+      </c>
+      <c r="G73" s="11">
+        <v>64</v>
+      </c>
+      <c r="H73" s="11">
+        <v>332</v>
+      </c>
+      <c r="I73" s="11">
+        <v>9</v>
+      </c>
+      <c r="J73" s="11">
+        <v>66</v>
+      </c>
+      <c r="K73" s="11">
+        <v>144</v>
+      </c>
+      <c r="L73" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M73" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N73" s="11">
+        <v>9</v>
+      </c>
+      <c r="O73" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P73" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q73" s="13">
+        <v>706</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15239,23 +15557,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O77" sqref="O77"/>
+      <selection pane="bottomRight" activeCell="Q73" sqref="Q73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5546875" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5546875" style="2"/>
+    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -15276,7 +15594,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -15297,7 +15615,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -15350,7 +15668,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -15403,7 +15721,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -15456,7 +15774,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -15509,7 +15827,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -15562,7 +15880,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -15615,7 +15933,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -15668,7 +15986,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -15721,7 +16039,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -15774,7 +16092,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -15827,7 +16145,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -15880,7 +16198,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -15933,7 +16251,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -15986,7 +16304,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -16039,7 +16357,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -16092,7 +16410,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -16145,7 +16463,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -16198,7 +16516,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -16251,7 +16569,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -16304,7 +16622,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -16357,7 +16675,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -16410,7 +16728,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -16463,7 +16781,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -16516,7 +16834,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -16569,7 +16887,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -16622,7 +16940,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -16675,7 +16993,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -16728,7 +17046,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -16781,7 +17099,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -16834,7 +17152,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -16887,7 +17205,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -16940,7 +17258,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -16993,7 +17311,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -17046,7 +17364,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -17099,7 +17417,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -17152,7 +17470,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -17205,7 +17523,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -17258,7 +17576,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -17311,7 +17629,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -17364,7 +17682,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -17417,7 +17735,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -17470,7 +17788,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -17523,7 +17841,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -17576,7 +17894,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -17629,7 +17947,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -17682,7 +18000,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="30">
         <v>43960</v>
       </c>
@@ -17735,7 +18053,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="30">
         <v>43961</v>
       </c>
@@ -17788,7 +18106,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="30">
         <v>43962</v>
       </c>
@@ -17841,7 +18159,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="30">
         <v>43963</v>
       </c>
@@ -17894,7 +18212,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="30">
         <v>43964</v>
       </c>
@@ -17947,7 +18265,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="30">
         <v>43965</v>
       </c>
@@ -18000,7 +18318,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="30">
         <v>43966</v>
       </c>
@@ -18053,7 +18371,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="30">
         <v>43967</v>
       </c>
@@ -18106,7 +18424,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="30">
         <v>43968</v>
       </c>
@@ -18159,7 +18477,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="30">
         <v>43969</v>
       </c>
@@ -18212,7 +18530,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="30">
         <v>43970</v>
       </c>
@@ -18265,7 +18583,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="30">
         <v>43971</v>
       </c>
@@ -18318,7 +18636,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="30">
         <v>43972</v>
       </c>
@@ -18371,7 +18689,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="30">
         <v>43973</v>
       </c>
@@ -18424,7 +18742,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="30">
         <v>43974</v>
       </c>
@@ -18477,7 +18795,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="30">
         <v>43975</v>
       </c>
@@ -18530,7 +18848,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="30">
         <v>43976</v>
       </c>
@@ -18583,7 +18901,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="30">
         <v>43977</v>
       </c>
@@ -18636,7 +18954,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="30">
         <v>43978</v>
       </c>
@@ -18689,7 +19007,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="30">
         <v>43979</v>
       </c>
@@ -18742,7 +19060,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="30">
         <v>43980</v>
       </c>
@@ -18795,7 +19113,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="30">
         <v>43981</v>
       </c>
@@ -18848,7 +19166,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="30">
         <v>43982</v>
       </c>
@@ -18901,7 +19219,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="30">
         <v>43983</v>
       </c>
@@ -18952,6 +19270,112 @@
       </c>
       <c r="Q71" s="13">
         <v>311</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="30">
+        <v>43984</v>
+      </c>
+      <c r="B72" s="11">
+        <v>37</v>
+      </c>
+      <c r="C72" s="11">
+        <v>13</v>
+      </c>
+      <c r="D72" s="11">
+        <v>23</v>
+      </c>
+      <c r="E72" s="11">
+        <v>24</v>
+      </c>
+      <c r="F72" s="11">
+        <v>53</v>
+      </c>
+      <c r="G72" s="11">
+        <v>14</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I72" s="11">
+        <v>52</v>
+      </c>
+      <c r="J72" s="11">
+        <v>68</v>
+      </c>
+      <c r="K72" s="11">
+        <v>152</v>
+      </c>
+      <c r="L72" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M72" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N72" s="11">
+        <v>17</v>
+      </c>
+      <c r="O72" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P72" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q72" s="13">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="30">
+        <v>43985</v>
+      </c>
+      <c r="B73" s="11">
+        <v>26</v>
+      </c>
+      <c r="C73" s="11">
+        <v>16</v>
+      </c>
+      <c r="D73" s="11">
+        <v>14</v>
+      </c>
+      <c r="E73" s="11">
+        <v>21</v>
+      </c>
+      <c r="F73" s="11">
+        <v>37</v>
+      </c>
+      <c r="G73" s="11">
+        <v>16</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I73" s="11">
+        <v>22</v>
+      </c>
+      <c r="J73" s="11">
+        <v>85</v>
+      </c>
+      <c r="K73" s="11">
+        <v>160</v>
+      </c>
+      <c r="L73" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M73" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N73" s="11">
+        <v>12</v>
+      </c>
+      <c r="O73" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P73" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q73" s="13">
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -18978,13 +19402,13 @@
       <value order="0">false</value>
     </field>
     <field name="Objective-IsPublished">
-      <value order="0">false</value>
+      <value order="0">true</value>
     </field>
     <field name="Objective-DatePublished">
-      <value order="0"/>
+      <value order="0">2020-06-03T12:41:24Z</value>
     </field>
     <field name="Objective-ModificationStamp">
-      <value order="0">2020-06-01T12:10:15Z</value>
+      <value order="0">2020-06-03T12:41:24Z</value>
     </field>
     <field name="Objective-Owner">
       <value order="0">Grant, Neil N (u207826)</value>
@@ -18996,16 +19420,16 @@
       <value order="0">Analytical: COVID 19 Analysis: Restricted working papers: Research and analysis: Diseases: 2020-2025</value>
     </field>
     <field name="Objective-State">
-      <value order="0">Being Drafted</value>
+      <value order="0">Published</value>
     </field>
     <field name="Objective-VersionId">
-      <value order="0">vA41452408</value>
+      <value order="0">vA41513351</value>
     </field>
     <field name="Objective-Version">
-      <value order="0">17.4</value>
+      <value order="0">18.0</value>
     </field>
     <field name="Objective-VersionNumber">
-      <value order="0">139</value>
+      <value order="0">144</value>
     </field>
     <field name="Objective-VersionComment">
       <value order="0"/>

--- a/data/csv/src/data_latest_sct.xlsx
+++ b/data/csv/src/data_latest_sct.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u201433\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA1432\A28088333\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u207826\Objective\Objects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5985" windowHeight="6015" tabRatio="803" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5990" windowHeight="6020" tabRatio="803"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -389,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -496,6 +496,9 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -526,8 +529,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -537,7 +540,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6886575" cy="11677650"/>
+          <a:ext cx="7204075" cy="12357100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -722,23 +725,6 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
           <a:r>
             <a:rPr lang="en-GB" sz="1100">
               <a:effectLst/>
@@ -746,44 +732,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>4. No data has been received since 12</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="30000">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>th</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> May for tests conducted at the NHS Western Isles lab. This lab sends some samples to other labs for testing and these have contained no positive cases.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>5. It should be noted that testing capacity tends to be lower at weekends, and on public holidays.</a:t>
+            <a:t>4. It should be noted that testing capacity tends to be lower at weekends, and on public holidays.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -805,7 +754,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>6. Where errors have been found in previous reported numbers, these have been corrected. </a:t>
+            <a:t>5. Where errors have been found in previous reported numbers, these have been corrected. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -855,6 +804,34 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>On 4 June, also based on updated postcode information, one case has been reassigned from Highland to Forth Valley. This resulted in a decrease of one in the total number of cases in the Highlands.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100">
               <a:effectLst/>
@@ -873,7 +850,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>7. The data in Table 2, 3a and 3b includes a snapshot of:</a:t>
+            <a:t>6. The data in Table 2, 3a and 3b includes a snapshot of:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1040,7 +1017,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>8. NHS Boards provide Scottish Government with management information on the numbers of patients in ICU with confirmed or suspected COVID-19 at midnight – this is intended to provide information on patients receiving ICU level 3 care. A small number of NHS Boards have some combined ICU/HDU units and provide information on those units. For example NHS Tayside had included a standalone HDU in returns before 7</a:t>
+            <a:t>7. NHS Boards provide Scottish Government with management information on the numbers of patients in ICU with confirmed or suspected COVID-19 at midnight – this is intended to provide information on patients receiving ICU level 3 care. A small number of NHS Boards have some combined ICU/HDU units and provide information on those units. For example NHS Tayside had included a standalone HDU in returns before 7</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="30000">
@@ -1095,7 +1072,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>9. The number of patients in hospital or ICU reported each day refers to the number of patients overnight, at midnight on the preceding night.</a:t>
+            <a:t>8. The number of patients in hospital or ICU reported each day refers to the number of patients overnight, at midnight on the preceding night.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1117,7 +1094,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>10. Where Boards do not provide their overnight data in time for the daily publication, the previous day’s data will be used and highlighted on each occasion. The figure will be revised the subsequent day to include the correct data. Figures may also be revised if Boards discover an error and have to resubmit their data. </a:t>
+            <a:t>9. Where Boards do not provide their overnight data in time for the daily publication, the previous day’s data will be used and highlighted on each occasion. The figure will be revised the subsequent day to include the correct data. Figures may also be revised if Boards discover an error and have to resubmit their data. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1234,7 +1211,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>11. Other minor variations in the daily returns from Boards (for tables 2 and 3a and 3b) include:</a:t>
+            <a:t>10. Other minor variations in the daily returns from Boards (for tables 2 and 3a and 3b) include:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1339,7 +1316,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>12.</a:t>
+            <a:t>11.</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-GB" sz="1100" baseline="0">
@@ -1349,6 +1326,59 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t> For Table 1, the daily total of people found positive on 2/6/20 contains 40 historic samples from an NHS Fife laboratory.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>12. On 04/06/2020, the number of positive cases in Highland decreased by 1 due to an update to postcode of residence for one case.</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB">
             <a:effectLst/>
@@ -1645,23 +1675,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="90.42578125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.42578125" style="2"/>
+    <col min="2" max="2" width="29.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="90.453125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
@@ -1669,7 +1699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
@@ -1677,13 +1707,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="23"/>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
         <v>26</v>
       </c>
@@ -1691,7 +1721,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="24" t="s">
         <v>27</v>
       </c>
@@ -1699,7 +1729,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="24" t="s">
         <v>36</v>
       </c>
@@ -1707,7 +1737,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="20" t="s">
         <v>37</v>
       </c>
@@ -1731,16 +1761,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9.42578125" style="2"/>
+    <col min="1" max="16384" width="9.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="43"/>
     </row>
   </sheetData>
@@ -1755,20 +1785,20 @@
   <dimension ref="A1:S160"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E91" sqref="E91"/>
+      <selection pane="bottomRight" activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
-    <col min="2" max="16" width="11.42578125" style="11" customWidth="1"/>
-    <col min="17" max="16384" width="8.5703125" style="2"/>
+    <col min="2" max="16" width="11.453125" style="11" customWidth="1"/>
+    <col min="17" max="16384" width="8.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,7 +1818,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -1807,7 +1837,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1857,7 +1887,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>43897</v>
       </c>
@@ -1907,7 +1937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>43898</v>
       </c>
@@ -1957,7 +1987,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>43899</v>
       </c>
@@ -2007,7 +2037,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>43900</v>
       </c>
@@ -2057,7 +2087,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>43901</v>
       </c>
@@ -2107,7 +2137,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>43902</v>
       </c>
@@ -2157,7 +2187,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>43903</v>
       </c>
@@ -2207,7 +2237,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>43904</v>
       </c>
@@ -2257,7 +2287,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>43905</v>
       </c>
@@ -2307,7 +2337,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>43906</v>
       </c>
@@ -2357,7 +2387,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>43907</v>
       </c>
@@ -2407,7 +2437,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>43908</v>
       </c>
@@ -2457,7 +2487,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>43909</v>
       </c>
@@ -2507,7 +2537,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>43910</v>
       </c>
@@ -2557,7 +2587,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>43911</v>
       </c>
@@ -2607,7 +2637,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>43912</v>
       </c>
@@ -2657,7 +2687,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>43913</v>
       </c>
@@ -2707,7 +2737,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>43914</v>
       </c>
@@ -2757,7 +2787,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>43915</v>
       </c>
@@ -2807,7 +2837,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>43916</v>
       </c>
@@ -2857,7 +2887,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>43917</v>
       </c>
@@ -2907,7 +2937,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>43918</v>
       </c>
@@ -2957,7 +2987,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>43919</v>
       </c>
@@ -3007,7 +3037,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>43920</v>
       </c>
@@ -3057,7 +3087,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>43921</v>
       </c>
@@ -3107,7 +3137,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>43922</v>
       </c>
@@ -3157,7 +3187,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>43923</v>
       </c>
@@ -3207,7 +3237,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>43924</v>
       </c>
@@ -3257,7 +3287,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>43925</v>
       </c>
@@ -3307,7 +3337,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>43926</v>
       </c>
@@ -3357,7 +3387,7 @@
         <v>3706</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>43927</v>
       </c>
@@ -3407,7 +3437,7 @@
         <v>3961</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>43928</v>
       </c>
@@ -3457,7 +3487,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>43929</v>
       </c>
@@ -3507,7 +3537,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>43930</v>
       </c>
@@ -3557,7 +3587,7 @@
         <v>4957</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>43931</v>
       </c>
@@ -3607,7 +3637,7 @@
         <v>5275</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>43932</v>
       </c>
@@ -3657,7 +3687,7 @@
         <v>5590</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>43933</v>
       </c>
@@ -3707,7 +3737,7 @@
         <v>5912</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>43934</v>
       </c>
@@ -3757,7 +3787,7 @@
         <v>6067</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>43935</v>
       </c>
@@ -3807,7 +3837,7 @@
         <v>6358</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>43936</v>
       </c>
@@ -3857,7 +3887,7 @@
         <v>6748</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>43937</v>
       </c>
@@ -3907,7 +3937,7 @@
         <v>7102</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>43938</v>
       </c>
@@ -3957,7 +3987,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>43939</v>
       </c>
@@ -4007,7 +4037,7 @@
         <v>7820</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>43940</v>
       </c>
@@ -4057,7 +4087,7 @@
         <v>8187</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>43941</v>
       </c>
@@ -4107,7 +4137,7 @@
         <v>8450</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>43942</v>
       </c>
@@ -4157,7 +4187,7 @@
         <v>8672</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>43943</v>
       </c>
@@ -4207,7 +4237,7 @@
         <v>9038</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <v>43944</v>
       </c>
@@ -4257,7 +4287,7 @@
         <v>9409</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>43945</v>
       </c>
@@ -4307,7 +4337,7 @@
         <v>9697</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <v>43946</v>
       </c>
@@ -4357,7 +4387,7 @@
         <v>10051</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>43947</v>
       </c>
@@ -4408,7 +4438,7 @@
       </c>
       <c r="R54" s="38"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>43948</v>
       </c>
@@ -4459,7 +4489,7 @@
       </c>
       <c r="R55" s="38"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>43949</v>
       </c>
@@ -4510,7 +4540,7 @@
       </c>
       <c r="R56" s="39"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>43950</v>
       </c>
@@ -4560,7 +4590,7 @@
         <v>11034</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>43951</v>
       </c>
@@ -4611,7 +4641,7 @@
       </c>
       <c r="R58" s="38"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>43952</v>
       </c>
@@ -4663,7 +4693,7 @@
       <c r="R59" s="38"/>
       <c r="S59" s="38"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>43953</v>
       </c>
@@ -4713,7 +4743,7 @@
         <v>11927</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>43954</v>
       </c>
@@ -4763,7 +4793,7 @@
         <v>12097</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>43955</v>
       </c>
@@ -4813,7 +4843,7 @@
         <v>12266</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>43956</v>
       </c>
@@ -4863,7 +4893,7 @@
         <v>12437</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>43957</v>
       </c>
@@ -4913,7 +4943,7 @@
         <v>12709</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>43958</v>
       </c>
@@ -4963,7 +4993,7 @@
         <v>12924</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>43959</v>
       </c>
@@ -5013,7 +5043,7 @@
         <v>13149</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>43960</v>
       </c>
@@ -5063,7 +5093,7 @@
         <v>13305</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>43961</v>
       </c>
@@ -5113,7 +5143,7 @@
         <v>13486</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>43962</v>
       </c>
@@ -5163,7 +5193,7 @@
         <v>13627</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>43963</v>
       </c>
@@ -5213,7 +5243,7 @@
         <v>13763</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>43964</v>
       </c>
@@ -5263,7 +5293,7 @@
         <v>13929</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>43965</v>
       </c>
@@ -5313,7 +5343,7 @@
         <v>14117</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>43966</v>
       </c>
@@ -5363,7 +5393,7 @@
         <v>14260</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>43967</v>
       </c>
@@ -5413,7 +5443,7 @@
         <v>14447</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>43968</v>
       </c>
@@ -5463,7 +5493,7 @@
         <v>14537</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>43969</v>
       </c>
@@ -5513,7 +5543,7 @@
         <v>14594</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>43970</v>
       </c>
@@ -5563,7 +5593,7 @@
         <v>14655</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>43971</v>
       </c>
@@ -5613,7 +5643,7 @@
         <v>14751</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>43972</v>
       </c>
@@ -5663,7 +5693,7 @@
         <v>14856</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>43973</v>
       </c>
@@ -5713,7 +5743,7 @@
         <v>14969</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>43974</v>
       </c>
@@ -5763,7 +5793,7 @@
         <v>15041</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>43975</v>
       </c>
@@ -5813,7 +5843,7 @@
         <v>15101</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>43976</v>
       </c>
@@ -5863,7 +5893,7 @@
         <v>15156</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>43977</v>
       </c>
@@ -5913,7 +5943,7 @@
         <v>15185</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>43978</v>
       </c>
@@ -5963,7 +5993,7 @@
         <v>15240</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>43979</v>
       </c>
@@ -6013,7 +6043,7 @@
         <v>15288</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>43980</v>
       </c>
@@ -6063,7 +6093,7 @@
         <v>15327</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>43981</v>
       </c>
@@ -6113,7 +6143,7 @@
         <v>15382</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>43982</v>
       </c>
@@ -6163,7 +6193,7 @@
         <v>15400</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <v>43983</v>
       </c>
@@ -6213,7 +6243,7 @@
         <v>15418</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>43984</v>
       </c>
@@ -6263,7 +6293,7 @@
         <v>15471</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <v>43985</v>
       </c>
@@ -6313,24 +6343,57 @@
         <v>15504</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B93" s="28"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="28"/>
-      <c r="J93" s="28"/>
-      <c r="K93" s="28"/>
-      <c r="L93" s="28"/>
-      <c r="M93" s="28"/>
-      <c r="N93" s="28"/>
-      <c r="O93" s="28"/>
-      <c r="P93" s="28"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A93" s="5">
+        <v>43986</v>
+      </c>
+      <c r="B93" s="28">
+        <v>1071</v>
+      </c>
+      <c r="C93" s="28">
+        <v>325</v>
+      </c>
+      <c r="D93" s="28">
+        <v>261</v>
+      </c>
+      <c r="E93" s="28">
+        <v>877</v>
+      </c>
+      <c r="F93" s="28">
+        <v>944</v>
+      </c>
+      <c r="G93" s="28">
+        <v>1283</v>
+      </c>
+      <c r="H93" s="28">
+        <v>3961</v>
+      </c>
+      <c r="I93" s="52">
+        <v>338</v>
+      </c>
+      <c r="J93" s="28">
+        <v>2002</v>
+      </c>
+      <c r="K93" s="28">
+        <v>2752</v>
+      </c>
+      <c r="L93" s="28">
+        <v>8</v>
+      </c>
+      <c r="M93" s="28">
+        <v>54</v>
+      </c>
+      <c r="N93" s="28">
+        <v>1671</v>
+      </c>
+      <c r="O93" s="28">
+        <v>6</v>
+      </c>
+      <c r="P93" s="32">
+        <v>15553</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
       <c r="D94" s="28"/>
@@ -6347,7 +6410,7 @@
       <c r="O94" s="28"/>
       <c r="P94" s="28"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
       <c r="D95" s="28"/>
@@ -6364,7 +6427,7 @@
       <c r="O95" s="28"/>
       <c r="P95" s="28"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B96" s="28"/>
       <c r="C96" s="28"/>
       <c r="D96" s="28"/>
@@ -6381,7 +6444,7 @@
       <c r="O96" s="28"/>
       <c r="P96" s="28"/>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
@@ -6398,7 +6461,7 @@
       <c r="O97" s="28"/>
       <c r="P97" s="28"/>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
       <c r="D98" s="28"/>
@@ -6415,7 +6478,7 @@
       <c r="O98" s="28"/>
       <c r="P98" s="28"/>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
       <c r="D99" s="28"/>
@@ -6432,7 +6495,7 @@
       <c r="O99" s="28"/>
       <c r="P99" s="28"/>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
       <c r="D100" s="28"/>
@@ -6449,7 +6512,7 @@
       <c r="O100" s="28"/>
       <c r="P100" s="28"/>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
       <c r="D101" s="28"/>
@@ -6466,7 +6529,7 @@
       <c r="O101" s="28"/>
       <c r="P101" s="28"/>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B102" s="28"/>
       <c r="C102" s="28"/>
       <c r="D102" s="28"/>
@@ -6483,7 +6546,7 @@
       <c r="O102" s="28"/>
       <c r="P102" s="28"/>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
       <c r="D103" s="28"/>
@@ -6500,7 +6563,7 @@
       <c r="O103" s="28"/>
       <c r="P103" s="28"/>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
       <c r="D104" s="28"/>
@@ -6517,7 +6580,7 @@
       <c r="O104" s="28"/>
       <c r="P104" s="28"/>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B105" s="28"/>
       <c r="C105" s="28"/>
       <c r="D105" s="28"/>
@@ -6534,7 +6597,7 @@
       <c r="O105" s="28"/>
       <c r="P105" s="28"/>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
       <c r="D106" s="28"/>
@@ -6551,7 +6614,7 @@
       <c r="O106" s="28"/>
       <c r="P106" s="28"/>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
       <c r="D107" s="28"/>
@@ -6568,7 +6631,7 @@
       <c r="O107" s="28"/>
       <c r="P107" s="28"/>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B108" s="28"/>
       <c r="C108" s="28"/>
       <c r="D108" s="28"/>
@@ -6585,7 +6648,7 @@
       <c r="O108" s="28"/>
       <c r="P108" s="28"/>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
       <c r="D109" s="28"/>
@@ -6602,7 +6665,7 @@
       <c r="O109" s="28"/>
       <c r="P109" s="28"/>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B110" s="28"/>
       <c r="C110" s="28"/>
       <c r="D110" s="28"/>
@@ -6619,7 +6682,7 @@
       <c r="O110" s="28"/>
       <c r="P110" s="28"/>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B111" s="28"/>
       <c r="C111" s="28"/>
       <c r="D111" s="28"/>
@@ -6636,7 +6699,7 @@
       <c r="O111" s="28"/>
       <c r="P111" s="28"/>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B112" s="28"/>
       <c r="C112" s="28"/>
       <c r="D112" s="28"/>
@@ -6653,7 +6716,7 @@
       <c r="O112" s="28"/>
       <c r="P112" s="28"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B113" s="28"/>
       <c r="C113" s="28"/>
       <c r="D113" s="28"/>
@@ -6670,7 +6733,7 @@
       <c r="O113" s="28"/>
       <c r="P113" s="28"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B114" s="28"/>
       <c r="C114" s="28"/>
       <c r="D114" s="28"/>
@@ -6687,7 +6750,7 @@
       <c r="O114" s="28"/>
       <c r="P114" s="28"/>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B115" s="28"/>
       <c r="C115" s="28"/>
       <c r="D115" s="28"/>
@@ -6704,7 +6767,7 @@
       <c r="O115" s="28"/>
       <c r="P115" s="28"/>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B116" s="28"/>
       <c r="C116" s="28"/>
       <c r="D116" s="28"/>
@@ -6721,7 +6784,7 @@
       <c r="O116" s="28"/>
       <c r="P116" s="28"/>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
       <c r="D117" s="28"/>
@@ -6738,7 +6801,7 @@
       <c r="O117" s="28"/>
       <c r="P117" s="28"/>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
       <c r="D118" s="28"/>
@@ -6755,7 +6818,7 @@
       <c r="O118" s="28"/>
       <c r="P118" s="28"/>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B119" s="28"/>
       <c r="C119" s="28"/>
       <c r="D119" s="28"/>
@@ -6772,7 +6835,7 @@
       <c r="O119" s="28"/>
       <c r="P119" s="28"/>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B120" s="28"/>
       <c r="C120" s="28"/>
       <c r="D120" s="28"/>
@@ -6789,7 +6852,7 @@
       <c r="O120" s="28"/>
       <c r="P120" s="28"/>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
       <c r="D121" s="28"/>
@@ -6806,7 +6869,7 @@
       <c r="O121" s="28"/>
       <c r="P121" s="28"/>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
       <c r="D122" s="28"/>
@@ -6823,7 +6886,7 @@
       <c r="O122" s="28"/>
       <c r="P122" s="28"/>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
       <c r="D123" s="28"/>
@@ -6840,7 +6903,7 @@
       <c r="O123" s="28"/>
       <c r="P123" s="28"/>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
       <c r="D124" s="28"/>
@@ -6857,7 +6920,7 @@
       <c r="O124" s="28"/>
       <c r="P124" s="28"/>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B125" s="28"/>
       <c r="C125" s="28"/>
       <c r="D125" s="28"/>
@@ -6874,7 +6937,7 @@
       <c r="O125" s="28"/>
       <c r="P125" s="28"/>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B126" s="28"/>
       <c r="C126" s="28"/>
       <c r="D126" s="28"/>
@@ -6891,7 +6954,7 @@
       <c r="O126" s="28"/>
       <c r="P126" s="28"/>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B127" s="28"/>
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
@@ -6908,7 +6971,7 @@
       <c r="O127" s="28"/>
       <c r="P127" s="28"/>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
       <c r="D128" s="28"/>
@@ -6925,7 +6988,7 @@
       <c r="O128" s="28"/>
       <c r="P128" s="28"/>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B129" s="28"/>
       <c r="C129" s="28"/>
       <c r="D129" s="28"/>
@@ -6942,7 +7005,7 @@
       <c r="O129" s="28"/>
       <c r="P129" s="28"/>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B130" s="28"/>
       <c r="C130" s="28"/>
       <c r="D130" s="28"/>
@@ -6959,7 +7022,7 @@
       <c r="O130" s="28"/>
       <c r="P130" s="28"/>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
       <c r="D131" s="28"/>
@@ -6976,7 +7039,7 @@
       <c r="O131" s="28"/>
       <c r="P131" s="28"/>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
       <c r="D132" s="28"/>
@@ -6993,7 +7056,7 @@
       <c r="O132" s="28"/>
       <c r="P132" s="28"/>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
       <c r="D133" s="28"/>
@@ -7010,7 +7073,7 @@
       <c r="O133" s="28"/>
       <c r="P133" s="28"/>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B134" s="28"/>
       <c r="C134" s="28"/>
       <c r="D134" s="28"/>
@@ -7027,7 +7090,7 @@
       <c r="O134" s="28"/>
       <c r="P134" s="28"/>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B135" s="28"/>
       <c r="C135" s="28"/>
       <c r="D135" s="28"/>
@@ -7044,7 +7107,7 @@
       <c r="O135" s="28"/>
       <c r="P135" s="28"/>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B136" s="28"/>
       <c r="C136" s="28"/>
       <c r="D136" s="28"/>
@@ -7061,7 +7124,7 @@
       <c r="O136" s="28"/>
       <c r="P136" s="28"/>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
       <c r="D137" s="28"/>
@@ -7078,7 +7141,7 @@
       <c r="O137" s="28"/>
       <c r="P137" s="28"/>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B138" s="28"/>
       <c r="C138" s="28"/>
       <c r="D138" s="28"/>
@@ -7095,7 +7158,7 @@
       <c r="O138" s="28"/>
       <c r="P138" s="28"/>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B139" s="28"/>
       <c r="C139" s="28"/>
       <c r="D139" s="28"/>
@@ -7112,7 +7175,7 @@
       <c r="O139" s="28"/>
       <c r="P139" s="28"/>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B140" s="28"/>
       <c r="C140" s="28"/>
       <c r="D140" s="28"/>
@@ -7129,7 +7192,7 @@
       <c r="O140" s="28"/>
       <c r="P140" s="28"/>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B141" s="28"/>
       <c r="C141" s="28"/>
       <c r="D141" s="28"/>
@@ -7146,7 +7209,7 @@
       <c r="O141" s="28"/>
       <c r="P141" s="28"/>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B142" s="28"/>
       <c r="C142" s="28"/>
       <c r="D142" s="28"/>
@@ -7163,7 +7226,7 @@
       <c r="O142" s="28"/>
       <c r="P142" s="28"/>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B143" s="28"/>
       <c r="C143" s="28"/>
       <c r="D143" s="28"/>
@@ -7180,7 +7243,7 @@
       <c r="O143" s="28"/>
       <c r="P143" s="28"/>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B144" s="28"/>
       <c r="C144" s="28"/>
       <c r="D144" s="28"/>
@@ -7197,7 +7260,7 @@
       <c r="O144" s="28"/>
       <c r="P144" s="28"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
       <c r="D145" s="28"/>
@@ -7214,7 +7277,7 @@
       <c r="O145" s="28"/>
       <c r="P145" s="28"/>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B146" s="28"/>
       <c r="C146" s="28"/>
       <c r="D146" s="28"/>
@@ -7231,7 +7294,7 @@
       <c r="O146" s="28"/>
       <c r="P146" s="28"/>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B147" s="28"/>
       <c r="C147" s="28"/>
       <c r="D147" s="28"/>
@@ -7248,7 +7311,7 @@
       <c r="O147" s="28"/>
       <c r="P147" s="28"/>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B148" s="28"/>
       <c r="C148" s="28"/>
       <c r="D148" s="28"/>
@@ -7265,7 +7328,7 @@
       <c r="O148" s="28"/>
       <c r="P148" s="28"/>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
       <c r="D149" s="28"/>
@@ -7282,7 +7345,7 @@
       <c r="O149" s="28"/>
       <c r="P149" s="28"/>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
       <c r="D150" s="28"/>
@@ -7299,7 +7362,7 @@
       <c r="O150" s="28"/>
       <c r="P150" s="28"/>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
       <c r="D151" s="28"/>
@@ -7316,7 +7379,7 @@
       <c r="O151" s="28"/>
       <c r="P151" s="28"/>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B152" s="28"/>
       <c r="C152" s="28"/>
       <c r="D152" s="28"/>
@@ -7333,7 +7396,7 @@
       <c r="O152" s="28"/>
       <c r="P152" s="28"/>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
       <c r="D153" s="28"/>
@@ -7350,7 +7413,7 @@
       <c r="O153" s="28"/>
       <c r="P153" s="28"/>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B154" s="28"/>
       <c r="C154" s="28"/>
       <c r="D154" s="28"/>
@@ -7367,7 +7430,7 @@
       <c r="O154" s="28"/>
       <c r="P154" s="28"/>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B155" s="28"/>
       <c r="C155" s="28"/>
       <c r="D155" s="28"/>
@@ -7384,7 +7447,7 @@
       <c r="O155" s="28"/>
       <c r="P155" s="28"/>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B156" s="28"/>
       <c r="C156" s="28"/>
       <c r="D156" s="28"/>
@@ -7401,7 +7464,7 @@
       <c r="O156" s="28"/>
       <c r="P156" s="28"/>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B157" s="28"/>
       <c r="C157" s="28"/>
       <c r="D157" s="28"/>
@@ -7418,7 +7481,7 @@
       <c r="O157" s="28"/>
       <c r="P157" s="28"/>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B158" s="28"/>
       <c r="C158" s="28"/>
       <c r="D158" s="28"/>
@@ -7435,7 +7498,7 @@
       <c r="O158" s="28"/>
       <c r="P158" s="28"/>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B159" s="28"/>
       <c r="C159" s="28"/>
       <c r="D159" s="28"/>
@@ -7452,7 +7515,7 @@
       <c r="O159" s="28"/>
       <c r="P159" s="28"/>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B160" s="28"/>
       <c r="C160" s="28"/>
       <c r="D160" s="28"/>
@@ -7477,21 +7540,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N80" sqref="N80"/>
+      <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P85" sqref="P85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5703125" style="2"/>
+    <col min="1" max="1" width="12.453125" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -7512,7 +7575,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -7533,7 +7596,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -7586,7 +7649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>43908</v>
       </c>
@@ -7639,7 +7702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>43909</v>
       </c>
@@ -7692,7 +7755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>43910</v>
       </c>
@@ -7745,7 +7808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>43911</v>
       </c>
@@ -7798,7 +7861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>43912</v>
       </c>
@@ -7851,7 +7914,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>43913</v>
       </c>
@@ -7904,7 +7967,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>43914</v>
       </c>
@@ -7957,7 +8020,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>43915</v>
       </c>
@@ -8010,7 +8073,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>43916</v>
       </c>
@@ -8063,7 +8126,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>43917</v>
       </c>
@@ -8116,7 +8179,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>43918</v>
       </c>
@@ -8169,7 +8232,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>43919</v>
       </c>
@@ -8222,7 +8285,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>43920</v>
       </c>
@@ -8275,7 +8338,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>43921</v>
       </c>
@@ -8328,7 +8391,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>43922</v>
       </c>
@@ -8381,7 +8444,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>43923</v>
       </c>
@@ -8434,7 +8497,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>43924</v>
       </c>
@@ -8487,7 +8550,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>43925</v>
       </c>
@@ -8540,7 +8603,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>43926</v>
       </c>
@@ -8593,7 +8656,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>43927</v>
       </c>
@@ -8646,7 +8709,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>43928</v>
       </c>
@@ -8699,7 +8762,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>43929</v>
       </c>
@@ -8752,7 +8815,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>43930</v>
       </c>
@@ -8805,7 +8868,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>43931</v>
       </c>
@@ -8858,7 +8921,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>43932</v>
       </c>
@@ -8911,7 +8974,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>43933</v>
       </c>
@@ -8964,7 +9027,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>43934</v>
       </c>
@@ -9017,7 +9080,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>43935</v>
       </c>
@@ -9070,7 +9133,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>43936</v>
       </c>
@@ -9123,7 +9186,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>43937</v>
       </c>
@@ -9176,7 +9239,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>43938</v>
       </c>
@@ -9229,7 +9292,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>43939</v>
       </c>
@@ -9282,7 +9345,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="30">
         <v>43940</v>
       </c>
@@ -9335,7 +9398,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="30">
         <v>43941</v>
       </c>
@@ -9388,7 +9451,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="30">
         <v>43942</v>
       </c>
@@ -9441,7 +9504,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="30">
         <v>43943</v>
       </c>
@@ -9494,7 +9557,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="30">
         <v>43944</v>
       </c>
@@ -9547,7 +9610,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="30">
         <v>43945</v>
       </c>
@@ -9600,7 +9663,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="30">
         <v>43946</v>
       </c>
@@ -9653,7 +9716,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="30">
         <v>43947</v>
       </c>
@@ -9706,7 +9769,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="30">
         <v>43948</v>
       </c>
@@ -9759,7 +9822,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="30">
         <v>43949</v>
       </c>
@@ -9812,7 +9875,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="30">
         <v>43950</v>
       </c>
@@ -9865,7 +9928,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="30">
         <v>43951</v>
       </c>
@@ -9918,7 +9981,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="30">
         <v>43952</v>
       </c>
@@ -9971,7 +10034,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="30">
         <v>43953</v>
       </c>
@@ -10024,7 +10087,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="30">
         <v>43954</v>
       </c>
@@ -10077,7 +10140,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="30">
         <v>43955</v>
       </c>
@@ -10130,7 +10193,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="30">
         <v>43956</v>
       </c>
@@ -10183,7 +10246,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="30">
         <v>43957</v>
       </c>
@@ -10236,7 +10299,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="30">
         <v>43958</v>
       </c>
@@ -10289,7 +10352,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="30">
         <v>43959</v>
       </c>
@@ -10342,7 +10405,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="30">
         <v>43960</v>
       </c>
@@ -10395,7 +10458,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="30">
         <v>43961</v>
       </c>
@@ -10448,7 +10511,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="30">
         <v>43962</v>
       </c>
@@ -10501,7 +10564,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="30">
         <v>43963</v>
       </c>
@@ -10554,7 +10617,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="30">
         <v>43964</v>
       </c>
@@ -10607,7 +10670,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="30">
         <v>43965</v>
       </c>
@@ -10660,7 +10723,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="30">
         <v>43966</v>
       </c>
@@ -10713,7 +10776,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="30">
         <v>43967</v>
       </c>
@@ -10766,7 +10829,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="30">
         <v>43968</v>
       </c>
@@ -10819,7 +10882,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="30">
         <v>43969</v>
       </c>
@@ -10872,7 +10935,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="30">
         <v>43970</v>
       </c>
@@ -10925,7 +10988,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="30">
         <v>43971</v>
       </c>
@@ -10978,7 +11041,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="30">
         <v>43972</v>
       </c>
@@ -11031,7 +11094,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="30">
         <v>43973</v>
       </c>
@@ -11084,7 +11147,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="30">
         <v>43974</v>
       </c>
@@ -11137,7 +11200,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="30">
         <v>43975</v>
       </c>
@@ -11190,7 +11253,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="30">
         <v>43976</v>
       </c>
@@ -11243,7 +11306,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="30">
         <v>43977</v>
       </c>
@@ -11296,7 +11359,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" s="30">
         <v>43978</v>
       </c>
@@ -11349,7 +11412,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" s="30">
         <v>43979</v>
       </c>
@@ -11402,7 +11465,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" s="30">
         <v>43980</v>
       </c>
@@ -11455,7 +11518,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" s="30">
         <v>43981</v>
       </c>
@@ -11508,7 +11571,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" s="30">
         <v>43982</v>
       </c>
@@ -11561,7 +11624,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" s="30">
         <v>43983</v>
       </c>
@@ -11614,7 +11677,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" s="30">
         <v>43984</v>
       </c>
@@ -11667,7 +11730,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81" s="30">
         <v>43985</v>
       </c>
@@ -11718,6 +11781,59 @@
       </c>
       <c r="Q81" s="13">
         <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A82" s="30">
+        <v>43986</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H82" s="11">
+        <v>5</v>
+      </c>
+      <c r="I82" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J82" s="11">
+        <v>6</v>
+      </c>
+      <c r="K82" s="11">
+        <v>5</v>
+      </c>
+      <c r="L82" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M82" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N82" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O82" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P82" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q82" s="13">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -11728,23 +11844,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="L61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K74" sqref="K74"/>
+      <selection pane="bottomRight" activeCell="Q75" sqref="Q75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5703125" style="2"/>
+    <col min="1" max="1" width="15.1796875" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
@@ -11765,7 +11881,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -11786,7 +11902,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -11839,7 +11955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -11892,7 +12008,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -11945,7 +12061,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -11998,7 +12114,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -12051,7 +12167,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -12104,7 +12220,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -12157,7 +12273,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -12210,7 +12326,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -12263,7 +12379,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -12316,7 +12432,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -12369,7 +12485,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -12422,7 +12538,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -12475,7 +12591,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -12528,7 +12644,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -12581,7 +12697,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -12634,7 +12750,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -12687,7 +12803,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -12740,7 +12856,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -12793,7 +12909,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -12846,7 +12962,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -12899,7 +13015,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -12952,7 +13068,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -13005,7 +13121,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -13058,7 +13174,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -13111,7 +13227,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -13164,7 +13280,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -13217,7 +13333,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -13270,7 +13386,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -13323,7 +13439,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -13376,7 +13492,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -13429,7 +13545,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -13482,7 +13598,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -13535,7 +13651,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -13588,7 +13704,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -13641,7 +13757,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -13694,7 +13810,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -13747,7 +13863,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -13800,7 +13916,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -13853,7 +13969,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -13906,7 +14022,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -13959,7 +14075,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -14012,7 +14128,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -14065,7 +14181,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -14118,7 +14234,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -14171,7 +14287,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="30">
         <v>43960</v>
       </c>
@@ -14224,7 +14340,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="30">
         <v>43961</v>
       </c>
@@ -14277,7 +14393,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="30">
         <v>43962</v>
       </c>
@@ -14330,7 +14446,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="30">
         <v>43963</v>
       </c>
@@ -14383,7 +14499,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="30">
         <v>43964</v>
       </c>
@@ -14436,7 +14552,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="30">
         <v>43965</v>
       </c>
@@ -14489,7 +14605,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="30">
         <v>43966</v>
       </c>
@@ -14542,7 +14658,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="30">
         <v>43967</v>
       </c>
@@ -14595,7 +14711,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="30">
         <v>43968</v>
       </c>
@@ -14648,7 +14764,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="30">
         <v>43969</v>
       </c>
@@ -14701,7 +14817,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="30">
         <v>43970</v>
       </c>
@@ -14754,7 +14870,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="30">
         <v>43971</v>
       </c>
@@ -14807,7 +14923,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="30">
         <v>43972</v>
       </c>
@@ -14860,7 +14976,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="30">
         <v>43973</v>
       </c>
@@ -14913,7 +15029,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="30">
         <v>43974</v>
       </c>
@@ -14966,7 +15082,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="30">
         <v>43975</v>
       </c>
@@ -15019,7 +15135,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="30">
         <v>43976</v>
       </c>
@@ -15072,7 +15188,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="51">
         <v>43977</v>
       </c>
@@ -15125,7 +15241,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="51">
         <v>43978</v>
       </c>
@@ -15178,7 +15294,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="51">
         <v>43979</v>
       </c>
@@ -15231,7 +15347,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="51">
         <v>43980</v>
       </c>
@@ -15284,7 +15400,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="51">
         <v>43981</v>
       </c>
@@ -15337,7 +15453,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="51">
         <v>43982</v>
       </c>
@@ -15390,7 +15506,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="51">
         <v>43983</v>
       </c>
@@ -15443,7 +15559,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="51">
         <v>43984</v>
       </c>
@@ -15496,7 +15612,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="51">
         <v>43985</v>
       </c>
@@ -15547,6 +15663,59 @@
       </c>
       <c r="Q73" s="13">
         <v>706</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A74" s="51">
+        <v>43986</v>
+      </c>
+      <c r="B74" s="11">
+        <v>8</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" s="11">
+        <v>57</v>
+      </c>
+      <c r="F74" s="11">
+        <v>14</v>
+      </c>
+      <c r="G74" s="11">
+        <v>66</v>
+      </c>
+      <c r="H74" s="11">
+        <v>317</v>
+      </c>
+      <c r="I74" s="11">
+        <v>8</v>
+      </c>
+      <c r="J74" s="11">
+        <v>62</v>
+      </c>
+      <c r="K74" s="11">
+        <v>145</v>
+      </c>
+      <c r="L74" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M74" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N74" s="11">
+        <v>8</v>
+      </c>
+      <c r="O74" s="14">
+        <v>0</v>
+      </c>
+      <c r="P74" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="13">
+        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -15557,23 +15726,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q73" sqref="Q73"/>
+      <selection pane="bottomRight" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
-    <col min="2" max="17" width="10.5703125" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="8.5703125" style="2"/>
+    <col min="1" max="1" width="12.453125" style="11" customWidth="1"/>
+    <col min="2" max="17" width="10.54296875" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.54296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -15594,7 +15763,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -15615,7 +15784,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -15668,7 +15837,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>43916</v>
       </c>
@@ -15721,7 +15890,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>43917</v>
       </c>
@@ -15774,7 +15943,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>43918</v>
       </c>
@@ -15827,7 +15996,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>43919</v>
       </c>
@@ -15880,7 +16049,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>43920</v>
       </c>
@@ -15933,7 +16102,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>43921</v>
       </c>
@@ -15986,7 +16155,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>43922</v>
       </c>
@@ -16039,7 +16208,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>43923</v>
       </c>
@@ -16092,7 +16261,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>43924</v>
       </c>
@@ -16145,7 +16314,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>43925</v>
       </c>
@@ -16198,7 +16367,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>43926</v>
       </c>
@@ -16251,7 +16420,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>43927</v>
       </c>
@@ -16304,7 +16473,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>43928</v>
       </c>
@@ -16357,7 +16526,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>43929</v>
       </c>
@@ -16410,7 +16579,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>43930</v>
       </c>
@@ -16463,7 +16632,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>43931</v>
       </c>
@@ -16516,7 +16685,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>43932</v>
       </c>
@@ -16569,7 +16738,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>43933</v>
       </c>
@@ -16622,7 +16791,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>43934</v>
       </c>
@@ -16675,7 +16844,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>43935</v>
       </c>
@@ -16728,7 +16897,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>43936</v>
       </c>
@@ -16781,7 +16950,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>43937</v>
       </c>
@@ -16834,7 +17003,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>43938</v>
       </c>
@@ -16887,7 +17056,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>43939</v>
       </c>
@@ -16940,7 +17109,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>43940</v>
       </c>
@@ -16993,7 +17162,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>43941</v>
       </c>
@@ -17046,7 +17215,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <v>43942</v>
       </c>
@@ -17099,7 +17268,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <v>43943</v>
       </c>
@@ -17152,7 +17321,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <v>43944</v>
       </c>
@@ -17205,7 +17374,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <v>43945</v>
       </c>
@@ -17258,7 +17427,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <v>43946</v>
       </c>
@@ -17311,7 +17480,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <v>43947</v>
       </c>
@@ -17364,7 +17533,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="30">
         <v>43948</v>
       </c>
@@ -17417,7 +17586,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="30">
         <v>43949</v>
       </c>
@@ -17470,7 +17639,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="30">
         <v>43950</v>
       </c>
@@ -17523,7 +17692,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="30">
         <v>43951</v>
       </c>
@@ -17576,7 +17745,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="30">
         <v>43952</v>
       </c>
@@ -17629,7 +17798,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="30">
         <v>43953</v>
       </c>
@@ -17682,7 +17851,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="30">
         <v>43954</v>
       </c>
@@ -17735,7 +17904,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="30">
         <v>43955</v>
       </c>
@@ -17788,7 +17957,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="30">
         <v>43956</v>
       </c>
@@ -17841,7 +18010,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="30">
         <v>43957</v>
       </c>
@@ -17894,7 +18063,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="30">
         <v>43958</v>
       </c>
@@ -17947,7 +18116,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="30">
         <v>43959</v>
       </c>
@@ -18000,7 +18169,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="30">
         <v>43960</v>
       </c>
@@ -18053,7 +18222,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="30">
         <v>43961</v>
       </c>
@@ -18106,7 +18275,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="30">
         <v>43962</v>
       </c>
@@ -18159,7 +18328,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="30">
         <v>43963</v>
       </c>
@@ -18212,7 +18381,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="30">
         <v>43964</v>
       </c>
@@ -18265,7 +18434,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="30">
         <v>43965</v>
       </c>
@@ -18318,7 +18487,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="30">
         <v>43966</v>
       </c>
@@ -18371,7 +18540,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="30">
         <v>43967</v>
       </c>
@@ -18424,7 +18593,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="30">
         <v>43968</v>
       </c>
@@ -18477,7 +18646,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="30">
         <v>43969</v>
       </c>
@@ -18530,7 +18699,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="30">
         <v>43970</v>
       </c>
@@ -18583,7 +18752,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="30">
         <v>43971</v>
       </c>
@@ -18636,7 +18805,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="30">
         <v>43972</v>
       </c>
@@ -18689,7 +18858,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="30">
         <v>43973</v>
       </c>
@@ -18742,7 +18911,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="30">
         <v>43974</v>
       </c>
@@ -18795,7 +18964,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="30">
         <v>43975</v>
       </c>
@@ -18848,7 +19017,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="30">
         <v>43976</v>
       </c>
@@ -18901,7 +19070,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="30">
         <v>43977</v>
       </c>
@@ -18954,7 +19123,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="30">
         <v>43978</v>
       </c>
@@ -19007,7 +19176,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="30">
         <v>43979</v>
       </c>
@@ -19060,7 +19229,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="30">
         <v>43980</v>
       </c>
@@ -19113,7 +19282,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="30">
         <v>43981</v>
       </c>
@@ -19166,7 +19335,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="30">
         <v>43982</v>
       </c>
@@ -19219,7 +19388,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="30">
         <v>43983</v>
       </c>
@@ -19272,7 +19441,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="30">
         <v>43984</v>
       </c>
@@ -19325,7 +19494,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="30">
         <v>43985</v>
       </c>
@@ -19376,6 +19545,59 @@
       </c>
       <c r="Q73" s="13">
         <v>411</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A74" s="30">
+        <v>43986</v>
+      </c>
+      <c r="B74" s="11">
+        <v>37</v>
+      </c>
+      <c r="C74" s="11">
+        <v>19</v>
+      </c>
+      <c r="D74" s="11">
+        <v>5</v>
+      </c>
+      <c r="E74" s="11">
+        <v>9</v>
+      </c>
+      <c r="F74" s="11">
+        <v>31</v>
+      </c>
+      <c r="G74" s="11">
+        <v>18</v>
+      </c>
+      <c r="H74" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I74" s="11">
+        <v>17</v>
+      </c>
+      <c r="J74" s="11">
+        <v>83</v>
+      </c>
+      <c r="K74" s="11">
+        <v>101</v>
+      </c>
+      <c r="L74" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M74" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N74" s="11">
+        <v>11</v>
+      </c>
+      <c r="O74" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P74" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q74" s="13">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -19402,13 +19624,13 @@
       <value order="0">false</value>
     </field>
     <field name="Objective-IsPublished">
-      <value order="0">true</value>
+      <value order="0">false</value>
     </field>
     <field name="Objective-DatePublished">
-      <value order="0">2020-06-03T12:41:24Z</value>
+      <value order="0"/>
     </field>
     <field name="Objective-ModificationStamp">
-      <value order="0">2020-06-03T12:41:24Z</value>
+      <value order="0">2020-06-04T12:39:07Z</value>
     </field>
     <field name="Objective-Owner">
       <value order="0">Grant, Neil N (u207826)</value>
@@ -19420,16 +19642,16 @@
       <value order="0">Analytical: COVID 19 Analysis: Restricted working papers: Research and analysis: Diseases: 2020-2025</value>
     </field>
     <field name="Objective-State">
-      <value order="0">Published</value>
+      <value order="0">Being Drafted</value>
     </field>
     <field name="Objective-VersionId">
-      <value order="0">vA41513351</value>
+      <value order="0">vA41545770</value>
     </field>
     <field name="Objective-Version">
-      <value order="0">18.0</value>
+      <value order="0">19.1</value>
     </field>
     <field name="Objective-VersionNumber">
-      <value order="0">144</value>
+      <value order="0">148</value>
     </field>
     <field name="Objective-VersionComment">
       <value order="0"/>

--- a/data/csv/src/data_latest_sct.xlsx
+++ b/data/csv/src/data_latest_sct.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -1675,7 +1675,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1785,10 +1787,10 @@
   <dimension ref="A1:S160"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I94" sqref="I94"/>
+      <selection pane="bottomRight" activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6394,21 +6396,54 @@
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B94" s="28"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="28"/>
-      <c r="J94" s="28"/>
-      <c r="K94" s="28"/>
-      <c r="L94" s="28"/>
-      <c r="M94" s="28"/>
-      <c r="N94" s="28"/>
-      <c r="O94" s="28"/>
-      <c r="P94" s="28"/>
+      <c r="A94" s="5">
+        <v>43987</v>
+      </c>
+      <c r="B94" s="28">
+        <v>1076</v>
+      </c>
+      <c r="C94" s="28">
+        <v>326</v>
+      </c>
+      <c r="D94" s="28">
+        <v>261</v>
+      </c>
+      <c r="E94" s="28">
+        <v>877</v>
+      </c>
+      <c r="F94" s="28">
+        <v>946</v>
+      </c>
+      <c r="G94" s="28">
+        <v>1284</v>
+      </c>
+      <c r="H94" s="28">
+        <v>3968</v>
+      </c>
+      <c r="I94" s="52">
+        <v>338</v>
+      </c>
+      <c r="J94" s="28">
+        <v>2005</v>
+      </c>
+      <c r="K94" s="28">
+        <v>2760</v>
+      </c>
+      <c r="L94" s="28">
+        <v>8</v>
+      </c>
+      <c r="M94" s="28">
+        <v>54</v>
+      </c>
+      <c r="N94" s="28">
+        <v>1673</v>
+      </c>
+      <c r="O94" s="28">
+        <v>6</v>
+      </c>
+      <c r="P94" s="32">
+        <v>15582</v>
+      </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B95" s="28"/>
@@ -7540,11 +7575,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P85" sqref="P85"/>
+      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11836,6 +11871,59 @@
         <v>28</v>
       </c>
     </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A83" s="30">
+        <v>43987</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G83" s="11">
+        <v>5</v>
+      </c>
+      <c r="H83" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I83" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J83" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K83" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L83" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M83" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N83" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O83" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P83" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q83" s="13">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -11844,13 +11932,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="L61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="F64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q75" sqref="Q75"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15708,14 +15796,67 @@
       <c r="N74" s="11">
         <v>8</v>
       </c>
-      <c r="O74" s="14">
-        <v>0</v>
-      </c>
-      <c r="P74" s="14">
-        <v>0</v>
+      <c r="O74" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P74" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="Q74" s="13">
         <v>685</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A75" s="51">
+        <v>43987</v>
+      </c>
+      <c r="B75" s="11">
+        <v>8</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" s="11">
+        <v>59</v>
+      </c>
+      <c r="F75" s="11">
+        <v>13</v>
+      </c>
+      <c r="G75" s="11">
+        <v>63</v>
+      </c>
+      <c r="H75" s="11">
+        <v>311</v>
+      </c>
+      <c r="I75" s="11">
+        <v>6</v>
+      </c>
+      <c r="J75" s="11">
+        <v>65</v>
+      </c>
+      <c r="K75" s="11">
+        <v>143</v>
+      </c>
+      <c r="L75" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M75" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N75" s="11">
+        <v>8</v>
+      </c>
+      <c r="O75" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P75" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q75" s="13">
+        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -15726,13 +15867,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B74" sqref="B74"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19598,6 +19739,59 @@
       </c>
       <c r="Q74" s="13">
         <v>336</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A75" s="30">
+        <v>43987</v>
+      </c>
+      <c r="B75" s="11">
+        <v>34</v>
+      </c>
+      <c r="C75" s="11">
+        <v>13</v>
+      </c>
+      <c r="D75" s="11">
+        <v>10</v>
+      </c>
+      <c r="E75" s="11">
+        <v>21</v>
+      </c>
+      <c r="F75" s="11">
+        <v>30</v>
+      </c>
+      <c r="G75" s="11">
+        <v>14</v>
+      </c>
+      <c r="H75" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I75" s="11">
+        <v>33</v>
+      </c>
+      <c r="J75" s="11">
+        <v>76</v>
+      </c>
+      <c r="K75" s="11">
+        <v>76</v>
+      </c>
+      <c r="L75" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M75" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N75" s="11">
+        <v>7</v>
+      </c>
+      <c r="O75" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P75" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q75" s="13">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -19624,13 +19818,13 @@
       <value order="0">false</value>
     </field>
     <field name="Objective-IsPublished">
-      <value order="0">false</value>
+      <value order="0">true</value>
     </field>
     <field name="Objective-DatePublished">
-      <value order="0"/>
+      <value order="0">2020-06-05T12:12:14Z</value>
     </field>
     <field name="Objective-ModificationStamp">
-      <value order="0">2020-06-04T12:39:07Z</value>
+      <value order="0">2020-06-05T12:12:14Z</value>
     </field>
     <field name="Objective-Owner">
       <value order="0">Grant, Neil N (u207826)</value>
@@ -19642,16 +19836,16 @@
       <value order="0">Analytical: COVID 19 Analysis: Restricted working papers: Research and analysis: Diseases: 2020-2025</value>
     </field>
     <field name="Objective-State">
-      <value order="0">Being Drafted</value>
+      <value order="0">Published</value>
     </field>
     <field name="Objective-VersionId">
-      <value order="0">vA41545770</value>
+      <value order="0">vA41574143</value>
     </field>
     <field name="Objective-Version">
-      <value order="0">19.1</value>
+      <value order="0">20.0</value>
     </field>
     <field name="Objective-VersionNumber">
-      <value order="0">148</value>
+      <value order="0">151</value>
     </field>
     <field name="Objective-VersionComment">
       <value order="0"/>

--- a/data/csv/src/data_latest_sct.xlsx
+++ b/data/csv/src/data_latest_sct.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u207826\Objective\Objects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u201433\Objective\Director\Cache\erdm.scotland.gov.uk 8443 uA1432\A28088333\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5990" windowHeight="6020" tabRatio="803"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5985" windowHeight="6030" tabRatio="803"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -663,6 +663,23 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-GB" sz="1100">
               <a:effectLst/>
@@ -688,8 +705,20 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>on the day preceding the notification date. These have been compiled into a cumulative figure for positive tests in Table 1.</a:t>
+            <a:t>on the day preceding the notification date. These have been compiled into a cumulative figure for positive tests in Table 1.  T</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>he daily total of people found positive on 2/6/20 contains 40 historic samples from an NHS Fife laboratory.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -703,6 +732,23 @@
           </a:r>
         </a:p>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="en-GB" sz="1100">
               <a:effectLst/>
@@ -710,19 +756,33 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>3. Where labs do not provide their overnight data in time for the daily publication, the testing figures will then be added to the return for the subsequent day. Figures may also be revised if labs discover an error and have to resubmit their data. </a:t>
+            <a:t>3. Where labs do not provide their overnight data in time for the daily publication, the testing figures will then be added to the return for the subsequent day.   </a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -800,7 +860,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> on updated postcode information, one case has been reassigned from Dumfries and Galloway to Greater Glasgow and Clyde. This  resulted in a decrease of one in the total number of cases in Dumfries and Galloway.</a:t>
+            <a:t> on updated postcode information, one case has been reassigned from Dumfries and Galloway to Greater Glasgow and Clyde. This resulted in a decrease of one in the total number of cases in Dumfries and Galloway.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1292,107 +1352,6 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>11.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> For Table 1, the daily total of people found positive on 2/6/20 contains 40 historic samples from an NHS Fife laboratory.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-GB" sz="1100" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>12. On 04/06/2020, the number of positive cases in Highland decreased by 1 due to an update to postcode of residence for one case.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
           <a:r>
             <a:rPr lang="en-GB" sz="1100">
               <a:effectLst/>
@@ -1676,24 +1635,24 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="90.453125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.453125" style="2"/>
+    <col min="2" max="2" width="29.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="90.42578125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
@@ -1701,7 +1660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
@@ -1709,13 +1668,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="23"/>
     </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
         <v>26</v>
       </c>
@@ -1723,7 +1682,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>27</v>
       </c>
@@ -1731,7 +1690,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>36</v>
       </c>
@@ -1739,7 +1698,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
         <v>37</v>
       </c>
@@ -1767,12 +1726,12 @@
       <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.453125" style="2"/>
+    <col min="1" max="16384" width="9.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="44" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
     </row>
   </sheetData>
@@ -1787,20 +1746,20 @@
   <dimension ref="A1:S160"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="64" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F96" sqref="F96"/>
+      <selection pane="bottomRight" activeCell="O96" sqref="B96:O96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" style="2" customWidth="1"/>
-    <col min="2" max="16" width="11.453125" style="11" customWidth="1"/>
-    <col min="17" max="16384" width="8.54296875" style="2"/>
+    <col min="2" max="16" width="11.42578125" style="11" customWidth="1"/>
+    <col min="17" max="16384" width="8.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1820,7 +1779,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
@@ -1839,7 +1798,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1889,7 +1848,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43897</v>
       </c>
@@ -1939,7 +1898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>43898</v>
       </c>
@@ -1989,7 +1948,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>43899</v>
       </c>
@@ -2039,7 +1998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>43900</v>
       </c>
@@ -2089,7 +2048,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>43901</v>
       </c>
@@ -2139,7 +2098,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>43902</v>
       </c>
@@ -2189,7 +2148,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>43903</v>
       </c>
@@ -2239,7 +2198,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>43904</v>
       </c>
@@ -2289,7 +2248,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>43905</v>
       </c>
@@ -2339,7 +2298,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>43906</v>
       </c>
@@ -2389,7 +2348,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>43907</v>
       </c>
@@ -2439,7 +2398,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>43908</v>
       </c>
@@ -2489,7 +2448,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>43909</v>
       </c>
@@ -2539,7 +2498,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>43910</v>
       </c>
@@ -2589,7 +2548,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>43911</v>
       </c>
@@ -2639,7 +2598,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>43912</v>
       </c>
@@ -2689,7 +2648,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>43913</v>
       </c>
@@ -2739,7 +2698,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>43914</v>
       </c>
@@ -2789,7 +2748,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>43915</v>
       </c>
@@ -2839,7 +2798,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>43916</v>
       </c>
@@ -2889,7 +2848,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>43917</v>
       </c>
@@ -2939,7 +2898,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>43918</v>
       </c>
@@ -2989,7 +2948,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>43919</v>
       </c>
@@ -3039,7 +2998,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>43920</v>
       </c>
@@ -3089,7 +3048,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>43921</v>
       </c>
@@ -3139,7 +3098,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>43922</v>
       </c>
@@ -3189,7 +3148,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>43923</v>
       </c>
@@ -3239,7 +3198,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>43924</v>
       </c>
@@ -3289,7 +3248,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>43925</v>
       </c>
@@ -3339,7 +3298,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>43926</v>
       </c>
@@ -3389,7 +3348,7 @@
         <v>3706</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>43927</v>
       </c>
@@ -3439,7 +3398,7 @@
         <v>3961</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>43928</v>
       </c>
@@ -3489,7 +3448,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>43929</v>
       </c>
@@ -3539,7 +3498,7 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>43930</v>
       </c>
@@ -3589,7 +3548,7 @@
         <v>4957</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>43931</v>
       </c>
@@ -3639,7 +3598,7 @@
         <v>5275</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>43932</v>
       </c>
@@ -3689,7 +3648,7 @@
         <v>5590</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>43933</v>
       </c>
@@ -3739,7 +3698,7 @@
         <v>5912</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>43934</v>
       </c>
@@ -3789,7 +3748,7 @@
         <v>6067</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>43935</v>
       </c>
@@ -3839,7 +3798,7 @@
         <v>6358</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>43936</v>
       </c>
@@ -3889,7 +3848,7 @@
         <v>6748</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43937</v>
       </c>
@@ -3939,7 +3898,7 @@
         <v>7102</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>43938</v>
       </c>
@@ -3989,7 +3948,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>43939</v>
       </c>
@@ -4039,7 +3998,7 @@
         <v>7820</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>43940</v>
       </c>
@@ -4089,7 +4048,7 @@
         <v>8187</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>43941</v>
       </c>
@@ -4139,7 +4098,7 @@
         <v>8450</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>43942</v>
       </c>
@@ -4189,7 +4148,7 @@
         <v>8672</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>43943</v>
       </c>
@@ -4239,7 +4198,7 @@
         <v>9038</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>43944</v>
       </c>
@@ -4289,7 +4248,7 @@
         <v>9409</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>43945</v>
       </c>
@@ -4339,7 +4298,7 @@
         <v>9697</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>43946</v>
       </c>
@@ -4389,7 +4348,7 @@
         <v>10051</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>43947</v>
       </c>
@@ -4440,7 +4399,7 @@
       </c>
       <c r="R54" s="38"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>43948</v>
       </c>
@@ -4491,7 +4450,7 @@
       </c>
       <c r="R55" s="38"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>43949</v>
       </c>
@@ -4542,7 +4501,7 @@
       </c>
       <c r="R56" s="39"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>43950</v>
       </c>
@@ -4592,7 +4551,7 @@
         <v>11034</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>43951</v>
       </c>
@@ -4643,7 +4602,7 @@
       </c>
       <c r="R58" s="38"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>43952</v>
       </c>
@@ -4695,7 +4654,7 @@
       <c r="R59" s="38"/>
       <c r="S59" s="38"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>43953</v>
       </c>
@@ -4745,7 +4704,7 @@
         <v>11927</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>43954</v>
       </c>
@@ -4795,7 +4754,7 @@
         <v>12097</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>43955</v>
       </c>
@@ -4845,7 +4804,7 @@
         <v>12266</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>43956</v>
       </c>
@@ -4895,7 +4854,7 @@
         <v>12437</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>43957</v>
       </c>
@@ -4945,7 +4904,7 @@
         <v>12709</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>43958</v>
       </c>
@@ -4995,7 +4954,7 @@
         <v>12924</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>43959</v>
       </c>
@@ -5045,7 +5004,7 @@
         <v>13149</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>43960</v>
       </c>
@@ -5095,7 +5054,7 @@
         <v>13305</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>43961</v>
       </c>
@@ -5145,7 +5104,7 @@
         <v>13486</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>43962</v>
       </c>
@@ -5195,7 +5154,7 @@
         <v>13627</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>43963</v>
       </c>
@@ -5245,7 +5204,7 @@
         <v>13763</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>43964</v>
       </c>
@@ -5295,7 +5254,7 @@
         <v>13929</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>43965</v>
       </c>
@@ -5345,7 +5304,7 @@
         <v>14117</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>43966</v>
       </c>
@@ -5395,7 +5354,7 @@
         <v>14260</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>43967</v>
       </c>
@@ -5445,7 +5404,7 @@
         <v>14447</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>43968</v>
       </c>
@@ -5495,7 +5454,7 @@
         <v>14537</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>43969</v>
       </c>
@@ -5545,7 +5504,7 @@
         <v>14594</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>43970</v>
       </c>
@@ -5595,7 +5554,7 @@
         <v>14655</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>43971</v>
       </c>
@@ -5645,7 +5604,7 @@
         <v>14751</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>43972</v>
       </c>
@@ -5695,7 +5654,7 @@
         <v>14856</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>43973</v>
       </c>
@@ -5745,7 +5704,7 @@
         <v>14969</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>43974</v>
       </c>
@@ -5795,7 +5754,7 @@
         <v>15041</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>43975</v>
       </c>
@@ -5845,7 +5804,7 @@
         <v>15101</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>43976</v>
       </c>
@@ -5895,7 +5854,7 @@
         <v>15156</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>43977</v>
       </c>
@@ -5945,7 +5904,7 @@
         <v>15185</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>43978</v>
       </c>
@@ -5995,7 +5954,7 @@
         <v>15240</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>43979</v>
       </c>
@@ -6045,7 +6004,7 @@
         <v>15288</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>43980</v>
       </c>
@@ -6095,7 +6054,7 @@
         <v>15327</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>43981</v>
       </c>
@@ -6145,7 +6104,7 @@
         <v>15382</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>43982</v>
       </c>
@@ -6195,7 +6154,7 @@
         <v>15400</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>43983</v>
       </c>
@@ -6245,7 +6204,7 @@
         <v>15418</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>43984</v>
       </c>
@@ -6295,7 +6254,7 @@
         <v>15471</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>43985</v>
       </c>
@@ -6345,7 +6304,7 @@
         <v>15504</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>43986</v>
       </c>
@@ -6395,7 +6354,7 @@
         <v>15553</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>43987</v>
       </c>
@@ -6445,41 +6404,107 @@
         <v>15582</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="28"/>
-      <c r="K95" s="28"/>
-      <c r="L95" s="28"/>
-      <c r="M95" s="28"/>
-      <c r="N95" s="28"/>
-      <c r="O95" s="28"/>
-      <c r="P95" s="28"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B96" s="28"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="28"/>
-      <c r="J96" s="28"/>
-      <c r="K96" s="28"/>
-      <c r="L96" s="28"/>
-      <c r="M96" s="28"/>
-      <c r="N96" s="28"/>
-      <c r="O96" s="28"/>
-      <c r="P96" s="28"/>
-    </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" s="5">
+        <v>43988</v>
+      </c>
+      <c r="B95" s="28">
+        <v>1077</v>
+      </c>
+      <c r="C95" s="28">
+        <v>326</v>
+      </c>
+      <c r="D95" s="28">
+        <v>261</v>
+      </c>
+      <c r="E95" s="28">
+        <v>879</v>
+      </c>
+      <c r="F95" s="28">
+        <v>946</v>
+      </c>
+      <c r="G95" s="28">
+        <v>1284</v>
+      </c>
+      <c r="H95" s="28">
+        <v>3971</v>
+      </c>
+      <c r="I95" s="28">
+        <v>339</v>
+      </c>
+      <c r="J95" s="28">
+        <v>2007</v>
+      </c>
+      <c r="K95" s="28">
+        <v>2769</v>
+      </c>
+      <c r="L95" s="28">
+        <v>8</v>
+      </c>
+      <c r="M95" s="28">
+        <v>54</v>
+      </c>
+      <c r="N95" s="28">
+        <v>1676</v>
+      </c>
+      <c r="O95" s="28">
+        <v>6</v>
+      </c>
+      <c r="P95" s="32">
+        <v>15603</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" s="5">
+        <v>43989</v>
+      </c>
+      <c r="B96" s="28">
+        <v>1079</v>
+      </c>
+      <c r="C96" s="28">
+        <v>326</v>
+      </c>
+      <c r="D96" s="28">
+        <v>261</v>
+      </c>
+      <c r="E96" s="28">
+        <v>879</v>
+      </c>
+      <c r="F96" s="28">
+        <v>946</v>
+      </c>
+      <c r="G96" s="28">
+        <v>1286</v>
+      </c>
+      <c r="H96" s="28">
+        <v>3981</v>
+      </c>
+      <c r="I96" s="28">
+        <v>339</v>
+      </c>
+      <c r="J96" s="28">
+        <v>2008</v>
+      </c>
+      <c r="K96" s="28">
+        <v>2772</v>
+      </c>
+      <c r="L96" s="28">
+        <v>8</v>
+      </c>
+      <c r="M96" s="28">
+        <v>54</v>
+      </c>
+      <c r="N96" s="28">
+        <v>1676</v>
+      </c>
+      <c r="O96" s="28">
+        <v>6</v>
+      </c>
+      <c r="P96" s="32">
+        <v>15621</v>
+      </c>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97" s="28"/>
       <c r="C97" s="28"/>
       <c r="D97" s="28"/>
@@ -6496,7 +6521,7 @@
       <c r="O97" s="28"/>
       <c r="P97" s="28"/>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
       <c r="D98" s="28"/>
@@ -6513,7 +6538,7 @@
       <c r="O98" s="28"/>
       <c r="P98" s="28"/>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
       <c r="D99" s="28"/>
@@ -6530,7 +6555,7 @@
       <c r="O99" s="28"/>
       <c r="P99" s="28"/>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
       <c r="D100" s="28"/>
@@ -6547,7 +6572,7 @@
       <c r="O100" s="28"/>
       <c r="P100" s="28"/>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
       <c r="D101" s="28"/>
@@ -6564,7 +6589,7 @@
       <c r="O101" s="28"/>
       <c r="P101" s="28"/>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B102" s="28"/>
       <c r="C102" s="28"/>
       <c r="D102" s="28"/>
@@ -6581,7 +6606,7 @@
       <c r="O102" s="28"/>
       <c r="P102" s="28"/>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B103" s="28"/>
       <c r="C103" s="28"/>
       <c r="D103" s="28"/>
@@ -6598,7 +6623,7 @@
       <c r="O103" s="28"/>
       <c r="P103" s="28"/>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104" s="28"/>
       <c r="C104" s="28"/>
       <c r="D104" s="28"/>
@@ -6615,7 +6640,7 @@
       <c r="O104" s="28"/>
       <c r="P104" s="28"/>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B105" s="28"/>
       <c r="C105" s="28"/>
       <c r="D105" s="28"/>
@@ -6632,7 +6657,7 @@
       <c r="O105" s="28"/>
       <c r="P105" s="28"/>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B106" s="28"/>
       <c r="C106" s="28"/>
       <c r="D106" s="28"/>
@@ -6649,7 +6674,7 @@
       <c r="O106" s="28"/>
       <c r="P106" s="28"/>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
       <c r="D107" s="28"/>
@@ -6666,7 +6691,7 @@
       <c r="O107" s="28"/>
       <c r="P107" s="28"/>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B108" s="28"/>
       <c r="C108" s="28"/>
       <c r="D108" s="28"/>
@@ -6683,7 +6708,7 @@
       <c r="O108" s="28"/>
       <c r="P108" s="28"/>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
       <c r="D109" s="28"/>
@@ -6700,7 +6725,7 @@
       <c r="O109" s="28"/>
       <c r="P109" s="28"/>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B110" s="28"/>
       <c r="C110" s="28"/>
       <c r="D110" s="28"/>
@@ -6717,7 +6742,7 @@
       <c r="O110" s="28"/>
       <c r="P110" s="28"/>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B111" s="28"/>
       <c r="C111" s="28"/>
       <c r="D111" s="28"/>
@@ -6734,7 +6759,7 @@
       <c r="O111" s="28"/>
       <c r="P111" s="28"/>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B112" s="28"/>
       <c r="C112" s="28"/>
       <c r="D112" s="28"/>
@@ -6751,7 +6776,7 @@
       <c r="O112" s="28"/>
       <c r="P112" s="28"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B113" s="28"/>
       <c r="C113" s="28"/>
       <c r="D113" s="28"/>
@@ -6768,7 +6793,7 @@
       <c r="O113" s="28"/>
       <c r="P113" s="28"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B114" s="28"/>
       <c r="C114" s="28"/>
       <c r="D114" s="28"/>
@@ -6785,7 +6810,7 @@
       <c r="O114" s="28"/>
       <c r="P114" s="28"/>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B115" s="28"/>
       <c r="C115" s="28"/>
       <c r="D115" s="28"/>
@@ -6802,7 +6827,7 @@
       <c r="O115" s="28"/>
       <c r="P115" s="28"/>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B116" s="28"/>
       <c r="C116" s="28"/>
       <c r="D116" s="28"/>
@@ -6819,7 +6844,7 @@
       <c r="O116" s="28"/>
       <c r="P116" s="28"/>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B117" s="28"/>
       <c r="C117" s="28"/>
       <c r="D117" s="28"/>
@@ -6836,7 +6861,7 @@
       <c r="O117" s="28"/>
       <c r="P117" s="28"/>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B118" s="28"/>
       <c r="C118" s="28"/>
       <c r="D118" s="28"/>
@@ -6853,7 +6878,7 @@
       <c r="O118" s="28"/>
       <c r="P118" s="28"/>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B119" s="28"/>
       <c r="C119" s="28"/>
       <c r="D119" s="28"/>
@@ -6870,7 +6895,7 @@
       <c r="O119" s="28"/>
       <c r="P119" s="28"/>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B120" s="28"/>
       <c r="C120" s="28"/>
       <c r="D120" s="28"/>
@@ -6887,7 +6912,7 @@
       <c r="O120" s="28"/>
       <c r="P120" s="28"/>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B121" s="28"/>
       <c r="C121" s="28"/>
       <c r="D121" s="28"/>
@@ -6904,7 +6929,7 @@
       <c r="O121" s="28"/>
       <c r="P121" s="28"/>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B122" s="28"/>
       <c r="C122" s="28"/>
       <c r="D122" s="28"/>
@@ -6921,7 +6946,7 @@
       <c r="O122" s="28"/>
       <c r="P122" s="28"/>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B123" s="28"/>
       <c r="C123" s="28"/>
       <c r="D123" s="28"/>
@@ -6938,7 +6963,7 @@
       <c r="O123" s="28"/>
       <c r="P123" s="28"/>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
       <c r="D124" s="28"/>
@@ -6955,7 +6980,7 @@
       <c r="O124" s="28"/>
       <c r="P124" s="28"/>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B125" s="28"/>
       <c r="C125" s="28"/>
       <c r="D125" s="28"/>
@@ -6972,7 +6997,7 @@
       <c r="O125" s="28"/>
       <c r="P125" s="28"/>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B126" s="28"/>
       <c r="C126" s="28"/>
       <c r="D126" s="28"/>
@@ -6989,7 +7014,7 @@
       <c r="O126" s="28"/>
       <c r="P126" s="28"/>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B127" s="28"/>
       <c r="C127" s="28"/>
       <c r="D127" s="28"/>
@@ -7006,7 +7031,7 @@
       <c r="O127" s="28"/>
       <c r="P127" s="28"/>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B128" s="28"/>
       <c r="C128" s="28"/>
       <c r="D128" s="28"/>
@@ -7023,7 +7048,7 @@
       <c r="O128" s="28"/>
       <c r="P128" s="28"/>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B129" s="28"/>
       <c r="C129" s="28"/>
       <c r="D129" s="28"/>
@@ -7040,7 +7065,7 @@
       <c r="O129" s="28"/>
       <c r="P129" s="28"/>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B130" s="28"/>
       <c r="C130" s="28"/>
       <c r="D130" s="28"/>
@@ -7057,7 +7082,7 @@
       <c r="O130" s="28"/>
       <c r="P130" s="28"/>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B131" s="28"/>
       <c r="C131" s="28"/>
       <c r="D131" s="28"/>
@@ -7074,7 +7099,7 @@
       <c r="O131" s="28"/>
       <c r="P131" s="28"/>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B132" s="28"/>
       <c r="C132" s="28"/>
       <c r="D132" s="28"/>
@@ -7091,7 +7116,7 @@
       <c r="O132" s="28"/>
       <c r="P132" s="28"/>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
       <c r="D133" s="28"/>
@@ -7108,7 +7133,7 @@
       <c r="O133" s="28"/>
       <c r="P133" s="28"/>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B134" s="28"/>
       <c r="C134" s="28"/>
       <c r="D134" s="28"/>
@@ -7125,7 +7150,7 @@
       <c r="O134" s="28"/>
       <c r="P134" s="28"/>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B135" s="28"/>
       <c r="C135" s="28"/>
       <c r="D135" s="28"/>
@@ -7142,7 +7167,7 @@
       <c r="O135" s="28"/>
       <c r="P135" s="28"/>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B136" s="28"/>
       <c r="C136" s="28"/>
       <c r="D136" s="28"/>
@@ -7159,7 +7184,7 @@
       <c r="O136" s="28"/>
       <c r="P136" s="28"/>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B137" s="28"/>
       <c r="C137" s="28"/>
       <c r="D137" s="28"/>
@@ -7176,7 +7201,7 @@
       <c r="O137" s="28"/>
       <c r="P137" s="28"/>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B138" s="28"/>
       <c r="C138" s="28"/>
       <c r="D138" s="28"/>
@@ -7193,7 +7218,7 @@
       <c r="O138" s="28"/>
       <c r="P138" s="28"/>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B139" s="28"/>
       <c r="C139" s="28"/>
       <c r="D139" s="28"/>
@@ -7210,7 +7235,7 @@
       <c r="O139" s="28"/>
       <c r="P139" s="28"/>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B140" s="28"/>
       <c r="C140" s="28"/>
       <c r="D140" s="28"/>
@@ -7227,7 +7252,7 @@
       <c r="O140" s="28"/>
       <c r="P140" s="28"/>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B141" s="28"/>
       <c r="C141" s="28"/>
       <c r="D141" s="28"/>
@@ -7244,7 +7269,7 @@
       <c r="O141" s="28"/>
       <c r="P141" s="28"/>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B142" s="28"/>
       <c r="C142" s="28"/>
       <c r="D142" s="28"/>
@@ -7261,7 +7286,7 @@
       <c r="O142" s="28"/>
       <c r="P142" s="28"/>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B143" s="28"/>
       <c r="C143" s="28"/>
       <c r="D143" s="28"/>
@@ -7278,7 +7303,7 @@
       <c r="O143" s="28"/>
       <c r="P143" s="28"/>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B144" s="28"/>
       <c r="C144" s="28"/>
       <c r="D144" s="28"/>
@@ -7295,7 +7320,7 @@
       <c r="O144" s="28"/>
       <c r="P144" s="28"/>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B145" s="28"/>
       <c r="C145" s="28"/>
       <c r="D145" s="28"/>
@@ -7312,7 +7337,7 @@
       <c r="O145" s="28"/>
       <c r="P145" s="28"/>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B146" s="28"/>
       <c r="C146" s="28"/>
       <c r="D146" s="28"/>
@@ -7329,7 +7354,7 @@
       <c r="O146" s="28"/>
       <c r="P146" s="28"/>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B147" s="28"/>
       <c r="C147" s="28"/>
       <c r="D147" s="28"/>
@@ -7346,7 +7371,7 @@
       <c r="O147" s="28"/>
       <c r="P147" s="28"/>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B148" s="28"/>
       <c r="C148" s="28"/>
       <c r="D148" s="28"/>
@@ -7363,7 +7388,7 @@
       <c r="O148" s="28"/>
       <c r="P148" s="28"/>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
       <c r="D149" s="28"/>
@@ -7380,7 +7405,7 @@
       <c r="O149" s="28"/>
       <c r="P149" s="28"/>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B150" s="28"/>
       <c r="C150" s="28"/>
       <c r="D150" s="28"/>
@@ -7397,7 +7422,7 @@
       <c r="O150" s="28"/>
       <c r="P150" s="28"/>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B151" s="28"/>
       <c r="C151" s="28"/>
       <c r="D151" s="28"/>
@@ -7414,7 +7439,7 @@
       <c r="O151" s="28"/>
       <c r="P151" s="28"/>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B152" s="28"/>
       <c r="C152" s="28"/>
       <c r="D152" s="28"/>
@@ -7431,7 +7456,7 @@
       <c r="O152" s="28"/>
       <c r="P152" s="28"/>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B153" s="28"/>
       <c r="C153" s="28"/>
       <c r="D153" s="28"/>
@@ -7448,7 +7473,7 @@
       <c r="O153" s="28"/>
       <c r="P153" s="28"/>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B154" s="28"/>
       <c r="C154" s="28"/>
       <c r="D154" s="28"/>
@@ -7465,7 +7490,7 @@
       <c r="O154" s="28"/>
       <c r="P154" s="28"/>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B155" s="28"/>
       <c r="C155" s="28"/>
       <c r="D155" s="28"/>
@@ -7482,7 +7507,7 @@
       <c r="O155" s="28"/>
       <c r="P155" s="28"/>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B156" s="28"/>
       <c r="C156" s="28"/>
       <c r="D156" s="28"/>
@@ -7499,7 +7524,7 @@
       <c r="O156" s="28"/>
       <c r="P156" s="28"/>
     </row>
-    <row r="157" spans="2: